--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -1343,7 +1343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3594,8 +3594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3646,7 +3646,7 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4">
         <v>20</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -1343,7 +1343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AD37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3594,7 +3594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="108">
   <si>
     <t>runname</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>tCD</t>
+  </si>
+  <si>
+    <t>useSharedRisk</t>
   </si>
 </sst>
 </file>
@@ -1341,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AD37"/>
+  <dimension ref="A4:AE37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,21 +1361,22 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" customWidth="1"/>
-    <col min="29" max="29" width="15.140625" customWidth="1"/>
-    <col min="30" max="30" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" customWidth="1"/>
+    <col min="31" max="31" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1400,71 +1404,74 @@
       <c r="I4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="X4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Z4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="AA4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AB4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AC4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -1472,7 +1479,7 @@
         <v>106</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1481,67 +1488,70 @@
         <v>1</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5">
+        <v>30</v>
+      </c>
+      <c r="Q5">
+        <v>0.04</v>
+      </c>
+      <c r="R5">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>103</v>
-      </c>
-      <c r="N5" t="s">
-        <v>105</v>
-      </c>
-      <c r="O5">
-        <v>30</v>
-      </c>
-      <c r="P5">
-        <v>0.04</v>
-      </c>
-      <c r="Q5">
-        <v>10</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
         <v>39</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>52</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>64</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="X5" s="7">
+      <c r="Y5" s="7">
         <v>0.12</v>
       </c>
-      <c r="Y5" t="s">
-        <v>51</v>
-      </c>
       <c r="Z5" t="s">
         <v>51</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -1549,7 +1559,7 @@
         <v>38</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -1558,73 +1568,76 @@
         <v>1</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6">
+        <v>30</v>
+      </c>
+      <c r="Q6">
+        <v>0.04</v>
+      </c>
+      <c r="R6">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>103</v>
-      </c>
-      <c r="N6" t="s">
-        <v>105</v>
-      </c>
-      <c r="O6">
-        <v>30</v>
-      </c>
-      <c r="P6">
-        <v>0.04</v>
-      </c>
-      <c r="Q6">
-        <v>10</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
         <v>39</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>52</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>64</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="X6" s="7">
+      <c r="Y6" s="7">
         <v>0.12</v>
       </c>
-      <c r="Y6" t="s">
-        <v>51</v>
-      </c>
       <c r="Z6" t="s">
         <v>51</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB6">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="X7" s="7"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="X8" s="7"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y7" s="7"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y8" s="7"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1649,62 +1662,62 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>4</v>
       </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
       <c r="L9" t="b">
         <v>1</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>30</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>20</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.04</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>7</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
         <v>39</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>29</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>21</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="X9" s="7">
+      <c r="Y9" s="7">
         <v>0.16</v>
       </c>
-      <c r="Y9" t="s">
-        <v>51</v>
-      </c>
       <c r="Z9" t="s">
         <v>51</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB9">
         <v>0.91</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1729,62 +1742,62 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>4</v>
       </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
       <c r="L10" t="b">
         <v>1</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>30</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>20</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.04</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>7</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
         <v>39</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>29</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>22</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="X10" s="7">
+      <c r="Y10" s="7">
         <v>0.1</v>
       </c>
-      <c r="Y10" t="s">
-        <v>51</v>
-      </c>
       <c r="Z10" t="s">
         <v>51</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB10">
         <v>0.91</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1809,62 +1822,62 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>4</v>
       </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
       <c r="L11" t="b">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>30</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>20</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.04</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>7</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
         <v>39</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>29</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>23</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="X11" s="7">
+      <c r="Y11" s="7">
         <v>0.16</v>
       </c>
-      <c r="Y11" t="s">
-        <v>51</v>
-      </c>
       <c r="Z11" t="s">
         <v>51</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB11">
         <v>0.91</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1889,62 +1902,62 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>4</v>
       </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
       <c r="L12" t="b">
         <v>1</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>30</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>20</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0.04</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>7</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
         <v>39</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>29</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>24</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="X12" s="7">
+      <c r="Y12" s="7">
         <v>0.1</v>
       </c>
-      <c r="Y12" t="s">
-        <v>51</v>
-      </c>
       <c r="Z12" t="s">
         <v>51</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB12">
         <v>0.91</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1969,65 +1982,65 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>4</v>
       </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
       <c r="L13" t="b">
         <v>1</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>30</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>20</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.04</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>7</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
         <v>39</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>29</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>25</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="X13" s="7">
+      <c r="Y13" s="7">
         <v>0.1</v>
       </c>
-      <c r="Y13" t="s">
-        <v>51</v>
-      </c>
       <c r="Z13" t="s">
         <v>51</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB13">
         <v>0.91</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="X14" s="7"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y14" s="7"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -2052,62 +2065,62 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>4</v>
       </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
       <c r="L15" t="b">
         <v>1</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>30</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>20</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.04</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>7</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
         <v>39</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>29</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>21</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="X15" s="7">
+      <c r="Y15" s="7">
         <v>0.16</v>
       </c>
-      <c r="Y15" t="s">
-        <v>51</v>
-      </c>
       <c r="Z15" t="s">
         <v>51</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB15">
         <v>0.91</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -2132,62 +2145,62 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>4</v>
       </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
       <c r="L16" t="b">
         <v>1</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
         <v>30</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>20</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.04</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>7</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
         <v>39</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>29</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>22</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="X16" s="7">
+      <c r="Y16" s="7">
         <v>0.1</v>
       </c>
-      <c r="Y16" t="s">
-        <v>51</v>
-      </c>
       <c r="Z16" t="s">
         <v>51</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB16">
         <v>0.91</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -2212,62 +2225,62 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>4</v>
       </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
       <c r="L17" t="b">
         <v>1</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
         <v>30</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>20</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.04</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>7</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
         <v>39</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>29</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>23</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="X17" s="7">
+      <c r="Y17" s="7">
         <v>0.16</v>
       </c>
-      <c r="Y17" t="s">
-        <v>51</v>
-      </c>
       <c r="Z17" t="s">
         <v>51</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB17">
         <v>0.91</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -2292,62 +2305,62 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>4</v>
       </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
       <c r="L18" t="b">
         <v>1</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
         <v>30</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>20</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.04</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>7</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
         <v>39</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>29</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>24</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="X18" s="7">
+      <c r="Y18" s="7">
         <v>0.1</v>
       </c>
-      <c r="Y18" t="s">
-        <v>51</v>
-      </c>
       <c r="Z18" t="s">
         <v>51</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB18">
         <v>0.91</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -2372,65 +2385,65 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>4</v>
       </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
       <c r="L19" t="b">
         <v>1</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>30</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>20</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.04</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>7</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
         <v>39</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>29</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>25</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="X19" s="7">
+      <c r="Y19" s="7">
         <v>0.1</v>
       </c>
-      <c r="Y19" t="s">
-        <v>51</v>
-      </c>
       <c r="Z19" t="s">
         <v>51</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB19">
         <v>0.91</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="X20" s="7"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y20" s="7"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -2455,62 +2468,62 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>4</v>
       </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
       <c r="L21" t="b">
         <v>1</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
         <v>30</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>20</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.04</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>7</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
         <v>39</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>29</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>21</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="X21" s="7">
+      <c r="Y21" s="7">
         <v>0.16</v>
       </c>
-      <c r="Y21" t="s">
-        <v>51</v>
-      </c>
       <c r="Z21" t="s">
         <v>51</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB21">
         <v>0.91</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -2535,62 +2548,62 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>4</v>
       </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
       <c r="L22" t="b">
         <v>1</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
         <v>30</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>20</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.04</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>7</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
         <v>39</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>29</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>22</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="X22" s="7">
+      <c r="Y22" s="7">
         <v>0.1</v>
       </c>
-      <c r="Y22" t="s">
-        <v>51</v>
-      </c>
       <c r="Z22" t="s">
         <v>51</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB22">
         <v>0.91</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -2615,62 +2628,62 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>4</v>
       </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
       <c r="L23" t="b">
         <v>1</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
         <v>30</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>20</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.04</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>7</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
         <v>39</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>29</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>23</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="X23" s="7">
+      <c r="Y23" s="7">
         <v>0.16</v>
       </c>
-      <c r="Y23" t="s">
-        <v>51</v>
-      </c>
       <c r="Z23" t="s">
         <v>51</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB23">
         <v>0.91</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -2695,62 +2708,62 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>4</v>
       </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
       <c r="L24" t="b">
         <v>1</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
         <v>30</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>20</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.04</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>7</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24" t="s">
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
         <v>39</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>29</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>24</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="X24" s="7">
+      <c r="Y24" s="7">
         <v>0.1</v>
       </c>
-      <c r="Y24" t="s">
-        <v>51</v>
-      </c>
       <c r="Z24" t="s">
         <v>51</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB24">
         <v>0.91</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2775,65 +2788,65 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>4</v>
       </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
       <c r="L25" t="b">
         <v>1</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
         <v>30</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>20</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>0.04</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>7</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25" t="s">
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
         <v>39</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>29</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>25</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="X25" s="7">
+      <c r="Y25" s="7">
         <v>0.1</v>
       </c>
-      <c r="Y25" t="s">
-        <v>51</v>
-      </c>
       <c r="Z25" t="s">
         <v>51</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB25">
         <v>0.91</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="X26" s="7"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y26" s="7"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -2858,63 +2871,63 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>4</v>
       </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
       <c r="L27" t="b">
         <v>1</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
         <v>30</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>20</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>0.04</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>7</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
         <v>39</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>29</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>21</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="X27" s="7">
+      <c r="Y27" s="7">
         <v>0.16</v>
       </c>
-      <c r="Y27" t="s">
-        <v>51</v>
-      </c>
       <c r="Z27" t="s">
         <v>51</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB27">
         <v>0.75</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <f>0.939*0.75/0.91</f>
         <v>0.77390109890109882</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -2939,63 +2952,63 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>4</v>
       </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
       <c r="L28" t="b">
         <v>1</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
         <v>30</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>20</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>0.04</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>7</v>
       </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28" t="s">
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28" t="s">
         <v>39</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>29</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>22</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="X28" s="7">
+      <c r="Y28" s="7">
         <v>0.1</v>
       </c>
-      <c r="Y28" t="s">
-        <v>51</v>
-      </c>
       <c r="Z28" t="s">
         <v>51</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB28">
         <v>0.75</v>
       </c>
-      <c r="AB28">
-        <f t="shared" ref="AB28:AB31" si="0">0.939*0.75/0.91</f>
+      <c r="AC28">
+        <f t="shared" ref="AC28:AC31" si="0">0.939*0.75/0.91</f>
         <v>0.77390109890109882</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -3020,63 +3033,63 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>4</v>
       </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
       <c r="L29" t="b">
         <v>1</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
         <v>30</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>20</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>0.04</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>7</v>
       </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29" t="s">
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29" t="s">
         <v>39</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>29</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>23</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="X29" s="7">
+      <c r="Y29" s="7">
         <v>0.16</v>
       </c>
-      <c r="Y29" t="s">
-        <v>51</v>
-      </c>
       <c r="Z29" t="s">
         <v>51</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB29">
         <v>0.75</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <f t="shared" si="0"/>
         <v>0.77390109890109882</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -3101,63 +3114,63 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>4</v>
       </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
       <c r="L30" t="b">
         <v>1</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
         <v>30</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>20</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.04</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>7</v>
       </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30" t="s">
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30" t="s">
         <v>39</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>29</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>24</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="X30" s="7">
+      <c r="Y30" s="7">
         <v>0.1</v>
       </c>
-      <c r="Y30" t="s">
-        <v>51</v>
-      </c>
       <c r="Z30" t="s">
         <v>51</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB30">
         <v>0.75</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <f t="shared" si="0"/>
         <v>0.77390109890109882</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -3182,63 +3195,63 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>4</v>
       </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
       <c r="L31" t="b">
         <v>1</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
         <v>30</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>20</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>0.04</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>7</v>
       </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31" t="s">
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31" t="s">
         <v>39</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>29</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>25</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="X31" s="7">
+      <c r="Y31" s="7">
         <v>0.1</v>
       </c>
-      <c r="Y31" t="s">
-        <v>51</v>
-      </c>
       <c r="Z31" t="s">
         <v>51</v>
       </c>
-      <c r="AA31">
+      <c r="AA31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB31">
         <v>0.75</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <f t="shared" si="0"/>
         <v>0.77390109890109882</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -3263,68 +3276,68 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>4</v>
       </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
       <c r="L33" t="b">
         <v>1</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
         <v>30</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>20</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.04</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>7</v>
       </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33" t="s">
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33" t="s">
         <v>39</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>29</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>21</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="X33" s="7">
+      <c r="Y33" s="7">
         <v>0.16</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>95</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>98</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>0.91</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.93899999999999995</v>
       </c>
-      <c r="AC33" s="23">
+      <c r="AD33" s="23">
         <v>17115507004</v>
       </c>
-      <c r="AD33" s="23">
+      <c r="AE33" s="23">
         <v>17660946238</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -3349,68 +3362,68 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>4</v>
       </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
       <c r="L34" t="b">
         <v>1</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
         <v>30</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>20</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.04</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>7</v>
       </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34" t="s">
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34" t="s">
         <v>39</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>29</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>21</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="X34" s="7">
+      <c r="Y34" s="7">
         <v>0.16</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>95</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>98</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.91</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.93899999999999995</v>
       </c>
-      <c r="AC34" s="23">
+      <c r="AD34" s="23">
         <v>17115507004</v>
       </c>
-      <c r="AD34" s="23">
+      <c r="AE34" s="23">
         <v>17660946238</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -3435,68 +3448,68 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>4</v>
       </c>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
       <c r="L35" t="b">
         <v>1</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
         <v>30</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>20</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>0.04</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>7</v>
       </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35" t="s">
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35" t="s">
         <v>39</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>29</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>21</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="X35" s="7">
+      <c r="Y35" s="7">
         <v>0.16</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>95</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>98</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>0.91</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>0.93899999999999995</v>
       </c>
-      <c r="AC35" s="23">
+      <c r="AD35" s="23">
         <v>17115507004</v>
       </c>
-      <c r="AD35" s="23">
+      <c r="AE35" s="23">
         <v>17660946238</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -3521,58 +3534,58 @@
       <c r="I37">
         <v>70</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>4</v>
       </c>
-      <c r="K37" t="b">
-        <v>1</v>
-      </c>
       <c r="L37" t="b">
         <v>1</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
         <v>30</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>20</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>0.04</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>7</v>
       </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37" t="s">
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
         <v>42</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>52</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>21</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="X37" s="7">
+      <c r="Y37" s="7">
         <v>0.16</v>
       </c>
-      <c r="Y37" t="s">
-        <v>51</v>
-      </c>
       <c r="Z37" t="s">
         <v>51</v>
       </c>
-      <c r="AA37">
+      <c r="AA37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB37">
         <v>0.91</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>0.93899999999999995</v>
       </c>
     </row>
@@ -3581,7 +3594,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:H37 G5:H31 G33:H35 F5:F36">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5:T31 T37 T33:T35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U31 U37 U33:U35">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3595,7 +3608,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="107">
   <si>
     <t>runname</t>
   </si>
@@ -367,19 +367,16 @@
     <t>Dev.allTiers</t>
   </si>
   <si>
-    <t>cd</t>
-  </si>
-  <si>
     <t>amort_type</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>tCD</t>
   </si>
   <si>
     <t>useSharedRisk</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1344,7 @@
   <dimension ref="A4:AE37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,7 +1402,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>16</v>
@@ -1420,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>10</v>
@@ -1476,7 +1473,7 @@
         <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -1503,10 +1500,10 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P5">
         <v>30</v>
@@ -1583,10 +1580,10 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P6">
         <v>30</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="108">
   <si>
     <t>runname</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>closed</t>
+  </si>
+  <si>
+    <t>useERC_cap</t>
   </si>
 </sst>
 </file>
@@ -1341,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AE37"/>
+  <dimension ref="A4:AF37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,22 +1361,22 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" customWidth="1"/>
-    <col min="30" max="30" width="15.140625" customWidth="1"/>
-    <col min="31" max="31" width="16.5703125" customWidth="1"/>
+    <col min="10" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" customWidth="1"/>
+    <col min="31" max="31" width="15.140625" customWidth="1"/>
+    <col min="32" max="32" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1404,71 +1407,74 @@
       <c r="J4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="X4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="AA4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AB4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AC4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AD4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -1490,65 +1496,68 @@
       <c r="J5" t="b">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
       <c r="M5" t="b">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>106</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>30</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.04</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>10</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
         <v>39</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>52</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>64</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Z5" s="7">
         <v>0.12</v>
       </c>
-      <c r="Z5" t="s">
-        <v>51</v>
-      </c>
       <c r="AA5" t="s">
         <v>51</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC5">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -1570,71 +1579,74 @@
       <c r="J6" t="b">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>4</v>
       </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
       <c r="M6" t="b">
         <v>1</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
         <v>30</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>106</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>30</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.04</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>10</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
         <v>39</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>52</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>64</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Z6" s="7">
         <v>0.12</v>
       </c>
-      <c r="Z6" t="s">
-        <v>51</v>
-      </c>
       <c r="AA6" t="s">
         <v>51</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Y7" s="7"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Y8" s="7"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z7" s="7"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z8" s="7"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1659,62 +1671,62 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>4</v>
       </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
       <c r="M9" t="b">
         <v>1</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
         <v>30</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>20</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.04</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>7</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
         <v>39</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>29</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>21</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="Z9" s="7">
         <v>0.16</v>
       </c>
-      <c r="Z9" t="s">
-        <v>51</v>
-      </c>
       <c r="AA9" t="s">
         <v>51</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC9">
         <v>0.91</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1739,62 +1751,62 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>4</v>
       </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
       <c r="M10" t="b">
         <v>1</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
         <v>30</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>20</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>0.04</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>7</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
         <v>39</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>29</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>22</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="Z10" s="7">
         <v>0.1</v>
       </c>
-      <c r="Z10" t="s">
-        <v>51</v>
-      </c>
       <c r="AA10" t="s">
         <v>51</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC10">
         <v>0.91</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1819,62 +1831,62 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>4</v>
       </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
       <c r="M11" t="b">
         <v>1</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
         <v>30</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>20</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.04</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>7</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
         <v>39</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>29</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>23</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="Z11" s="7">
         <v>0.16</v>
       </c>
-      <c r="Z11" t="s">
-        <v>51</v>
-      </c>
       <c r="AA11" t="s">
         <v>51</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC11">
         <v>0.91</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1899,62 +1911,62 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>4</v>
       </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
       <c r="M12" t="b">
         <v>1</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
         <v>30</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>20</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>0.04</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>7</v>
       </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12" t="s">
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
         <v>39</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>29</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>24</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Z12" s="7">
         <v>0.1</v>
       </c>
-      <c r="Z12" t="s">
-        <v>51</v>
-      </c>
       <c r="AA12" t="s">
         <v>51</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC12">
         <v>0.91</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1979,65 +1991,65 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>4</v>
       </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
       <c r="M13" t="b">
         <v>1</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
         <v>30</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>20</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>0.04</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>7</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
         <v>39</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>29</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>25</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Y13" s="7">
+      <c r="Z13" s="7">
         <v>0.1</v>
       </c>
-      <c r="Z13" t="s">
-        <v>51</v>
-      </c>
       <c r="AA13" t="s">
         <v>51</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC13">
         <v>0.91</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Y14" s="7"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z14" s="7"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -2062,62 +2074,62 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>4</v>
       </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
       <c r="M15" t="b">
         <v>1</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
         <v>30</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>20</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>0.04</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>7</v>
       </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15" t="s">
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15" t="s">
         <v>39</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>29</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>21</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Y15" s="7">
+      <c r="Z15" s="7">
         <v>0.16</v>
       </c>
-      <c r="Z15" t="s">
-        <v>51</v>
-      </c>
       <c r="AA15" t="s">
         <v>51</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC15">
         <v>0.91</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -2142,62 +2154,62 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>4</v>
       </c>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
       <c r="M16" t="b">
         <v>1</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
         <v>30</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>20</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>0.04</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>7</v>
       </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16" t="s">
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
         <v>39</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>29</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>22</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Y16" s="7">
+      <c r="Z16" s="7">
         <v>0.1</v>
       </c>
-      <c r="Z16" t="s">
-        <v>51</v>
-      </c>
       <c r="AA16" t="s">
         <v>51</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC16">
         <v>0.91</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -2222,62 +2234,62 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>4</v>
       </c>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
       <c r="M17" t="b">
         <v>1</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
         <v>30</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>20</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.04</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>7</v>
       </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17" t="s">
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17" t="s">
         <v>39</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>29</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>23</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="Z17" s="7">
         <v>0.16</v>
       </c>
-      <c r="Z17" t="s">
-        <v>51</v>
-      </c>
       <c r="AA17" t="s">
         <v>51</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC17">
         <v>0.91</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -2302,62 +2314,62 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>4</v>
       </c>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
       <c r="M18" t="b">
         <v>1</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
         <v>30</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>20</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.04</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>7</v>
       </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18" t="s">
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18" t="s">
         <v>39</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>29</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>24</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Y18" s="7">
+      <c r="Z18" s="7">
         <v>0.1</v>
       </c>
-      <c r="Z18" t="s">
-        <v>51</v>
-      </c>
       <c r="AA18" t="s">
         <v>51</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC18">
         <v>0.91</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -2382,65 +2394,65 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>4</v>
       </c>
-      <c r="L19" t="b">
-        <v>1</v>
-      </c>
       <c r="M19" t="b">
         <v>1</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
         <v>30</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>20</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.04</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>7</v>
       </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
         <v>39</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>29</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>25</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Y19" s="7">
+      <c r="Z19" s="7">
         <v>0.1</v>
       </c>
-      <c r="Z19" t="s">
-        <v>51</v>
-      </c>
       <c r="AA19" t="s">
         <v>51</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC19">
         <v>0.91</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="Y20" s="7"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z20" s="7"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -2465,62 +2477,62 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>4</v>
       </c>
-      <c r="L21" t="b">
-        <v>1</v>
-      </c>
       <c r="M21" t="b">
         <v>1</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
         <v>30</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>20</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.04</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>7</v>
       </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21" t="s">
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21" t="s">
         <v>39</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>29</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>21</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Y21" s="7">
+      <c r="Z21" s="7">
         <v>0.16</v>
       </c>
-      <c r="Z21" t="s">
-        <v>51</v>
-      </c>
       <c r="AA21" t="s">
         <v>51</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC21">
         <v>0.91</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -2545,62 +2557,62 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>4</v>
       </c>
-      <c r="L22" t="b">
-        <v>1</v>
-      </c>
       <c r="M22" t="b">
         <v>1</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
         <v>30</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>20</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.04</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>7</v>
       </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22" t="s">
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
         <v>39</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>29</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>22</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Y22" s="7">
+      <c r="Z22" s="7">
         <v>0.1</v>
       </c>
-      <c r="Z22" t="s">
-        <v>51</v>
-      </c>
       <c r="AA22" t="s">
         <v>51</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC22">
         <v>0.91</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -2625,62 +2637,62 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>4</v>
       </c>
-      <c r="L23" t="b">
-        <v>1</v>
-      </c>
       <c r="M23" t="b">
         <v>1</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
         <v>30</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>20</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.04</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>7</v>
       </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23" t="s">
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
         <v>39</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>29</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>23</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Y23" s="7">
+      <c r="Z23" s="7">
         <v>0.16</v>
       </c>
-      <c r="Z23" t="s">
-        <v>51</v>
-      </c>
       <c r="AA23" t="s">
         <v>51</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC23">
         <v>0.91</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -2705,62 +2717,62 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>4</v>
       </c>
-      <c r="L24" t="b">
-        <v>1</v>
-      </c>
       <c r="M24" t="b">
         <v>1</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
         <v>30</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>20</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.04</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>7</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24" t="s">
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24" t="s">
         <v>39</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>29</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>24</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Y24" s="7">
+      <c r="Z24" s="7">
         <v>0.1</v>
       </c>
-      <c r="Z24" t="s">
-        <v>51</v>
-      </c>
       <c r="AA24" t="s">
         <v>51</v>
       </c>
-      <c r="AB24">
+      <c r="AB24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC24">
         <v>0.91</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2785,65 +2797,65 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>4</v>
       </c>
-      <c r="L25" t="b">
-        <v>1</v>
-      </c>
       <c r="M25" t="b">
         <v>1</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
         <v>30</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>20</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>0.04</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>7</v>
       </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25" t="s">
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25" t="s">
         <v>39</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>29</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>25</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Y25" s="7">
+      <c r="Z25" s="7">
         <v>0.1</v>
       </c>
-      <c r="Z25" t="s">
-        <v>51</v>
-      </c>
       <c r="AA25" t="s">
         <v>51</v>
       </c>
-      <c r="AB25">
+      <c r="AB25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC25">
         <v>0.91</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="Y26" s="7"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z26" s="7"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -2868,63 +2880,63 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>4</v>
       </c>
-      <c r="L27" t="b">
-        <v>1</v>
-      </c>
       <c r="M27" t="b">
         <v>1</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
         <v>30</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>20</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>0.04</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>7</v>
       </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27" t="s">
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27" t="s">
         <v>39</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>29</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>21</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Y27" s="7">
+      <c r="Z27" s="7">
         <v>0.16</v>
       </c>
-      <c r="Z27" t="s">
-        <v>51</v>
-      </c>
       <c r="AA27" t="s">
         <v>51</v>
       </c>
-      <c r="AB27">
+      <c r="AB27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC27">
         <v>0.75</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <f>0.939*0.75/0.91</f>
         <v>0.77390109890109882</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -2949,63 +2961,63 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>4</v>
       </c>
-      <c r="L28" t="b">
-        <v>1</v>
-      </c>
       <c r="M28" t="b">
         <v>1</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
         <v>30</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>20</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>0.04</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>7</v>
       </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28" t="s">
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28" t="s">
         <v>39</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>29</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>22</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Y28" s="7">
+      <c r="Z28" s="7">
         <v>0.1</v>
       </c>
-      <c r="Z28" t="s">
-        <v>51</v>
-      </c>
       <c r="AA28" t="s">
         <v>51</v>
       </c>
-      <c r="AB28">
+      <c r="AB28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC28">
         <v>0.75</v>
       </c>
-      <c r="AC28">
-        <f t="shared" ref="AC28:AC31" si="0">0.939*0.75/0.91</f>
+      <c r="AD28">
+        <f t="shared" ref="AD28:AD31" si="0">0.939*0.75/0.91</f>
         <v>0.77390109890109882</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -3030,63 +3042,63 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>4</v>
       </c>
-      <c r="L29" t="b">
-        <v>1</v>
-      </c>
       <c r="M29" t="b">
         <v>1</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
         <v>30</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>20</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>0.04</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>7</v>
       </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29" t="s">
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29" t="s">
         <v>39</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>29</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>23</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Y29" s="7">
+      <c r="Z29" s="7">
         <v>0.16</v>
       </c>
-      <c r="Z29" t="s">
-        <v>51</v>
-      </c>
       <c r="AA29" t="s">
         <v>51</v>
       </c>
-      <c r="AB29">
+      <c r="AB29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC29">
         <v>0.75</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <f t="shared" si="0"/>
         <v>0.77390109890109882</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -3111,63 +3123,63 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>4</v>
       </c>
-      <c r="L30" t="b">
-        <v>1</v>
-      </c>
       <c r="M30" t="b">
         <v>1</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
         <v>30</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>20</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.04</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>7</v>
       </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30" t="s">
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30" t="s">
         <v>39</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>29</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>24</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Y30" s="7">
+      <c r="Z30" s="7">
         <v>0.1</v>
       </c>
-      <c r="Z30" t="s">
-        <v>51</v>
-      </c>
       <c r="AA30" t="s">
         <v>51</v>
       </c>
-      <c r="AB30">
+      <c r="AB30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC30">
         <v>0.75</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <f t="shared" si="0"/>
         <v>0.77390109890109882</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -3192,63 +3204,63 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>4</v>
       </c>
-      <c r="L31" t="b">
-        <v>1</v>
-      </c>
       <c r="M31" t="b">
         <v>1</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
         <v>30</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>20</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.04</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>7</v>
       </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31" t="s">
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31" t="s">
         <v>39</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>29</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>25</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Y31" s="7">
+      <c r="Z31" s="7">
         <v>0.1</v>
       </c>
-      <c r="Z31" t="s">
-        <v>51</v>
-      </c>
       <c r="AA31" t="s">
         <v>51</v>
       </c>
-      <c r="AB31">
+      <c r="AB31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC31">
         <v>0.75</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <f t="shared" si="0"/>
         <v>0.77390109890109882</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -3273,68 +3285,68 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>4</v>
       </c>
-      <c r="L33" t="b">
-        <v>1</v>
-      </c>
       <c r="M33" t="b">
         <v>1</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
         <v>30</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>20</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>0.04</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>7</v>
       </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33" t="s">
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33" t="s">
         <v>39</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>29</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>21</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Y33" s="7">
+      <c r="Z33" s="7">
         <v>0.16</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>95</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AB33" t="s">
         <v>98</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.91</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>0.93899999999999995</v>
       </c>
-      <c r="AD33" s="23">
+      <c r="AE33" s="23">
         <v>17115507004</v>
       </c>
-      <c r="AE33" s="23">
+      <c r="AF33" s="23">
         <v>17660946238</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -3359,68 +3371,68 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>4</v>
       </c>
-      <c r="L34" t="b">
-        <v>1</v>
-      </c>
       <c r="M34" t="b">
         <v>1</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
         <v>30</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>20</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.04</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>7</v>
       </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34" t="s">
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34" t="s">
         <v>39</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>29</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>21</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Y34" s="7">
+      <c r="Z34" s="7">
         <v>0.16</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>95</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AB34" t="s">
         <v>98</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.91</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>0.93899999999999995</v>
       </c>
-      <c r="AD34" s="23">
+      <c r="AE34" s="23">
         <v>17115507004</v>
       </c>
-      <c r="AE34" s="23">
+      <c r="AF34" s="23">
         <v>17660946238</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -3445,68 +3457,68 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>4</v>
       </c>
-      <c r="L35" t="b">
-        <v>1</v>
-      </c>
       <c r="M35" t="b">
         <v>1</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
         <v>30</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>20</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>0.04</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>7</v>
       </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35" t="s">
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35" t="s">
         <v>39</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>29</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>21</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Y35" s="7">
+      <c r="Z35" s="7">
         <v>0.16</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>95</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AB35" t="s">
         <v>98</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>0.91</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>0.93899999999999995</v>
       </c>
-      <c r="AD35" s="23">
+      <c r="AE35" s="23">
         <v>17115507004</v>
       </c>
-      <c r="AE35" s="23">
+      <c r="AF35" s="23">
         <v>17660946238</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -3531,58 +3543,58 @@
       <c r="I37">
         <v>70</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>4</v>
       </c>
-      <c r="L37" t="b">
-        <v>1</v>
-      </c>
       <c r="M37" t="b">
         <v>1</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
         <v>30</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>20</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>0.04</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>7</v>
       </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37" t="s">
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37" t="s">
         <v>42</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>52</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>21</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="Y37" s="7">
+      <c r="Z37" s="7">
         <v>0.16</v>
       </c>
-      <c r="Z37" t="s">
-        <v>51</v>
-      </c>
       <c r="AA37" t="s">
         <v>51</v>
       </c>
-      <c r="AB37">
+      <c r="AB37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC37">
         <v>0.91</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>0.93899999999999995</v>
       </c>
     </row>
@@ -3591,7 +3603,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:H37 G5:H31 G33:H35 F5:F36">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U31 U37 U33:U35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:V31 V37 V33:V35">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
     <sheet name="GlobalParams" sheetId="3" r:id="rId2"/>
     <sheet name="returns" sheetId="2" r:id="rId3"/>
-    <sheet name="Calibration_2016" sheetId="7" r:id="rId4"/>
+    <sheet name="Calibration_2015" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C14" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +35,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -44,10 +44,61 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Budget for FY2016-2017</t>
+CAFR p105
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAFR p97
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAFR p96
+</t>
         </r>
       </text>
     </comment>
@@ -56,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="117">
   <si>
     <t>runname</t>
   </si>
@@ -238,18 +289,6 @@
     <t>MVA</t>
   </si>
   <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>EEC</t>
-  </si>
-  <si>
-    <t>payroll</t>
-  </si>
-  <si>
     <t>Dev</t>
   </si>
   <si>
@@ -328,15 +367,9 @@
     <t>Model</t>
   </si>
   <si>
-    <t>B w/o init DROP</t>
-  </si>
-  <si>
     <t>closed.RS1</t>
   </si>
   <si>
-    <t>ERC w/o admin cost</t>
-  </si>
-  <si>
     <t>noCap_DC7</t>
   </si>
   <si>
@@ -380,6 +413,51 @@
   </si>
   <si>
     <t>useERC_cap</t>
+  </si>
+  <si>
+    <t>useERC_floor</t>
+  </si>
+  <si>
+    <t>$billion</t>
+  </si>
+  <si>
+    <t>FVFB for vested</t>
+  </si>
+  <si>
+    <t>SC $b</t>
+  </si>
+  <si>
+    <t>NC rate %</t>
+  </si>
+  <si>
+    <t>EEC rate %</t>
+  </si>
+  <si>
+    <t>SC rate %</t>
+  </si>
+  <si>
+    <t>UAAL</t>
+  </si>
+  <si>
+    <t>payroll  (approp)</t>
+  </si>
+  <si>
+    <t>payroll  (calc)</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>EEC $b</t>
+  </si>
+  <si>
+    <t>B disb</t>
+  </si>
+  <si>
+    <t>B ben</t>
+  </si>
+  <si>
+    <t>B normal+early+lump sum</t>
   </si>
 </sst>
 </file>
@@ -426,17 +504,17 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +557,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -509,7 +593,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -528,9 +612,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -553,6 +634,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -627,15 +729,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -650,8 +752,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="590550" y="3276600"/>
-          <a:ext cx="5448300" cy="2495550"/>
+          <a:off x="571500" y="4991100"/>
+          <a:ext cx="6219825" cy="2495550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1044,6 +1146,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>37159</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CA8223-F717-495F-861A-A182779084D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="4476750"/>
+          <a:ext cx="7523809" cy="1352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1344,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AF37"/>
+  <dimension ref="A4:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,30 +1507,30 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" customWidth="1"/>
-    <col min="31" max="31" width="15.140625" customWidth="1"/>
-    <col min="32" max="32" width="16.5703125" customWidth="1"/>
+    <col min="10" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" customWidth="1"/>
+    <col min="33" max="33" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -1405,81 +1551,84 @@
         <v>43</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="Q4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="X4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AB4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AC4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AD4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AE4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="AF4" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -1499,67 +1648,70 @@
       <c r="K5" t="b">
         <v>1</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
         <v>4</v>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
       <c r="N5" t="b">
         <v>1</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q5">
+      <c r="Q5" t="s">
+        <v>100</v>
+      </c>
+      <c r="R5">
         <v>30</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.04</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>10</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
         <v>39</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>52</v>
       </c>
-      <c r="W5" t="s">
-        <v>64</v>
-      </c>
-      <c r="X5">
+      <c r="X5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="AA5" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>51</v>
       </c>
       <c r="AB5" t="s">
         <v>51</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD5">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
@@ -1574,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -1582,71 +1734,74 @@
       <c r="K6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
         <v>4</v>
       </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
       <c r="N6" t="b">
         <v>1</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
         <v>30</v>
       </c>
-      <c r="P6" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q6">
+      <c r="Q6" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6">
         <v>30</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.04</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>10</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
         <v>39</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>52</v>
       </c>
-      <c r="W6" t="s">
-        <v>64</v>
-      </c>
-      <c r="X6">
+      <c r="X6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y6">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="AA6" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>51</v>
       </c>
       <c r="AB6" t="s">
         <v>51</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD6">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="Z7" s="7"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="Z8" s="7"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AA7" s="7"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AA8" s="7"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1654,7 +1809,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
@@ -1671,62 +1826,62 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>4</v>
       </c>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
       <c r="N9" t="b">
         <v>1</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
         <v>30</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>20</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.04</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>7</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
         <v>39</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>29</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>21</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="AA9" s="7">
         <v>0.16</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>51</v>
       </c>
       <c r="AB9" t="s">
         <v>51</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD9">
         <v>0.91</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1734,7 +1889,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -1751,62 +1906,62 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>4</v>
       </c>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
       <c r="N10" t="b">
         <v>1</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
         <v>30</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>20</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>0.04</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>7</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
         <v>39</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>29</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>22</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Z10" s="7">
+      <c r="AA10" s="7">
         <v>0.1</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>51</v>
       </c>
       <c r="AB10" t="s">
         <v>51</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD10">
         <v>0.91</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1814,7 +1969,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
@@ -1831,62 +1986,62 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>4</v>
       </c>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
       <c r="N11" t="b">
         <v>1</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
         <v>30</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>20</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.04</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>7</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
         <v>39</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>29</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>23</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Z11" s="7">
+      <c r="AA11" s="7">
         <v>0.16</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>51</v>
       </c>
       <c r="AB11" t="s">
         <v>51</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD11">
         <v>0.91</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1894,7 +2049,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
@@ -1911,62 +2066,62 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>4</v>
       </c>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
       <c r="N12" t="b">
         <v>1</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
         <v>30</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>20</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>0.04</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>7</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
         <v>39</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>29</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>24</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="AA12" s="7">
         <v>0.1</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>51</v>
       </c>
       <c r="AB12" t="s">
         <v>51</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD12">
         <v>0.91</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1974,7 +2129,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
@@ -1991,73 +2146,73 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>4</v>
       </c>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
       <c r="N13" t="b">
         <v>1</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
         <v>30</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>20</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.04</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>7</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13" t="s">
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13" t="s">
         <v>39</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>29</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>25</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Z13" s="7">
+      <c r="AA13" s="7">
         <v>0.1</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>51</v>
       </c>
       <c r="AB13" t="s">
         <v>51</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD13">
         <v>0.91</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="Z14" s="7"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AA14" s="7"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
         <v>38</v>
@@ -2074,70 +2229,70 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>4</v>
       </c>
-      <c r="M15" t="b">
-        <v>1</v>
-      </c>
       <c r="N15" t="b">
         <v>1</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
         <v>30</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>20</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.04</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>7</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15" t="s">
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
         <v>39</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>29</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>21</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Z15" s="7">
+      <c r="AA15" s="7">
         <v>0.16</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>51</v>
       </c>
       <c r="AB15" t="s">
         <v>51</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD15">
         <v>0.91</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
@@ -2154,70 +2309,70 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>4</v>
       </c>
-      <c r="M16" t="b">
-        <v>1</v>
-      </c>
       <c r="N16" t="b">
         <v>1</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
         <v>30</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>20</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>0.04</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>7</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16" t="s">
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
         <v>39</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>29</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>22</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Z16" s="7">
+      <c r="AA16" s="7">
         <v>0.1</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>51</v>
       </c>
       <c r="AB16" t="s">
         <v>51</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD16">
         <v>0.91</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
         <v>38</v>
@@ -2234,70 +2389,70 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>4</v>
       </c>
-      <c r="M17" t="b">
-        <v>1</v>
-      </c>
       <c r="N17" t="b">
         <v>1</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
         <v>30</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>20</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.04</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>7</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
         <v>39</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>29</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>23</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Z17" s="7">
+      <c r="AA17" s="7">
         <v>0.16</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>51</v>
       </c>
       <c r="AB17" t="s">
         <v>51</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD17">
         <v>0.91</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
@@ -2314,70 +2469,70 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>4</v>
       </c>
-      <c r="M18" t="b">
-        <v>1</v>
-      </c>
       <c r="N18" t="b">
         <v>1</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
         <v>30</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>20</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.04</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>7</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
         <v>39</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>29</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>24</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Z18" s="7">
+      <c r="AA18" s="7">
         <v>0.1</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>51</v>
       </c>
       <c r="AB18" t="s">
         <v>51</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD18">
         <v>0.91</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
@@ -2394,73 +2549,73 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>4</v>
       </c>
-      <c r="M19" t="b">
-        <v>1</v>
-      </c>
       <c r="N19" t="b">
         <v>1</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
         <v>30</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>20</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.04</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>7</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19" t="s">
         <v>39</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>29</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>25</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Z19" s="7">
+      <c r="AA19" s="7">
         <v>0.1</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>51</v>
       </c>
       <c r="AB19" t="s">
         <v>51</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD19">
         <v>0.91</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Z20" s="7"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AA20" s="7"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
         <v>38</v>
@@ -2477,70 +2632,70 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>4</v>
       </c>
-      <c r="M21" t="b">
-        <v>1</v>
-      </c>
       <c r="N21" t="b">
         <v>1</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
         <v>30</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>20</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.04</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>7</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21" t="s">
         <v>39</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>29</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>21</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Z21" s="7">
+      <c r="AA21" s="7">
         <v>0.16</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>51</v>
       </c>
       <c r="AB21" t="s">
         <v>51</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD21">
         <v>0.91</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
         <v>38</v>
@@ -2557,70 +2712,70 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>4</v>
       </c>
-      <c r="M22" t="b">
-        <v>1</v>
-      </c>
       <c r="N22" t="b">
         <v>1</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
         <v>30</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>20</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.04</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>7</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22" t="s">
         <v>39</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>29</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>22</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Z22" s="7">
+      <c r="AA22" s="7">
         <v>0.1</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>51</v>
       </c>
       <c r="AB22" t="s">
         <v>51</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD22">
         <v>0.91</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
         <v>38</v>
@@ -2637,70 +2792,70 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>4</v>
       </c>
-      <c r="M23" t="b">
-        <v>1</v>
-      </c>
       <c r="N23" t="b">
         <v>1</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
         <v>30</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>20</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.04</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>7</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
         <v>39</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>29</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>23</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Z23" s="7">
+      <c r="AA23" s="7">
         <v>0.16</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>51</v>
       </c>
       <c r="AB23" t="s">
         <v>51</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD23">
         <v>0.91</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
         <v>38</v>
@@ -2717,70 +2872,70 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>4</v>
       </c>
-      <c r="M24" t="b">
-        <v>1</v>
-      </c>
       <c r="N24" t="b">
         <v>1</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
         <v>30</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>20</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.04</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>7</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24" t="s">
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24" t="s">
         <v>39</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>29</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>24</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Z24" s="7">
+      <c r="AA24" s="7">
         <v>0.1</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>51</v>
       </c>
       <c r="AB24" t="s">
         <v>51</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD24">
         <v>0.91</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
         <v>38</v>
@@ -2797,73 +2952,73 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>4</v>
       </c>
-      <c r="M25" t="b">
-        <v>1</v>
-      </c>
       <c r="N25" t="b">
         <v>1</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
         <v>30</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>20</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>0.04</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>7</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25" t="s">
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
         <v>39</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>29</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>25</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Z25" s="7">
+      <c r="AA25" s="7">
         <v>0.1</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>51</v>
       </c>
       <c r="AB25" t="s">
         <v>51</v>
       </c>
-      <c r="AC25">
+      <c r="AC25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD25">
         <v>0.91</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Z26" s="7"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AA26" s="7"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
         <v>38</v>
@@ -2880,71 +3035,71 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>4</v>
       </c>
-      <c r="M27" t="b">
-        <v>1</v>
-      </c>
       <c r="N27" t="b">
         <v>1</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
         <v>30</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>20</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>0.04</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>7</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27" t="s">
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27" t="s">
         <v>39</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>29</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>21</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Z27" s="7">
+      <c r="AA27" s="7">
         <v>0.16</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>51</v>
       </c>
       <c r="AB27" t="s">
         <v>51</v>
       </c>
-      <c r="AC27">
+      <c r="AC27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD27">
         <v>0.75</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <f>0.939*0.75/0.91</f>
         <v>0.77390109890109882</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
         <v>38</v>
@@ -2961,71 +3116,71 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>4</v>
       </c>
-      <c r="M28" t="b">
-        <v>1</v>
-      </c>
       <c r="N28" t="b">
         <v>1</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
         <v>30</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>20</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>0.04</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>7</v>
       </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28" t="s">
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28" t="s">
         <v>39</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>29</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>22</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Z28" s="7">
+      <c r="AA28" s="7">
         <v>0.1</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>51</v>
       </c>
       <c r="AB28" t="s">
         <v>51</v>
       </c>
-      <c r="AC28">
+      <c r="AC28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD28">
         <v>0.75</v>
       </c>
-      <c r="AD28">
-        <f t="shared" ref="AD28:AD31" si="0">0.939*0.75/0.91</f>
+      <c r="AE28">
+        <f t="shared" ref="AE28:AE31" si="0">0.939*0.75/0.91</f>
         <v>0.77390109890109882</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
         <v>38</v>
@@ -3042,71 +3197,71 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>4</v>
       </c>
-      <c r="M29" t="b">
-        <v>1</v>
-      </c>
       <c r="N29" t="b">
         <v>1</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
         <v>30</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>20</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>0.04</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>7</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29" t="s">
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29" t="s">
         <v>39</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>29</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>23</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Z29" s="7">
+      <c r="AA29" s="7">
         <v>0.16</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>51</v>
       </c>
       <c r="AB29" t="s">
         <v>51</v>
       </c>
-      <c r="AC29">
+      <c r="AC29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD29">
         <v>0.75</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <f t="shared" si="0"/>
         <v>0.77390109890109882</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
@@ -3123,71 +3278,71 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>4</v>
       </c>
-      <c r="M30" t="b">
-        <v>1</v>
-      </c>
       <c r="N30" t="b">
         <v>1</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
         <v>30</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>20</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.04</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>7</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30" t="s">
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30" t="s">
         <v>39</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>29</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>24</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Z30" s="7">
+      <c r="AA30" s="7">
         <v>0.1</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>51</v>
       </c>
       <c r="AB30" t="s">
         <v>51</v>
       </c>
-      <c r="AC30">
+      <c r="AC30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD30">
         <v>0.75</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <f t="shared" si="0"/>
         <v>0.77390109890109882</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
         <v>38</v>
@@ -3204,71 +3359,71 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>4</v>
       </c>
-      <c r="M31" t="b">
-        <v>1</v>
-      </c>
       <c r="N31" t="b">
         <v>1</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" t="s">
         <v>30</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>20</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>0.04</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>7</v>
       </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31" t="s">
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31" t="s">
         <v>39</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>29</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>25</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Z31" s="7">
+      <c r="AA31" s="7">
         <v>0.1</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>51</v>
       </c>
       <c r="AB31" t="s">
         <v>51</v>
       </c>
-      <c r="AC31">
+      <c r="AC31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD31">
         <v>0.75</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <f t="shared" si="0"/>
         <v>0.77390109890109882</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
@@ -3285,76 +3440,76 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>4</v>
       </c>
-      <c r="M33" t="b">
-        <v>1</v>
-      </c>
       <c r="N33" t="b">
         <v>1</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
         <v>30</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>20</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0.04</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>7</v>
       </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33" t="s">
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33" t="s">
         <v>39</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>29</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>21</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Z33" s="7">
+      <c r="AA33" s="7">
         <v>0.16</v>
       </c>
-      <c r="AA33" t="s">
-        <v>95</v>
-      </c>
       <c r="AB33" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC33">
+        <v>89</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD33">
         <v>0.91</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>0.93899999999999995</v>
       </c>
-      <c r="AE33" s="23">
+      <c r="AF33" s="22">
         <v>17115507004</v>
       </c>
-      <c r="AF33" s="23">
+      <c r="AG33" s="22">
         <v>17660946238</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
         <v>38</v>
@@ -3371,76 +3526,76 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>4</v>
       </c>
-      <c r="M34" t="b">
-        <v>1</v>
-      </c>
       <c r="N34" t="b">
         <v>1</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" t="s">
         <v>30</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>20</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.04</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>7</v>
       </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34" t="s">
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34" t="s">
         <v>39</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>29</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>21</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Z34" s="7">
+      <c r="AA34" s="7">
         <v>0.16</v>
       </c>
-      <c r="AA34" t="s">
-        <v>95</v>
-      </c>
       <c r="AB34" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC34">
+        <v>89</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD34">
         <v>0.91</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.93899999999999995</v>
       </c>
-      <c r="AE34" s="23">
+      <c r="AF34" s="22">
         <v>17115507004</v>
       </c>
-      <c r="AF34" s="23">
+      <c r="AG34" s="22">
         <v>17660946238</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E35" t="s">
         <v>38</v>
@@ -3457,76 +3612,76 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>4</v>
       </c>
-      <c r="M35" t="b">
-        <v>1</v>
-      </c>
       <c r="N35" t="b">
         <v>1</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35" t="s">
         <v>30</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>20</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>0.04</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>7</v>
       </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35" t="s">
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35" t="s">
         <v>39</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>29</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>21</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Z35" s="7">
+      <c r="AA35" s="7">
         <v>0.16</v>
       </c>
-      <c r="AA35" t="s">
-        <v>95</v>
-      </c>
       <c r="AB35" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC35">
+        <v>89</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD35">
         <v>0.91</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>0.93899999999999995</v>
       </c>
-      <c r="AE35" s="23">
+      <c r="AF35" s="22">
         <v>17115507004</v>
       </c>
-      <c r="AF35" s="23">
+      <c r="AG35" s="22">
         <v>17660946238</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E37" t="s">
         <v>38</v>
@@ -3543,58 +3698,58 @@
       <c r="I37">
         <v>70</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>4</v>
       </c>
-      <c r="M37" t="b">
-        <v>1</v>
-      </c>
       <c r="N37" t="b">
         <v>1</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" t="b">
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
         <v>30</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>20</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>0.04</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>7</v>
       </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37" t="s">
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37" t="s">
         <v>42</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>52</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>21</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="Z37" s="7">
+      <c r="AA37" s="7">
         <v>0.16</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>51</v>
       </c>
       <c r="AB37" t="s">
         <v>51</v>
       </c>
-      <c r="AC37">
+      <c r="AC37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD37">
         <v>0.91</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>0.93899999999999995</v>
       </c>
     </row>
@@ -3603,7 +3758,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:H37 G5:H31 G33:H35 F5:F36">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:V31 V37 V33:V35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W5:W31 W37 W33:W35">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3725,7 +3880,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="9">
@@ -3774,7 +3929,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>0.05</v>
       </c>
       <c r="D4" s="7">
@@ -3783,7 +3938,7 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>0.05</v>
       </c>
       <c r="G4" s="10">
@@ -3796,7 +3951,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>5.5E-2</v>
       </c>
       <c r="D5" s="7">
@@ -3805,7 +3960,7 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>5.5E-2</v>
       </c>
       <c r="G5" s="10">
@@ -3818,7 +3973,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>0.06</v>
       </c>
       <c r="D6" s="7">
@@ -3827,7 +3982,7 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>0.06</v>
       </c>
       <c r="G6" s="10">
@@ -3840,7 +3995,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D7" s="7">
@@ -3849,7 +4004,7 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G7" s="10">
@@ -3862,7 +4017,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D8" s="7">
@@ -3871,7 +4026,7 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G8" s="10">
@@ -3884,7 +4039,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>8.2199999999999995E-2</v>
       </c>
       <c r="D9" s="7">
@@ -3893,7 +4048,7 @@
       <c r="E9">
         <v>25</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>6.8750000000000006E-2</v>
       </c>
       <c r="G9" s="10">
@@ -3972,18 +4127,18 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="19">
+        <v>61</v>
+      </c>
+      <c r="C13" s="18">
         <v>8.9791999999999997E-2</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>0.17199999999999999</v>
       </c>
       <c r="E13">
         <v>30</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <f t="shared" ref="F13:F14" si="1">C13-D13^2/2</f>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -3997,18 +4152,18 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="20">
+        <v>62</v>
+      </c>
+      <c r="C14" s="19">
         <v>6.9800000000000001E-2</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>0.13420000000000001</v>
       </c>
       <c r="E14">
         <v>30</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <f t="shared" si="1"/>
         <v>6.0795179999999997E-2</v>
       </c>
@@ -4077,243 +4232,296 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G36"/>
+  <dimension ref="B1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="22.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="12" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" style="12" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" style="12" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="13">
-        <v>12.21</v>
-      </c>
-      <c r="D3" s="13">
-        <v>12.29</v>
-      </c>
-      <c r="E3" s="15">
+      <c r="C3" s="24">
+        <v>61.13</v>
+      </c>
+      <c r="D3" s="24">
+        <v>57.4</v>
+      </c>
+      <c r="E3" s="25">
         <f>D3/C3</f>
-        <v>1.0065520065520064</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+        <v>0.9389824963193194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="13">
-        <v>10.69</v>
-      </c>
-      <c r="D4" s="13">
-        <f>D5-D6</f>
-        <v>10.739999999999998</v>
-      </c>
-      <c r="E4" s="15">
-        <f t="shared" ref="E4:E14" si="0">D4/C4</f>
-        <v>1.0046772684752103</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="13">
-        <v>18.8</v>
-      </c>
-      <c r="D5" s="13">
-        <v>18.809999999999999</v>
-      </c>
-      <c r="E5" s="15">
-        <f t="shared" si="0"/>
-        <v>1.0005319148936169</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="24">
+        <v>52.74</v>
+      </c>
+      <c r="D4" s="24">
+        <f>D7-D6</f>
+        <v>42.5</v>
+      </c>
+      <c r="E4" s="25">
+        <f t="shared" ref="E4:E16" si="0">D4/C4</f>
+        <v>0.80583996966249527</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1.61</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="13">
-        <f>C3-4.1</f>
-        <v>8.1100000000000012</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="D6" s="13">
-        <v>8.07</v>
-      </c>
-      <c r="E6" s="15">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E6" s="14">
+        <f>D6/C6</f>
+        <v>0.90049751243781095</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="13">
+        <f>SUM(C4:C6)</f>
+        <v>94.550000000000011</v>
+      </c>
+      <c r="D7" s="13">
+        <v>78.7</v>
+      </c>
+      <c r="E7" s="14">
         <f t="shared" si="0"/>
-        <v>0.99506781750924778</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+        <v>0.83236382866208347</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="13">
-        <v>17.645</v>
-      </c>
-      <c r="D7" s="13">
-        <v>17.66</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="C8" s="24">
+        <v>57.36</v>
+      </c>
+      <c r="D8" s="24">
+        <v>47.7</v>
+      </c>
+      <c r="E8" s="25">
         <f t="shared" si="0"/>
-        <v>1.0008500991782374</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+        <v>0.83158995815899583</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="13">
-        <v>17.103999999999999</v>
-      </c>
-      <c r="D8" s="13">
-        <v>17.116</v>
-      </c>
-      <c r="E8" s="15">
+      <c r="C9" s="24">
+        <f>C7*0.546</f>
+        <v>51.624300000000012</v>
+      </c>
+      <c r="D9" s="24">
+        <v>42.9</v>
+      </c>
+      <c r="E9" s="25">
         <f t="shared" si="0"/>
-        <v>1.0007015902712817</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0.39150000000000001</v>
-      </c>
-      <c r="E9" s="15">
+        <v>0.83100400392838236</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="24">
+        <v>37.35</v>
+      </c>
+      <c r="D10" s="24">
+        <v>31</v>
+      </c>
+      <c r="E10" s="25">
         <f t="shared" si="0"/>
-        <v>0.99113924050632907</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0.17394999999999999</v>
-      </c>
-      <c r="E10" s="15">
+        <v>0.82998661311914324</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="13">
+        <v>15.83</v>
+      </c>
+      <c r="D11" s="13">
+        <v>16.78</v>
+      </c>
+      <c r="E11" s="14">
         <f t="shared" si="0"/>
-        <v>0.99971264367816093</v>
-      </c>
-      <c r="G10">
-        <f>D11/D13</f>
-        <v>9.6349319971367212E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0.1366</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0.1346</v>
-      </c>
-      <c r="E11" s="15">
+        <v>1.0600126342387872</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2.83</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2.36</v>
+      </c>
+      <c r="E12" s="14">
         <f t="shared" si="0"/>
-        <v>0.98535871156661781</v>
-      </c>
-      <c r="F11">
-        <f>D11/D13</f>
-        <v>9.6349319971367212E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="13">
-        <f>0.445-0.0127</f>
-        <v>0.43230000000000002</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.43080000000000002</v>
-      </c>
-      <c r="E12" s="15">
+        <v>0.83392226148409887</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="13">
+        <v>20</v>
+      </c>
+      <c r="D13" s="13">
+        <v>18.52</v>
+      </c>
+      <c r="E13" s="14">
         <f t="shared" si="0"/>
-        <v>0.99653018736988197</v>
-      </c>
-      <c r="F12">
-        <f>D12/D13</f>
-        <v>0.30837508947745168</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="13">
-        <v>1.401</v>
-      </c>
-      <c r="D13" s="13">
-        <v>1.397</v>
-      </c>
-      <c r="E13" s="15">
+        <v>0.92599999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="13">
+        <v>7.49</v>
+      </c>
+      <c r="D14" s="13">
+        <v>7.56</v>
+      </c>
+      <c r="E14" s="14">
         <f t="shared" si="0"/>
-        <v>0.99714489650249827</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="13">
-        <f>0.8365</f>
-        <v>0.83650000000000002</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.84530000000000005</v>
-      </c>
-      <c r="E14" s="15">
-        <f t="shared" si="0"/>
-        <v>1.0105200239091452</v>
-      </c>
-      <c r="F14">
-        <f>1/E14</f>
-        <v>0.98958949485389813</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
+        <v>1.0093457943925233</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="12">
-        <f>0.24/17.1</f>
-        <v>1.4035087719298244E-2</v>
+    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="24">
+        <v>6.2</v>
+      </c>
+      <c r="D16" s="24">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E16" s="25">
+        <f t="shared" si="0"/>
+        <v>0.66129032258064513</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="27">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="29">
+        <f>3.09+2+0.687</f>
+        <v>5.7770000000000001</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="13">
+        <v>13.38</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14">
+        <f>D20/C20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="13">
+        <v>12.68</v>
+      </c>
+      <c r="D21" s="13">
+        <v>12.7</v>
+      </c>
+      <c r="E21" s="14">
+        <f>D21/C21</f>
+        <v>1.001577287066246</v>
       </c>
     </row>
   </sheetData>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -11,6 +11,7 @@
     <sheet name="GlobalParams" sheetId="3" r:id="rId2"/>
     <sheet name="returns" sheetId="2" r:id="rId3"/>
     <sheet name="Calibration_2015" sheetId="7" r:id="rId4"/>
+    <sheet name="Calibration_benefit" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="120">
   <si>
     <t>runname</t>
   </si>
@@ -458,6 +459,15 @@
   </si>
   <si>
     <t>B normal+early+lump sum</t>
+  </si>
+  <si>
+    <t>Retirees</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>disability</t>
   </si>
 </sst>
 </file>
@@ -1193,6 +1203,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>208681</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>75795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E013942C-FA28-4E5B-B739-8FB129CA9063}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="2552700"/>
+          <a:ext cx="6952381" cy="3238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>113471</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AAAD80A-2164-4C1C-B1A9-2D76AEF2F62E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8115300" y="6229350"/>
+          <a:ext cx="6628571" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4235,7 +4338,7 @@
   <dimension ref="B1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4530,4 +4633,49 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B11:C14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1539,7 +1539,7 @@
   <dimension ref="A4:AI27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,7 +2283,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -2381,7 +2381,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -2479,7 +2479,7 @@
         <v>36</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -2675,7 +2675,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -2928,7 +2928,7 @@
         <v>27</v>
       </c>
       <c r="Z19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA19">
         <v>7.4999999999999997E-2</v>
@@ -3026,7 +3026,7 @@
         <v>27</v>
       </c>
       <c r="Z20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA20">
         <v>7.4999999999999997E-2</v>
@@ -3067,7 +3067,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -3263,7 +3263,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -3516,7 +3516,7 @@
         <v>27</v>
       </c>
       <c r="Z26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA26">
         <v>7.4999999999999997E-2</v>
@@ -3614,7 +3614,7 @@
         <v>27</v>
       </c>
       <c r="Z27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA27">
         <v>7.4999999999999997E-2</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="125">
   <si>
     <t>runname</t>
   </si>
@@ -478,6 +478,12 @@
   </si>
   <si>
     <t>RS3_SR1EL2</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1.open</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
 </sst>
 </file>
@@ -1536,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AI27"/>
+  <dimension ref="A4:AI29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2871,7 +2877,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -2969,7 +2975,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -3459,7 +3465,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -3557,7 +3563,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -3638,12 +3644,110 @@
         <v>0.60599999999999998</v>
       </c>
     </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0.02</v>
+      </c>
+      <c r="O29" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s">
+        <v>28</v>
+      </c>
+      <c r="S29" t="s">
+        <v>124</v>
+      </c>
+      <c r="T29">
+        <v>24</v>
+      </c>
+      <c r="U29">
+        <v>0.04</v>
+      </c>
+      <c r="V29">
+        <v>10</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA29">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AB29">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AC29" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF29">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AG29">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15:I20 G5:I13 G22:I27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:I29 G5:I13 G15:I20 G22:I27">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y22:Y27 Y15:Y20 Y5:Y13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y22:Y27 Y15:Y20 Y5:Y13 Y29">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3727,7 +3831,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="126">
   <si>
     <t>runname</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>open</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1.PR</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AI29"/>
+  <dimension ref="A4:AI30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
@@ -1740,7 +1743,7 @@
         <v>24</v>
       </c>
       <c r="U5">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V5">
         <v>10</v>
@@ -1838,7 +1841,7 @@
         <v>24</v>
       </c>
       <c r="U6">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V6">
         <v>10</v>
@@ -1897,7 +1900,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -1939,7 +1942,7 @@
         <v>24</v>
       </c>
       <c r="U8">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V8">
         <v>10</v>
@@ -1995,7 +1998,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -2037,7 +2040,7 @@
         <v>24</v>
       </c>
       <c r="U9">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V9">
         <v>10</v>
@@ -2093,7 +2096,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -2135,7 +2138,7 @@
         <v>24</v>
       </c>
       <c r="U10">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V10">
         <v>10</v>
@@ -2191,7 +2194,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -2233,7 +2236,7 @@
         <v>24</v>
       </c>
       <c r="U11">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V11">
         <v>10</v>
@@ -2289,7 +2292,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -2331,7 +2334,7 @@
         <v>24</v>
       </c>
       <c r="U12">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V12">
         <v>10</v>
@@ -2387,7 +2390,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -2429,7 +2432,7 @@
         <v>24</v>
       </c>
       <c r="U13">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V13">
         <v>10</v>
@@ -2485,7 +2488,7 @@
         <v>36</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -2527,7 +2530,7 @@
         <v>24</v>
       </c>
       <c r="U15">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V15">
         <v>10</v>
@@ -2583,7 +2586,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -2625,7 +2628,7 @@
         <v>24</v>
       </c>
       <c r="U16">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V16">
         <v>10</v>
@@ -2681,7 +2684,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -2723,7 +2726,7 @@
         <v>24</v>
       </c>
       <c r="U17">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V17">
         <v>10</v>
@@ -2779,7 +2782,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -2821,7 +2824,7 @@
         <v>24</v>
       </c>
       <c r="U18">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V18">
         <v>10</v>
@@ -2877,7 +2880,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -2919,7 +2922,7 @@
         <v>24</v>
       </c>
       <c r="U19">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V19">
         <v>10</v>
@@ -2975,7 +2978,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -3017,7 +3020,7 @@
         <v>24</v>
       </c>
       <c r="U20">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V20">
         <v>10</v>
@@ -3073,7 +3076,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -3115,7 +3118,7 @@
         <v>24</v>
       </c>
       <c r="U22">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V22">
         <v>10</v>
@@ -3171,7 +3174,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -3213,7 +3216,7 @@
         <v>24</v>
       </c>
       <c r="U23">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V23">
         <v>10</v>
@@ -3269,7 +3272,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -3311,7 +3314,7 @@
         <v>24</v>
       </c>
       <c r="U24">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V24">
         <v>10</v>
@@ -3367,7 +3370,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -3409,7 +3412,7 @@
         <v>24</v>
       </c>
       <c r="U25">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V25">
         <v>10</v>
@@ -3465,7 +3468,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -3507,7 +3510,7 @@
         <v>24</v>
       </c>
       <c r="U26">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V26">
         <v>10</v>
@@ -3563,7 +3566,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -3605,7 +3608,7 @@
         <v>24</v>
       </c>
       <c r="U27">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V27">
         <v>10</v>
@@ -3703,7 +3706,7 @@
         <v>24</v>
       </c>
       <c r="U29">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="V29">
         <v>10</v>
@@ -3742,12 +3745,110 @@
         <v>0.60599999999999998</v>
       </c>
     </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0.02</v>
+      </c>
+      <c r="O30" t="s">
+        <v>4</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s">
+        <v>28</v>
+      </c>
+      <c r="S30" t="s">
+        <v>65</v>
+      </c>
+      <c r="T30">
+        <v>24</v>
+      </c>
+      <c r="U30">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="V30">
+        <v>10</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AB30">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AC30" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF30">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AG30">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:I29 G5:I13 G15:I20 G22:I27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:I30 H15:I20 H22:I27 H5:I13 G5:G27">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y22:Y27 Y15:Y20 Y5:Y13 Y29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y22:Y27 Y15:Y20 Y5:Y13 Y29:Y30">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="129">
   <si>
     <t>runname</t>
   </si>
@@ -487,6 +487,15 @@
   </si>
   <si>
     <t>RS1_SR1EL1.PR</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1.s5</t>
+  </si>
+  <si>
+    <t>RS2_SR1EL1.s5</t>
+  </si>
+  <si>
+    <t>RS3_SR1EL1.s5</t>
   </si>
 </sst>
 </file>
@@ -1545,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AI30"/>
+  <dimension ref="A4:AI35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,7 +1909,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -1998,7 +2007,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -2096,7 +2105,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -2194,7 +2203,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -2292,7 +2301,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -2390,7 +2399,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -2488,7 +2497,7 @@
         <v>36</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -2586,7 +2595,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -2684,7 +2693,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -2782,7 +2791,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -2880,7 +2889,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -2978,7 +2987,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -3076,7 +3085,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -3174,7 +3183,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -3272,7 +3281,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -3370,7 +3379,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -3468,7 +3477,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -3566,7 +3575,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -3664,7 +3673,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -3843,12 +3852,306 @@
         <v>0.60599999999999998</v>
       </c>
     </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0.02</v>
+      </c>
+      <c r="O33" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="b">
+        <v>1</v>
+      </c>
+      <c r="R33" t="s">
+        <v>28</v>
+      </c>
+      <c r="S33" t="s">
+        <v>65</v>
+      </c>
+      <c r="T33">
+        <v>24</v>
+      </c>
+      <c r="U33">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="V33">
+        <v>5</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AB33">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF33">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AG33">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0.02</v>
+      </c>
+      <c r="O34" t="s">
+        <v>4</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="b">
+        <v>1</v>
+      </c>
+      <c r="R34" t="s">
+        <v>28</v>
+      </c>
+      <c r="S34" t="s">
+        <v>65</v>
+      </c>
+      <c r="T34">
+        <v>24</v>
+      </c>
+      <c r="U34">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="V34">
+        <v>5</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AB34">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AC34" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF34">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AG34">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0.02</v>
+      </c>
+      <c r="O35" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="b">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s">
+        <v>28</v>
+      </c>
+      <c r="S35" t="s">
+        <v>65</v>
+      </c>
+      <c r="T35">
+        <v>24</v>
+      </c>
+      <c r="U35">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="V35">
+        <v>5</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA35">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AB35">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AC35" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF35">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AG35">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:I30 H15:I20 H22:I27 H5:I13 G5:G27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G30 H15:I20 H22:I27 H5:I13 H29:I30 G33:I35">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y22:Y27 Y15:Y20 Y5:Y13 Y29:Y30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y22:Y27 Y15:Y20 Y5:Y13 Y29:Y30 Y33:Y35">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3932,7 +4235,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="134">
   <si>
     <t>runname</t>
   </si>
@@ -300,9 +300,6 @@
     <t>amort_type</t>
   </si>
   <si>
-    <t>tCD</t>
-  </si>
-  <si>
     <t>useSharedRisk</t>
   </si>
   <si>
@@ -496,6 +493,24 @@
   </si>
   <si>
     <t>RS3_SR1EL1.s5</t>
+  </si>
+  <si>
+    <t>tE</t>
+  </si>
+  <si>
+    <t>DC_reform</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1.DC75</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1.DC65.1</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1.DC65.2</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1.65.1</t>
   </si>
 </sst>
 </file>
@@ -623,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -677,6 +692,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1554,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AI35"/>
+  <dimension ref="A4:AJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,33 +1589,33 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" customWidth="1"/>
-    <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" customWidth="1"/>
-    <col min="34" max="34" width="15.140625" customWidth="1"/>
-    <col min="35" max="35" width="16.5703125" customWidth="1"/>
+    <col min="11" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="24" max="24" width="14" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" customWidth="1"/>
+    <col min="35" max="35" width="15.140625" customWidth="1"/>
+    <col min="36" max="36" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -1617,83 +1635,86 @@
       <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>64</v>
+      <c r="K4" s="27" t="s">
+        <v>129</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AE4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AF4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AG4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AH4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1707,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -1722,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -1730,68 +1751,71 @@
       <c r="M5" t="b">
         <v>1</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>0.02</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>4</v>
       </c>
-      <c r="P5" t="b">
-        <v>1</v>
-      </c>
       <c r="Q5" t="b">
         <v>1</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
         <v>28</v>
       </c>
-      <c r="S5" t="s">
-        <v>65</v>
-      </c>
-      <c r="T5">
+      <c r="T5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U5">
         <v>24</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>10</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>48</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>21</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AD5" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD5" t="s">
-        <v>47</v>
-      </c>
       <c r="AE5" t="s">
         <v>47</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG5">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1820,7 +1844,7 @@
         <v>10</v>
       </c>
       <c r="K6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -1828,73 +1852,76 @@
       <c r="M6" t="b">
         <v>1</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6">
         <v>0.02</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>4</v>
       </c>
-      <c r="P6" t="b">
-        <v>1</v>
-      </c>
       <c r="Q6" t="b">
         <v>1</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
         <v>28</v>
       </c>
-      <c r="S6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T6">
+      <c r="T6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U6">
         <v>24</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>10</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
         <v>37</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>48</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>21</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AD6" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD6" t="s">
-        <v>47</v>
-      </c>
       <c r="AE6" t="s">
         <v>47</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG6">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AC7" s="7"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AD7" s="7"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1927,72 +1954,75 @@
         <v>0</v>
       </c>
       <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8">
         <v>0.02</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>4</v>
       </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
       <c r="Q8" t="b">
         <v>1</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
         <v>28</v>
       </c>
-      <c r="S8" t="s">
-        <v>65</v>
-      </c>
-      <c r="T8">
+      <c r="T8" t="s">
+        <v>64</v>
+      </c>
+      <c r="U8">
         <v>24</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>10</v>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
         <v>37</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>27</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>21</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AD8" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD8" t="s">
-        <v>47</v>
-      </c>
       <c r="AE8" t="s">
         <v>47</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG8">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -2019,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -2027,70 +2057,73 @@
       <c r="M9" t="b">
         <v>1</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>0.02</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>4</v>
       </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
       <c r="Q9" t="b">
         <v>1</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
         <v>28</v>
       </c>
-      <c r="S9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T9">
+      <c r="T9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U9">
         <v>24</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>10</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>27</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>21</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AD9" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD9" t="s">
-        <v>47</v>
-      </c>
       <c r="AE9" t="s">
         <v>47</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG9">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -2120,75 +2153,78 @@
         <v>0</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10">
         <v>0.02</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>4</v>
       </c>
-      <c r="P10" t="b">
-        <v>1</v>
-      </c>
       <c r="Q10" t="b">
         <v>1</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
         <v>28</v>
       </c>
-      <c r="S10" t="s">
-        <v>65</v>
-      </c>
-      <c r="T10">
+      <c r="T10" t="s">
+        <v>64</v>
+      </c>
+      <c r="U10">
         <v>24</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>10</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
         <v>37</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>27</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>21</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC10" s="7">
+      <c r="AD10" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD10" t="s">
-        <v>47</v>
-      </c>
       <c r="AE10" t="s">
         <v>47</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG10">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -2215,78 +2251,81 @@
         <v>0</v>
       </c>
       <c r="K11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="b">
-        <v>1</v>
-      </c>
-      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11">
         <v>0.02</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>4</v>
       </c>
-      <c r="P11" t="b">
-        <v>1</v>
-      </c>
       <c r="Q11" t="b">
         <v>1</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s">
         <v>28</v>
       </c>
-      <c r="S11" t="s">
-        <v>65</v>
-      </c>
-      <c r="T11">
+      <c r="T11" t="s">
+        <v>64</v>
+      </c>
+      <c r="U11">
         <v>24</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>10</v>
       </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="s">
         <v>37</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>27</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>21</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC11" s="7">
+      <c r="AD11" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD11" t="s">
-        <v>47</v>
-      </c>
       <c r="AE11" t="s">
         <v>47</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG11">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -2313,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -2321,70 +2360,73 @@
       <c r="M12" t="b">
         <v>1</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12">
         <v>0.05</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>4</v>
       </c>
-      <c r="P12" t="b">
-        <v>1</v>
-      </c>
       <c r="Q12" t="b">
         <v>1</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s">
         <v>28</v>
       </c>
-      <c r="S12" t="s">
-        <v>65</v>
-      </c>
-      <c r="T12">
+      <c r="T12" t="s">
+        <v>64</v>
+      </c>
+      <c r="U12">
         <v>24</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>10</v>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
         <v>37</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>27</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>21</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AD12" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD12" t="s">
-        <v>47</v>
-      </c>
       <c r="AE12" t="s">
         <v>47</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG12">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -2411,78 +2453,81 @@
         <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
       </c>
       <c r="M13" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>0.02</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>4</v>
       </c>
-      <c r="P13" t="b">
-        <v>1</v>
-      </c>
       <c r="Q13" t="b">
         <v>1</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
         <v>28</v>
       </c>
-      <c r="S13" t="s">
-        <v>65</v>
-      </c>
-      <c r="T13">
+      <c r="T13" t="s">
+        <v>64</v>
+      </c>
+      <c r="U13">
         <v>24</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>10</v>
       </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13" t="s">
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="s">
         <v>37</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>27</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>21</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC13" s="7">
+      <c r="AD13" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD13" t="s">
-        <v>47</v>
-      </c>
       <c r="AE13" t="s">
         <v>47</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG13">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -2515,72 +2560,75 @@
         <v>0</v>
       </c>
       <c r="M15" t="b">
-        <v>1</v>
-      </c>
-      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15">
         <v>0.02</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>4</v>
       </c>
-      <c r="P15" t="b">
-        <v>1</v>
-      </c>
       <c r="Q15" t="b">
         <v>1</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s">
         <v>28</v>
       </c>
-      <c r="S15" t="s">
-        <v>65</v>
-      </c>
-      <c r="T15">
+      <c r="T15" t="s">
+        <v>64</v>
+      </c>
+      <c r="U15">
         <v>24</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>10</v>
       </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15" t="s">
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="s">
         <v>37</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>27</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>22</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC15" s="7">
+      <c r="AD15" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD15" t="s">
-        <v>47</v>
-      </c>
       <c r="AE15" t="s">
         <v>47</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG15">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -2607,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -2615,70 +2663,73 @@
       <c r="M16" t="b">
         <v>1</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16">
         <v>0.02</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>4</v>
       </c>
-      <c r="P16" t="b">
-        <v>1</v>
-      </c>
       <c r="Q16" t="b">
         <v>1</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" t="s">
         <v>28</v>
       </c>
-      <c r="S16" t="s">
-        <v>65</v>
-      </c>
-      <c r="T16">
+      <c r="T16" t="s">
+        <v>64</v>
+      </c>
+      <c r="U16">
         <v>24</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>10</v>
       </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16" t="s">
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="s">
         <v>37</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>27</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>22</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC16" s="7">
+      <c r="AD16" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD16" t="s">
-        <v>47</v>
-      </c>
       <c r="AE16" t="s">
         <v>47</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG16">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -2708,75 +2759,78 @@
         <v>0</v>
       </c>
       <c r="L17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17">
         <v>0.02</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>4</v>
       </c>
-      <c r="P17" t="b">
-        <v>1</v>
-      </c>
       <c r="Q17" t="b">
         <v>1</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
         <v>28</v>
       </c>
-      <c r="S17" t="s">
-        <v>65</v>
-      </c>
-      <c r="T17">
+      <c r="T17" t="s">
+        <v>64</v>
+      </c>
+      <c r="U17">
         <v>24</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>10</v>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17" t="s">
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="s">
         <v>37</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>27</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>22</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC17" s="7">
+      <c r="AD17" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD17" t="s">
-        <v>47</v>
-      </c>
       <c r="AE17" t="s">
         <v>47</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG17">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -2803,78 +2857,81 @@
         <v>0</v>
       </c>
       <c r="K18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="b">
-        <v>1</v>
-      </c>
-      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18">
         <v>0.02</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>4</v>
       </c>
-      <c r="P18" t="b">
-        <v>1</v>
-      </c>
       <c r="Q18" t="b">
         <v>1</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
         <v>28</v>
       </c>
-      <c r="S18" t="s">
-        <v>65</v>
-      </c>
-      <c r="T18">
+      <c r="T18" t="s">
+        <v>64</v>
+      </c>
+      <c r="U18">
         <v>24</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>10</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18" t="s">
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="s">
         <v>37</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>27</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>22</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC18" s="7">
+      <c r="AD18" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD18" t="s">
-        <v>47</v>
-      </c>
       <c r="AE18" t="s">
         <v>47</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG18">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -2901,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
@@ -2909,70 +2966,73 @@
       <c r="M19" t="b">
         <v>1</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19">
         <v>0.05</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>4</v>
       </c>
-      <c r="P19" t="b">
-        <v>1</v>
-      </c>
       <c r="Q19" t="b">
         <v>1</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
         <v>28</v>
       </c>
-      <c r="S19" t="s">
-        <v>65</v>
-      </c>
-      <c r="T19">
+      <c r="T19" t="s">
+        <v>64</v>
+      </c>
+      <c r="U19">
         <v>24</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>10</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19" t="s">
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="s">
         <v>37</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>27</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>22</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC19" s="7">
+      <c r="AD19" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD19" t="s">
-        <v>47</v>
-      </c>
       <c r="AE19" t="s">
         <v>47</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG19">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -2999,78 +3059,81 @@
         <v>0</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
       </c>
       <c r="M20" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>0.02</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>4</v>
       </c>
-      <c r="P20" t="b">
-        <v>1</v>
-      </c>
       <c r="Q20" t="b">
         <v>1</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
         <v>28</v>
       </c>
-      <c r="S20" t="s">
-        <v>65</v>
-      </c>
-      <c r="T20">
+      <c r="T20" t="s">
+        <v>64</v>
+      </c>
+      <c r="U20">
         <v>24</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>10</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20" t="s">
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="s">
         <v>37</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>27</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>22</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC20" s="7">
+      <c r="AD20" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD20" t="s">
-        <v>47</v>
-      </c>
       <c r="AE20" t="s">
         <v>47</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG20">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -3103,72 +3166,75 @@
         <v>0</v>
       </c>
       <c r="M22" t="b">
-        <v>1</v>
-      </c>
-      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22">
         <v>0.02</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>4</v>
       </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
       <c r="Q22" t="b">
         <v>1</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s">
         <v>28</v>
       </c>
-      <c r="S22" t="s">
-        <v>65</v>
-      </c>
-      <c r="T22">
+      <c r="T22" t="s">
+        <v>64</v>
+      </c>
+      <c r="U22">
         <v>24</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>10</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22" t="s">
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="s">
         <v>37</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>27</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>23</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC22" s="7">
+      <c r="AD22" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD22" t="s">
-        <v>47</v>
-      </c>
       <c r="AE22" t="s">
         <v>47</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG22">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -3195,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
@@ -3203,70 +3269,73 @@
       <c r="M23" t="b">
         <v>1</v>
       </c>
-      <c r="N23">
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23">
         <v>0.02</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>4</v>
       </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
       <c r="Q23" t="b">
         <v>1</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s">
         <v>28</v>
       </c>
-      <c r="S23" t="s">
-        <v>65</v>
-      </c>
-      <c r="T23">
+      <c r="T23" t="s">
+        <v>64</v>
+      </c>
+      <c r="U23">
         <v>24</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>10</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23" t="s">
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="s">
         <v>37</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>27</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>23</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC23" s="7">
+      <c r="AD23" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD23" t="s">
-        <v>47</v>
-      </c>
       <c r="AE23" t="s">
         <v>47</v>
       </c>
-      <c r="AF23">
+      <c r="AF23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG23">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -3296,75 +3365,78 @@
         <v>0</v>
       </c>
       <c r="L24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="b">
         <v>1</v>
       </c>
-      <c r="N24">
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24">
         <v>0.02</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>4</v>
       </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
       <c r="Q24" t="b">
         <v>1</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" t="s">
         <v>28</v>
       </c>
-      <c r="S24" t="s">
-        <v>65</v>
-      </c>
-      <c r="T24">
+      <c r="T24" t="s">
+        <v>64</v>
+      </c>
+      <c r="U24">
         <v>24</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>10</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24" t="s">
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="s">
         <v>37</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>27</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>23</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC24" s="7">
+      <c r="AD24" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD24" t="s">
-        <v>47</v>
-      </c>
       <c r="AE24" t="s">
         <v>47</v>
       </c>
-      <c r="AF24">
+      <c r="AF24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG24">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -3391,78 +3463,81 @@
         <v>0</v>
       </c>
       <c r="K25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="b">
-        <v>1</v>
-      </c>
-      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25">
         <v>0.02</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>4</v>
       </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
       <c r="Q25" t="b">
         <v>1</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" t="b">
+        <v>1</v>
+      </c>
+      <c r="S25" t="s">
         <v>28</v>
       </c>
-      <c r="S25" t="s">
-        <v>65</v>
-      </c>
-      <c r="T25">
+      <c r="T25" t="s">
+        <v>64</v>
+      </c>
+      <c r="U25">
         <v>24</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>10</v>
       </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25" t="s">
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="s">
         <v>37</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>27</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>23</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC25" s="7">
+      <c r="AD25" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD25" t="s">
-        <v>47</v>
-      </c>
       <c r="AE25" t="s">
         <v>47</v>
       </c>
-      <c r="AF25">
+      <c r="AF25" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG25">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -3489,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
@@ -3497,70 +3572,73 @@
       <c r="M26" t="b">
         <v>1</v>
       </c>
-      <c r="N26">
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26">
         <v>0.05</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>4</v>
       </c>
-      <c r="P26" t="b">
-        <v>1</v>
-      </c>
       <c r="Q26" t="b">
         <v>1</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R26" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" t="s">
         <v>28</v>
       </c>
-      <c r="S26" t="s">
-        <v>65</v>
-      </c>
-      <c r="T26">
+      <c r="T26" t="s">
+        <v>64</v>
+      </c>
+      <c r="U26">
         <v>24</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>10</v>
       </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26" t="s">
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="s">
         <v>37</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>27</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>23</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC26" s="7">
+      <c r="AD26" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD26" t="s">
-        <v>47</v>
-      </c>
       <c r="AE26" t="s">
         <v>47</v>
       </c>
-      <c r="AF26">
+      <c r="AF26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG26">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -3587,78 +3665,81 @@
         <v>0</v>
       </c>
       <c r="K27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
       </c>
       <c r="M27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>0.02</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>4</v>
       </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
       <c r="Q27" t="b">
         <v>1</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S27" t="s">
         <v>28</v>
       </c>
-      <c r="S27" t="s">
-        <v>65</v>
-      </c>
-      <c r="T27">
+      <c r="T27" t="s">
+        <v>64</v>
+      </c>
+      <c r="U27">
         <v>24</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>10</v>
       </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27" t="s">
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="s">
         <v>37</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>27</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>23</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC27" s="7">
+      <c r="AD27" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD27" t="s">
-        <v>47</v>
-      </c>
       <c r="AE27" t="s">
         <v>47</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG27">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -3685,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="b">
         <v>1</v>
@@ -3693,70 +3774,73 @@
       <c r="M29" t="b">
         <v>1</v>
       </c>
-      <c r="N29">
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29">
         <v>0.02</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>4</v>
       </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
       <c r="Q29" t="b">
         <v>1</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R29" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" t="s">
         <v>28</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
+        <v>123</v>
+      </c>
+      <c r="U29">
+        <v>24</v>
+      </c>
+      <c r="V29">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="W29">
+        <v>10</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB29">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC29">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AD29" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG29">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AH29">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>124</v>
-      </c>
-      <c r="T29">
-        <v>24</v>
-      </c>
-      <c r="U29">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="V29">
-        <v>10</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA29">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AB29">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AC29" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF29">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="AG29">
-        <v>0.60599999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>125</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -3783,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="b">
         <v>1</v>
@@ -3791,70 +3875,73 @@
       <c r="M30" t="b">
         <v>1</v>
       </c>
-      <c r="N30">
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30">
         <v>0.02</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>4</v>
       </c>
-      <c r="P30" t="b">
-        <v>1</v>
-      </c>
       <c r="Q30" t="b">
         <v>1</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R30" t="b">
+        <v>1</v>
+      </c>
+      <c r="S30" t="s">
         <v>28</v>
       </c>
-      <c r="S30" t="s">
-        <v>65</v>
-      </c>
-      <c r="T30">
+      <c r="T30" t="s">
+        <v>64</v>
+      </c>
+      <c r="U30">
         <v>24</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>10</v>
       </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30" t="s">
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="s">
         <v>37</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>27</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>21</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC30" s="7">
+      <c r="AD30" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD30" t="s">
-        <v>47</v>
-      </c>
       <c r="AE30" t="s">
         <v>47</v>
       </c>
-      <c r="AF30">
+      <c r="AF30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG30">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
@@ -3881,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="b">
         <v>1</v>
@@ -3889,70 +3976,73 @@
       <c r="M33" t="b">
         <v>1</v>
       </c>
-      <c r="N33">
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33">
         <v>0.02</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>4</v>
       </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
       <c r="Q33" t="b">
         <v>1</v>
       </c>
-      <c r="R33" t="s">
+      <c r="R33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" t="s">
         <v>28</v>
       </c>
-      <c r="S33" t="s">
-        <v>65</v>
-      </c>
-      <c r="T33">
+      <c r="T33" t="s">
+        <v>64</v>
+      </c>
+      <c r="U33">
         <v>24</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>5</v>
       </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33" t="s">
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="s">
         <v>37</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>27</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>21</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC33" s="7">
+      <c r="AD33" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD33" t="s">
-        <v>47</v>
-      </c>
       <c r="AE33" t="s">
         <v>47</v>
       </c>
-      <c r="AF33">
+      <c r="AF33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG33">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -3967,7 +4057,7 @@
         <v>36</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -3979,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="b">
         <v>1</v>
@@ -3987,70 +4077,73 @@
       <c r="M34" t="b">
         <v>1</v>
       </c>
-      <c r="N34">
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34">
         <v>0.02</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>4</v>
       </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
       <c r="Q34" t="b">
         <v>1</v>
       </c>
-      <c r="R34" t="s">
+      <c r="R34" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34" t="s">
         <v>28</v>
       </c>
-      <c r="S34" t="s">
-        <v>65</v>
-      </c>
-      <c r="T34">
+      <c r="T34" t="s">
+        <v>64</v>
+      </c>
+      <c r="U34">
         <v>24</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>5</v>
       </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34" t="s">
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="s">
         <v>37</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>27</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>22</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC34" s="7">
+      <c r="AD34" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD34" t="s">
-        <v>47</v>
-      </c>
       <c r="AE34" t="s">
         <v>47</v>
       </c>
-      <c r="AF34">
+      <c r="AF34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG34">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
@@ -4065,7 +4158,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
@@ -4077,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="b">
         <v>1</v>
@@ -4085,73 +4178,581 @@
       <c r="M35" t="b">
         <v>1</v>
       </c>
-      <c r="N35">
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35">
         <v>0.02</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>4</v>
       </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
       <c r="Q35" t="b">
         <v>1</v>
       </c>
-      <c r="R35" t="s">
+      <c r="R35" t="b">
+        <v>1</v>
+      </c>
+      <c r="S35" t="s">
         <v>28</v>
       </c>
-      <c r="S35" t="s">
-        <v>65</v>
-      </c>
-      <c r="T35">
+      <c r="T35" t="s">
+        <v>64</v>
+      </c>
+      <c r="U35">
         <v>24</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>5</v>
       </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35" t="s">
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="s">
         <v>37</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>27</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>23</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC35" s="7">
+      <c r="AD35" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD35" t="s">
-        <v>47</v>
-      </c>
       <c r="AE35" t="s">
         <v>47</v>
       </c>
-      <c r="AF35">
+      <c r="AF35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG35">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0.02</v>
+      </c>
+      <c r="P37" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="b">
+        <v>1</v>
+      </c>
+      <c r="R37" t="b">
+        <v>1</v>
+      </c>
+      <c r="S37" t="s">
+        <v>28</v>
+      </c>
+      <c r="T37" t="s">
+        <v>64</v>
+      </c>
+      <c r="U37">
+        <v>24</v>
+      </c>
+      <c r="V37">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="W37">
+        <v>10</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB37">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC37">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AD37" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG37">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AH37">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" t="b">
+        <v>1</v>
+      </c>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0.02</v>
+      </c>
+      <c r="P38" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="b">
+        <v>1</v>
+      </c>
+      <c r="R38" t="b">
+        <v>1</v>
+      </c>
+      <c r="S38" t="s">
+        <v>28</v>
+      </c>
+      <c r="T38" t="s">
+        <v>64</v>
+      </c>
+      <c r="U38">
+        <v>24</v>
+      </c>
+      <c r="V38">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="W38">
+        <v>10</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB38">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC38">
+        <v>7.22E-2</v>
+      </c>
+      <c r="AD38" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG38">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AH38">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0.02</v>
+      </c>
+      <c r="P39" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="b">
+        <v>1</v>
+      </c>
+      <c r="R39" t="b">
+        <v>1</v>
+      </c>
+      <c r="S39" t="s">
+        <v>28</v>
+      </c>
+      <c r="T39" t="s">
+        <v>64</v>
+      </c>
+      <c r="U39">
+        <v>24</v>
+      </c>
+      <c r="V39">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="W39">
+        <v>10</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB39">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AC39">
+        <v>7.22E-2</v>
+      </c>
+      <c r="AD39" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG39">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AH39">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0.02</v>
+      </c>
+      <c r="P41" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>1</v>
+      </c>
+      <c r="R41" t="b">
+        <v>1</v>
+      </c>
+      <c r="S41" t="s">
+        <v>28</v>
+      </c>
+      <c r="T41" t="s">
+        <v>64</v>
+      </c>
+      <c r="U41">
+        <v>24</v>
+      </c>
+      <c r="V41">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="W41">
+        <v>10</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB41">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC41">
+        <v>7.22E-2</v>
+      </c>
+      <c r="AD41" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG41">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AH41">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0.02</v>
+      </c>
+      <c r="P42" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="b">
+        <v>1</v>
+      </c>
+      <c r="R42" t="b">
+        <v>1</v>
+      </c>
+      <c r="S42" t="s">
+        <v>28</v>
+      </c>
+      <c r="T42" t="s">
+        <v>64</v>
+      </c>
+      <c r="U42">
+        <v>24</v>
+      </c>
+      <c r="V42">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="W42">
+        <v>10</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB42">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AC42">
+        <v>7.22E-2</v>
+      </c>
+      <c r="AD42" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG42">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AH42">
         <v>0.60599999999999998</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G30 H15:I20 H22:I27 H5:I13 H29:I30 G33:I35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G30 H15:I20 H22:I27 H5:I13 H29:I30 G33:I35 G37:I39 G41:I42">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y22:Y27 Y15:Y20 Y5:Y13 Y29:Y30 Y33:Y35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z22:Z27 Z15:Z20 Z5:Z13 Z29:Z30 Z33:Z35 Z37:Z39 Z41:Z42">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4165,7 +4766,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4293,7 +4894,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4318,7 +4919,7 @@
         <v>0.05</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4387,7 +4988,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4415,7 +5016,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4463,7 +5064,7 @@
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="20">
         <v>1.61</v>
@@ -4535,7 +5136,7 @@
     </row>
     <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="20">
         <v>37.35</v>
@@ -4550,7 +5151,7 @@
     </row>
     <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="13">
         <v>15.83</v>
@@ -4565,7 +5166,7 @@
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="13">
         <v>2.83</v>
@@ -4580,7 +5181,7 @@
     </row>
     <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="13">
         <v>20</v>
@@ -4595,7 +5196,7 @@
     </row>
     <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="13">
         <v>7.49</v>
@@ -4610,7 +5211,7 @@
     </row>
     <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -4618,7 +5219,7 @@
     </row>
     <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="20">
         <v>6.2</v>
@@ -4633,7 +5234,7 @@
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="20">
         <v>0.17799999999999999</v>
@@ -4643,7 +5244,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="23">
         <v>0.23499999999999999</v>
@@ -4653,7 +5254,7 @@
     </row>
     <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="25">
         <f>3.09+2+0.687</f>
@@ -4664,7 +5265,7 @@
     </row>
     <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="13">
         <v>13.38</v>
@@ -4677,7 +5278,7 @@
     </row>
     <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="13">
         <v>12.68</v>
@@ -4710,12 +5311,12 @@
   <sheetData>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12">
         <v>5.21</v>
@@ -4723,7 +5324,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>0.13700000000000001</v>
@@ -4731,7 +5332,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14">
         <v>0.17299999999999999</v>
@@ -4762,25 +5363,25 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
         <v>94</v>
       </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -4788,7 +5389,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -4805,7 +5406,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -4817,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4">
         <v>7.5</v>
@@ -4831,7 +5432,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -4848,7 +5449,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -4865,7 +5466,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -4877,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7">
         <v>7.5</v>
@@ -4888,13 +5489,13 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10">
         <v>12</v>
@@ -4902,10 +5503,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H11">
         <v>7.5</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
     <sheet name="GlobalParams" sheetId="3" r:id="rId2"/>
     <sheet name="returns" sheetId="2" r:id="rId3"/>
-    <sheet name="Calibration_2015" sheetId="7" r:id="rId4"/>
-    <sheet name="Calibration_benefit" sheetId="8" r:id="rId5"/>
-    <sheet name="Scenarios" sheetId="9" r:id="rId6"/>
+    <sheet name="Calibration_2016" sheetId="10" r:id="rId4"/>
+    <sheet name="Calibration_2015" sheetId="7" r:id="rId5"/>
+    <sheet name="Calibration_benefit" sheetId="8" r:id="rId6"/>
+    <sheet name="Scenarios" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,6 +25,175 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="V5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+AV2016 pdf page 30</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAFR p105
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAFR p97
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAFR p96
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+AV2016 pdf p17
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+AV2016
+pdf page 18</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
@@ -109,7 +279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="138">
   <si>
     <t>runname</t>
   </si>
@@ -511,16 +681,27 @@
   </si>
   <si>
     <t>RS1_SR1EL1.65.1</t>
+  </si>
+  <si>
+    <t>PVFB for vested</t>
+  </si>
+  <si>
+    <t>B Annual annuity</t>
+  </si>
+  <si>
+    <t>payroll  (est)</t>
+  </si>
+  <si>
+    <t>NC $b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -638,7 +819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -649,9 +830,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -695,6 +874,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,6 +894,475 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF1D99B-C2AD-4BDD-894F-6D49520F66A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="5000625"/>
+          <a:ext cx="6219825" cy="2495550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Duration: </a:t>
+          </a:r>
+          <a:endParaRPr lang="x-none" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AAL DR:   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>18174710587</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AAL +1%:  AAL: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>16192752562    (AL.act: 6941488396,      PVFB.act = 9984484403)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                   Change: 16192752562/18174710587 -1=-0.1091 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                   Target: -10.9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AAL -1%    AAL: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20564421674   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (AL.act = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9573882561</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,    PVFB.act = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>15528002079</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Change:   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20564421674/18174710587 -1=0.1315 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                  Target: 13.3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Duration: (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20564421674 - 16192752562)/(2*18174710587) = 0.1203 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Target: 12.12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>37159</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16A4457E-C7D3-419F-ABAA-AB9C00810F04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7972425" y="4676775"/>
+          <a:ext cx="7523809" cy="1352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1182,7 +1831,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1571,11 +2220,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI25" sqref="AI25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,7 +2284,7 @@
       <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="25" t="s">
         <v>129</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -1695,16 +2344,16 @@
       <c r="AD4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AE4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AF4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AG4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AH4" s="11" t="s">
+      <c r="AH4" s="9" t="s">
         <v>46</v>
       </c>
       <c r="AI4" s="1" t="s">
@@ -1794,7 +2443,7 @@
         <v>21</v>
       </c>
       <c r="AB5">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC5">
         <v>8.2199999999999995E-2</v>
@@ -1809,10 +2458,10 @@
         <v>47</v>
       </c>
       <c r="AG5">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH5">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -1832,7 +2481,7 @@
         <v>36</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -1895,7 +2544,7 @@
         <v>21</v>
       </c>
       <c r="AB6">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC6">
         <v>8.2199999999999995E-2</v>
@@ -1910,10 +2559,10 @@
         <v>47</v>
       </c>
       <c r="AG6">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH6">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -1999,7 +2648,7 @@
         <v>21</v>
       </c>
       <c r="AB8">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC8">
         <v>8.2199999999999995E-2</v>
@@ -2014,10 +2663,10 @@
         <v>47</v>
       </c>
       <c r="AG8">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH8">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -2100,7 +2749,7 @@
         <v>21</v>
       </c>
       <c r="AB9">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC9">
         <v>8.2199999999999995E-2</v>
@@ -2115,10 +2764,10 @@
         <v>47</v>
       </c>
       <c r="AG9">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH9">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
@@ -2201,7 +2850,7 @@
         <v>21</v>
       </c>
       <c r="AB10">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC10">
         <v>8.2199999999999995E-2</v>
@@ -2216,10 +2865,10 @@
         <v>47</v>
       </c>
       <c r="AG10">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH10">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
@@ -2302,7 +2951,7 @@
         <v>21</v>
       </c>
       <c r="AB11">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC11">
         <v>8.2199999999999995E-2</v>
@@ -2317,10 +2966,10 @@
         <v>47</v>
       </c>
       <c r="AG11">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH11">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
@@ -2403,7 +3052,7 @@
         <v>21</v>
       </c>
       <c r="AB12">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC12">
         <v>8.2199999999999995E-2</v>
@@ -2418,10 +3067,10 @@
         <v>47</v>
       </c>
       <c r="AG12">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH12">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
@@ -2504,7 +3153,7 @@
         <v>21</v>
       </c>
       <c r="AB13">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC13">
         <v>8.2199999999999995E-2</v>
@@ -2519,10 +3168,10 @@
         <v>47</v>
       </c>
       <c r="AG13">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH13">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
@@ -2605,7 +3254,7 @@
         <v>22</v>
       </c>
       <c r="AB15">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC15">
         <v>8.2199999999999995E-2</v>
@@ -2620,10 +3269,10 @@
         <v>47</v>
       </c>
       <c r="AG15">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH15">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
@@ -2706,7 +3355,7 @@
         <v>22</v>
       </c>
       <c r="AB16">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC16">
         <v>8.2199999999999995E-2</v>
@@ -2721,10 +3370,10 @@
         <v>47</v>
       </c>
       <c r="AG16">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH16">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
@@ -2807,7 +3456,7 @@
         <v>22</v>
       </c>
       <c r="AB17">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC17">
         <v>8.2199999999999995E-2</v>
@@ -2822,10 +3471,10 @@
         <v>47</v>
       </c>
       <c r="AG17">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH17">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
@@ -2908,7 +3557,7 @@
         <v>22</v>
       </c>
       <c r="AB18">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC18">
         <v>8.2199999999999995E-2</v>
@@ -2923,10 +3572,10 @@
         <v>47</v>
       </c>
       <c r="AG18">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH18">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -3009,7 +3658,7 @@
         <v>22</v>
       </c>
       <c r="AB19">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC19">
         <v>8.2199999999999995E-2</v>
@@ -3024,10 +3673,10 @@
         <v>47</v>
       </c>
       <c r="AG19">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH19">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
@@ -3110,7 +3759,7 @@
         <v>22</v>
       </c>
       <c r="AB20">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC20">
         <v>8.2199999999999995E-2</v>
@@ -3125,10 +3774,10 @@
         <v>47</v>
       </c>
       <c r="AG20">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH20">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
@@ -3211,7 +3860,7 @@
         <v>23</v>
       </c>
       <c r="AB22">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC22">
         <v>8.2199999999999995E-2</v>
@@ -3226,10 +3875,10 @@
         <v>47</v>
       </c>
       <c r="AG22">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH22">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
@@ -3312,7 +3961,7 @@
         <v>23</v>
       </c>
       <c r="AB23">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC23">
         <v>8.2199999999999995E-2</v>
@@ -3327,10 +3976,10 @@
         <v>47</v>
       </c>
       <c r="AG23">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH23">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
@@ -3413,7 +4062,7 @@
         <v>23</v>
       </c>
       <c r="AB24">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC24">
         <v>8.2199999999999995E-2</v>
@@ -3428,10 +4077,10 @@
         <v>47</v>
       </c>
       <c r="AG24">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH24">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
@@ -3514,7 +4163,7 @@
         <v>23</v>
       </c>
       <c r="AB25">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC25">
         <v>8.2199999999999995E-2</v>
@@ -3529,10 +4178,10 @@
         <v>47</v>
       </c>
       <c r="AG25">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH25">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
@@ -3615,7 +4264,7 @@
         <v>23</v>
       </c>
       <c r="AB26">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC26">
         <v>8.2199999999999995E-2</v>
@@ -3630,10 +4279,10 @@
         <v>47</v>
       </c>
       <c r="AG26">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH26">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
@@ -3716,7 +4365,7 @@
         <v>23</v>
       </c>
       <c r="AB27">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC27">
         <v>8.2199999999999995E-2</v>
@@ -3731,10 +4380,21 @@
         <v>47</v>
       </c>
       <c r="AG27">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH27">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AB28">
+        <v>725</v>
+      </c>
+      <c r="AG28">
+        <v>0.499</v>
+      </c>
+      <c r="AH28">
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
@@ -3817,7 +4477,7 @@
         <v>21</v>
       </c>
       <c r="AB29">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC29">
         <v>8.2199999999999995E-2</v>
@@ -3832,10 +4492,10 @@
         <v>47</v>
       </c>
       <c r="AG29">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH29">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
@@ -3918,7 +4578,7 @@
         <v>21</v>
       </c>
       <c r="AB30">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC30">
         <v>8.2199999999999995E-2</v>
@@ -3933,10 +4593,10 @@
         <v>47</v>
       </c>
       <c r="AG30">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH30">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
@@ -4019,7 +4679,7 @@
         <v>21</v>
       </c>
       <c r="AB33">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC33">
         <v>8.2199999999999995E-2</v>
@@ -4034,10 +4694,10 @@
         <v>47</v>
       </c>
       <c r="AG33">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH33">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
@@ -4120,7 +4780,7 @@
         <v>22</v>
       </c>
       <c r="AB34">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC34">
         <v>8.2199999999999995E-2</v>
@@ -4135,10 +4795,10 @@
         <v>47</v>
       </c>
       <c r="AG34">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH34">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
@@ -4221,7 +4881,7 @@
         <v>23</v>
       </c>
       <c r="AB35">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC35">
         <v>8.2199999999999995E-2</v>
@@ -4236,10 +4896,10 @@
         <v>47</v>
       </c>
       <c r="AG35">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH35">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
@@ -4259,7 +4919,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
@@ -4322,7 +4982,7 @@
         <v>21</v>
       </c>
       <c r="AB37">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC37">
         <v>8.2199999999999995E-2</v>
@@ -4337,10 +4997,10 @@
         <v>47</v>
       </c>
       <c r="AG37">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH37">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
@@ -4423,7 +5083,7 @@
         <v>21</v>
       </c>
       <c r="AB38">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC38">
         <v>7.22E-2</v>
@@ -4438,10 +5098,10 @@
         <v>47</v>
       </c>
       <c r="AG38">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH38">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
@@ -4524,7 +5184,7 @@
         <v>21</v>
       </c>
       <c r="AB39">
-        <v>6.5000000000000002E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC39">
         <v>7.22E-2</v>
@@ -4539,10 +5199,10 @@
         <v>47</v>
       </c>
       <c r="AG39">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH39">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
@@ -4625,7 +5285,7 @@
         <v>21</v>
       </c>
       <c r="AB41">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC41">
         <v>7.22E-2</v>
@@ -4640,10 +5300,10 @@
         <v>47</v>
       </c>
       <c r="AG41">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH41">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
@@ -4726,7 +5386,7 @@
         <v>21</v>
       </c>
       <c r="AB42">
-        <v>6.5000000000000002E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AC42">
         <v>7.22E-2</v>
@@ -4741,10 +5401,10 @@
         <v>47</v>
       </c>
       <c r="AG42">
-        <v>0.54600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="AH42">
-        <v>0.60599999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -4758,6 +5418,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4766,7 +5427,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4802,13 +5463,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B4">
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -4836,7 +5497,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4845,7 +5506,7 @@
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="38" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4876,24 +5537,24 @@
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="9">
-        <v>8.2199999999999995E-2</v>
+      <c r="B2" s="8">
+        <v>7.9699999999999993E-2</v>
       </c>
       <c r="C2" s="7">
         <v>0.12</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="8">
         <f>B2-C2^2/2</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F2" s="10">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="F2" s="26">
         <f>B2 - C2^2/2</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G2" s="26" t="s">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4914,7 +5575,7 @@
         <f>B3-C3^2/2</f>
         <v>0.05</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="26">
         <f t="shared" ref="F3:F6" si="0">B3 - C3^2/2</f>
         <v>0.05</v>
       </c>
@@ -4939,7 +5600,7 @@
         <f>B4-C4^2/2</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="26">
         <f t="shared" si="0"/>
         <v>6.5000000000000002E-2</v>
       </c>
@@ -4949,43 +5610,41 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>8.2199999999999995E-2</v>
+        <v>7.9699999999999993E-2</v>
       </c>
       <c r="C5" s="7">
         <v>0.12</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <f>B5-C5^2/2</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F5" s="10">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="F5" s="26">
         <f t="shared" si="0"/>
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="17">
-        <v>8.9791999999999997E-2</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="B6" s="15">
+        <v>8.7291999999999995E-2</v>
+      </c>
+      <c r="C6" s="16">
         <v>0.17199999999999999</v>
       </c>
       <c r="D6">
-        <v>31</v>
-      </c>
-      <c r="E6" s="16">
-        <f t="shared" ref="E6" si="1">B6-C6^2/2</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F6" s="10">
+        <v>30</v>
+      </c>
+      <c r="E6" s="14">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="F6" s="26">
         <f t="shared" si="0"/>
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="G6" t="s">
         <v>91</v>
@@ -4999,296 +5658,330 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E21"/>
+  <dimension ref="B1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="10" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="20">
-        <v>61.13</v>
-      </c>
-      <c r="D3" s="20">
-        <v>60</v>
-      </c>
-      <c r="E3" s="21">
+      <c r="C3" s="18">
+        <v>61.86</v>
+      </c>
+      <c r="D3" s="18">
+        <v>63.17</v>
+      </c>
+      <c r="E3" s="19">
         <f>D3/C3</f>
-        <v>0.98151480451496809</v>
+        <v>1.0211768509537666</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="20">
-        <v>52.74</v>
-      </c>
-      <c r="D4" s="20">
-        <f>D7-D6</f>
-        <v>52.900000000000006</v>
-      </c>
-      <c r="E4" s="21">
-        <f t="shared" ref="E4:E16" si="0">D4/C4</f>
-        <v>1.0030337504740237</v>
+      <c r="C4" s="18">
+        <v>55.31</v>
+      </c>
+      <c r="D4" s="18">
+        <v>54.7</v>
+      </c>
+      <c r="E4" s="19">
+        <f t="shared" ref="E4:E17" si="0">D4/C4</f>
+        <v>0.98897125293798593</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="20">
-        <v>1.61</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
+      <c r="B5" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1.83</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1.83</v>
+      </c>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="13">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="D6" s="13">
-        <v>39</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="C6" s="11">
+        <v>42.85</v>
+      </c>
+      <c r="D6" s="11">
+        <v>41</v>
+      </c>
+      <c r="E6" s="12">
         <f>D6/C6</f>
-        <v>0.9701492537313432</v>
+        <v>0.95682613768961489</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <f>SUM(C4:C6)</f>
-        <v>94.550000000000011</v>
-      </c>
-      <c r="D7" s="13">
-        <v>91.9</v>
-      </c>
-      <c r="E7" s="14">
+        <v>99.990000000000009</v>
+      </c>
+      <c r="D7" s="11">
+        <f>SUM(D4:D6)</f>
+        <v>97.53</v>
+      </c>
+      <c r="E7" s="12">
         <f t="shared" si="0"/>
-        <v>0.97197250132205182</v>
+        <v>0.97539753975397536</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="20">
-        <v>57.36</v>
-      </c>
-      <c r="D8" s="20">
-        <v>55.7</v>
-      </c>
-      <c r="E8" s="21">
+      <c r="C8" s="18">
+        <v>57.39</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19">
         <f t="shared" si="0"/>
-        <v>0.97105997210599726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="20">
-        <f>C7*0.546</f>
-        <v>51.624300000000012</v>
-      </c>
-      <c r="D9" s="20">
-        <v>50.2</v>
-      </c>
-      <c r="E9" s="21">
+      <c r="C9" s="18">
+        <v>49.96</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19">
         <f t="shared" si="0"/>
-        <v>0.9724102796551235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="20">
-        <v>37.35</v>
-      </c>
-      <c r="D10" s="20">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="E10" s="21">
+      <c r="C10" s="18">
+        <v>42.7</v>
+      </c>
+      <c r="D10" s="18">
+        <v>40.86</v>
+      </c>
+      <c r="E10" s="19">
         <f t="shared" si="0"/>
-        <v>0.9692101740294512</v>
+        <v>0.9569086651053863</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="13">
-        <v>15.83</v>
-      </c>
-      <c r="D11" s="13">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="B11" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="18">
+        <f>C22*C12/100</f>
+        <v>2.0496276</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2.214</v>
+      </c>
+      <c r="E11" s="19">
         <f t="shared" si="0"/>
-        <v>1.0486418193303855</v>
+        <v>1.0801962268657974</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="11">
+        <v>15.24</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="13">
-        <v>2.83</v>
-      </c>
-      <c r="D12" s="13">
-        <v>2.75</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="C13" s="11">
+        <f>C22*C14/100</f>
+        <v>3.2331395999999999</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="E13" s="12">
         <f t="shared" si="0"/>
-        <v>0.9717314487632509</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+        <v>0.85829884982386784</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="13">
-        <v>20</v>
-      </c>
-      <c r="D13" s="13">
-        <v>21.6</v>
-      </c>
-      <c r="E13" s="14">
+      <c r="C14" s="11">
+        <v>24.04</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12">
         <f t="shared" si="0"/>
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="13">
-        <v>7.49</v>
-      </c>
-      <c r="D14" s="13">
-        <v>7.56</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="C15" s="11">
+        <v>7.54</v>
+      </c>
+      <c r="D15" s="11">
+        <v>7.57</v>
+      </c>
+      <c r="E15" s="12">
         <f t="shared" si="0"/>
-        <v>1.0093457943925233</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
+        <v>1.0039787798408488</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="19" t="s">
+      <c r="C16" s="11">
+        <f>C23*C15/100</f>
+        <v>0.96888999999999992</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="20">
-        <v>6.2</v>
-      </c>
-      <c r="D16" s="20">
-        <v>5.52</v>
-      </c>
-      <c r="E16" s="21">
+      <c r="C17" s="18">
+        <v>6.36</v>
+      </c>
+      <c r="D17" s="18">
+        <v>5.49</v>
+      </c>
+      <c r="E17" s="19">
         <f t="shared" si="0"/>
-        <v>0.89032258064516123</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="20" t="s">
+        <v>0.8632075471698113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="20">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
+      <c r="C18" s="18">
+        <v>0.182</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="23">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="25" t="s">
+      <c r="C19" s="21">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="25">
-        <f>3.09+2+0.687</f>
-        <v>5.7770000000000001</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="13">
-        <v>13.38</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14">
-        <f>D20/C20</f>
-        <v>0</v>
-      </c>
+      <c r="C20" s="23">
+        <f>3.2+2+0.687</f>
+        <v>5.8870000000000005</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="23">
+        <v>5.67</v>
+      </c>
+      <c r="D21" s="18">
+        <v>5.49</v>
+      </c>
+      <c r="E21" s="19">
+        <f t="shared" ref="E21" si="1">D21/C21</f>
+        <v>0.96825396825396826</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="11">
+        <v>13.449</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12">
+        <f>D22/C22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="13">
-        <v>12.68</v>
-      </c>
-      <c r="D21" s="13">
-        <v>12.7</v>
-      </c>
-      <c r="E21" s="14">
-        <f>D21/C21</f>
-        <v>1.001577287066246</v>
+      <c r="C23" s="11">
+        <v>12.85</v>
+      </c>
+      <c r="D23" s="11">
+        <v>12.92</v>
+      </c>
+      <c r="E23" s="12">
+        <f>D23/C23</f>
+        <v>1.0054474708171206</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="10">
+        <f>49956.6/100114</f>
+        <v>0.49899714325668737</v>
       </c>
     </row>
   </sheetData>
@@ -5300,11 +5993,313 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="18">
+        <v>61.13</v>
+      </c>
+      <c r="D3" s="18">
+        <v>60</v>
+      </c>
+      <c r="E3" s="19">
+        <f>D3/C3</f>
+        <v>0.98151480451496809</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="18">
+        <v>52.74</v>
+      </c>
+      <c r="D4" s="18">
+        <f>D7-D6</f>
+        <v>52.900000000000006</v>
+      </c>
+      <c r="E4" s="19">
+        <f t="shared" ref="E4:E16" si="0">D4/C4</f>
+        <v>1.0030337504740237</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1.61</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="11">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="D6" s="11">
+        <v>39</v>
+      </c>
+      <c r="E6" s="12">
+        <f>D6/C6</f>
+        <v>0.9701492537313432</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="11">
+        <f>SUM(C4:C6)</f>
+        <v>94.550000000000011</v>
+      </c>
+      <c r="D7" s="11">
+        <v>91.9</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
+        <v>0.97197250132205182</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="18">
+        <v>57.36</v>
+      </c>
+      <c r="D8" s="18">
+        <v>55.7</v>
+      </c>
+      <c r="E8" s="19">
+        <f t="shared" si="0"/>
+        <v>0.97105997210599726</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="18">
+        <f>C7*0.546</f>
+        <v>51.624300000000012</v>
+      </c>
+      <c r="D9" s="18">
+        <v>50.2</v>
+      </c>
+      <c r="E9" s="19">
+        <f t="shared" si="0"/>
+        <v>0.9724102796551235</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="18">
+        <v>37.35</v>
+      </c>
+      <c r="D10" s="18">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E10" s="19">
+        <f t="shared" si="0"/>
+        <v>0.9692101740294512</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="11">
+        <v>15.83</v>
+      </c>
+      <c r="D11" s="11">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="0"/>
+        <v>1.0486418193303855</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2.83</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2.75</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="0"/>
+        <v>0.9717314487632509</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="11">
+        <v>20</v>
+      </c>
+      <c r="D13" s="11">
+        <v>21.6</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="11">
+        <v>7.49</v>
+      </c>
+      <c r="D14" s="11">
+        <v>7.56</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="0"/>
+        <v>1.0093457943925233</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="18">
+        <v>6.2</v>
+      </c>
+      <c r="D16" s="18">
+        <v>5.52</v>
+      </c>
+      <c r="E16" s="19">
+        <f t="shared" si="0"/>
+        <v>0.89032258064516123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="23">
+        <f>3.09+2+0.687</f>
+        <v>5.7770000000000001</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="11">
+        <v>13.38</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12">
+        <f>D20/C20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="11">
+        <v>12.68</v>
+      </c>
+      <c r="D21" s="11">
+        <v>12.7</v>
+      </c>
+      <c r="E21" s="12">
+        <f>D21/C21</f>
+        <v>1.001577287066246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B11:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5344,7 +6339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I11"/>
   <sheetViews>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -702,7 +702,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -844,8 +844,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1317,16 +1317,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>37159</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142706</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>570559</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47456</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1349,7 +1349,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7972425" y="4676775"/>
+          <a:off x="447675" y="8601075"/>
           <a:ext cx="7523809" cy="1352381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5497,7 +5497,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5658,10 +5658,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E43"/>
+  <dimension ref="B1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5673,12 +5673,12 @@
     <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
         <v>56</v>
@@ -5690,7 +5690,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>50</v>
       </c>
@@ -5698,14 +5698,14 @@
         <v>61.86</v>
       </c>
       <c r="D3" s="18">
-        <v>63.17</v>
+        <v>62.3</v>
       </c>
       <c r="E3" s="19">
         <f>D3/C3</f>
-        <v>1.0211768509537666</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.0071128354348529</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
         <v>51</v>
       </c>
@@ -5713,14 +5713,14 @@
         <v>55.31</v>
       </c>
       <c r="D4" s="18">
-        <v>54.7</v>
+        <v>55.38</v>
       </c>
       <c r="E4" s="19">
         <f t="shared" ref="E4:E17" si="0">D4/C4</f>
-        <v>0.98897125293798593</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.0012655939251491</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>134</v>
       </c>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>53</v>
       </c>
@@ -5740,14 +5740,18 @@
         <v>42.85</v>
       </c>
       <c r="D6" s="11">
-        <v>41</v>
+        <v>40.56</v>
       </c>
       <c r="E6" s="12">
         <f>D6/C6</f>
-        <v>0.95682613768961489</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.94655775962660449</v>
+      </c>
+      <c r="F6">
+        <f>(D3-D6)/D3</f>
+        <v>0.34895666131621184</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>52</v>
       </c>
@@ -5757,14 +5761,14 @@
       </c>
       <c r="D7" s="11">
         <f>SUM(D4:D6)</f>
-        <v>97.53</v>
+        <v>97.77000000000001</v>
       </c>
       <c r="E7" s="12">
         <f t="shared" si="0"/>
-        <v>0.97539753975397536</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.97779777977797777</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18" t="s">
         <v>54</v>
       </c>
@@ -5777,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
         <v>55</v>
       </c>
@@ -5790,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>73</v>
       </c>
@@ -5798,14 +5802,14 @@
         <v>42.7</v>
       </c>
       <c r="D10" s="18">
-        <v>40.86</v>
+        <v>41.9</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" si="0"/>
-        <v>0.9569086651053863</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.98126463700234179</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>137</v>
       </c>
@@ -5814,14 +5818,14 @@
         <v>2.0496276</v>
       </c>
       <c r="D11" s="18">
-        <v>2.214</v>
+        <v>2.1869999999999998</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" si="0"/>
-        <v>1.0801962268657974</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.0670231021479217</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
         <v>70</v>
       </c>
@@ -5834,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>69</v>
       </c>
@@ -5843,14 +5847,14 @@
         <v>3.2331395999999999</v>
       </c>
       <c r="D13" s="11">
-        <v>2.7749999999999999</v>
+        <v>2.85</v>
       </c>
       <c r="E13" s="12">
         <f t="shared" si="0"/>
-        <v>0.85829884982386784</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.88149611603532374</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>72</v>
       </c>
@@ -5863,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>71</v>
       </c>
@@ -5878,7 +5882,7 @@
         <v>1.0039787798408488</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
         <v>77</v>
       </c>
@@ -5897,11 +5901,11 @@
         <v>6.36</v>
       </c>
       <c r="D17" s="18">
-        <v>5.49</v>
+        <v>6.18</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" si="0"/>
-        <v>0.8632075471698113</v>
+        <v>0.97169811320754707</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5982,6 +5986,24 @@
       <c r="B43" s="10">
         <f>49956.6/100114</f>
         <v>0.49899714325668737</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="10">
+        <f>(64.7-41.8)/64.7</f>
+        <v>0.35394126738794446</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="10">
+        <f>(2.187 - 0.979 + 3.1)/12.92</f>
+        <v>0.33343653250773991</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="10">
+        <f>33.3/31.7</f>
+        <v>1.0504731861198737</v>
       </c>
     </row>
   </sheetData>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="139">
   <si>
     <t>runname</t>
   </si>
@@ -693,6 +693,9 @@
   </si>
   <si>
     <t>NC $b</t>
+  </si>
+  <si>
+    <t>SC $b in2018</t>
   </si>
 </sst>
 </file>
@@ -2223,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AJ42"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI25" sqref="AI25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,7 +2484,7 @@
         <v>36</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -2585,7 +2588,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -2686,7 +2689,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -2787,7 +2790,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -2888,7 +2891,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -2989,7 +2992,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -3090,7 +3093,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -3191,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -3292,7 +3295,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -3393,7 +3396,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -3494,7 +3497,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -3595,7 +3598,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -3696,7 +3699,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -3797,7 +3800,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -3898,7 +3901,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -3999,7 +4002,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -4100,7 +4103,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -4201,7 +4204,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -4302,7 +4305,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -4387,9 +4390,6 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AB28">
-        <v>725</v>
-      </c>
       <c r="AG28">
         <v>0.499</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -4515,7 +4515,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -5409,7 +5409,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G30 H15:I20 H22:I27 H5:I13 H29:I30 G33:I35 G37:I39 G41:I42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G41:I42 G15:I20 G22:I27 H5:I13 H29:I30 G33:I35 G37:I39 G28:G30 G21 G5:G14">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z22:Z27 Z15:Z20 Z5:Z13 Z29:Z30 Z33:Z35 Z37:Z39 Z41:Z42">
@@ -5497,7 +5497,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5660,8 +5660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5698,11 +5698,11 @@
         <v>61.86</v>
       </c>
       <c r="D3" s="18">
-        <v>62.3</v>
+        <v>62.89</v>
       </c>
       <c r="E3" s="19">
         <f>D3/C3</f>
-        <v>1.0071128354348529</v>
+        <v>1.0166505011315874</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5740,15 +5740,15 @@
         <v>42.85</v>
       </c>
       <c r="D6" s="11">
-        <v>40.56</v>
+        <v>40.92</v>
       </c>
       <c r="E6" s="12">
         <f>D6/C6</f>
-        <v>0.94655775962660449</v>
+        <v>0.9549591598599767</v>
       </c>
       <c r="F6">
         <f>(D3-D6)/D3</f>
-        <v>0.34895666131621184</v>
+        <v>0.34934011766576561</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5761,11 +5761,11 @@
       </c>
       <c r="D7" s="11">
         <f>SUM(D4:D6)</f>
-        <v>97.77000000000001</v>
+        <v>98.13</v>
       </c>
       <c r="E7" s="12">
         <f t="shared" si="0"/>
-        <v>0.97779777977797777</v>
+        <v>0.98139813981398127</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5775,10 +5775,12 @@
       <c r="C8" s="18">
         <v>57.39</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="18">
+        <v>56.2</v>
+      </c>
       <c r="E8" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.97926468025788471</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5788,10 +5790,12 @@
       <c r="C9" s="18">
         <v>49.96</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="18">
+        <v>49</v>
+      </c>
       <c r="E9" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.98078462770216168</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5802,11 +5806,11 @@
         <v>42.7</v>
       </c>
       <c r="D10" s="18">
-        <v>41.9</v>
+        <v>41.91</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" si="0"/>
-        <v>0.98126463700234179</v>
+        <v>0.98149882903981245</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5818,11 +5822,11 @@
         <v>2.0496276</v>
       </c>
       <c r="D11" s="18">
-        <v>2.1869999999999998</v>
+        <v>2.2067999999999999</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" si="0"/>
-        <v>1.0670231021479217</v>
+        <v>1.0766833936076972</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5840,18 +5844,18 @@
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="C13" s="11">
         <f>C22*C14/100</f>
         <v>3.2331395999999999</v>
       </c>
       <c r="D13" s="11">
-        <v>2.85</v>
+        <v>3.19</v>
       </c>
       <c r="E13" s="12">
         <f t="shared" si="0"/>
-        <v>0.88149611603532374</v>
+        <v>0.98665705619392374</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -30,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="V5" authorId="0" shapeId="0">
+    <comment ref="W5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -279,7 +279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="144">
   <si>
     <t>runname</t>
   </si>
@@ -671,18 +671,6 @@
     <t>DC_reform</t>
   </si>
   <si>
-    <t>RS1_SR1EL1.DC75</t>
-  </si>
-  <si>
-    <t>RS1_SR1EL1.DC65.1</t>
-  </si>
-  <si>
-    <t>RS1_SR1EL1.DC65.2</t>
-  </si>
-  <si>
-    <t>RS1_SR1EL1.65.1</t>
-  </si>
-  <si>
     <t>PVFB for vested</t>
   </si>
   <si>
@@ -696,6 +684,33 @@
   </si>
   <si>
     <t>SC $b in2018</t>
+  </si>
+  <si>
+    <t>higher Shared-risk cap</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1.Reform725</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1.Reform625.1</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1.Reform625.2</t>
+  </si>
+  <si>
+    <t>discount rate 7.25%</t>
+  </si>
+  <si>
+    <t>discount rate 6.25%</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1.625.1</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1.625.2</t>
+  </si>
+  <si>
+    <t>DC_reform_start.year</t>
   </si>
 </sst>
 </file>
@@ -2224,39 +2239,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AJ42"/>
+  <dimension ref="A4:AK42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="14.28515625" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
-    <col min="24" max="24" width="14" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" customWidth="1"/>
-    <col min="35" max="35" width="15.140625" customWidth="1"/>
-    <col min="36" max="36" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="16" width="14.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="14" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" customWidth="1"/>
+    <col min="36" max="36" width="15.140625" customWidth="1"/>
+    <col min="37" max="37" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2290,83 +2311,86 @@
       <c r="K4" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Z4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AE4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AH4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AI4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AK4" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -2392,13 +2416,13 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="b">
-        <v>1</v>
+      <c r="L5">
+        <v>2017</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -2406,68 +2430,71 @@
       <c r="N5" t="b">
         <v>1</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>0.02</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" t="b">
-        <v>1</v>
-      </c>
       <c r="R5" t="b">
         <v>1</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
         <v>28</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>64</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>24</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>10</v>
       </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>48</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>21</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC5">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AD5" s="7">
+      <c r="AD5">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AE5" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>47</v>
       </c>
       <c r="AF5" t="s">
         <v>47</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH5">
         <v>0.499</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -2498,8 +2525,8 @@
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="b">
-        <v>1</v>
+      <c r="L6">
+        <v>2017</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -2507,71 +2534,74 @@
       <c r="N6" t="b">
         <v>1</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>0.02</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" t="b">
-        <v>1</v>
-      </c>
       <c r="R6" t="b">
         <v>1</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
         <v>28</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>64</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>24</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>10</v>
       </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
         <v>37</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>48</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>21</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC6">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AD6" s="7">
+      <c r="AD6">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AE6" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>47</v>
       </c>
       <c r="AF6" t="s">
         <v>47</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH6">
         <v>0.499</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AD7" s="7"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AE7" s="7"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -2588,7 +2618,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -2602,77 +2632,80 @@
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="b">
-        <v>0</v>
+      <c r="L8">
+        <v>2017</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>0.02</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" t="b">
-        <v>1</v>
-      </c>
       <c r="R8" t="b">
         <v>1</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
         <v>28</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>64</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>24</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>10</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="s">
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="s">
         <v>37</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>27</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>21</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AE8" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>47</v>
       </c>
       <c r="AF8" t="s">
         <v>47</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH8">
         <v>0.499</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -2703,8 +2736,8 @@
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="b">
-        <v>1</v>
+      <c r="L9">
+        <v>2017</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
@@ -2712,68 +2745,71 @@
       <c r="N9" t="b">
         <v>1</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>0.02</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" t="b">
-        <v>1</v>
-      </c>
       <c r="R9" t="b">
         <v>1</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
         <v>28</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>64</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>24</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>10</v>
       </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="s">
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="s">
         <v>37</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>27</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>21</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD9" s="7">
+      <c r="AE9" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>47</v>
       </c>
       <c r="AF9" t="s">
         <v>47</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH9">
         <v>0.499</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -2790,7 +2826,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -2804,77 +2840,80 @@
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="b">
-        <v>0</v>
+      <c r="L10">
+        <v>2017</v>
       </c>
       <c r="M10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10">
         <v>0.02</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" t="b">
-        <v>1</v>
-      </c>
       <c r="R10" t="b">
         <v>1</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
         <v>28</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>64</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>24</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>10</v>
       </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="s">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="s">
         <v>37</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>27</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>21</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD10" s="7">
+      <c r="AE10" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>47</v>
       </c>
       <c r="AF10" t="s">
         <v>47</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH10">
         <v>0.499</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -2891,7 +2930,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -2905,77 +2944,80 @@
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="b">
-        <v>1</v>
+      <c r="L11">
+        <v>2017</v>
       </c>
       <c r="M11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11">
         <v>0.02</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>4</v>
       </c>
-      <c r="Q11" t="b">
-        <v>1</v>
-      </c>
       <c r="R11" t="b">
         <v>1</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
         <v>28</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>64</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>24</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>10</v>
       </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="s">
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>27</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>21</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD11" s="7">
+      <c r="AE11" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>47</v>
       </c>
       <c r="AF11" t="s">
         <v>47</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH11">
         <v>0.499</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -2988,11 +3030,14 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
       <c r="F12" t="s">
         <v>36</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -3006,8 +3051,8 @@
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="b">
-        <v>1</v>
+      <c r="L12">
+        <v>2017</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -3015,68 +3060,71 @@
       <c r="N12" t="b">
         <v>1</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12">
         <v>0.05</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" t="b">
-        <v>1</v>
-      </c>
       <c r="R12" t="b">
         <v>1</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
         <v>28</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>64</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>24</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>10</v>
       </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="s">
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="s">
         <v>37</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>27</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>21</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AE12" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>47</v>
       </c>
       <c r="AF12" t="s">
         <v>47</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH12">
         <v>0.499</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -3093,7 +3141,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -3107,77 +3155,80 @@
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="b">
-        <v>1</v>
+      <c r="L13">
+        <v>2017</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
       </c>
       <c r="N13" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>0.02</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" t="b">
-        <v>1</v>
-      </c>
       <c r="R13" t="b">
         <v>1</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
         <v>28</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>64</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>24</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>10</v>
       </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="s">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="s">
         <v>37</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>27</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>21</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD13" s="7">
+      <c r="AE13" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>47</v>
       </c>
       <c r="AF13" t="s">
         <v>47</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH13">
         <v>0.499</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -3194,7 +3245,7 @@
         <v>36</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -3208,77 +3259,80 @@
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="b">
-        <v>0</v>
+      <c r="L15">
+        <v>2017</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
       </c>
       <c r="N15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15">
         <v>0.02</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" t="b">
-        <v>1</v>
-      </c>
       <c r="R15" t="b">
         <v>1</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
         <v>28</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>64</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>24</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>10</v>
       </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="s">
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="s">
         <v>37</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>27</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>22</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD15" s="7">
+      <c r="AE15" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>47</v>
       </c>
       <c r="AF15" t="s">
         <v>47</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH15">
         <v>0.499</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -3295,7 +3349,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -3309,8 +3363,8 @@
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="b">
-        <v>1</v>
+      <c r="L16">
+        <v>2017</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -3318,68 +3372,71 @@
       <c r="N16" t="b">
         <v>1</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16">
         <v>0.02</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>4</v>
       </c>
-      <c r="Q16" t="b">
-        <v>1</v>
-      </c>
       <c r="R16" t="b">
         <v>1</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
         <v>28</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>64</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>24</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>10</v>
       </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="s">
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="s">
         <v>37</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>27</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>22</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD16" s="7">
+      <c r="AE16" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>47</v>
       </c>
       <c r="AF16" t="s">
         <v>47</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH16">
         <v>0.499</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -3396,7 +3453,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -3410,77 +3467,80 @@
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="b">
-        <v>0</v>
+      <c r="L17">
+        <v>2017</v>
       </c>
       <c r="M17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="b">
         <v>1</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17">
         <v>0.02</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" t="b">
-        <v>1</v>
-      </c>
       <c r="R17" t="b">
         <v>1</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" t="b">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
         <v>28</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>64</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>24</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>10</v>
       </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="s">
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="s">
         <v>37</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>27</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>22</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD17" s="7">
+      <c r="AE17" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>47</v>
       </c>
       <c r="AF17" t="s">
         <v>47</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH17">
         <v>0.499</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -3497,7 +3557,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -3511,77 +3571,80 @@
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="b">
-        <v>1</v>
+      <c r="L18">
+        <v>2017</v>
       </c>
       <c r="M18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18">
         <v>0.02</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" t="b">
-        <v>1</v>
-      </c>
       <c r="R18" t="b">
         <v>1</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" t="b">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
         <v>28</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>64</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>24</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>10</v>
       </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="s">
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="s">
         <v>37</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>27</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>22</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD18" s="7">
+      <c r="AE18" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>47</v>
       </c>
       <c r="AF18" t="s">
         <v>47</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH18">
         <v>0.499</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -3598,7 +3661,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -3612,8 +3675,8 @@
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="b">
-        <v>1</v>
+      <c r="L19">
+        <v>2017</v>
       </c>
       <c r="M19" t="b">
         <v>1</v>
@@ -3621,68 +3684,71 @@
       <c r="N19" t="b">
         <v>1</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19">
         <v>0.05</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>4</v>
       </c>
-      <c r="Q19" t="b">
-        <v>1</v>
-      </c>
       <c r="R19" t="b">
         <v>1</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
         <v>28</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>64</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>24</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>10</v>
       </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="s">
         <v>37</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>27</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>22</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD19" s="7">
+      <c r="AE19" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>47</v>
       </c>
       <c r="AF19" t="s">
         <v>47</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH19">
         <v>0.499</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -3699,7 +3765,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -3713,77 +3779,80 @@
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="b">
-        <v>1</v>
+      <c r="L20">
+        <v>2017</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
       </c>
       <c r="N20" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>0.02</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" t="b">
-        <v>1</v>
-      </c>
       <c r="R20" t="b">
         <v>1</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20" t="b">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
         <v>28</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>64</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>24</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>10</v>
       </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="s">
         <v>37</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>27</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>22</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD20" s="7">
+      <c r="AE20" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>47</v>
       </c>
       <c r="AF20" t="s">
         <v>47</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH20">
         <v>0.499</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -3800,7 +3869,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -3814,77 +3883,80 @@
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="b">
-        <v>0</v>
+      <c r="L22">
+        <v>2017</v>
       </c>
       <c r="M22" t="b">
         <v>0</v>
       </c>
       <c r="N22" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22">
         <v>0.02</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" t="b">
-        <v>1</v>
-      </c>
       <c r="R22" t="b">
         <v>1</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S22" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
         <v>28</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>64</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>24</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>10</v>
       </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="s">
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="s">
         <v>37</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>27</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>23</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD22" s="7">
+      <c r="AE22" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>47</v>
       </c>
       <c r="AF22" t="s">
         <v>47</v>
       </c>
-      <c r="AG22">
+      <c r="AG22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH22">
         <v>0.499</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -3901,7 +3973,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -3915,8 +3987,8 @@
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="b">
-        <v>1</v>
+      <c r="L23">
+        <v>2017</v>
       </c>
       <c r="M23" t="b">
         <v>1</v>
@@ -3924,68 +3996,71 @@
       <c r="N23" t="b">
         <v>1</v>
       </c>
-      <c r="O23">
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23">
         <v>0.02</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>4</v>
       </c>
-      <c r="Q23" t="b">
-        <v>1</v>
-      </c>
       <c r="R23" t="b">
         <v>1</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S23" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
         <v>28</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>64</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>24</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>10</v>
       </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="s">
         <v>37</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>27</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>23</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD23" s="7">
+      <c r="AE23" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>47</v>
       </c>
       <c r="AF23" t="s">
         <v>47</v>
       </c>
-      <c r="AG23">
+      <c r="AG23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH23">
         <v>0.499</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -4002,7 +4077,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -4016,77 +4091,80 @@
       <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" t="b">
-        <v>0</v>
+      <c r="L24">
+        <v>2017</v>
       </c>
       <c r="M24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="b">
         <v>1</v>
       </c>
-      <c r="O24">
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24">
         <v>0.02</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" t="b">
-        <v>1</v>
-      </c>
       <c r="R24" t="b">
         <v>1</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s">
         <v>28</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>64</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>24</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>10</v>
       </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="s">
         <v>37</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>27</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>23</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD24" s="7">
+      <c r="AE24" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>47</v>
       </c>
       <c r="AF24" t="s">
         <v>47</v>
       </c>
-      <c r="AG24">
+      <c r="AG24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH24">
         <v>0.499</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -4103,7 +4181,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -4117,77 +4195,80 @@
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="b">
-        <v>1</v>
+      <c r="L25">
+        <v>2017</v>
       </c>
       <c r="M25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25">
         <v>0.02</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>4</v>
       </c>
-      <c r="Q25" t="b">
-        <v>1</v>
-      </c>
       <c r="R25" t="b">
         <v>1</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S25" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s">
         <v>28</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>64</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>24</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>10</v>
       </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="s">
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="s">
         <v>37</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>27</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>23</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD25" s="7">
+      <c r="AE25" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>47</v>
       </c>
       <c r="AF25" t="s">
         <v>47</v>
       </c>
-      <c r="AG25">
+      <c r="AG25" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH25">
         <v>0.499</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>120</v>
       </c>
@@ -4204,7 +4285,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -4218,8 +4299,8 @@
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="b">
-        <v>1</v>
+      <c r="L26">
+        <v>2017</v>
       </c>
       <c r="M26" t="b">
         <v>1</v>
@@ -4227,68 +4308,71 @@
       <c r="N26" t="b">
         <v>1</v>
       </c>
-      <c r="O26">
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26">
         <v>0.05</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>4</v>
       </c>
-      <c r="Q26" t="b">
-        <v>1</v>
-      </c>
       <c r="R26" t="b">
         <v>1</v>
       </c>
-      <c r="S26" t="s">
+      <c r="S26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
         <v>28</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>64</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>24</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>10</v>
       </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="s">
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="s">
         <v>37</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>27</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>23</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD26" s="7">
+      <c r="AE26" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>47</v>
       </c>
       <c r="AF26" t="s">
         <v>47</v>
       </c>
-      <c r="AG26">
+      <c r="AG26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH26">
         <v>0.499</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>121</v>
       </c>
@@ -4305,7 +4389,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -4319,85 +4403,88 @@
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="b">
-        <v>1</v>
+      <c r="L27">
+        <v>2017</v>
       </c>
       <c r="M27" t="b">
         <v>1</v>
       </c>
       <c r="N27" t="b">
-        <v>0</v>
-      </c>
-      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27">
         <v>0.02</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>4</v>
       </c>
-      <c r="Q27" t="b">
-        <v>1</v>
-      </c>
       <c r="R27" t="b">
         <v>1</v>
       </c>
-      <c r="S27" t="s">
+      <c r="S27" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s">
         <v>28</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>64</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>24</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>10</v>
       </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="s">
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="s">
         <v>37</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>27</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>23</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD27" s="7">
+      <c r="AE27" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>47</v>
       </c>
       <c r="AF27" t="s">
         <v>47</v>
       </c>
-      <c r="AG27">
+      <c r="AG27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH27">
         <v>0.499</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AG28">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH28">
         <v>0.499</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -4414,7 +4501,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -4428,8 +4515,8 @@
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" t="b">
-        <v>1</v>
+      <c r="L29">
+        <v>2017</v>
       </c>
       <c r="M29" t="b">
         <v>1</v>
@@ -4437,68 +4524,71 @@
       <c r="N29" t="b">
         <v>1</v>
       </c>
-      <c r="O29">
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29">
         <v>0.02</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" t="b">
-        <v>1</v>
-      </c>
       <c r="R29" t="b">
         <v>1</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S29" t="b">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s">
         <v>28</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>123</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>24</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>10</v>
       </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="s">
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="s">
         <v>37</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>27</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>21</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD29" s="7">
+      <c r="AE29" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>47</v>
       </c>
       <c r="AF29" t="s">
         <v>47</v>
       </c>
-      <c r="AG29">
+      <c r="AG29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH29">
         <v>0.499</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>124</v>
       </c>
@@ -4515,7 +4605,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -4529,8 +4619,8 @@
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="b">
-        <v>1</v>
+      <c r="L30">
+        <v>2017</v>
       </c>
       <c r="M30" t="b">
         <v>1</v>
@@ -4538,68 +4628,71 @@
       <c r="N30" t="b">
         <v>1</v>
       </c>
-      <c r="O30">
+      <c r="O30" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30">
         <v>0.02</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>4</v>
       </c>
-      <c r="Q30" t="b">
-        <v>1</v>
-      </c>
       <c r="R30" t="b">
         <v>1</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S30" t="b">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
         <v>28</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>64</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>24</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>10</v>
       </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="s">
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="s">
         <v>37</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>27</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AB30" t="s">
         <v>21</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD30" s="7">
+      <c r="AE30" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>47</v>
       </c>
       <c r="AF30" t="s">
         <v>47</v>
       </c>
-      <c r="AG30">
+      <c r="AG30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH30">
         <v>0.499</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>125</v>
       </c>
@@ -4630,8 +4723,8 @@
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="b">
-        <v>1</v>
+      <c r="L33">
+        <v>2017</v>
       </c>
       <c r="M33" t="b">
         <v>1</v>
@@ -4639,68 +4732,71 @@
       <c r="N33" t="b">
         <v>1</v>
       </c>
-      <c r="O33">
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33">
         <v>0.02</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>4</v>
       </c>
-      <c r="Q33" t="b">
-        <v>1</v>
-      </c>
       <c r="R33" t="b">
         <v>1</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S33" t="b">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s">
         <v>28</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>64</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>24</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>5</v>
       </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="s">
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="s">
         <v>37</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>27</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AB33" t="s">
         <v>21</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD33" s="7">
+      <c r="AE33" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>47</v>
       </c>
       <c r="AF33" t="s">
         <v>47</v>
       </c>
-      <c r="AG33">
+      <c r="AG33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH33">
         <v>0.499</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -4731,8 +4827,8 @@
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="b">
-        <v>1</v>
+      <c r="L34">
+        <v>2017</v>
       </c>
       <c r="M34" t="b">
         <v>1</v>
@@ -4740,68 +4836,71 @@
       <c r="N34" t="b">
         <v>1</v>
       </c>
-      <c r="O34">
+      <c r="O34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34">
         <v>0.02</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>4</v>
       </c>
-      <c r="Q34" t="b">
-        <v>1</v>
-      </c>
       <c r="R34" t="b">
         <v>1</v>
       </c>
-      <c r="S34" t="s">
+      <c r="S34" t="b">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
         <v>28</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>64</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>24</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>5</v>
       </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="s">
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="s">
         <v>37</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>27</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AB34" t="s">
         <v>22</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD34" s="7">
+      <c r="AE34" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>47</v>
       </c>
       <c r="AF34" t="s">
         <v>47</v>
       </c>
-      <c r="AG34">
+      <c r="AG34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH34">
         <v>0.499</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -4832,8 +4931,8 @@
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="b">
-        <v>1</v>
+      <c r="L35">
+        <v>2017</v>
       </c>
       <c r="M35" t="b">
         <v>1</v>
@@ -4841,70 +4940,73 @@
       <c r="N35" t="b">
         <v>1</v>
       </c>
-      <c r="O35">
+      <c r="O35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35">
         <v>0.02</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>4</v>
       </c>
-      <c r="Q35" t="b">
-        <v>1</v>
-      </c>
       <c r="R35" t="b">
         <v>1</v>
       </c>
-      <c r="S35" t="s">
+      <c r="S35" t="b">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
         <v>28</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>64</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>24</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>5</v>
       </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="s">
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="s">
         <v>37</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>27</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AB35" t="s">
         <v>23</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD35" s="7">
+      <c r="AE35" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>47</v>
       </c>
       <c r="AF35" t="s">
         <v>47</v>
       </c>
-      <c r="AG35">
+      <c r="AG35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH35">
         <v>0.499</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
@@ -4933,8 +5035,8 @@
       <c r="K37" t="b">
         <v>1</v>
       </c>
-      <c r="L37" t="b">
-        <v>1</v>
+      <c r="L37">
+        <v>2017</v>
       </c>
       <c r="M37" t="b">
         <v>1</v>
@@ -4942,70 +5044,73 @@
       <c r="N37" t="b">
         <v>1</v>
       </c>
-      <c r="O37">
+      <c r="O37" t="b">
+        <v>1</v>
+      </c>
+      <c r="P37">
         <v>0.02</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>4</v>
       </c>
-      <c r="Q37" t="b">
-        <v>1</v>
-      </c>
       <c r="R37" t="b">
         <v>1</v>
       </c>
-      <c r="S37" t="s">
+      <c r="S37" t="b">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s">
         <v>28</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>64</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>24</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>10</v>
       </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="s">
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="s">
         <v>37</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>27</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AB37" t="s">
         <v>21</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC37">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AD37" s="7">
+      <c r="AD37">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AE37" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>47</v>
       </c>
       <c r="AF37" t="s">
         <v>47</v>
       </c>
-      <c r="AG37">
+      <c r="AG37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH37">
         <v>0.499</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
@@ -5016,6 +5121,9 @@
       <c r="D38">
         <v>1</v>
       </c>
+      <c r="E38" t="s">
+        <v>139</v>
+      </c>
       <c r="F38" t="s">
         <v>36</v>
       </c>
@@ -5034,8 +5142,8 @@
       <c r="K38" t="b">
         <v>1</v>
       </c>
-      <c r="L38" t="b">
-        <v>1</v>
+      <c r="L38">
+        <v>2017</v>
       </c>
       <c r="M38" t="b">
         <v>1</v>
@@ -5043,70 +5151,73 @@
       <c r="N38" t="b">
         <v>1</v>
       </c>
-      <c r="O38">
+      <c r="O38" t="b">
+        <v>1</v>
+      </c>
+      <c r="P38">
         <v>0.02</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>4</v>
       </c>
-      <c r="Q38" t="b">
-        <v>1</v>
-      </c>
       <c r="R38" t="b">
         <v>1</v>
       </c>
-      <c r="S38" t="s">
+      <c r="S38" t="b">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
         <v>28</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>64</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>24</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>10</v>
       </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="s">
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="s">
         <v>37</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>27</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AB38" t="s">
         <v>21</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC38">
-        <v>7.22E-2</v>
-      </c>
-      <c r="AD38" s="7">
+      <c r="AD38">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AE38" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>47</v>
       </c>
       <c r="AF38" t="s">
         <v>47</v>
       </c>
-      <c r="AG38">
+      <c r="AG38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH38">
         <v>0.499</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
         <v>21</v>
@@ -5117,6 +5228,9 @@
       <c r="D39">
         <v>1</v>
       </c>
+      <c r="E39" t="s">
+        <v>140</v>
+      </c>
       <c r="F39" t="s">
         <v>36</v>
       </c>
@@ -5135,8 +5249,8 @@
       <c r="K39" t="b">
         <v>1</v>
       </c>
-      <c r="L39" t="b">
-        <v>1</v>
+      <c r="L39">
+        <v>2017</v>
       </c>
       <c r="M39" t="b">
         <v>1</v>
@@ -5144,70 +5258,73 @@
       <c r="N39" t="b">
         <v>1</v>
       </c>
-      <c r="O39">
+      <c r="O39" t="b">
+        <v>1</v>
+      </c>
+      <c r="P39">
         <v>0.02</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>4</v>
       </c>
-      <c r="Q39" t="b">
-        <v>1</v>
-      </c>
       <c r="R39" t="b">
         <v>1</v>
       </c>
-      <c r="S39" t="s">
+      <c r="S39" t="b">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s">
         <v>28</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>64</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>24</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>10</v>
       </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="s">
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="s">
         <v>37</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>27</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>21</v>
       </c>
-      <c r="AB39">
-        <v>7.2499999999999995E-2</v>
-      </c>
       <c r="AC39">
-        <v>7.22E-2</v>
-      </c>
-      <c r="AD39" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AD39">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AE39" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>47</v>
       </c>
       <c r="AF39" t="s">
         <v>47</v>
       </c>
-      <c r="AG39">
+      <c r="AG39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH39">
         <v>0.499</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
@@ -5218,6 +5335,9 @@
       <c r="D41">
         <v>1</v>
       </c>
+      <c r="E41" t="s">
+        <v>139</v>
+      </c>
       <c r="F41" t="s">
         <v>36</v>
       </c>
@@ -5236,8 +5356,8 @@
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="b">
-        <v>1</v>
+      <c r="L41">
+        <v>2017</v>
       </c>
       <c r="M41" t="b">
         <v>1</v>
@@ -5245,70 +5365,73 @@
       <c r="N41" t="b">
         <v>1</v>
       </c>
-      <c r="O41">
+      <c r="O41" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41">
         <v>0.02</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>4</v>
       </c>
-      <c r="Q41" t="b">
-        <v>1</v>
-      </c>
       <c r="R41" t="b">
         <v>1</v>
       </c>
-      <c r="S41" t="s">
+      <c r="S41" t="b">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s">
         <v>28</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>64</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>24</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>10</v>
       </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="s">
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="s">
         <v>37</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>27</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>21</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>7.22E-2</v>
       </c>
-      <c r="AD41" s="7">
+      <c r="AE41" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>47</v>
       </c>
       <c r="AF41" t="s">
         <v>47</v>
       </c>
-      <c r="AG41">
+      <c r="AG41" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH41">
         <v>0.499</v>
       </c>
-      <c r="AH41">
+      <c r="AI41">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
@@ -5319,6 +5442,9 @@
       <c r="D42">
         <v>1</v>
       </c>
+      <c r="E42" t="s">
+        <v>140</v>
+      </c>
       <c r="F42" t="s">
         <v>36</v>
       </c>
@@ -5337,8 +5463,8 @@
       <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" t="b">
-        <v>1</v>
+      <c r="L42">
+        <v>2017</v>
       </c>
       <c r="M42" t="b">
         <v>1</v>
@@ -5346,73 +5472,76 @@
       <c r="N42" t="b">
         <v>1</v>
       </c>
-      <c r="O42">
+      <c r="O42" t="b">
+        <v>1</v>
+      </c>
+      <c r="P42">
         <v>0.02</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" t="b">
-        <v>1</v>
-      </c>
       <c r="R42" t="b">
         <v>1</v>
       </c>
-      <c r="S42" t="s">
+      <c r="S42" t="b">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s">
         <v>28</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" t="s">
         <v>64</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>24</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>10</v>
       </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="s">
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="s">
         <v>37</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>27</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>21</v>
       </c>
-      <c r="AB42">
-        <v>7.2499999999999995E-2</v>
-      </c>
       <c r="AC42">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AD42">
         <v>7.22E-2</v>
       </c>
-      <c r="AD42" s="7">
+      <c r="AE42" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>47</v>
       </c>
       <c r="AF42" t="s">
         <v>47</v>
       </c>
-      <c r="AG42">
+      <c r="AG42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH42">
         <v>0.499</v>
       </c>
-      <c r="AH42">
+      <c r="AI42">
         <v>0.57299999999999995</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G41:I42 G15:I20 G22:I27 H5:I13 H29:I30 G33:I35 G37:I39 G28:G30 G21 G5:G14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G41:I42 H22:I27 G5:G30 H5:I13 H29:I30 G33:I35 G37:I39 H15:I20">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z22:Z27 Z15:Z20 Z5:Z13 Z29:Z30 Z33:Z35 Z37:Z39 Z41:Z42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA22:AA27 AA15:AA20 AA5:AA13 AA29:AA30 AA33:AA35 AA37:AA39 AA41:AA42">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5722,7 +5851,7 @@
     </row>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C5" s="18">
         <v>1.83</v>
@@ -5815,7 +5944,7 @@
     </row>
     <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C11" s="18">
         <f>C22*C12/100</f>
@@ -5844,7 +5973,7 @@
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C13" s="11">
         <f>C22*C14/100</f>
@@ -5945,7 +6074,7 @@
     </row>
     <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C21" s="23">
         <v>5.67</v>
@@ -5960,7 +6089,7 @@
     </row>
     <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C22" s="11">
         <v>13.449</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -2242,10 +2242,10 @@
   <dimension ref="A4:AK42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,7 +2254,7 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
@@ -2722,7 +2722,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -5021,7 +5021,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
@@ -5081,7 +5081,7 @@
         <v>37</v>
       </c>
       <c r="AA37" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AB37" t="s">
         <v>21</v>
@@ -5128,7 +5128,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
@@ -5188,7 +5188,7 @@
         <v>37</v>
       </c>
       <c r="AA38" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AB38" t="s">
         <v>21</v>
@@ -5235,7 +5235,7 @@
         <v>36</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="b">
         <v>1</v>
@@ -5295,7 +5295,7 @@
         <v>37</v>
       </c>
       <c r="AA39" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AB39" t="s">
         <v>21</v>
@@ -5342,7 +5342,7 @@
         <v>36</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
@@ -5402,7 +5402,7 @@
         <v>37</v>
       </c>
       <c r="AA41" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AB41" t="s">
         <v>21</v>
@@ -5411,7 +5411,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AD41">
-        <v>7.22E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="AE41" s="7">
         <v>0.12</v>
@@ -5449,7 +5449,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
@@ -5509,7 +5509,7 @@
         <v>37</v>
       </c>
       <c r="AA42" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AB42" t="s">
         <v>21</v>
@@ -5518,7 +5518,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="AD42">
-        <v>7.22E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="AE42" s="7">
         <v>0.12</v>
@@ -5538,7 +5538,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G41:I42 H22:I27 G5:G30 H5:I13 H29:I30 G33:I35 G37:I39 H15:I20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G41:I42 H22:I27 G5:G30 H5:I13 H29:I30 G33:I35 H15:I20 G37:I39">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA22:AA27 AA15:AA20 AA5:AA13 AA29:AA30 AA33:AA35 AA37:AA39 AA41:AA42">
@@ -5626,7 +5626,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5790,7 +5790,7 @@
   <dimension ref="B1:F66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -2242,10 +2242,10 @@
   <dimension ref="A4:AK42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,7 +2254,7 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
@@ -5538,7 +5538,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G41:I42 H22:I27 G5:G30 H5:I13 H29:I30 G33:I35 H15:I20 G37:I39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G37:G42 H22:I27 G5:G30 H5:I13 H29:I30 G33:I35 H15:I20 H37:I39 H41:I42">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA22:AA27 AA15:AA20 AA5:AA13 AA29:AA30 AA33:AA35 AA37:AA39 AA41:AA42">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -14,6 +14,7 @@
     <sheet name="Calibration_2015" sheetId="7" r:id="rId5"/>
     <sheet name="Calibration_benefit" sheetId="8" r:id="rId6"/>
     <sheet name="Scenarios" sheetId="9" r:id="rId7"/>
+    <sheet name="RiskTransfer" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +31,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="W5" authorId="0" shapeId="0">
+    <comment ref="X5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -47,7 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 AV2016 pdf page 30</t>
@@ -72,7 +73,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -81,7 +82,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 CAFR p105
@@ -97,7 +98,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -106,7 +107,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 CAFR p97
@@ -122,7 +123,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -131,7 +132,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 CAFR p96
@@ -147,7 +148,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -156,7 +157,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 AV2016 pdf p17
@@ -172,7 +173,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -181,7 +182,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 AV2016
@@ -207,7 +208,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -216,7 +217,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 CAFR p105
@@ -232,7 +233,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -241,7 +242,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 CAFR p97
@@ -257,7 +258,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -266,7 +267,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 CAFR p96
@@ -279,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="178">
   <si>
     <t>runname</t>
   </si>
@@ -689,40 +690,143 @@
     <t>higher Shared-risk cap</t>
   </si>
   <si>
-    <t>RS1_SR1EL1.Reform725</t>
-  </si>
-  <si>
-    <t>RS1_SR1EL1.Reform625.1</t>
-  </si>
-  <si>
-    <t>RS1_SR1EL1.Reform625.2</t>
-  </si>
-  <si>
     <t>discount rate 7.25%</t>
   </si>
   <si>
     <t>discount rate 6.25%</t>
   </si>
   <si>
-    <t>RS1_SR1EL1.625.1</t>
-  </si>
-  <si>
-    <t>RS1_SR1EL1.625.2</t>
-  </si>
-  <si>
     <t>DC_reform_start.year</t>
+  </si>
+  <si>
+    <t>discount rate 6.25%; DC rate calc. at 6.25%</t>
+  </si>
+  <si>
+    <t>DC.rate</t>
+  </si>
+  <si>
+    <t>AA0</t>
+  </si>
+  <si>
+    <t>MA0</t>
+  </si>
+  <si>
+    <t>discount rate 7.25%; DC rate calc. at 7.25%</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_R725.d725.DC1</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_R625.d725.DC1</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_R625.d625.DC1</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1_R625.d725</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1_R625.d625</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_R625.d725.DC3</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_R625.d625.DC3</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_R725.d725.DC3</t>
+  </si>
+  <si>
+    <t>discount rate 6.25%; DC rate 5%</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Pure DB</t>
+  </si>
+  <si>
+    <t>DB/DC hybrid</t>
+  </si>
+  <si>
+    <t>risk transfer</t>
+  </si>
+  <si>
+    <t>risk transfer (%)</t>
+  </si>
+  <si>
+    <t>Employer pension cost ($B) with IFO method</t>
+  </si>
+  <si>
+    <t>7.25% return; discount 7.25%</t>
+  </si>
+  <si>
+    <t>6.25% return; discount 6.25%</t>
+  </si>
+  <si>
+    <t>6.25% return; discount 7.25%</t>
+  </si>
+  <si>
+    <t>Employer pension cost ($B) with Pew method</t>
+  </si>
+  <si>
+    <t>Note: Final year UAAL is included.</t>
+  </si>
+  <si>
+    <t>SERS(2015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparison of PSERS and SERS </t>
+  </si>
+  <si>
+    <t>AL $b</t>
+  </si>
+  <si>
+    <t>Total annuity   $b</t>
+  </si>
+  <si>
+    <t>PSERS (2015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSERS is about twice as large as SERS. </t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_R725.d725.DC4</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_R625.d725.DC4</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_R625.d625.DC4</t>
+  </si>
+  <si>
+    <t>discount rate 6.25%; DC rate 9%</t>
+  </si>
+  <si>
+    <t>discount rate 7.25%; DC rate 9%</t>
+  </si>
+  <si>
+    <t>discount rate 7.25%; DC rate 5%</t>
+  </si>
+  <si>
+    <t>DC rate 5%</t>
+  </si>
+  <si>
+    <t>DC rate 9%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,17 +853,23 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,8 +918,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -832,12 +954,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -893,6 +1024,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1942,6 +2101,160 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="SRIELI &#10;135.14 &#10;IRSI SRIELI R625.d625 &#10;167.971 &#10;SRIELI . Reform R625 . d625 . DCI &#10;174.10 &#10;SRIELI .Reform R725 .d725 .DCI &#10;145.981 &#10;32.83 &#10;28.13 &#10;4.70 &#10;14.32 &#10;133.961 &#10;178.611 &#10;187.981 &#10;145.681 &#10;44.651 &#10;42.291 &#10;Diff . CL2 &#10;Diff . PL2 &#10;riskTansfer2 &#10;riskTransfer2 . pct &#10;rxskTransfer . Pew &#10;SRIELI &#10;IRSI SRIELI R625.d725 &#10;SRIELI . Reform &#10;R625 . d725 . DCI &#10;SRIELI . Reform &#10;R725 . d725 . DCI &#10;Diff . CLI &#10;Diff . PLI &#10;riskTansferI &#10;riskTransferI . pct &#10;as . data. &#10;2.361 &#10;5.291 ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C3416ED-FF82-44A8-90FF-0F00BB98AC7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13020675" y="647700"/>
+          <a:ext cx="3352800" cy="4000500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>102471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7755F229-0F69-41E7-AF8B-74C5DCDA7AF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="266700"/>
+          <a:ext cx="5191125" cy="2312271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>134913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{662D80B1-F694-44E8-B2C7-9E9E24779A68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267451" y="3105150"/>
+          <a:ext cx="5391149" cy="1982763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2239,45 +2552,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AK42"/>
+  <dimension ref="A4:AL53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
-    <col min="13" max="16" width="14.28515625" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
-    <col min="25" max="25" width="14" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" customWidth="1"/>
-    <col min="36" max="36" width="15.140625" customWidth="1"/>
-    <col min="37" max="37" width="16.5703125" customWidth="1"/>
+    <col min="12" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="17" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="26" max="26" width="14" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" customWidth="1"/>
+    <col min="37" max="37" width="21.7109375" customWidth="1"/>
+    <col min="38" max="38" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2312,85 +2625,88 @@
         <v>129</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="M4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Z4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AE4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AF4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AH4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AI4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AK4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -2424,8 +2740,8 @@
       <c r="L5">
         <v>2017</v>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
+      <c r="M5">
+        <v>0</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
@@ -2433,68 +2749,71 @@
       <c r="O5" t="b">
         <v>1</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5">
         <v>0.02</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>4</v>
       </c>
-      <c r="R5" t="b">
-        <v>1</v>
-      </c>
       <c r="S5" t="b">
         <v>1</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
         <v>28</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>64</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>24</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>10</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>48</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>21</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AF5" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>47</v>
       </c>
       <c r="AG5" t="s">
         <v>47</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI5">
         <v>0.499</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -2528,8 +2847,8 @@
       <c r="L6">
         <v>2017</v>
       </c>
-      <c r="M6" t="b">
-        <v>1</v>
+      <c r="M6">
+        <v>0</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
@@ -2537,71 +2856,74 @@
       <c r="O6" t="b">
         <v>1</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6">
         <v>0.02</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>4</v>
       </c>
-      <c r="R6" t="b">
-        <v>1</v>
-      </c>
       <c r="S6" t="b">
         <v>1</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" t="s">
         <v>28</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>64</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>24</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>10</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
         <v>37</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>48</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>21</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AF6" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>47</v>
       </c>
       <c r="AG6" t="s">
         <v>47</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI6">
         <v>0.499</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AE7" s="7"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AF7" s="7"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -2635,77 +2957,80 @@
       <c r="L8">
         <v>2017</v>
       </c>
-      <c r="M8" t="b">
+      <c r="M8">
         <v>0</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
       </c>
       <c r="O8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8">
         <v>0.02</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>4</v>
       </c>
-      <c r="R8" t="b">
-        <v>1</v>
-      </c>
       <c r="S8" t="b">
         <v>1</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" t="b">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
         <v>28</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>64</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>24</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>10</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="s">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="s">
         <v>37</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>21</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AF8" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>47</v>
       </c>
       <c r="AG8" t="s">
         <v>47</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI8">
         <v>0.499</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -2739,8 +3064,8 @@
       <c r="L9">
         <v>2017</v>
       </c>
-      <c r="M9" t="b">
-        <v>1</v>
+      <c r="M9">
+        <v>0</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
@@ -2748,68 +3073,71 @@
       <c r="O9" t="b">
         <v>1</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9">
         <v>0.02</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>4</v>
       </c>
-      <c r="R9" t="b">
-        <v>1</v>
-      </c>
       <c r="S9" t="b">
         <v>1</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
         <v>28</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>64</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>24</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>10</v>
       </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="s">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="s">
         <v>37</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>21</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE9" s="7">
+      <c r="AF9" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>47</v>
       </c>
       <c r="AG9" t="s">
         <v>47</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI9">
         <v>0.499</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -2843,77 +3171,80 @@
       <c r="L10">
         <v>2017</v>
       </c>
-      <c r="M10" t="b">
+      <c r="M10">
         <v>0</v>
       </c>
       <c r="N10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10">
         <v>0.02</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>4</v>
       </c>
-      <c r="R10" t="b">
-        <v>1</v>
-      </c>
       <c r="S10" t="b">
         <v>1</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
         <v>28</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>64</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>24</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>10</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="s">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="s">
         <v>37</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>27</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>21</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE10" s="7">
+      <c r="AF10" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>47</v>
       </c>
       <c r="AG10" t="s">
         <v>47</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI10">
         <v>0.499</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -2947,77 +3278,80 @@
       <c r="L11">
         <v>2017</v>
       </c>
-      <c r="M11" t="b">
-        <v>1</v>
+      <c r="M11">
+        <v>0</v>
       </c>
       <c r="N11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11">
         <v>0.02</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>4</v>
       </c>
-      <c r="R11" t="b">
-        <v>1</v>
-      </c>
       <c r="S11" t="b">
         <v>1</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" t="b">
+        <v>1</v>
+      </c>
+      <c r="U11" t="s">
         <v>28</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>64</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>24</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>10</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="s">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="s">
         <v>37</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>27</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>21</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE11" s="7">
+      <c r="AF11" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>47</v>
       </c>
       <c r="AG11" t="s">
         <v>47</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI11">
         <v>0.499</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -3054,8 +3388,8 @@
       <c r="L12">
         <v>2017</v>
       </c>
-      <c r="M12" t="b">
-        <v>1</v>
+      <c r="M12">
+        <v>0</v>
       </c>
       <c r="N12" t="b">
         <v>1</v>
@@ -3063,68 +3397,71 @@
       <c r="O12" t="b">
         <v>1</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12">
         <v>0.05</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>4</v>
       </c>
-      <c r="R12" t="b">
-        <v>1</v>
-      </c>
       <c r="S12" t="b">
         <v>1</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" t="b">
+        <v>1</v>
+      </c>
+      <c r="U12" t="s">
         <v>28</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>64</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>24</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>10</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="s">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="s">
         <v>37</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>27</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>21</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AF12" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>47</v>
       </c>
       <c r="AG12" t="s">
         <v>47</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI12">
         <v>0.499</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -3158,77 +3495,80 @@
       <c r="L13">
         <v>2017</v>
       </c>
-      <c r="M13" t="b">
-        <v>1</v>
+      <c r="M13">
+        <v>0</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
       </c>
       <c r="O13" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>0.02</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>4</v>
       </c>
-      <c r="R13" t="b">
-        <v>1</v>
-      </c>
       <c r="S13" t="b">
         <v>1</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13" t="b">
+        <v>1</v>
+      </c>
+      <c r="U13" t="s">
         <v>28</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>64</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>24</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>10</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="s">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="s">
         <v>37</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>27</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>21</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE13" s="7">
+      <c r="AF13" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>47</v>
       </c>
       <c r="AG13" t="s">
         <v>47</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI13">
         <v>0.499</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -3262,77 +3602,80 @@
       <c r="L15">
         <v>2017</v>
       </c>
-      <c r="M15" t="b">
+      <c r="M15">
         <v>0</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
       </c>
       <c r="O15" t="b">
-        <v>1</v>
-      </c>
-      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15">
         <v>0.02</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>4</v>
       </c>
-      <c r="R15" t="b">
-        <v>1</v>
-      </c>
       <c r="S15" t="b">
         <v>1</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T15" t="b">
+        <v>1</v>
+      </c>
+      <c r="U15" t="s">
         <v>28</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>64</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>24</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>10</v>
       </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="s">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="s">
         <v>37</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>27</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>22</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE15" s="7">
+      <c r="AF15" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>47</v>
       </c>
       <c r="AG15" t="s">
         <v>47</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI15">
         <v>0.499</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -3366,8 +3709,8 @@
       <c r="L16">
         <v>2017</v>
       </c>
-      <c r="M16" t="b">
-        <v>1</v>
+      <c r="M16">
+        <v>0</v>
       </c>
       <c r="N16" t="b">
         <v>1</v>
@@ -3375,68 +3718,71 @@
       <c r="O16" t="b">
         <v>1</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16">
         <v>0.02</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>4</v>
       </c>
-      <c r="R16" t="b">
-        <v>1</v>
-      </c>
       <c r="S16" t="b">
         <v>1</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T16" t="b">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
         <v>28</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>64</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>24</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>10</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="s">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="s">
         <v>37</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>27</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>22</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE16" s="7">
+      <c r="AF16" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>47</v>
       </c>
       <c r="AG16" t="s">
         <v>47</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI16">
         <v>0.499</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -3470,77 +3816,80 @@
       <c r="L17">
         <v>2017</v>
       </c>
-      <c r="M17" t="b">
+      <c r="M17">
         <v>0</v>
       </c>
       <c r="N17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17">
         <v>0.02</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>4</v>
       </c>
-      <c r="R17" t="b">
-        <v>1</v>
-      </c>
       <c r="S17" t="b">
         <v>1</v>
       </c>
-      <c r="T17" t="s">
+      <c r="T17" t="b">
+        <v>1</v>
+      </c>
+      <c r="U17" t="s">
         <v>28</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>64</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>24</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>10</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="s">
         <v>37</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>27</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>22</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE17" s="7">
+      <c r="AF17" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>47</v>
       </c>
       <c r="AG17" t="s">
         <v>47</v>
       </c>
-      <c r="AH17">
+      <c r="AH17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI17">
         <v>0.499</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -3574,77 +3923,80 @@
       <c r="L18">
         <v>2017</v>
       </c>
-      <c r="M18" t="b">
-        <v>1</v>
+      <c r="M18">
+        <v>0</v>
       </c>
       <c r="N18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="b">
-        <v>1</v>
-      </c>
-      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18">
         <v>0.02</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>4</v>
       </c>
-      <c r="R18" t="b">
-        <v>1</v>
-      </c>
       <c r="S18" t="b">
         <v>1</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T18" t="b">
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
         <v>28</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>64</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>24</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>10</v>
       </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="s">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="s">
         <v>37</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>27</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>22</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE18" s="7">
+      <c r="AF18" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>47</v>
       </c>
       <c r="AG18" t="s">
         <v>47</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI18">
         <v>0.499</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -3678,8 +4030,8 @@
       <c r="L19">
         <v>2017</v>
       </c>
-      <c r="M19" t="b">
-        <v>1</v>
+      <c r="M19">
+        <v>0</v>
       </c>
       <c r="N19" t="b">
         <v>1</v>
@@ -3687,68 +4039,71 @@
       <c r="O19" t="b">
         <v>1</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19">
         <v>0.05</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>4</v>
       </c>
-      <c r="R19" t="b">
-        <v>1</v>
-      </c>
       <c r="S19" t="b">
         <v>1</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T19" t="b">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
         <v>28</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>64</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>24</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>10</v>
       </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="s">
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="s">
         <v>37</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>27</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>22</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE19" s="7">
+      <c r="AF19" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>47</v>
       </c>
       <c r="AG19" t="s">
         <v>47</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI19">
         <v>0.499</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -3782,77 +4137,80 @@
       <c r="L20">
         <v>2017</v>
       </c>
-      <c r="M20" t="b">
-        <v>1</v>
+      <c r="M20">
+        <v>0</v>
       </c>
       <c r="N20" t="b">
         <v>1</v>
       </c>
       <c r="O20" t="b">
-        <v>0</v>
-      </c>
-      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>0.02</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>4</v>
       </c>
-      <c r="R20" t="b">
-        <v>1</v>
-      </c>
       <c r="S20" t="b">
         <v>1</v>
       </c>
-      <c r="T20" t="s">
+      <c r="T20" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" t="s">
         <v>28</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>64</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>24</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>10</v>
       </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="s">
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="s">
         <v>37</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>27</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>22</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE20" s="7">
+      <c r="AF20" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>47</v>
       </c>
       <c r="AG20" t="s">
         <v>47</v>
       </c>
-      <c r="AH20">
+      <c r="AH20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI20">
         <v>0.499</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -3886,77 +4244,80 @@
       <c r="L22">
         <v>2017</v>
       </c>
-      <c r="M22" t="b">
+      <c r="M22">
         <v>0</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
       </c>
       <c r="O22" t="b">
-        <v>1</v>
-      </c>
-      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22">
         <v>0.02</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>4</v>
       </c>
-      <c r="R22" t="b">
-        <v>1</v>
-      </c>
       <c r="S22" t="b">
         <v>1</v>
       </c>
-      <c r="T22" t="s">
+      <c r="T22" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" t="s">
         <v>28</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>64</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>24</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>10</v>
       </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="s">
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="s">
         <v>37</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>27</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>23</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE22" s="7">
+      <c r="AF22" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>47</v>
       </c>
       <c r="AG22" t="s">
         <v>47</v>
       </c>
-      <c r="AH22">
+      <c r="AH22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI22">
         <v>0.499</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -3990,8 +4351,8 @@
       <c r="L23">
         <v>2017</v>
       </c>
-      <c r="M23" t="b">
-        <v>1</v>
+      <c r="M23">
+        <v>0</v>
       </c>
       <c r="N23" t="b">
         <v>1</v>
@@ -3999,68 +4360,71 @@
       <c r="O23" t="b">
         <v>1</v>
       </c>
-      <c r="P23">
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23">
         <v>0.02</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>4</v>
       </c>
-      <c r="R23" t="b">
-        <v>1</v>
-      </c>
       <c r="S23" t="b">
         <v>1</v>
       </c>
-      <c r="T23" t="s">
+      <c r="T23" t="b">
+        <v>1</v>
+      </c>
+      <c r="U23" t="s">
         <v>28</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>64</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>24</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>10</v>
       </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="s">
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="s">
         <v>37</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>27</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>23</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE23" s="7">
+      <c r="AF23" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>47</v>
       </c>
       <c r="AG23" t="s">
         <v>47</v>
       </c>
-      <c r="AH23">
+      <c r="AH23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI23">
         <v>0.499</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -4094,77 +4458,80 @@
       <c r="L24">
         <v>2017</v>
       </c>
-      <c r="M24" t="b">
+      <c r="M24">
         <v>0</v>
       </c>
       <c r="N24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
       </c>
-      <c r="P24">
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24">
         <v>0.02</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>4</v>
       </c>
-      <c r="R24" t="b">
-        <v>1</v>
-      </c>
       <c r="S24" t="b">
         <v>1</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T24" t="b">
+        <v>1</v>
+      </c>
+      <c r="U24" t="s">
         <v>28</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>64</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>24</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>10</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="s">
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="s">
         <v>37</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>27</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>23</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE24" s="7">
+      <c r="AF24" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>47</v>
       </c>
       <c r="AG24" t="s">
         <v>47</v>
       </c>
-      <c r="AH24">
+      <c r="AH24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI24">
         <v>0.499</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -4198,77 +4565,80 @@
       <c r="L25">
         <v>2017</v>
       </c>
-      <c r="M25" t="b">
-        <v>1</v>
+      <c r="M25">
+        <v>0</v>
       </c>
       <c r="N25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="b">
-        <v>1</v>
-      </c>
-      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25">
         <v>0.02</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>4</v>
       </c>
-      <c r="R25" t="b">
-        <v>1</v>
-      </c>
       <c r="S25" t="b">
         <v>1</v>
       </c>
-      <c r="T25" t="s">
+      <c r="T25" t="b">
+        <v>1</v>
+      </c>
+      <c r="U25" t="s">
         <v>28</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>64</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>24</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>10</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="s">
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="s">
         <v>37</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>27</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>23</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE25" s="7">
+      <c r="AF25" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>47</v>
       </c>
       <c r="AG25" t="s">
         <v>47</v>
       </c>
-      <c r="AH25">
+      <c r="AH25" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI25">
         <v>0.499</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>120</v>
       </c>
@@ -4302,8 +4672,8 @@
       <c r="L26">
         <v>2017</v>
       </c>
-      <c r="M26" t="b">
-        <v>1</v>
+      <c r="M26">
+        <v>0</v>
       </c>
       <c r="N26" t="b">
         <v>1</v>
@@ -4311,68 +4681,71 @@
       <c r="O26" t="b">
         <v>1</v>
       </c>
-      <c r="P26">
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26">
         <v>0.05</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>4</v>
       </c>
-      <c r="R26" t="b">
-        <v>1</v>
-      </c>
       <c r="S26" t="b">
         <v>1</v>
       </c>
-      <c r="T26" t="s">
+      <c r="T26" t="b">
+        <v>1</v>
+      </c>
+      <c r="U26" t="s">
         <v>28</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>64</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>24</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>10</v>
       </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="s">
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="s">
         <v>37</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>27</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
         <v>23</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE26" s="7">
+      <c r="AF26" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>47</v>
       </c>
       <c r="AG26" t="s">
         <v>47</v>
       </c>
-      <c r="AH26">
+      <c r="AH26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI26">
         <v>0.499</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>121</v>
       </c>
@@ -4406,85 +4779,91 @@
       <c r="L27">
         <v>2017</v>
       </c>
-      <c r="M27" t="b">
-        <v>1</v>
+      <c r="M27">
+        <v>0</v>
       </c>
       <c r="N27" t="b">
         <v>1</v>
       </c>
       <c r="O27" t="b">
-        <v>0</v>
-      </c>
-      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>0.02</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>4</v>
       </c>
-      <c r="R27" t="b">
-        <v>1</v>
-      </c>
       <c r="S27" t="b">
         <v>1</v>
       </c>
-      <c r="T27" t="s">
+      <c r="T27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U27" t="s">
         <v>28</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>64</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>24</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>10</v>
       </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="s">
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="s">
         <v>37</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>27</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>23</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE27" s="7">
+      <c r="AF27" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>47</v>
       </c>
       <c r="AG27" t="s">
         <v>47</v>
       </c>
-      <c r="AH27">
+      <c r="AH27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI27">
         <v>0.499</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AH28">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
         <v>0.499</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -4518,8 +4897,8 @@
       <c r="L29">
         <v>2017</v>
       </c>
-      <c r="M29" t="b">
-        <v>1</v>
+      <c r="M29">
+        <v>0</v>
       </c>
       <c r="N29" t="b">
         <v>1</v>
@@ -4527,68 +4906,71 @@
       <c r="O29" t="b">
         <v>1</v>
       </c>
-      <c r="P29">
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29">
         <v>0.02</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>4</v>
       </c>
-      <c r="R29" t="b">
-        <v>1</v>
-      </c>
       <c r="S29" t="b">
         <v>1</v>
       </c>
-      <c r="T29" t="s">
+      <c r="T29" t="b">
+        <v>1</v>
+      </c>
+      <c r="U29" t="s">
         <v>28</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>123</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>24</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>10</v>
       </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="s">
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="s">
         <v>37</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>27</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
         <v>21</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE29" s="7">
+      <c r="AF29" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>47</v>
       </c>
       <c r="AG29" t="s">
         <v>47</v>
       </c>
-      <c r="AH29">
+      <c r="AH29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI29">
         <v>0.499</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>124</v>
       </c>
@@ -4622,8 +5004,8 @@
       <c r="L30">
         <v>2017</v>
       </c>
-      <c r="M30" t="b">
-        <v>1</v>
+      <c r="M30">
+        <v>0</v>
       </c>
       <c r="N30" t="b">
         <v>1</v>
@@ -4631,68 +5013,71 @@
       <c r="O30" t="b">
         <v>1</v>
       </c>
-      <c r="P30">
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
         <v>0.02</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>4</v>
       </c>
-      <c r="R30" t="b">
-        <v>1</v>
-      </c>
       <c r="S30" t="b">
         <v>1</v>
       </c>
-      <c r="T30" t="s">
+      <c r="T30" t="b">
+        <v>1</v>
+      </c>
+      <c r="U30" t="s">
         <v>28</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>64</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>24</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>10</v>
       </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="s">
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="s">
         <v>37</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AB30" t="s">
         <v>27</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AC30" t="s">
         <v>21</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE30" s="7">
+      <c r="AF30" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>47</v>
       </c>
       <c r="AG30" t="s">
         <v>47</v>
       </c>
-      <c r="AH30">
+      <c r="AH30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI30">
         <v>0.499</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>125</v>
       </c>
@@ -4726,8 +5111,8 @@
       <c r="L33">
         <v>2017</v>
       </c>
-      <c r="M33" t="b">
-        <v>1</v>
+      <c r="M33">
+        <v>0</v>
       </c>
       <c r="N33" t="b">
         <v>1</v>
@@ -4735,68 +5120,71 @@
       <c r="O33" t="b">
         <v>1</v>
       </c>
-      <c r="P33">
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
         <v>0.02</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>4</v>
       </c>
-      <c r="R33" t="b">
-        <v>1</v>
-      </c>
       <c r="S33" t="b">
         <v>1</v>
       </c>
-      <c r="T33" t="s">
+      <c r="T33" t="b">
+        <v>1</v>
+      </c>
+      <c r="U33" t="s">
         <v>28</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>64</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>24</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>5</v>
       </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="s">
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="s">
         <v>37</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AB33" t="s">
         <v>27</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AC33" t="s">
         <v>21</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE33" s="7">
+      <c r="AF33" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>47</v>
       </c>
       <c r="AG33" t="s">
         <v>47</v>
       </c>
-      <c r="AH33">
+      <c r="AH33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI33">
         <v>0.499</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -4830,8 +5218,8 @@
       <c r="L34">
         <v>2017</v>
       </c>
-      <c r="M34" t="b">
-        <v>1</v>
+      <c r="M34">
+        <v>0</v>
       </c>
       <c r="N34" t="b">
         <v>1</v>
@@ -4839,68 +5227,71 @@
       <c r="O34" t="b">
         <v>1</v>
       </c>
-      <c r="P34">
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
         <v>0.02</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>4</v>
       </c>
-      <c r="R34" t="b">
-        <v>1</v>
-      </c>
       <c r="S34" t="b">
         <v>1</v>
       </c>
-      <c r="T34" t="s">
+      <c r="T34" t="b">
+        <v>1</v>
+      </c>
+      <c r="U34" t="s">
         <v>28</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>64</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>24</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>5</v>
       </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="s">
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="s">
         <v>37</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AB34" t="s">
         <v>27</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AC34" t="s">
         <v>22</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE34" s="7">
+      <c r="AF34" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>47</v>
       </c>
       <c r="AG34" t="s">
         <v>47</v>
       </c>
-      <c r="AH34">
+      <c r="AH34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI34">
         <v>0.499</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -4934,8 +5325,8 @@
       <c r="L35">
         <v>2017</v>
       </c>
-      <c r="M35" t="b">
-        <v>1</v>
+      <c r="M35">
+        <v>0</v>
       </c>
       <c r="N35" t="b">
         <v>1</v>
@@ -4943,70 +5334,73 @@
       <c r="O35" t="b">
         <v>1</v>
       </c>
-      <c r="P35">
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
         <v>0.02</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>4</v>
       </c>
-      <c r="R35" t="b">
-        <v>1</v>
-      </c>
       <c r="S35" t="b">
         <v>1</v>
       </c>
-      <c r="T35" t="s">
+      <c r="T35" t="b">
+        <v>1</v>
+      </c>
+      <c r="U35" t="s">
         <v>28</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>64</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>24</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>5</v>
       </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="s">
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="s">
         <v>37</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AB35" t="s">
         <v>27</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AC35" t="s">
         <v>23</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE35" s="7">
+      <c r="AF35" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>47</v>
       </c>
       <c r="AG35" t="s">
         <v>47</v>
       </c>
-      <c r="AH35">
+      <c r="AH35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI35">
         <v>0.499</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
@@ -5021,7 +5415,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
@@ -5038,7 +5432,7 @@
       <c r="L37">
         <v>2017</v>
       </c>
-      <c r="M37" t="b">
+      <c r="M37">
         <v>1</v>
       </c>
       <c r="N37" t="b">
@@ -5047,70 +5441,79 @@
       <c r="O37" t="b">
         <v>1</v>
       </c>
-      <c r="P37">
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
         <v>0.02</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>4</v>
       </c>
-      <c r="R37" t="b">
-        <v>1</v>
-      </c>
       <c r="S37" t="b">
         <v>1</v>
       </c>
-      <c r="T37" t="s">
+      <c r="T37" t="b">
+        <v>1</v>
+      </c>
+      <c r="U37" t="s">
         <v>28</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>64</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>24</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>10</v>
       </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37" t="s">
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="s">
         <v>37</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AB37" t="s">
         <v>48</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AC37" t="s">
         <v>21</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AE37" s="7">
+      <c r="AF37" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>47</v>
       </c>
       <c r="AG37" t="s">
         <v>47</v>
       </c>
-      <c r="AH37">
+      <c r="AH37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI37">
         <v>0.499</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>0.57299999999999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK37" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AL37">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
@@ -5122,13 +5525,13 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
@@ -5145,7 +5548,7 @@
       <c r="L38">
         <v>2017</v>
       </c>
-      <c r="M38" t="b">
+      <c r="M38">
         <v>1</v>
       </c>
       <c r="N38" t="b">
@@ -5154,70 +5557,79 @@
       <c r="O38" t="b">
         <v>1</v>
       </c>
-      <c r="P38">
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
         <v>0.02</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>4</v>
       </c>
-      <c r="R38" t="b">
-        <v>1</v>
-      </c>
       <c r="S38" t="b">
         <v>1</v>
       </c>
-      <c r="T38" t="s">
+      <c r="T38" t="b">
+        <v>1</v>
+      </c>
+      <c r="U38" t="s">
         <v>28</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>64</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>24</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>10</v>
       </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-      <c r="Z38" t="s">
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="s">
         <v>37</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AB38" t="s">
         <v>48</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AC38" t="s">
         <v>21</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AE38" s="7">
+      <c r="AF38" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>47</v>
       </c>
       <c r="AG38" t="s">
         <v>47</v>
       </c>
-      <c r="AH38">
+      <c r="AH38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI38">
         <v>0.499</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>0.57299999999999995</v>
       </c>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK38" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AL38">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
         <v>21</v>
@@ -5229,13 +5641,13 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F39" t="s">
         <v>36</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="b">
         <v>1</v>
@@ -5252,7 +5664,7 @@
       <c r="L39">
         <v>2017</v>
       </c>
-      <c r="M39" t="b">
+      <c r="M39">
         <v>1</v>
       </c>
       <c r="N39" t="b">
@@ -5261,177 +5673,82 @@
       <c r="O39" t="b">
         <v>1</v>
       </c>
-      <c r="P39">
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
         <v>0.02</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>4</v>
       </c>
-      <c r="R39" t="b">
-        <v>1</v>
-      </c>
       <c r="S39" t="b">
         <v>1</v>
       </c>
-      <c r="T39" t="s">
+      <c r="T39" t="b">
+        <v>1</v>
+      </c>
+      <c r="U39" t="s">
         <v>28</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>64</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>24</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>10</v>
       </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39" t="s">
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="s">
         <v>37</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>48</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AC39" t="s">
         <v>21</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>6.25E-2</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AE39" s="7">
+      <c r="AF39" s="7">
         <v>0.12</v>
       </c>
-      <c r="AF39" t="s">
-        <v>47</v>
-      </c>
       <c r="AG39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH39">
+        <v>142</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI39">
         <v>0.499</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>0.57299999999999995</v>
       </c>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>2017</v>
-      </c>
-      <c r="M41" t="b">
-        <v>1</v>
-      </c>
-      <c r="N41" t="b">
-        <v>1</v>
-      </c>
-      <c r="O41" t="b">
-        <v>1</v>
-      </c>
-      <c r="P41">
-        <v>0.02</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" t="b">
-        <v>1</v>
-      </c>
-      <c r="S41" t="b">
-        <v>1</v>
-      </c>
-      <c r="T41" t="s">
-        <v>28</v>
-      </c>
-      <c r="U41" t="s">
-        <v>64</v>
-      </c>
-      <c r="V41">
-        <v>24</v>
-      </c>
-      <c r="W41">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="X41">
-        <v>10</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC41">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AD41">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AE41" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH41">
-        <v>0.499</v>
-      </c>
-      <c r="AI41">
-        <v>0.57299999999999995</v>
-      </c>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK39" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AL39">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AF40" s="7"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
@@ -5443,13 +5760,13 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="F42" t="s">
         <v>36</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
@@ -5461,13 +5778,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
         <v>2017</v>
       </c>
-      <c r="M42" t="b">
-        <v>1</v>
+      <c r="M42">
+        <v>3</v>
       </c>
       <c r="N42" t="b">
         <v>1</v>
@@ -5475,73 +5792,894 @@
       <c r="O42" t="b">
         <v>1</v>
       </c>
-      <c r="P42">
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
         <v>0.02</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>4</v>
       </c>
-      <c r="R42" t="b">
-        <v>1</v>
-      </c>
       <c r="S42" t="b">
         <v>1</v>
       </c>
-      <c r="T42" t="s">
+      <c r="T42" t="b">
+        <v>1</v>
+      </c>
+      <c r="U42" t="s">
         <v>28</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>64</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>24</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>10</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42" t="s">
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="s">
         <v>37</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>48</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AC42" t="s">
         <v>21</v>
       </c>
-      <c r="AC42">
-        <v>6.25E-2</v>
-      </c>
       <c r="AD42">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AE42" s="7">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AE42">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AF42" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>47</v>
       </c>
       <c r="AG42" t="s">
         <v>47</v>
       </c>
-      <c r="AH42">
+      <c r="AH42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI42">
         <v>0.499</v>
       </c>
-      <c r="AI42">
+      <c r="AJ42">
         <v>0.57299999999999995</v>
+      </c>
+      <c r="AK42" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AL42">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>2017</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" t="b">
+        <v>1</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>0.02</v>
+      </c>
+      <c r="R43" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" t="b">
+        <v>1</v>
+      </c>
+      <c r="T43" t="b">
+        <v>1</v>
+      </c>
+      <c r="U43" t="s">
+        <v>28</v>
+      </c>
+      <c r="V43" t="s">
+        <v>64</v>
+      </c>
+      <c r="W43">
+        <v>24</v>
+      </c>
+      <c r="X43">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Y43">
+        <v>10</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD43">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AE43">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AF43" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI43">
+        <v>0.499</v>
+      </c>
+      <c r="AJ43">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AK43" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AL43">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>2017</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>0.02</v>
+      </c>
+      <c r="R44" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" t="b">
+        <v>1</v>
+      </c>
+      <c r="T44" t="b">
+        <v>1</v>
+      </c>
+      <c r="U44" t="s">
+        <v>28</v>
+      </c>
+      <c r="V44" t="s">
+        <v>64</v>
+      </c>
+      <c r="W44">
+        <v>24</v>
+      </c>
+      <c r="X44">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Y44">
+        <v>10</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD44">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AE44">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AF44" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI44">
+        <v>0.499</v>
+      </c>
+      <c r="AJ44">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AK44" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AL44">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>2017</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47" t="b">
+        <v>1</v>
+      </c>
+      <c r="O47" t="b">
+        <v>1</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>0.02</v>
+      </c>
+      <c r="R47" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" t="b">
+        <v>1</v>
+      </c>
+      <c r="T47" t="b">
+        <v>1</v>
+      </c>
+      <c r="U47" t="s">
+        <v>28</v>
+      </c>
+      <c r="V47" t="s">
+        <v>64</v>
+      </c>
+      <c r="W47">
+        <v>24</v>
+      </c>
+      <c r="X47">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Y47">
+        <v>10</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD47">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AE47">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AF47" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI47">
+        <v>0.499</v>
+      </c>
+      <c r="AJ47">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AK47" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AL47">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>174</v>
+      </c>
+      <c r="F48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>2017</v>
+      </c>
+      <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48" t="b">
+        <v>1</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>0.02</v>
+      </c>
+      <c r="R48" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" t="b">
+        <v>1</v>
+      </c>
+      <c r="T48" t="b">
+        <v>1</v>
+      </c>
+      <c r="U48" t="s">
+        <v>28</v>
+      </c>
+      <c r="V48" t="s">
+        <v>64</v>
+      </c>
+      <c r="W48">
+        <v>24</v>
+      </c>
+      <c r="X48">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Y48">
+        <v>10</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD48">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AE48">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AF48" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI48">
+        <v>0.499</v>
+      </c>
+      <c r="AJ48">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AK48" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AL48">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>173</v>
+      </c>
+      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>2017</v>
+      </c>
+      <c r="M49">
+        <v>4</v>
+      </c>
+      <c r="N49" t="b">
+        <v>1</v>
+      </c>
+      <c r="O49" t="b">
+        <v>1</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>0.02</v>
+      </c>
+      <c r="R49" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" t="b">
+        <v>1</v>
+      </c>
+      <c r="T49" t="b">
+        <v>1</v>
+      </c>
+      <c r="U49" t="s">
+        <v>28</v>
+      </c>
+      <c r="V49" t="s">
+        <v>64</v>
+      </c>
+      <c r="W49">
+        <v>24</v>
+      </c>
+      <c r="X49">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Y49">
+        <v>10</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD49">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AE49">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AF49" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI49">
+        <v>0.499</v>
+      </c>
+      <c r="AJ49">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AK49" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AL49">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>2017</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="b">
+        <v>1</v>
+      </c>
+      <c r="O52" t="b">
+        <v>1</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>0.02</v>
+      </c>
+      <c r="R52" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" t="b">
+        <v>1</v>
+      </c>
+      <c r="T52" t="b">
+        <v>1</v>
+      </c>
+      <c r="U52" t="s">
+        <v>28</v>
+      </c>
+      <c r="V52" t="s">
+        <v>64</v>
+      </c>
+      <c r="W52">
+        <v>24</v>
+      </c>
+      <c r="X52">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Y52">
+        <v>10</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD52">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AE52">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AF52" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI52">
+        <v>0.499</v>
+      </c>
+      <c r="AJ52">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AK52" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AL52">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>2017</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="b">
+        <v>1</v>
+      </c>
+      <c r="O53" t="b">
+        <v>1</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>0.02</v>
+      </c>
+      <c r="R53" t="s">
+        <v>4</v>
+      </c>
+      <c r="S53" t="b">
+        <v>1</v>
+      </c>
+      <c r="T53" t="b">
+        <v>1</v>
+      </c>
+      <c r="U53" t="s">
+        <v>28</v>
+      </c>
+      <c r="V53" t="s">
+        <v>64</v>
+      </c>
+      <c r="W53">
+        <v>24</v>
+      </c>
+      <c r="X53">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Y53">
+        <v>10</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD53">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AE53">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AF53" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI53">
+        <v>0.499</v>
+      </c>
+      <c r="AJ53">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AK53" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AL53">
+        <v>56234303948</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G37:G42 H22:I27 G5:G30 H5:I13 H29:I30 G33:I35 H15:I20 H37:I39 H41:I42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22:I27 G5:G30 H5:I13 H29:I30 G33:I35 H15:I20 G37:I40 G52:G54 H52:I53 G42:I44 G47:I49">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA22:AA27 AA15:AA20 AA5:AA13 AA29:AA30 AA33:AA35 AA37:AA39 AA41:AA42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB22:AB27 AB15:AB20 AB5:AB13 AB29:AB30 AB33:AB35 AB52:AB53 AB42:AB44 AB37:AB40 AB47:AB49">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5555,8 +6693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5598,7 +6736,7 @@
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -5626,7 +6764,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5673,7 +6811,7 @@
         <v>0.12</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E2" s="8">
         <f>B2-C2^2/2</f>
@@ -5745,7 +6883,7 @@
         <v>0.12</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>7.2499999999999995E-2</v>
@@ -5766,7 +6904,7 @@
         <v>0.17199999999999999</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E6" s="14">
         <v>7.2499999999999995E-2</v>
@@ -5790,7 +6928,7 @@
   <dimension ref="B1:F66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6668,4 +7806,267 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="29"/>
+      <c r="C3" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="31">
+        <v>135.13999999999999</v>
+      </c>
+      <c r="D4" s="31">
+        <v>145.97999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="31">
+        <v>167.97</v>
+      </c>
+      <c r="D5" s="31">
+        <v>174.1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="34">
+        <f>C5-C4</f>
+        <v>32.830000000000013</v>
+      </c>
+      <c r="D6" s="34">
+        <f>D5-D4</f>
+        <v>28.120000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="31">
+        <f>C6-D6</f>
+        <v>4.710000000000008</v>
+      </c>
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="32">
+        <f>C7/C6</f>
+        <v>0.14346634176058501</v>
+      </c>
+      <c r="D8" s="31"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="29"/>
+      <c r="C18" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="31">
+        <v>133.96</v>
+      </c>
+      <c r="D19" s="31">
+        <v>145.68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="31">
+        <v>178.61</v>
+      </c>
+      <c r="D20" s="31">
+        <v>187.98</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="34">
+        <f>C20-C19</f>
+        <v>44.650000000000006</v>
+      </c>
+      <c r="D21" s="34">
+        <f>D20-D19</f>
+        <v>42.299999999999983</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="31">
+        <f>C21-D21</f>
+        <v>2.3500000000000227</v>
+      </c>
+      <c r="D22" s="31"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="32">
+        <f>C22/C21</f>
+        <v>5.2631578947368925E-2</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="N23" s="28"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="N24" s="28"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N25" s="28"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N26" s="28"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N27" s="28"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N28" s="28"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N29" s="28"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N30" s="28"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="N31" s="28"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="37"/>
+      <c r="C32" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="N32" s="28"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="36">
+        <v>94.6</v>
+      </c>
+      <c r="D33" s="36">
+        <v>46.3</v>
+      </c>
+      <c r="N33" s="28"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="36">
+        <v>5.52</v>
+      </c>
+      <c r="D34" s="36">
+        <v>2.66</v>
+      </c>
+      <c r="N34" s="28"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>169</v>
+      </c>
+      <c r="N35" s="28"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N36" s="28"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N37" s="28"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N38" s="28"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N39" s="28"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N40" s="28"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N41" s="28"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N42" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B31:D31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12210"/>
@@ -31,7 +31,31 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="X5" authorId="0" shapeId="0">
+    <comment ref="L4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+DC reform applied to all current and future members</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,6 +76,66 @@
           </rPr>
           <t xml:space="preserve">
 AV2016 pdf page 30</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A53" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A54" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
         </r>
       </text>
     </comment>
@@ -280,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="184">
   <si>
     <t>runname</t>
   </si>
@@ -814,6 +898,24 @@
   </si>
   <si>
     <t>DC rate 9%</t>
+  </si>
+  <si>
+    <t>DC_reform_all</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_R625.d725.DC3a</t>
+  </si>
+  <si>
+    <t>discount rate 7.25%; DC rate 5%; DC reform on all current and future members</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_R625.d725.DC4a</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_R725.d725.DC3a</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_R725.d725.DC4a</t>
   </si>
 </sst>
 </file>
@@ -826,7 +928,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,6 +969,19 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2552,13 +2667,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AL53"/>
+  <dimension ref="A4:AM57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
+      <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2574,23 +2689,24 @@
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="13" width="20.85546875" customWidth="1"/>
-    <col min="14" max="17" width="14.28515625" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" customWidth="1"/>
-    <col min="26" max="26" width="14" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" customWidth="1"/>
-    <col min="37" max="37" width="21.7109375" customWidth="1"/>
-    <col min="38" max="38" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="14" width="20.85546875" customWidth="1"/>
+    <col min="15" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" customWidth="1"/>
+    <col min="27" max="27" width="14" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" customWidth="1"/>
+    <col min="38" max="38" width="21.7109375" customWidth="1"/>
+    <col min="39" max="39" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2625,88 +2741,91 @@
         <v>129</v>
       </c>
       <c r="L4" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="N4" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AB4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AE4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AF4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AG4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AH4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AI4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AK4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -2737,14 +2856,14 @@
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>2017</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="b">
-        <v>1</v>
+      <c r="N5">
+        <v>0</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -2752,68 +2871,71 @@
       <c r="P5" t="b">
         <v>1</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5">
         <v>0.02</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>4</v>
       </c>
-      <c r="S5" t="b">
-        <v>1</v>
-      </c>
       <c r="T5" t="b">
         <v>1</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
         <v>28</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>64</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>24</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>10</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="s">
         <v>37</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>48</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>21</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AF5" s="7">
+      <c r="AG5" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>47</v>
       </c>
       <c r="AH5" t="s">
         <v>47</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ5">
         <v>0.499</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -2844,14 +2966,14 @@
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>2017</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="b">
-        <v>1</v>
+      <c r="N6">
+        <v>0</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -2859,71 +2981,74 @@
       <c r="P6" t="b">
         <v>1</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6">
         <v>0.02</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>4</v>
       </c>
-      <c r="S6" t="b">
-        <v>1</v>
-      </c>
       <c r="T6" t="b">
         <v>1</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
         <v>28</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>64</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>24</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>10</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="s">
         <v>37</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>48</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>21</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AF6" s="7">
+      <c r="AG6" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>47</v>
       </c>
       <c r="AH6" t="s">
         <v>47</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ6">
         <v>0.499</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AF7" s="7"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AG7" s="7"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -2954,83 +3079,86 @@
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>2017</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" t="b">
+      <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8">
         <v>0.02</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>4</v>
       </c>
-      <c r="S8" t="b">
-        <v>1</v>
-      </c>
       <c r="T8" t="b">
         <v>1</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" t="b">
+        <v>1</v>
+      </c>
+      <c r="V8" t="s">
         <v>28</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>64</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>24</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>10</v>
       </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="s">
         <v>37</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>27</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>21</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF8" s="7">
+      <c r="AG8" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>47</v>
       </c>
       <c r="AH8" t="s">
         <v>47</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ8">
         <v>0.499</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -3061,14 +3189,14 @@
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>2017</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="b">
-        <v>1</v>
+      <c r="N9">
+        <v>0</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -3076,68 +3204,71 @@
       <c r="P9" t="b">
         <v>1</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9">
         <v>0.02</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>4</v>
       </c>
-      <c r="S9" t="b">
-        <v>1</v>
-      </c>
       <c r="T9" t="b">
         <v>1</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9" t="s">
         <v>28</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>64</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>24</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>10</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="s">
         <v>37</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>27</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>21</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF9" s="7">
+      <c r="AG9" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>47</v>
       </c>
       <c r="AH9" t="s">
         <v>47</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ9">
         <v>0.499</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -3168,83 +3299,86 @@
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>2017</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="b">
+      <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10">
         <v>0.02</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>4</v>
       </c>
-      <c r="S10" t="b">
-        <v>1</v>
-      </c>
       <c r="T10" t="b">
         <v>1</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10" t="s">
         <v>28</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>64</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>24</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>10</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="s">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="s">
         <v>37</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>27</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>21</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF10" s="7">
+      <c r="AG10" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>47</v>
       </c>
       <c r="AH10" t="s">
         <v>47</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ10">
         <v>0.499</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -3275,83 +3409,86 @@
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>2017</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" t="b">
-        <v>1</v>
+      <c r="N11">
+        <v>0</v>
       </c>
       <c r="O11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11">
         <v>0.02</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>4</v>
       </c>
-      <c r="S11" t="b">
-        <v>1</v>
-      </c>
       <c r="T11" t="b">
         <v>1</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" t="b">
+        <v>1</v>
+      </c>
+      <c r="V11" t="s">
         <v>28</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>64</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>24</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>10</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="s">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
         <v>37</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>27</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>21</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF11" s="7">
+      <c r="AG11" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>47</v>
       </c>
       <c r="AH11" t="s">
         <v>47</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ11">
         <v>0.499</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -3385,14 +3522,14 @@
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>2017</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="b">
-        <v>1</v>
+      <c r="N12">
+        <v>0</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
@@ -3400,68 +3537,71 @@
       <c r="P12" t="b">
         <v>1</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12">
         <v>0.05</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>4</v>
       </c>
-      <c r="S12" t="b">
-        <v>1</v>
-      </c>
       <c r="T12" t="b">
         <v>1</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V12" t="s">
         <v>28</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>64</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>24</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>10</v>
       </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="s">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="s">
         <v>37</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>27</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>21</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF12" s="7">
+      <c r="AG12" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>47</v>
       </c>
       <c r="AH12" t="s">
         <v>47</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ12">
         <v>0.499</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -3492,83 +3632,86 @@
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>2017</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" t="b">
-        <v>1</v>
+      <c r="N13">
+        <v>0</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>0.02</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>4</v>
       </c>
-      <c r="S13" t="b">
-        <v>1</v>
-      </c>
       <c r="T13" t="b">
         <v>1</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" t="b">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
         <v>28</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>64</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>24</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>10</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="s">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="s">
         <v>37</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>27</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>21</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF13" s="7">
+      <c r="AG13" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>47</v>
       </c>
       <c r="AH13" t="s">
         <v>47</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ13">
         <v>0.499</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -3599,83 +3742,86 @@
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>2017</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="b">
+      <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15">
         <v>0.02</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>4</v>
       </c>
-      <c r="S15" t="b">
-        <v>1</v>
-      </c>
       <c r="T15" t="b">
         <v>1</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U15" t="b">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
         <v>28</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>64</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>24</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>10</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="s">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="s">
         <v>37</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>27</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>22</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF15" s="7">
+      <c r="AG15" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>47</v>
       </c>
       <c r="AH15" t="s">
         <v>47</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ15">
         <v>0.499</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -3706,14 +3852,14 @@
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>2017</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="b">
-        <v>1</v>
+      <c r="N16">
+        <v>0</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
@@ -3721,68 +3867,71 @@
       <c r="P16" t="b">
         <v>1</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16">
         <v>0.02</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>4</v>
       </c>
-      <c r="S16" t="b">
-        <v>1</v>
-      </c>
       <c r="T16" t="b">
         <v>1</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U16" t="b">
+        <v>1</v>
+      </c>
+      <c r="V16" t="s">
         <v>28</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>64</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>24</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>10</v>
       </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="s">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="s">
         <v>37</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>27</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>22</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF16" s="7">
+      <c r="AG16" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>47</v>
       </c>
       <c r="AH16" t="s">
         <v>47</v>
       </c>
-      <c r="AI16">
+      <c r="AI16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ16">
         <v>0.499</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -3813,83 +3962,86 @@
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>2017</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" t="b">
+      <c r="N17">
         <v>0</v>
       </c>
       <c r="O17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17">
         <v>0.02</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>4</v>
       </c>
-      <c r="S17" t="b">
-        <v>1</v>
-      </c>
       <c r="T17" t="b">
         <v>1</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U17" t="b">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
         <v>28</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>64</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>24</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>10</v>
       </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="s">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="s">
         <v>37</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>27</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>22</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF17" s="7">
+      <c r="AG17" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>47</v>
       </c>
       <c r="AH17" t="s">
         <v>47</v>
       </c>
-      <c r="AI17">
+      <c r="AI17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ17">
         <v>0.499</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -3920,83 +4072,86 @@
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>2017</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" t="b">
-        <v>1</v>
+      <c r="N18">
+        <v>0</v>
       </c>
       <c r="O18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18">
         <v>0.02</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>4</v>
       </c>
-      <c r="S18" t="b">
-        <v>1</v>
-      </c>
       <c r="T18" t="b">
         <v>1</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U18" t="b">
+        <v>1</v>
+      </c>
+      <c r="V18" t="s">
         <v>28</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>64</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>24</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>10</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="s">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="s">
         <v>37</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>27</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>22</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF18" s="7">
+      <c r="AG18" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>47</v>
       </c>
       <c r="AH18" t="s">
         <v>47</v>
       </c>
-      <c r="AI18">
+      <c r="AI18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ18">
         <v>0.499</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -4027,14 +4182,14 @@
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>2017</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" t="b">
-        <v>1</v>
+      <c r="N19">
+        <v>0</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
@@ -4042,68 +4197,71 @@
       <c r="P19" t="b">
         <v>1</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19">
         <v>0.05</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>4</v>
       </c>
-      <c r="S19" t="b">
-        <v>1</v>
-      </c>
       <c r="T19" t="b">
         <v>1</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U19" t="b">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
         <v>28</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>64</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>24</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>10</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="s">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="s">
         <v>37</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>27</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>22</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF19" s="7">
+      <c r="AG19" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>47</v>
       </c>
       <c r="AH19" t="s">
         <v>47</v>
       </c>
-      <c r="AI19">
+      <c r="AI19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ19">
         <v>0.499</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -4134,83 +4292,86 @@
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>2017</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" t="b">
-        <v>1</v>
+      <c r="N20">
+        <v>0</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>0.02</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>4</v>
       </c>
-      <c r="S20" t="b">
-        <v>1</v>
-      </c>
       <c r="T20" t="b">
         <v>1</v>
       </c>
-      <c r="U20" t="s">
+      <c r="U20" t="b">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
         <v>28</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>64</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>24</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>10</v>
       </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="s">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="s">
         <v>37</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>27</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>22</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF20" s="7">
+      <c r="AG20" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>47</v>
       </c>
       <c r="AH20" t="s">
         <v>47</v>
       </c>
-      <c r="AI20">
+      <c r="AI20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ20">
         <v>0.499</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -4241,83 +4402,86 @@
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>2017</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" t="b">
+      <c r="N22">
         <v>0</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22">
         <v>0.02</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>4</v>
       </c>
-      <c r="S22" t="b">
-        <v>1</v>
-      </c>
       <c r="T22" t="b">
         <v>1</v>
       </c>
-      <c r="U22" t="s">
+      <c r="U22" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
         <v>28</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>64</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>24</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>10</v>
       </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="s">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="s">
         <v>37</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>27</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>23</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF22" s="7">
+      <c r="AG22" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>47</v>
       </c>
       <c r="AH22" t="s">
         <v>47</v>
       </c>
-      <c r="AI22">
+      <c r="AI22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ22">
         <v>0.499</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -4348,14 +4512,14 @@
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>2017</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23" t="b">
-        <v>1</v>
+      <c r="N23">
+        <v>0</v>
       </c>
       <c r="O23" t="b">
         <v>1</v>
@@ -4363,68 +4527,71 @@
       <c r="P23" t="b">
         <v>1</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23">
         <v>0.02</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>4</v>
       </c>
-      <c r="S23" t="b">
-        <v>1</v>
-      </c>
       <c r="T23" t="b">
         <v>1</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U23" t="b">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
         <v>28</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>64</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>24</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>10</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="s">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="s">
         <v>37</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>27</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>23</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF23" s="7">
+      <c r="AG23" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>47</v>
       </c>
       <c r="AH23" t="s">
         <v>47</v>
       </c>
-      <c r="AI23">
+      <c r="AI23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ23">
         <v>0.499</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -4455,83 +4622,86 @@
       <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>2017</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24" t="b">
+      <c r="N24">
         <v>0</v>
       </c>
       <c r="O24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24">
         <v>0.02</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>4</v>
       </c>
-      <c r="S24" t="b">
-        <v>1</v>
-      </c>
       <c r="T24" t="b">
         <v>1</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V24" t="s">
         <v>28</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>64</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>24</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>10</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="s">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="s">
         <v>37</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>27</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>23</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF24" s="7">
+      <c r="AG24" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>47</v>
       </c>
       <c r="AH24" t="s">
         <v>47</v>
       </c>
-      <c r="AI24">
+      <c r="AI24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ24">
         <v>0.499</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -4562,83 +4732,86 @@
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>2017</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" t="b">
-        <v>1</v>
+      <c r="N25">
+        <v>0</v>
       </c>
       <c r="O25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25">
         <v>0.02</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>4</v>
       </c>
-      <c r="S25" t="b">
-        <v>1</v>
-      </c>
       <c r="T25" t="b">
         <v>1</v>
       </c>
-      <c r="U25" t="s">
+      <c r="U25" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
         <v>28</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>64</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>24</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>10</v>
       </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="s">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="s">
         <v>37</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>27</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>23</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF25" s="7">
+      <c r="AG25" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>47</v>
       </c>
       <c r="AH25" t="s">
         <v>47</v>
       </c>
-      <c r="AI25">
+      <c r="AI25" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ25">
         <v>0.499</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>120</v>
       </c>
@@ -4669,14 +4842,14 @@
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26">
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>2017</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26" t="b">
-        <v>1</v>
+      <c r="N26">
+        <v>0</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -4684,68 +4857,71 @@
       <c r="P26" t="b">
         <v>1</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26">
         <v>0.05</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>4</v>
       </c>
-      <c r="S26" t="b">
-        <v>1</v>
-      </c>
       <c r="T26" t="b">
         <v>1</v>
       </c>
-      <c r="U26" t="s">
+      <c r="U26" t="b">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
         <v>28</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>64</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>24</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>10</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="s">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="s">
         <v>37</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
         <v>27</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>23</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF26" s="7">
+      <c r="AG26" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>47</v>
       </c>
       <c r="AH26" t="s">
         <v>47</v>
       </c>
-      <c r="AI26">
+      <c r="AI26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ26">
         <v>0.499</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>121</v>
       </c>
@@ -4776,94 +4952,97 @@
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>2017</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" t="b">
-        <v>1</v>
+      <c r="N27">
+        <v>0</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27">
         <v>0.02</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>4</v>
       </c>
-      <c r="S27" t="b">
-        <v>1</v>
-      </c>
       <c r="T27" t="b">
         <v>1</v>
       </c>
-      <c r="U27" t="s">
+      <c r="U27" t="b">
+        <v>1</v>
+      </c>
+      <c r="V27" t="s">
         <v>28</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>64</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>24</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>10</v>
       </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="s">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="s">
         <v>37</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>27</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>23</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF27" s="7">
+      <c r="AG27" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>47</v>
       </c>
       <c r="AH27" t="s">
         <v>47</v>
       </c>
-      <c r="AI27">
+      <c r="AI27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ27">
         <v>0.499</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
         <v>0.499</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -4894,14 +5073,14 @@
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="L29">
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>2017</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" t="b">
-        <v>1</v>
+      <c r="N29">
+        <v>0</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -4909,68 +5088,71 @@
       <c r="P29" t="b">
         <v>1</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" t="b">
+        <v>1</v>
+      </c>
+      <c r="R29">
         <v>0.02</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>4</v>
       </c>
-      <c r="S29" t="b">
-        <v>1</v>
-      </c>
       <c r="T29" t="b">
         <v>1</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U29" t="b">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
         <v>28</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>123</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>24</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>10</v>
       </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="s">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="s">
         <v>37</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
         <v>27</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>21</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF29" s="7">
+      <c r="AG29" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>47</v>
       </c>
       <c r="AH29" t="s">
         <v>47</v>
       </c>
-      <c r="AI29">
+      <c r="AI29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ29">
         <v>0.499</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>124</v>
       </c>
@@ -5001,14 +5183,14 @@
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30">
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>2017</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30" t="b">
-        <v>1</v>
+      <c r="N30">
+        <v>0</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
@@ -5016,68 +5198,71 @@
       <c r="P30" t="b">
         <v>1</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" t="b">
+        <v>1</v>
+      </c>
+      <c r="R30">
         <v>0.02</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>4</v>
       </c>
-      <c r="S30" t="b">
-        <v>1</v>
-      </c>
       <c r="T30" t="b">
         <v>1</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U30" t="b">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
         <v>28</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>64</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>24</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>10</v>
       </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="s">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="s">
         <v>37</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AC30" t="s">
         <v>27</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AD30" t="s">
         <v>21</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF30" s="7">
+      <c r="AG30" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>47</v>
       </c>
       <c r="AH30" t="s">
         <v>47</v>
       </c>
-      <c r="AI30">
+      <c r="AI30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ30">
         <v>0.499</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>125</v>
       </c>
@@ -5108,14 +5293,14 @@
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33">
         <v>2017</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33" t="b">
-        <v>1</v>
+      <c r="N33">
+        <v>0</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -5123,68 +5308,71 @@
       <c r="P33" t="b">
         <v>1</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" t="b">
+        <v>1</v>
+      </c>
+      <c r="R33">
         <v>0.02</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>4</v>
       </c>
-      <c r="S33" t="b">
-        <v>1</v>
-      </c>
       <c r="T33" t="b">
         <v>1</v>
       </c>
-      <c r="U33" t="s">
+      <c r="U33" t="b">
+        <v>1</v>
+      </c>
+      <c r="V33" t="s">
         <v>28</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>64</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>24</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>5</v>
       </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="s">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="s">
         <v>37</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AC33" t="s">
         <v>27</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AD33" t="s">
         <v>21</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF33" s="7">
+      <c r="AG33" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>47</v>
       </c>
       <c r="AH33" t="s">
         <v>47</v>
       </c>
-      <c r="AI33">
+      <c r="AI33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ33">
         <v>0.499</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -5215,14 +5403,14 @@
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34">
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34">
         <v>2017</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34" t="b">
-        <v>1</v>
+      <c r="N34">
+        <v>0</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
@@ -5230,68 +5418,71 @@
       <c r="P34" t="b">
         <v>1</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" t="b">
+        <v>1</v>
+      </c>
+      <c r="R34">
         <v>0.02</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>4</v>
       </c>
-      <c r="S34" t="b">
-        <v>1</v>
-      </c>
       <c r="T34" t="b">
         <v>1</v>
       </c>
-      <c r="U34" t="s">
+      <c r="U34" t="b">
+        <v>1</v>
+      </c>
+      <c r="V34" t="s">
         <v>28</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>64</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>24</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>5</v>
       </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="s">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="s">
         <v>37</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AC34" t="s">
         <v>27</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AD34" t="s">
         <v>22</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF34" s="7">
+      <c r="AG34" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>47</v>
       </c>
       <c r="AH34" t="s">
         <v>47</v>
       </c>
-      <c r="AI34">
+      <c r="AI34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ34">
         <v>0.499</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -5322,14 +5513,14 @@
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35">
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35">
         <v>2017</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35" t="b">
-        <v>1</v>
+      <c r="N35">
+        <v>0</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -5337,68 +5528,71 @@
       <c r="P35" t="b">
         <v>1</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" t="b">
+        <v>1</v>
+      </c>
+      <c r="R35">
         <v>0.02</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>4</v>
       </c>
-      <c r="S35" t="b">
-        <v>1</v>
-      </c>
       <c r="T35" t="b">
         <v>1</v>
       </c>
-      <c r="U35" t="s">
+      <c r="U35" t="b">
+        <v>1</v>
+      </c>
+      <c r="V35" t="s">
         <v>28</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>64</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>24</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>5</v>
       </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="s">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="s">
         <v>37</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AC35" t="s">
         <v>27</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AD35" t="s">
         <v>23</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF35" s="7">
+      <c r="AG35" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>47</v>
       </c>
       <c r="AH35" t="s">
         <v>47</v>
       </c>
-      <c r="AI35">
+      <c r="AI35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ35">
         <v>0.499</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -5429,13 +5623,13 @@
       <c r="K37" t="b">
         <v>1</v>
       </c>
-      <c r="L37">
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37">
         <v>2017</v>
       </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37" t="b">
+      <c r="N37">
         <v>1</v>
       </c>
       <c r="O37" t="b">
@@ -5444,74 +5638,77 @@
       <c r="P37" t="b">
         <v>1</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" t="b">
+        <v>1</v>
+      </c>
+      <c r="R37">
         <v>0.02</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>4</v>
       </c>
-      <c r="S37" t="b">
-        <v>1</v>
-      </c>
       <c r="T37" t="b">
         <v>1</v>
       </c>
-      <c r="U37" t="s">
+      <c r="U37" t="b">
+        <v>1</v>
+      </c>
+      <c r="V37" t="s">
         <v>28</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>64</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>24</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>10</v>
       </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37" t="s">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="s">
         <v>37</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AC37" t="s">
         <v>48</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AD37" t="s">
         <v>21</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AF37" s="7">
+      <c r="AG37" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>47</v>
       </c>
       <c r="AH37" t="s">
         <v>47</v>
       </c>
-      <c r="AI37">
+      <c r="AI37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ37">
         <v>0.499</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AK37" s="27">
+      <c r="AL37" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -5545,13 +5742,13 @@
       <c r="K38" t="b">
         <v>1</v>
       </c>
-      <c r="L38">
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38">
         <v>2017</v>
       </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38" t="b">
+      <c r="N38">
         <v>1</v>
       </c>
       <c r="O38" t="b">
@@ -5560,74 +5757,77 @@
       <c r="P38" t="b">
         <v>1</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" t="b">
+        <v>1</v>
+      </c>
+      <c r="R38">
         <v>0.02</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>4</v>
       </c>
-      <c r="S38" t="b">
-        <v>1</v>
-      </c>
       <c r="T38" t="b">
         <v>1</v>
       </c>
-      <c r="U38" t="s">
+      <c r="U38" t="b">
+        <v>1</v>
+      </c>
+      <c r="V38" t="s">
         <v>28</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>64</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>24</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>10</v>
       </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38" t="s">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="s">
         <v>37</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AC38" t="s">
         <v>48</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AD38" t="s">
         <v>21</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AF38" s="7">
+      <c r="AG38" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>47</v>
       </c>
       <c r="AH38" t="s">
         <v>47</v>
       </c>
-      <c r="AI38">
+      <c r="AI38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ38">
         <v>0.499</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AK38" s="27">
+      <c r="AL38" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -5661,13 +5861,13 @@
       <c r="K39" t="b">
         <v>1</v>
       </c>
-      <c r="L39">
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39">
         <v>2017</v>
       </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39" t="b">
+      <c r="N39">
         <v>1</v>
       </c>
       <c r="O39" t="b">
@@ -5676,77 +5876,80 @@
       <c r="P39" t="b">
         <v>1</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" t="b">
+        <v>1</v>
+      </c>
+      <c r="R39">
         <v>0.02</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>4</v>
       </c>
-      <c r="S39" t="b">
-        <v>1</v>
-      </c>
       <c r="T39" t="b">
         <v>1</v>
       </c>
-      <c r="U39" t="s">
+      <c r="U39" t="b">
+        <v>1</v>
+      </c>
+      <c r="V39" t="s">
         <v>28</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>64</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>24</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>10</v>
       </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39" t="s">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="s">
         <v>37</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AC39" t="s">
         <v>48</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AD39" t="s">
         <v>21</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>6.25E-2</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AF39" s="7">
+      <c r="AG39" s="7">
         <v>0.12</v>
       </c>
-      <c r="AG39" t="s">
+      <c r="AH39" t="s">
         <v>142</v>
       </c>
-      <c r="AH39" t="s">
+      <c r="AI39" t="s">
         <v>141</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>0.499</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AK39" s="27">
+      <c r="AL39" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AL39">
+      <c r="AM39">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AF40" s="7"/>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AG40" s="7"/>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -5780,89 +5983,92 @@
       <c r="K42" t="b">
         <v>1</v>
       </c>
-      <c r="L42">
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42">
         <v>2017</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>3</v>
       </c>
-      <c r="N42" t="b">
-        <v>1</v>
-      </c>
       <c r="O42" t="b">
         <v>1</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" t="b">
+        <v>1</v>
+      </c>
+      <c r="R42">
         <v>0.02</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>4</v>
       </c>
-      <c r="S42" t="b">
-        <v>1</v>
-      </c>
       <c r="T42" t="b">
         <v>1</v>
       </c>
-      <c r="U42" t="s">
+      <c r="U42" t="b">
+        <v>1</v>
+      </c>
+      <c r="V42" t="s">
         <v>28</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>64</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>24</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>10</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42" t="s">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="s">
         <v>37</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AC42" t="s">
         <v>48</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AD42" t="s">
         <v>21</v>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AF42" s="7">
+      <c r="AG42" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>47</v>
       </c>
       <c r="AH42" t="s">
         <v>47</v>
       </c>
-      <c r="AI42">
+      <c r="AI42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ42">
         <v>0.499</v>
       </c>
-      <c r="AJ42">
+      <c r="AK42">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AK42" s="27">
+      <c r="AL42" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AL42">
+      <c r="AM42">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>149</v>
       </c>
@@ -5896,89 +6102,92 @@
       <c r="K43" t="b">
         <v>1</v>
       </c>
-      <c r="L43">
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43">
         <v>2017</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>3</v>
       </c>
-      <c r="N43" t="b">
-        <v>1</v>
-      </c>
       <c r="O43" t="b">
         <v>1</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" t="b">
+        <v>1</v>
+      </c>
+      <c r="R43">
         <v>0.02</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>4</v>
       </c>
-      <c r="S43" t="b">
-        <v>1</v>
-      </c>
       <c r="T43" t="b">
         <v>1</v>
       </c>
-      <c r="U43" t="s">
+      <c r="U43" t="b">
+        <v>1</v>
+      </c>
+      <c r="V43" t="s">
         <v>28</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>64</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>24</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>10</v>
       </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43" t="s">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="s">
         <v>37</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AC43" t="s">
         <v>48</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="AD43" t="s">
         <v>21</v>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE43">
+      <c r="AF43">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AF43" s="7">
+      <c r="AG43" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>47</v>
       </c>
       <c r="AH43" t="s">
         <v>47</v>
       </c>
-      <c r="AI43">
+      <c r="AI43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ43">
         <v>0.499</v>
       </c>
-      <c r="AJ43">
+      <c r="AK43">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AK43" s="27">
+      <c r="AL43" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AL43">
+      <c r="AM43">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>150</v>
       </c>
@@ -6012,91 +6221,217 @@
       <c r="K44" t="b">
         <v>1</v>
       </c>
-      <c r="L44">
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44">
         <v>2017</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>3</v>
       </c>
-      <c r="N44" t="b">
-        <v>1</v>
-      </c>
       <c r="O44" t="b">
         <v>1</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" t="b">
+        <v>1</v>
+      </c>
+      <c r="R44">
         <v>0.02</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>4</v>
       </c>
-      <c r="S44" t="b">
-        <v>1</v>
-      </c>
       <c r="T44" t="b">
         <v>1</v>
       </c>
-      <c r="U44" t="s">
+      <c r="U44" t="b">
+        <v>1</v>
+      </c>
+      <c r="V44" t="s">
         <v>28</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>64</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>24</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>10</v>
       </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44" t="s">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="s">
         <v>37</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AC44" t="s">
         <v>48</v>
       </c>
-      <c r="AC44" t="s">
+      <c r="AD44" t="s">
         <v>21</v>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <v>6.25E-2</v>
       </c>
-      <c r="AE44">
+      <c r="AF44">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AF44" s="7">
+      <c r="AG44" s="7">
         <v>0.12</v>
       </c>
-      <c r="AG44" t="s">
+      <c r="AH44" t="s">
         <v>142</v>
       </c>
-      <c r="AH44" t="s">
+      <c r="AI44" t="s">
         <v>141</v>
       </c>
-      <c r="AI44">
+      <c r="AJ44">
         <v>0.499</v>
       </c>
-      <c r="AJ44">
+      <c r="AK44">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AK44" s="27">
+      <c r="AL44" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AL44">
+      <c r="AM44">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AG45" s="7"/>
+      <c r="AL45" s="27"/>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>2017</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46" t="b">
+        <v>1</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="b">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>0.02</v>
+      </c>
+      <c r="S46" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" t="b">
+        <v>1</v>
+      </c>
+      <c r="U46" t="b">
+        <v>1</v>
+      </c>
+      <c r="V46" t="s">
+        <v>28</v>
+      </c>
+      <c r="W46" t="s">
+        <v>64</v>
+      </c>
+      <c r="X46">
+        <v>24</v>
+      </c>
+      <c r="Y46">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Z46">
+        <v>10</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE46">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AF46">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AG46" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ46">
+        <v>0.499</v>
+      </c>
+      <c r="AK46">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AL46" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AM46">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
@@ -6108,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F47" t="s">
         <v>36</v>
@@ -6128,207 +6463,94 @@
       <c r="K47" t="b">
         <v>1</v>
       </c>
-      <c r="L47">
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47">
         <v>2017</v>
       </c>
-      <c r="M47">
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47" t="b">
+        <v>1</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="b">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>0.02</v>
+      </c>
+      <c r="S47" t="s">
         <v>4</v>
       </c>
-      <c r="N47" t="b">
-        <v>1</v>
-      </c>
-      <c r="O47" t="b">
-        <v>1</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>0.02</v>
-      </c>
-      <c r="R47" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" t="b">
-        <v>1</v>
-      </c>
       <c r="T47" t="b">
         <v>1</v>
       </c>
-      <c r="U47" t="s">
+      <c r="U47" t="b">
+        <v>1</v>
+      </c>
+      <c r="V47" t="s">
         <v>28</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>64</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>24</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>10</v>
       </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47" t="s">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="s">
         <v>37</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AC47" t="s">
         <v>48</v>
       </c>
-      <c r="AC47" t="s">
+      <c r="AD47" t="s">
         <v>21</v>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AE47">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="AF47" s="7">
+      <c r="AF47">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AG47" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>47</v>
       </c>
       <c r="AH47" t="s">
         <v>47</v>
       </c>
-      <c r="AI47">
+      <c r="AI47" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ47">
         <v>0.499</v>
       </c>
-      <c r="AJ47">
+      <c r="AK47">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AK47" s="27">
+      <c r="AL47" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AL47">
+      <c r="AM47">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>174</v>
-      </c>
-      <c r="F48" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <v>2017</v>
-      </c>
-      <c r="M48">
-        <v>4</v>
-      </c>
-      <c r="N48" t="b">
-        <v>1</v>
-      </c>
-      <c r="O48" t="b">
-        <v>1</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>0.02</v>
-      </c>
-      <c r="R48" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" t="b">
-        <v>1</v>
-      </c>
-      <c r="T48" t="b">
-        <v>1</v>
-      </c>
-      <c r="U48" t="s">
-        <v>28</v>
-      </c>
-      <c r="V48" t="s">
-        <v>64</v>
-      </c>
-      <c r="W48">
-        <v>24</v>
-      </c>
-      <c r="X48">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="Y48">
-        <v>10</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD48">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AE48">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AF48" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AG48" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH48" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI48">
-        <v>0.499</v>
-      </c>
-      <c r="AJ48">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AK48" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AL48">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
@@ -6340,13 +6562,13 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F49" t="s">
         <v>36</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="b">
         <v>1</v>
@@ -6360,207 +6582,336 @@
       <c r="K49" t="b">
         <v>1</v>
       </c>
-      <c r="L49">
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49">
         <v>2017</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>4</v>
       </c>
-      <c r="N49" t="b">
-        <v>1</v>
-      </c>
       <c r="O49" t="b">
         <v>1</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" t="b">
+        <v>1</v>
+      </c>
+      <c r="R49">
         <v>0.02</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>4</v>
       </c>
-      <c r="S49" t="b">
-        <v>1</v>
-      </c>
       <c r="T49" t="b">
         <v>1</v>
       </c>
-      <c r="U49" t="s">
+      <c r="U49" t="b">
+        <v>1</v>
+      </c>
+      <c r="V49" t="s">
         <v>28</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>64</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>24</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>10</v>
       </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49" t="s">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="s">
         <v>37</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AC49" t="s">
         <v>48</v>
       </c>
-      <c r="AC49" t="s">
+      <c r="AD49" t="s">
         <v>21</v>
       </c>
-      <c r="AD49">
+      <c r="AE49">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AF49">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AG49" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ49">
+        <v>0.499</v>
+      </c>
+      <c r="AK49">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AL49" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AM49">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>2017</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50" t="b">
+        <v>1</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="b">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>0.02</v>
+      </c>
+      <c r="S50" t="s">
+        <v>4</v>
+      </c>
+      <c r="T50" t="b">
+        <v>1</v>
+      </c>
+      <c r="U50" t="b">
+        <v>1</v>
+      </c>
+      <c r="V50" t="s">
+        <v>28</v>
+      </c>
+      <c r="W50" t="s">
+        <v>64</v>
+      </c>
+      <c r="X50">
+        <v>24</v>
+      </c>
+      <c r="Y50">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Z50">
+        <v>10</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE50">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AF50">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AG50" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ50">
+        <v>0.499</v>
+      </c>
+      <c r="AK50">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AL50" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AM50">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>2017</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+      <c r="O51" t="b">
+        <v>1</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>0.02</v>
+      </c>
+      <c r="S51" t="s">
+        <v>4</v>
+      </c>
+      <c r="T51" t="b">
+        <v>1</v>
+      </c>
+      <c r="U51" t="b">
+        <v>1</v>
+      </c>
+      <c r="V51" t="s">
+        <v>28</v>
+      </c>
+      <c r="W51" t="s">
+        <v>64</v>
+      </c>
+      <c r="X51">
+        <v>24</v>
+      </c>
+      <c r="Y51">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Z51">
+        <v>10</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE51">
         <v>6.25E-2</v>
       </c>
-      <c r="AE49">
+      <c r="AF51">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AF49" s="7">
+      <c r="AG51" s="7">
         <v>0.12</v>
       </c>
-      <c r="AG49" t="s">
+      <c r="AH51" t="s">
         <v>142</v>
       </c>
-      <c r="AH49" t="s">
+      <c r="AI51" t="s">
         <v>141</v>
       </c>
-      <c r="AI49">
+      <c r="AJ51">
         <v>0.499</v>
       </c>
-      <c r="AJ49">
+      <c r="AK51">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AK49" s="27">
+      <c r="AL51" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AL49">
+      <c r="AM51">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>136</v>
-      </c>
-      <c r="F52" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>2017</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52" t="b">
-        <v>1</v>
-      </c>
-      <c r="O52" t="b">
-        <v>1</v>
-      </c>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>0.02</v>
-      </c>
-      <c r="R52" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" t="b">
-        <v>1</v>
-      </c>
-      <c r="T52" t="b">
-        <v>1</v>
-      </c>
-      <c r="U52" t="s">
-        <v>28</v>
-      </c>
-      <c r="V52" t="s">
-        <v>64</v>
-      </c>
-      <c r="W52">
-        <v>24</v>
-      </c>
-      <c r="X52">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="Y52">
-        <v>10</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD52">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AE52">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AF52" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH52" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI52">
-        <v>0.499</v>
-      </c>
-      <c r="AJ52">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AK52" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AL52">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AG52" s="7"/>
+      <c r="AL52" s="27"/>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
@@ -6572,13 +6923,13 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="F53" t="s">
         <v>36</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
@@ -6590,16 +6941,16 @@
         <v>0</v>
       </c>
       <c r="K53" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53">
         <v>2017</v>
       </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53" t="b">
-        <v>1</v>
+      <c r="N53">
+        <v>4</v>
       </c>
       <c r="O53" t="b">
         <v>1</v>
@@ -6607,79 +6958,439 @@
       <c r="P53" t="b">
         <v>1</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" t="b">
+        <v>1</v>
+      </c>
+      <c r="R53">
         <v>0.02</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>4</v>
       </c>
-      <c r="S53" t="b">
-        <v>1</v>
-      </c>
       <c r="T53" t="b">
         <v>1</v>
       </c>
-      <c r="U53" t="s">
+      <c r="U53" t="b">
+        <v>1</v>
+      </c>
+      <c r="V53" t="s">
         <v>28</v>
       </c>
-      <c r="V53" t="s">
+      <c r="W53" t="s">
         <v>64</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>24</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>10</v>
       </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53" t="s">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="s">
         <v>37</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AC53" t="s">
         <v>48</v>
       </c>
-      <c r="AC53" t="s">
+      <c r="AD53" t="s">
         <v>21</v>
       </c>
-      <c r="AD53">
+      <c r="AE53">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AF53">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AG53" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ53">
+        <v>0.499</v>
+      </c>
+      <c r="AK53">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AL53" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AM53">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>180</v>
+      </c>
+      <c r="F54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>2017</v>
+      </c>
+      <c r="N54">
+        <v>4</v>
+      </c>
+      <c r="O54" t="b">
+        <v>1</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="b">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>0.02</v>
+      </c>
+      <c r="S54" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" t="b">
+        <v>1</v>
+      </c>
+      <c r="U54" t="b">
+        <v>1</v>
+      </c>
+      <c r="V54" t="s">
+        <v>28</v>
+      </c>
+      <c r="W54" t="s">
+        <v>64</v>
+      </c>
+      <c r="X54">
+        <v>24</v>
+      </c>
+      <c r="Y54">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Z54">
+        <v>10</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE54">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AF54">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AG54" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ54">
+        <v>0.499</v>
+      </c>
+      <c r="AK54">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AL54" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AM54">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>2017</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" t="b">
+        <v>1</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="b">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>0.02</v>
+      </c>
+      <c r="S56" t="s">
+        <v>4</v>
+      </c>
+      <c r="T56" t="b">
+        <v>1</v>
+      </c>
+      <c r="U56" t="b">
+        <v>1</v>
+      </c>
+      <c r="V56" t="s">
+        <v>28</v>
+      </c>
+      <c r="W56" t="s">
+        <v>64</v>
+      </c>
+      <c r="X56">
+        <v>24</v>
+      </c>
+      <c r="Y56">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Z56">
+        <v>10</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE56">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AF56">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AG56" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ56">
+        <v>0.499</v>
+      </c>
+      <c r="AK56">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AL56" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AM56">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>2017</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57" t="b">
+        <v>1</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="b">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>0.02</v>
+      </c>
+      <c r="S57" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U57" t="b">
+        <v>1</v>
+      </c>
+      <c r="V57" t="s">
+        <v>28</v>
+      </c>
+      <c r="W57" t="s">
+        <v>64</v>
+      </c>
+      <c r="X57">
+        <v>24</v>
+      </c>
+      <c r="Y57">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Z57">
+        <v>10</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE57">
         <v>6.25E-2</v>
       </c>
-      <c r="AE53">
+      <c r="AF57">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AF53" s="7">
+      <c r="AG57" s="7">
         <v>0.12</v>
       </c>
-      <c r="AG53" t="s">
+      <c r="AH57" t="s">
         <v>142</v>
       </c>
-      <c r="AH53" t="s">
+      <c r="AI57" t="s">
         <v>141</v>
       </c>
-      <c r="AI53">
+      <c r="AJ57">
         <v>0.499</v>
       </c>
-      <c r="AJ53">
+      <c r="AK57">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AK53" s="27">
+      <c r="AL57" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AL53">
+      <c r="AM57">
         <v>56234303948</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22:I27 G5:G30 H5:I13 H29:I30 G33:I35 H15:I20 G37:I40 G52:G54 H52:I53 G42:I44 G47:I49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22:I27 G5:G30 H5:I13 H29:I30 G33:I35 H15:I20 G37:I40 G56:G58 H56:I57 G42:I47 G49:I54">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB22:AB27 AB15:AB20 AB5:AB13 AB29:AB30 AB33:AB35 AB52:AB53 AB42:AB44 AB37:AB40 AB47:AB49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC22:AC27 AC15:AC20 AC5:AC13 AC29:AC30 AC33:AC35 AC56:AC57 AC42:AC47 AC37:AC40 AC49:AC54">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -125,6 +125,21 @@
       </text>
     </comment>
     <comment ref="A54" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +379,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="186">
   <si>
     <t>runname</t>
   </si>
@@ -916,6 +931,12 @@
   </si>
   <si>
     <t>SR1EL1.Reform_R725.d725.DC4a</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_R725.d725.DC4b</t>
+  </si>
+  <si>
+    <t>discount rate 7.25%; DC rate 5%; DC reform on all current and future members; use origional init values MA and AA</t>
   </si>
 </sst>
 </file>
@@ -2667,13 +2688,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AM57"/>
+  <dimension ref="A4:AM58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
+      <selection pane="bottomRight" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2682,7 +2703,7 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="40.5703125" customWidth="1"/>
+    <col min="5" max="5" width="62" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
@@ -6330,7 +6351,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -6449,7 +6470,7 @@
         <v>36</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -6929,7 +6950,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
@@ -7048,7 +7069,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -7147,128 +7168,128 @@
         <v>56234303948</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>147</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" t="s">
         <v>21</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s">
-        <v>136</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>185</v>
+      </c>
+      <c r="F55" t="s">
         <v>36</v>
       </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="b">
-        <v>1</v>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="b">
+        <v>1</v>
+      </c>
+      <c r="M55">
         <v>2017</v>
       </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56" t="b">
-        <v>1</v>
-      </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56" t="b">
-        <v>1</v>
-      </c>
-      <c r="R56">
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55" t="b">
+        <v>1</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="b">
+        <v>1</v>
+      </c>
+      <c r="R55">
         <v>0.02</v>
       </c>
-      <c r="S56" t="s">
+      <c r="S55" t="s">
         <v>4</v>
       </c>
-      <c r="T56" t="b">
-        <v>1</v>
-      </c>
-      <c r="U56" t="b">
-        <v>1</v>
-      </c>
-      <c r="V56" t="s">
+      <c r="T55" t="b">
+        <v>1</v>
+      </c>
+      <c r="U55" t="b">
+        <v>1</v>
+      </c>
+      <c r="V55" t="s">
         <v>28</v>
       </c>
-      <c r="W56" t="s">
+      <c r="W55" t="s">
         <v>64</v>
       </c>
-      <c r="X56">
+      <c r="X55">
         <v>24</v>
       </c>
-      <c r="Y56">
+      <c r="Y55">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z56">
+      <c r="Z55">
         <v>10</v>
       </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="s">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="s">
         <v>37</v>
       </c>
-      <c r="AC56" t="s">
+      <c r="AC55" t="s">
         <v>48</v>
       </c>
-      <c r="AD56" t="s">
+      <c r="AD55" t="s">
         <v>21</v>
       </c>
-      <c r="AE56">
+      <c r="AE55">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF56">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AG56" s="7">
+      <c r="AF55">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AG55" s="7">
         <v>0.12</v>
       </c>
-      <c r="AH56" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI56" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ56">
+      <c r="AH55" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ55">
         <v>0.499</v>
       </c>
-      <c r="AK56">
+      <c r="AK55">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AL56" s="27">
+      <c r="AL55" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AM56">
+      <c r="AM55">
         <v>56234303948</v>
       </c>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
@@ -7280,7 +7301,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F57" t="s">
         <v>36</v>
@@ -7358,7 +7379,7 @@
         <v>21</v>
       </c>
       <c r="AE57">
-        <v>6.25E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AF57">
         <v>6.9699999999999998E-2</v>
@@ -7367,10 +7388,10 @@
         <v>0.12</v>
       </c>
       <c r="AH57" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="AI57" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="AJ57">
         <v>0.499</v>
@@ -7385,12 +7406,131 @@
         <v>56234303948</v>
       </c>
     </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>137</v>
+      </c>
+      <c r="F58" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>2017</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" t="b">
+        <v>1</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="b">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>0.02</v>
+      </c>
+      <c r="S58" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" t="b">
+        <v>1</v>
+      </c>
+      <c r="U58" t="b">
+        <v>1</v>
+      </c>
+      <c r="V58" t="s">
+        <v>28</v>
+      </c>
+      <c r="W58" t="s">
+        <v>64</v>
+      </c>
+      <c r="X58">
+        <v>24</v>
+      </c>
+      <c r="Y58">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Z58">
+        <v>10</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE58">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AF58">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AG58" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ58">
+        <v>0.499</v>
+      </c>
+      <c r="AK58">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AL58" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AM58">
+        <v>56234303948</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22:I27 G5:G30 H5:I13 H29:I30 G33:I35 H15:I20 G37:I40 G56:G58 H56:I57 G42:I47 G49:I54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22:I27 G5:G30 H5:I13 H29:I30 G33:I35 H15:I20 G37:I40 G57:G59 H57:I58 G42:I47 G49:I55">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC22:AC27 AC15:AC20 AC5:AC13 AC29:AC30 AC33:AC35 AC56:AC57 AC42:AC47 AC37:AC40 AC49:AC54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC22:AC27 AC15:AC20 AC5:AC13 AC29:AC30 AC33:AC35 AC57:AC58 AC42:AC47 AC37:AC40 AC49:AC55">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -55,7 +55,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y5" authorId="0" shapeId="0">
+    <comment ref="N4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+TRUE if results for new hires in Tier E and F are saved separately
+ </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="196">
   <si>
     <t>runname</t>
   </si>
@@ -937,6 +962,36 @@
   </si>
   <si>
     <t>discount rate 7.25%; DC rate 5%; DC reform on all current and future members; use origional init values MA and AA</t>
+  </si>
+  <si>
+    <t>SepNewHires</t>
+  </si>
+  <si>
+    <t>DC rate 9%; New hires modeled separately</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_sep_R725.d725.DC4</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_sep_R625.d725.DC4</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_sep_R625.d625.DC4</t>
+  </si>
+  <si>
+    <t>discount rate 7.25%; DC rate 9%; New hires modeled separately</t>
+  </si>
+  <si>
+    <t>discount rate 6.25%; DC rate 9%; New hires modeled separately</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_sep_R725.d725.DC3</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_sep_R625.d725.DC3</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_sep_R625.d625.DC3</t>
   </si>
 </sst>
 </file>
@@ -2688,22 +2743,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AM58"/>
+  <dimension ref="A4:AN67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G63" sqref="G63"/>
+      <selection pane="bottomRight" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="62" customWidth="1"/>
+    <col min="5" max="5" width="52.85546875" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
@@ -2711,23 +2766,25 @@
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="14" width="20.85546875" customWidth="1"/>
-    <col min="15" max="18" width="14.28515625" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" customWidth="1"/>
-    <col min="27" max="27" width="14" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" customWidth="1"/>
-    <col min="38" max="38" width="21.7109375" customWidth="1"/>
-    <col min="39" max="39" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" customWidth="1"/>
+    <col min="28" max="28" width="14" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" customWidth="1"/>
+    <col min="31" max="31" width="14.85546875" customWidth="1"/>
+    <col min="39" max="39" width="21.7109375" customWidth="1"/>
+    <col min="40" max="40" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2768,85 +2825,88 @@
         <v>138</v>
       </c>
       <c r="N4" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="O4" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AB4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AC4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AE4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AF4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AG4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AH4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AI4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AK4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AL4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AN4" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -2883,11 +2943,11 @@
       <c r="M5">
         <v>2017</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" t="b">
-        <v>1</v>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
@@ -2895,68 +2955,71 @@
       <c r="Q5" t="b">
         <v>1</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5">
         <v>0.02</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>4</v>
       </c>
-      <c r="T5" t="b">
-        <v>1</v>
-      </c>
       <c r="U5" t="b">
         <v>1</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" t="s">
         <v>28</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>64</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>24</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>10</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
         <v>37</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>48</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>21</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AG5" s="7">
+      <c r="AH5" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>47</v>
       </c>
       <c r="AI5" t="s">
         <v>47</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK5">
         <v>0.499</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -2993,11 +3056,11 @@
       <c r="M6">
         <v>2017</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6" t="b">
-        <v>1</v>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
@@ -3005,71 +3068,74 @@
       <c r="Q6" t="b">
         <v>1</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6">
         <v>0.02</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>4</v>
       </c>
-      <c r="T6" t="b">
-        <v>1</v>
-      </c>
       <c r="U6" t="b">
         <v>1</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
         <v>28</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>64</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>24</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>10</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="s">
         <v>37</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>48</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>21</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AG6" s="7">
+      <c r="AH6" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>47</v>
       </c>
       <c r="AI6" t="s">
         <v>47</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK6">
         <v>0.499</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AG7" s="7"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AH7" s="7"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -3106,80 +3172,83 @@
       <c r="M8">
         <v>2017</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8" t="b">
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
       </c>
       <c r="Q8" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8">
         <v>0.02</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>4</v>
       </c>
-      <c r="T8" t="b">
-        <v>1</v>
-      </c>
       <c r="U8" t="b">
         <v>1</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" t="b">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
         <v>28</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>64</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>24</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>10</v>
       </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="s">
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="s">
         <v>37</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>27</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>21</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG8" s="7">
+      <c r="AH8" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>47</v>
       </c>
       <c r="AI8" t="s">
         <v>47</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK8">
         <v>0.499</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -3216,11 +3285,11 @@
       <c r="M9">
         <v>2017</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" t="b">
-        <v>1</v>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
@@ -3228,68 +3297,71 @@
       <c r="Q9" t="b">
         <v>1</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9">
         <v>0.02</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>4</v>
       </c>
-      <c r="T9" t="b">
-        <v>1</v>
-      </c>
       <c r="U9" t="b">
         <v>1</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" t="s">
         <v>28</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>64</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>24</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>10</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="s">
         <v>37</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>27</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>21</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG9" s="7">
+      <c r="AH9" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>47</v>
       </c>
       <c r="AI9" t="s">
         <v>47</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK9">
         <v>0.499</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -3326,80 +3398,83 @@
       <c r="M10">
         <v>2017</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" t="b">
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="b">
         <v>1</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10">
         <v>0.02</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>4</v>
       </c>
-      <c r="T10" t="b">
-        <v>1</v>
-      </c>
       <c r="U10" t="b">
         <v>1</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
         <v>28</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>64</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>24</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>10</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="s">
         <v>37</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>27</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>21</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG10" s="7">
+      <c r="AH10" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>47</v>
       </c>
       <c r="AI10" t="s">
         <v>47</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK10">
         <v>0.499</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -3436,80 +3511,83 @@
       <c r="M11">
         <v>2017</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" t="b">
-        <v>1</v>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11">
         <v>0.02</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>4</v>
       </c>
-      <c r="T11" t="b">
-        <v>1</v>
-      </c>
       <c r="U11" t="b">
         <v>1</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" t="b">
+        <v>1</v>
+      </c>
+      <c r="W11" t="s">
         <v>28</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>64</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>24</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>10</v>
       </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="s">
         <v>37</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>27</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>21</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG11" s="7">
+      <c r="AH11" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>47</v>
       </c>
       <c r="AI11" t="s">
         <v>47</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK11">
         <v>0.499</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -3549,11 +3627,11 @@
       <c r="M12">
         <v>2017</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" t="b">
-        <v>1</v>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
@@ -3561,68 +3639,71 @@
       <c r="Q12" t="b">
         <v>1</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12">
         <v>0.05</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>4</v>
       </c>
-      <c r="T12" t="b">
-        <v>1</v>
-      </c>
       <c r="U12" t="b">
         <v>1</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" t="b">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
         <v>28</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>64</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>24</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>10</v>
       </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="s">
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="s">
         <v>37</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>27</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>21</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG12" s="7">
+      <c r="AH12" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>47</v>
       </c>
       <c r="AI12" t="s">
         <v>47</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK12">
         <v>0.499</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -3659,80 +3740,83 @@
       <c r="M13">
         <v>2017</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" t="b">
-        <v>1</v>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13" t="b">
-        <v>0</v>
-      </c>
-      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>0.02</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>4</v>
       </c>
-      <c r="T13" t="b">
-        <v>1</v>
-      </c>
       <c r="U13" t="b">
         <v>1</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
         <v>28</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>64</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>24</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>10</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="s">
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="s">
         <v>37</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>27</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>21</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG13" s="7">
+      <c r="AH13" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>47</v>
       </c>
       <c r="AI13" t="s">
         <v>47</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK13">
         <v>0.499</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -3769,80 +3853,83 @@
       <c r="M15">
         <v>2017</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" t="b">
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
       </c>
       <c r="Q15" t="b">
-        <v>1</v>
-      </c>
-      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15">
         <v>0.02</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>4</v>
       </c>
-      <c r="T15" t="b">
-        <v>1</v>
-      </c>
       <c r="U15" t="b">
         <v>1</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V15" t="b">
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
         <v>28</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>64</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>24</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>10</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="s">
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="s">
         <v>37</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>27</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>22</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG15" s="7">
+      <c r="AH15" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>47</v>
       </c>
       <c r="AI15" t="s">
         <v>47</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK15">
         <v>0.499</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -3879,11 +3966,11 @@
       <c r="M16">
         <v>2017</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16" t="b">
-        <v>1</v>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
@@ -3891,68 +3978,71 @@
       <c r="Q16" t="b">
         <v>1</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16">
         <v>0.02</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>4</v>
       </c>
-      <c r="T16" t="b">
-        <v>1</v>
-      </c>
       <c r="U16" t="b">
         <v>1</v>
       </c>
-      <c r="V16" t="s">
+      <c r="V16" t="b">
+        <v>1</v>
+      </c>
+      <c r="W16" t="s">
         <v>28</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>64</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>24</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>10</v>
       </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="s">
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="s">
         <v>37</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>27</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>22</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG16" s="7">
+      <c r="AH16" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>47</v>
       </c>
       <c r="AI16" t="s">
         <v>47</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK16">
         <v>0.499</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -3989,80 +4079,83 @@
       <c r="M17">
         <v>2017</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17" t="b">
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="b">
         <v>1</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17">
         <v>0.02</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>4</v>
       </c>
-      <c r="T17" t="b">
-        <v>1</v>
-      </c>
       <c r="U17" t="b">
         <v>1</v>
       </c>
-      <c r="V17" t="s">
+      <c r="V17" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" t="s">
         <v>28</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>64</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>24</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>10</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="s">
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="s">
         <v>37</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>27</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>22</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG17" s="7">
+      <c r="AH17" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>47</v>
       </c>
       <c r="AI17" t="s">
         <v>47</v>
       </c>
-      <c r="AJ17">
+      <c r="AJ17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK17">
         <v>0.499</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -4099,80 +4192,83 @@
       <c r="M18">
         <v>2017</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18" t="b">
-        <v>1</v>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18">
         <v>0.02</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>4</v>
       </c>
-      <c r="T18" t="b">
-        <v>1</v>
-      </c>
       <c r="U18" t="b">
         <v>1</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V18" t="b">
+        <v>1</v>
+      </c>
+      <c r="W18" t="s">
         <v>28</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>64</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>24</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>10</v>
       </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="s">
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="s">
         <v>37</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>27</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>22</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG18" s="7">
+      <c r="AH18" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>47</v>
       </c>
       <c r="AI18" t="s">
         <v>47</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK18">
         <v>0.499</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -4209,11 +4305,11 @@
       <c r="M19">
         <v>2017</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19" t="b">
-        <v>1</v>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
@@ -4221,68 +4317,71 @@
       <c r="Q19" t="b">
         <v>1</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19">
         <v>0.05</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>4</v>
       </c>
-      <c r="T19" t="b">
-        <v>1</v>
-      </c>
       <c r="U19" t="b">
         <v>1</v>
       </c>
-      <c r="V19" t="s">
+      <c r="V19" t="b">
+        <v>1</v>
+      </c>
+      <c r="W19" t="s">
         <v>28</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>64</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>24</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>10</v>
       </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="s">
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="s">
         <v>37</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>27</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>22</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG19" s="7">
+      <c r="AH19" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>47</v>
       </c>
       <c r="AI19" t="s">
         <v>47</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK19">
         <v>0.499</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -4319,80 +4418,83 @@
       <c r="M20">
         <v>2017</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20" t="b">
-        <v>1</v>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20" t="b">
-        <v>0</v>
-      </c>
-      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>0.02</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>4</v>
       </c>
-      <c r="T20" t="b">
-        <v>1</v>
-      </c>
       <c r="U20" t="b">
         <v>1</v>
       </c>
-      <c r="V20" t="s">
+      <c r="V20" t="b">
+        <v>1</v>
+      </c>
+      <c r="W20" t="s">
         <v>28</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>64</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>24</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>10</v>
       </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="s">
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="s">
         <v>37</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>27</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>22</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG20" s="7">
+      <c r="AH20" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>47</v>
       </c>
       <c r="AI20" t="s">
         <v>47</v>
       </c>
-      <c r="AJ20">
+      <c r="AJ20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK20">
         <v>0.499</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -4429,80 +4531,83 @@
       <c r="M22">
         <v>2017</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22" t="b">
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="b">
         <v>0</v>
       </c>
       <c r="Q22" t="b">
-        <v>1</v>
-      </c>
-      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22">
         <v>0.02</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>4</v>
       </c>
-      <c r="T22" t="b">
-        <v>1</v>
-      </c>
       <c r="U22" t="b">
         <v>1</v>
       </c>
-      <c r="V22" t="s">
+      <c r="V22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" t="s">
         <v>28</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>64</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>24</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>10</v>
       </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="s">
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="s">
         <v>37</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>27</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>23</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG22" s="7">
+      <c r="AH22" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>47</v>
       </c>
       <c r="AI22" t="s">
         <v>47</v>
       </c>
-      <c r="AJ22">
+      <c r="AJ22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK22">
         <v>0.499</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -4539,11 +4644,11 @@
       <c r="M23">
         <v>2017</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23" t="b">
-        <v>1</v>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
@@ -4551,68 +4656,71 @@
       <c r="Q23" t="b">
         <v>1</v>
       </c>
-      <c r="R23">
+      <c r="R23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S23">
         <v>0.02</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>4</v>
       </c>
-      <c r="T23" t="b">
-        <v>1</v>
-      </c>
       <c r="U23" t="b">
         <v>1</v>
       </c>
-      <c r="V23" t="s">
+      <c r="V23" t="b">
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
         <v>28</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>64</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>24</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>10</v>
       </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="s">
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="s">
         <v>37</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>27</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>23</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG23" s="7">
+      <c r="AH23" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>47</v>
       </c>
       <c r="AI23" t="s">
         <v>47</v>
       </c>
-      <c r="AJ23">
+      <c r="AJ23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK23">
         <v>0.499</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -4649,80 +4757,83 @@
       <c r="M24">
         <v>2017</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24" t="b">
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="b">
         <v>1</v>
       </c>
-      <c r="R24">
+      <c r="R24" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24">
         <v>0.02</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>4</v>
       </c>
-      <c r="T24" t="b">
-        <v>1</v>
-      </c>
       <c r="U24" t="b">
         <v>1</v>
       </c>
-      <c r="V24" t="s">
+      <c r="V24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W24" t="s">
         <v>28</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>64</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>24</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>10</v>
       </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="s">
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="s">
         <v>37</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>27</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>23</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG24" s="7">
+      <c r="AH24" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>47</v>
       </c>
       <c r="AI24" t="s">
         <v>47</v>
       </c>
-      <c r="AJ24">
+      <c r="AJ24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK24">
         <v>0.499</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -4759,80 +4870,83 @@
       <c r="M25">
         <v>2017</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25" t="b">
-        <v>1</v>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="b">
-        <v>1</v>
-      </c>
-      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="b">
+        <v>1</v>
+      </c>
+      <c r="S25">
         <v>0.02</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>4</v>
       </c>
-      <c r="T25" t="b">
-        <v>1</v>
-      </c>
       <c r="U25" t="b">
         <v>1</v>
       </c>
-      <c r="V25" t="s">
+      <c r="V25" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25" t="s">
         <v>28</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>64</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>24</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>10</v>
       </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="s">
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="s">
         <v>37</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>27</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>23</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG25" s="7">
+      <c r="AH25" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>47</v>
       </c>
       <c r="AI25" t="s">
         <v>47</v>
       </c>
-      <c r="AJ25">
+      <c r="AJ25" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK25">
         <v>0.499</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>120</v>
       </c>
@@ -4869,11 +4983,11 @@
       <c r="M26">
         <v>2017</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26" t="b">
-        <v>1</v>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
@@ -4881,68 +4995,71 @@
       <c r="Q26" t="b">
         <v>1</v>
       </c>
-      <c r="R26">
+      <c r="R26" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26">
         <v>0.05</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>4</v>
       </c>
-      <c r="T26" t="b">
-        <v>1</v>
-      </c>
       <c r="U26" t="b">
         <v>1</v>
       </c>
-      <c r="V26" t="s">
+      <c r="V26" t="b">
+        <v>1</v>
+      </c>
+      <c r="W26" t="s">
         <v>28</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>64</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>24</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>10</v>
       </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="s">
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="s">
         <v>37</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>27</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>23</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG26" s="7">
+      <c r="AH26" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>47</v>
       </c>
       <c r="AI26" t="s">
         <v>47</v>
       </c>
-      <c r="AJ26">
+      <c r="AJ26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK26">
         <v>0.499</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>121</v>
       </c>
@@ -4979,91 +5096,94 @@
       <c r="M27">
         <v>2017</v>
       </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27" t="b">
-        <v>1</v>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27" t="b">
-        <v>0</v>
-      </c>
-      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="R27" t="b">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>0.02</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>4</v>
       </c>
-      <c r="T27" t="b">
-        <v>1</v>
-      </c>
       <c r="U27" t="b">
         <v>1</v>
       </c>
-      <c r="V27" t="s">
+      <c r="V27" t="b">
+        <v>1</v>
+      </c>
+      <c r="W27" t="s">
         <v>28</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>64</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>24</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>10</v>
       </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="s">
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="s">
         <v>37</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>27</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>23</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG27" s="7">
+      <c r="AH27" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>47</v>
       </c>
       <c r="AI27" t="s">
         <v>47</v>
       </c>
-      <c r="AJ27">
+      <c r="AJ27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK27">
         <v>0.499</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
         <v>0.499</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -5100,11 +5220,11 @@
       <c r="M29">
         <v>2017</v>
       </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29" t="b">
-        <v>1</v>
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
@@ -5112,68 +5232,71 @@
       <c r="Q29" t="b">
         <v>1</v>
       </c>
-      <c r="R29">
+      <c r="R29" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29">
         <v>0.02</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>4</v>
       </c>
-      <c r="T29" t="b">
-        <v>1</v>
-      </c>
       <c r="U29" t="b">
         <v>1</v>
       </c>
-      <c r="V29" t="s">
+      <c r="V29" t="b">
+        <v>1</v>
+      </c>
+      <c r="W29" t="s">
         <v>28</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>123</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>24</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>10</v>
       </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="s">
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="s">
         <v>37</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>27</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>21</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG29" s="7">
+      <c r="AH29" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>47</v>
       </c>
       <c r="AI29" t="s">
         <v>47</v>
       </c>
-      <c r="AJ29">
+      <c r="AJ29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK29">
         <v>0.499</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>124</v>
       </c>
@@ -5210,11 +5333,11 @@
       <c r="M30">
         <v>2017</v>
       </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30" t="b">
-        <v>1</v>
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
@@ -5222,68 +5345,71 @@
       <c r="Q30" t="b">
         <v>1</v>
       </c>
-      <c r="R30">
+      <c r="R30" t="b">
+        <v>1</v>
+      </c>
+      <c r="S30">
         <v>0.02</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>4</v>
       </c>
-      <c r="T30" t="b">
-        <v>1</v>
-      </c>
       <c r="U30" t="b">
         <v>1</v>
       </c>
-      <c r="V30" t="s">
+      <c r="V30" t="b">
+        <v>1</v>
+      </c>
+      <c r="W30" t="s">
         <v>28</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>64</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>24</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>10</v>
       </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="s">
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="s">
         <v>37</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AD30" t="s">
         <v>27</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>21</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG30" s="7">
+      <c r="AH30" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>47</v>
       </c>
       <c r="AI30" t="s">
         <v>47</v>
       </c>
-      <c r="AJ30">
+      <c r="AJ30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK30">
         <v>0.499</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>125</v>
       </c>
@@ -5320,11 +5446,11 @@
       <c r="M33">
         <v>2017</v>
       </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33" t="b">
-        <v>1</v>
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
@@ -5332,68 +5458,71 @@
       <c r="Q33" t="b">
         <v>1</v>
       </c>
-      <c r="R33">
+      <c r="R33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33">
         <v>0.02</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>4</v>
       </c>
-      <c r="T33" t="b">
-        <v>1</v>
-      </c>
       <c r="U33" t="b">
         <v>1</v>
       </c>
-      <c r="V33" t="s">
+      <c r="V33" t="b">
+        <v>1</v>
+      </c>
+      <c r="W33" t="s">
         <v>28</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>64</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>24</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>5</v>
       </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="s">
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="s">
         <v>37</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AD33" t="s">
         <v>27</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AE33" t="s">
         <v>21</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG33" s="7">
+      <c r="AH33" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>47</v>
       </c>
       <c r="AI33" t="s">
         <v>47</v>
       </c>
-      <c r="AJ33">
+      <c r="AJ33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK33">
         <v>0.499</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -5430,11 +5559,11 @@
       <c r="M34">
         <v>2017</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34" t="b">
-        <v>1</v>
+      <c r="N34" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
@@ -5442,68 +5571,71 @@
       <c r="Q34" t="b">
         <v>1</v>
       </c>
-      <c r="R34">
+      <c r="R34" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34">
         <v>0.02</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>4</v>
       </c>
-      <c r="T34" t="b">
-        <v>1</v>
-      </c>
       <c r="U34" t="b">
         <v>1</v>
       </c>
-      <c r="V34" t="s">
+      <c r="V34" t="b">
+        <v>1</v>
+      </c>
+      <c r="W34" t="s">
         <v>28</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>64</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>24</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>5</v>
       </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="s">
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="s">
         <v>37</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AD34" t="s">
         <v>27</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AE34" t="s">
         <v>22</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG34" s="7">
+      <c r="AH34" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>47</v>
       </c>
       <c r="AI34" t="s">
         <v>47</v>
       </c>
-      <c r="AJ34">
+      <c r="AJ34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK34">
         <v>0.499</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -5540,11 +5672,11 @@
       <c r="M35">
         <v>2017</v>
       </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35" t="b">
-        <v>1</v>
+      <c r="N35" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
@@ -5552,68 +5684,71 @@
       <c r="Q35" t="b">
         <v>1</v>
       </c>
-      <c r="R35">
+      <c r="R35" t="b">
+        <v>1</v>
+      </c>
+      <c r="S35">
         <v>0.02</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>4</v>
       </c>
-      <c r="T35" t="b">
-        <v>1</v>
-      </c>
       <c r="U35" t="b">
         <v>1</v>
       </c>
-      <c r="V35" t="s">
+      <c r="V35" t="b">
+        <v>1</v>
+      </c>
+      <c r="W35" t="s">
         <v>28</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>64</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>24</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>5</v>
       </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="s">
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="s">
         <v>37</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AD35" t="s">
         <v>27</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AE35" t="s">
         <v>23</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AG35" s="7">
+      <c r="AH35" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>47</v>
       </c>
       <c r="AI35" t="s">
         <v>47</v>
       </c>
-      <c r="AJ35">
+      <c r="AJ35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK35">
         <v>0.499</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -5650,10 +5785,10 @@
       <c r="M37">
         <v>2017</v>
       </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37" t="b">
+      <c r="N37" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37">
         <v>1</v>
       </c>
       <c r="P37" t="b">
@@ -5662,74 +5797,77 @@
       <c r="Q37" t="b">
         <v>1</v>
       </c>
-      <c r="R37">
+      <c r="R37" t="b">
+        <v>1</v>
+      </c>
+      <c r="S37">
         <v>0.02</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>4</v>
       </c>
-      <c r="T37" t="b">
-        <v>1</v>
-      </c>
       <c r="U37" t="b">
         <v>1</v>
       </c>
-      <c r="V37" t="s">
+      <c r="V37" t="b">
+        <v>1</v>
+      </c>
+      <c r="W37" t="s">
         <v>28</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>64</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>24</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>10</v>
       </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="s">
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="s">
         <v>37</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AD37" t="s">
         <v>48</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AE37" t="s">
         <v>21</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AG37" s="7">
+      <c r="AH37" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>47</v>
       </c>
       <c r="AI37" t="s">
         <v>47</v>
       </c>
-      <c r="AJ37">
+      <c r="AJ37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK37">
         <v>0.499</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AL37" s="27">
+      <c r="AM37" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -5769,10 +5907,10 @@
       <c r="M38">
         <v>2017</v>
       </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38" t="b">
+      <c r="N38" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38">
         <v>1</v>
       </c>
       <c r="P38" t="b">
@@ -5781,74 +5919,77 @@
       <c r="Q38" t="b">
         <v>1</v>
       </c>
-      <c r="R38">
+      <c r="R38" t="b">
+        <v>1</v>
+      </c>
+      <c r="S38">
         <v>0.02</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>4</v>
       </c>
-      <c r="T38" t="b">
-        <v>1</v>
-      </c>
       <c r="U38" t="b">
         <v>1</v>
       </c>
-      <c r="V38" t="s">
+      <c r="V38" t="b">
+        <v>1</v>
+      </c>
+      <c r="W38" t="s">
         <v>28</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>64</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>24</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>10</v>
       </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="s">
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="s">
         <v>37</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AD38" t="s">
         <v>48</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AE38" t="s">
         <v>21</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AG38" s="7">
+      <c r="AH38" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>47</v>
       </c>
       <c r="AI38" t="s">
         <v>47</v>
       </c>
-      <c r="AJ38">
+      <c r="AJ38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK38">
         <v>0.499</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AL38" s="27">
+      <c r="AM38" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -5888,10 +6029,10 @@
       <c r="M39">
         <v>2017</v>
       </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39" t="b">
+      <c r="N39" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39">
         <v>1</v>
       </c>
       <c r="P39" t="b">
@@ -5900,77 +6041,80 @@
       <c r="Q39" t="b">
         <v>1</v>
       </c>
-      <c r="R39">
+      <c r="R39" t="b">
+        <v>1</v>
+      </c>
+      <c r="S39">
         <v>0.02</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>4</v>
       </c>
-      <c r="T39" t="b">
-        <v>1</v>
-      </c>
       <c r="U39" t="b">
         <v>1</v>
       </c>
-      <c r="V39" t="s">
+      <c r="V39" t="b">
+        <v>1</v>
+      </c>
+      <c r="W39" t="s">
         <v>28</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>64</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>24</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>10</v>
       </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="s">
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="s">
         <v>37</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AD39" t="s">
         <v>48</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AE39" t="s">
         <v>21</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>6.25E-2</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AG39" s="7">
+      <c r="AH39" s="7">
         <v>0.12</v>
       </c>
-      <c r="AH39" t="s">
+      <c r="AI39" t="s">
         <v>142</v>
       </c>
-      <c r="AI39" t="s">
+      <c r="AJ39" t="s">
         <v>141</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>0.499</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AL39" s="27">
+      <c r="AM39" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AM39">
+      <c r="AN39">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AG40" s="7"/>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AH40" s="7"/>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -6010,86 +6154,89 @@
       <c r="M42">
         <v>2017</v>
       </c>
-      <c r="N42">
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
+      <c r="O42">
         <v>3</v>
       </c>
-      <c r="O42" t="b">
-        <v>1</v>
-      </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42" t="b">
         <v>1</v>
       </c>
-      <c r="R42">
+      <c r="R42" t="b">
+        <v>1</v>
+      </c>
+      <c r="S42">
         <v>0.02</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>4</v>
       </c>
-      <c r="T42" t="b">
-        <v>1</v>
-      </c>
       <c r="U42" t="b">
         <v>1</v>
       </c>
-      <c r="V42" t="s">
+      <c r="V42" t="b">
+        <v>1</v>
+      </c>
+      <c r="W42" t="s">
         <v>28</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>64</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>24</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>10</v>
       </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="s">
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="s">
         <v>37</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AD42" t="s">
         <v>48</v>
       </c>
-      <c r="AD42" t="s">
+      <c r="AE42" t="s">
         <v>21</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF42">
+      <c r="AG42">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AG42" s="7">
+      <c r="AH42" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>47</v>
       </c>
       <c r="AI42" t="s">
         <v>47</v>
       </c>
-      <c r="AJ42">
+      <c r="AJ42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK42">
         <v>0.499</v>
       </c>
-      <c r="AK42">
+      <c r="AL42">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AL42" s="27">
+      <c r="AM42" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AM42">
+      <c r="AN42">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>149</v>
       </c>
@@ -6129,86 +6276,89 @@
       <c r="M43">
         <v>2017</v>
       </c>
-      <c r="N43">
+      <c r="N43" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43">
         <v>3</v>
       </c>
-      <c r="O43" t="b">
-        <v>1</v>
-      </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43" t="b">
         <v>1</v>
       </c>
-      <c r="R43">
+      <c r="R43" t="b">
+        <v>1</v>
+      </c>
+      <c r="S43">
         <v>0.02</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>4</v>
       </c>
-      <c r="T43" t="b">
-        <v>1</v>
-      </c>
       <c r="U43" t="b">
         <v>1</v>
       </c>
-      <c r="V43" t="s">
+      <c r="V43" t="b">
+        <v>1</v>
+      </c>
+      <c r="W43" t="s">
         <v>28</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>64</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>24</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>10</v>
       </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="s">
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="s">
         <v>37</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="AD43" t="s">
         <v>48</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="AE43" t="s">
         <v>21</v>
       </c>
-      <c r="AE43">
+      <c r="AF43">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF43">
+      <c r="AG43">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AG43" s="7">
+      <c r="AH43" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>47</v>
       </c>
       <c r="AI43" t="s">
         <v>47</v>
       </c>
-      <c r="AJ43">
+      <c r="AJ43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK43">
         <v>0.499</v>
       </c>
-      <c r="AK43">
+      <c r="AL43">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AL43" s="27">
+      <c r="AM43" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AM43">
+      <c r="AN43">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>150</v>
       </c>
@@ -6248,90 +6398,93 @@
       <c r="M44">
         <v>2017</v>
       </c>
-      <c r="N44">
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44">
         <v>3</v>
       </c>
-      <c r="O44" t="b">
-        <v>1</v>
-      </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44" t="b">
         <v>1</v>
       </c>
-      <c r="R44">
+      <c r="R44" t="b">
+        <v>1</v>
+      </c>
+      <c r="S44">
         <v>0.02</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>4</v>
       </c>
-      <c r="T44" t="b">
-        <v>1</v>
-      </c>
       <c r="U44" t="b">
         <v>1</v>
       </c>
-      <c r="V44" t="s">
+      <c r="V44" t="b">
+        <v>1</v>
+      </c>
+      <c r="W44" t="s">
         <v>28</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>64</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>24</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>10</v>
       </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="s">
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="s">
         <v>37</v>
       </c>
-      <c r="AC44" t="s">
+      <c r="AD44" t="s">
         <v>48</v>
       </c>
-      <c r="AD44" t="s">
+      <c r="AE44" t="s">
         <v>21</v>
       </c>
-      <c r="AE44">
+      <c r="AF44">
         <v>6.25E-2</v>
       </c>
-      <c r="AF44">
+      <c r="AG44">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AG44" s="7">
+      <c r="AH44" s="7">
         <v>0.12</v>
       </c>
-      <c r="AH44" t="s">
+      <c r="AI44" t="s">
         <v>142</v>
       </c>
-      <c r="AI44" t="s">
+      <c r="AJ44" t="s">
         <v>141</v>
       </c>
-      <c r="AJ44">
+      <c r="AK44">
         <v>0.499</v>
       </c>
-      <c r="AK44">
+      <c r="AL44">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AL44" s="27">
+      <c r="AM44" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AM44">
+      <c r="AN44">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AG45" s="7"/>
-      <c r="AL45" s="27"/>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AH45" s="7"/>
+      <c r="AM45" s="27"/>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -6371,86 +6524,89 @@
       <c r="M46">
         <v>2017</v>
       </c>
-      <c r="N46">
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46">
         <v>3</v>
       </c>
-      <c r="O46" t="b">
-        <v>1</v>
-      </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46" t="b">
         <v>1</v>
       </c>
-      <c r="R46">
+      <c r="R46" t="b">
+        <v>1</v>
+      </c>
+      <c r="S46">
         <v>0.02</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>4</v>
       </c>
-      <c r="T46" t="b">
-        <v>1</v>
-      </c>
       <c r="U46" t="b">
         <v>1</v>
       </c>
-      <c r="V46" t="s">
+      <c r="V46" t="b">
+        <v>1</v>
+      </c>
+      <c r="W46" t="s">
         <v>28</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>64</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>24</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>10</v>
       </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="s">
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="s">
         <v>37</v>
       </c>
-      <c r="AC46" t="s">
+      <c r="AD46" t="s">
         <v>48</v>
       </c>
-      <c r="AD46" t="s">
+      <c r="AE46" t="s">
         <v>21</v>
       </c>
-      <c r="AE46">
+      <c r="AF46">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF46">
+      <c r="AG46">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AG46" s="7">
+      <c r="AH46" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>47</v>
       </c>
       <c r="AI46" t="s">
         <v>47</v>
       </c>
-      <c r="AJ46">
+      <c r="AJ46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK46">
         <v>0.499</v>
       </c>
-      <c r="AK46">
+      <c r="AL46">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AL46" s="27">
+      <c r="AM46" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AM46">
+      <c r="AN46">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>179</v>
       </c>
@@ -6490,86 +6646,89 @@
       <c r="M47">
         <v>2017</v>
       </c>
-      <c r="N47">
+      <c r="N47" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47">
         <v>3</v>
       </c>
-      <c r="O47" t="b">
-        <v>1</v>
-      </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47" t="b">
         <v>1</v>
       </c>
-      <c r="R47">
+      <c r="R47" t="b">
+        <v>1</v>
+      </c>
+      <c r="S47">
         <v>0.02</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>4</v>
       </c>
-      <c r="T47" t="b">
-        <v>1</v>
-      </c>
       <c r="U47" t="b">
         <v>1</v>
       </c>
-      <c r="V47" t="s">
+      <c r="V47" t="b">
+        <v>1</v>
+      </c>
+      <c r="W47" t="s">
         <v>28</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>64</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>24</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>10</v>
       </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="s">
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="s">
         <v>37</v>
       </c>
-      <c r="AC47" t="s">
+      <c r="AD47" t="s">
         <v>48</v>
       </c>
-      <c r="AD47" t="s">
+      <c r="AE47" t="s">
         <v>21</v>
       </c>
-      <c r="AE47">
+      <c r="AF47">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF47">
+      <c r="AG47">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AG47" s="7">
+      <c r="AH47" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH47" t="s">
-        <v>47</v>
       </c>
       <c r="AI47" t="s">
         <v>47</v>
       </c>
-      <c r="AJ47">
+      <c r="AJ47" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK47">
         <v>0.499</v>
       </c>
-      <c r="AK47">
+      <c r="AL47">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AL47" s="27">
+      <c r="AM47" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AM47">
+      <c r="AN47">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>170</v>
       </c>
@@ -6609,86 +6768,89 @@
       <c r="M49">
         <v>2017</v>
       </c>
-      <c r="N49">
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49">
         <v>4</v>
       </c>
-      <c r="O49" t="b">
-        <v>1</v>
-      </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49" t="b">
         <v>1</v>
       </c>
-      <c r="R49">
+      <c r="R49" t="b">
+        <v>1</v>
+      </c>
+      <c r="S49">
         <v>0.02</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>4</v>
       </c>
-      <c r="T49" t="b">
-        <v>1</v>
-      </c>
       <c r="U49" t="b">
         <v>1</v>
       </c>
-      <c r="V49" t="s">
+      <c r="V49" t="b">
+        <v>1</v>
+      </c>
+      <c r="W49" t="s">
         <v>28</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>64</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>24</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>10</v>
       </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="s">
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="s">
         <v>37</v>
       </c>
-      <c r="AC49" t="s">
+      <c r="AD49" t="s">
         <v>48</v>
       </c>
-      <c r="AD49" t="s">
+      <c r="AE49" t="s">
         <v>21</v>
       </c>
-      <c r="AE49">
+      <c r="AF49">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF49">
+      <c r="AG49">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AG49" s="7">
+      <c r="AH49" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH49" t="s">
-        <v>47</v>
       </c>
       <c r="AI49" t="s">
         <v>47</v>
       </c>
-      <c r="AJ49">
+      <c r="AJ49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK49">
         <v>0.499</v>
       </c>
-      <c r="AK49">
+      <c r="AL49">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AL49" s="27">
+      <c r="AM49" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AM49">
+      <c r="AN49">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>171</v>
       </c>
@@ -6728,86 +6890,89 @@
       <c r="M50">
         <v>2017</v>
       </c>
-      <c r="N50">
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50">
         <v>4</v>
       </c>
-      <c r="O50" t="b">
-        <v>1</v>
-      </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50" t="b">
         <v>1</v>
       </c>
-      <c r="R50">
+      <c r="R50" t="b">
+        <v>1</v>
+      </c>
+      <c r="S50">
         <v>0.02</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>4</v>
       </c>
-      <c r="T50" t="b">
-        <v>1</v>
-      </c>
       <c r="U50" t="b">
         <v>1</v>
       </c>
-      <c r="V50" t="s">
+      <c r="V50" t="b">
+        <v>1</v>
+      </c>
+      <c r="W50" t="s">
         <v>28</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>64</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>24</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>10</v>
       </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="s">
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="s">
         <v>37</v>
       </c>
-      <c r="AC50" t="s">
+      <c r="AD50" t="s">
         <v>48</v>
       </c>
-      <c r="AD50" t="s">
+      <c r="AE50" t="s">
         <v>21</v>
       </c>
-      <c r="AE50">
+      <c r="AF50">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF50">
+      <c r="AG50">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AG50" s="7">
+      <c r="AH50" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH50" t="s">
-        <v>47</v>
       </c>
       <c r="AI50" t="s">
         <v>47</v>
       </c>
-      <c r="AJ50">
+      <c r="AJ50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK50">
         <v>0.499</v>
       </c>
-      <c r="AK50">
+      <c r="AL50">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AL50" s="27">
+      <c r="AM50" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AM50">
+      <c r="AN50">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>172</v>
       </c>
@@ -6847,90 +7012,93 @@
       <c r="M51">
         <v>2017</v>
       </c>
-      <c r="N51">
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51">
         <v>4</v>
       </c>
-      <c r="O51" t="b">
-        <v>1</v>
-      </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51" t="b">
         <v>1</v>
       </c>
-      <c r="R51">
+      <c r="R51" t="b">
+        <v>1</v>
+      </c>
+      <c r="S51">
         <v>0.02</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>4</v>
       </c>
-      <c r="T51" t="b">
-        <v>1</v>
-      </c>
       <c r="U51" t="b">
         <v>1</v>
       </c>
-      <c r="V51" t="s">
+      <c r="V51" t="b">
+        <v>1</v>
+      </c>
+      <c r="W51" t="s">
         <v>28</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>64</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>24</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>10</v>
       </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="s">
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="s">
         <v>37</v>
       </c>
-      <c r="AC51" t="s">
+      <c r="AD51" t="s">
         <v>48</v>
       </c>
-      <c r="AD51" t="s">
+      <c r="AE51" t="s">
         <v>21</v>
       </c>
-      <c r="AE51">
+      <c r="AF51">
         <v>6.25E-2</v>
       </c>
-      <c r="AF51">
+      <c r="AG51">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AG51" s="7">
+      <c r="AH51" s="7">
         <v>0.12</v>
       </c>
-      <c r="AH51" t="s">
+      <c r="AI51" t="s">
         <v>142</v>
       </c>
-      <c r="AI51" t="s">
+      <c r="AJ51" t="s">
         <v>141</v>
       </c>
-      <c r="AJ51">
+      <c r="AK51">
         <v>0.499</v>
       </c>
-      <c r="AK51">
+      <c r="AL51">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AL51" s="27">
+      <c r="AM51" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AM51">
+      <c r="AN51">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AG52" s="7"/>
-      <c r="AL52" s="27"/>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AH52" s="7"/>
+      <c r="AM52" s="27"/>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>183</v>
       </c>
@@ -6970,86 +7138,89 @@
       <c r="M53">
         <v>2017</v>
       </c>
-      <c r="N53">
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53">
         <v>4</v>
       </c>
-      <c r="O53" t="b">
-        <v>1</v>
-      </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53" t="b">
         <v>1</v>
       </c>
-      <c r="R53">
+      <c r="R53" t="b">
+        <v>1</v>
+      </c>
+      <c r="S53">
         <v>0.02</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>4</v>
       </c>
-      <c r="T53" t="b">
-        <v>1</v>
-      </c>
       <c r="U53" t="b">
         <v>1</v>
       </c>
-      <c r="V53" t="s">
+      <c r="V53" t="b">
+        <v>1</v>
+      </c>
+      <c r="W53" t="s">
         <v>28</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>64</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>24</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>10</v>
       </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53" t="s">
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="s">
         <v>37</v>
       </c>
-      <c r="AC53" t="s">
+      <c r="AD53" t="s">
         <v>48</v>
       </c>
-      <c r="AD53" t="s">
+      <c r="AE53" t="s">
         <v>21</v>
       </c>
-      <c r="AE53">
+      <c r="AF53">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF53">
+      <c r="AG53">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AG53" s="7">
+      <c r="AH53" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>47</v>
       </c>
       <c r="AI53" t="s">
         <v>47</v>
       </c>
-      <c r="AJ53">
+      <c r="AJ53" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK53">
         <v>0.499</v>
       </c>
-      <c r="AK53">
+      <c r="AL53">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AL53" s="27">
+      <c r="AM53" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AM53">
+      <c r="AN53">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -7089,86 +7260,89 @@
       <c r="M54">
         <v>2017</v>
       </c>
-      <c r="N54">
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54">
         <v>4</v>
       </c>
-      <c r="O54" t="b">
-        <v>1</v>
-      </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54" t="b">
         <v>1</v>
       </c>
-      <c r="R54">
+      <c r="R54" t="b">
+        <v>1</v>
+      </c>
+      <c r="S54">
         <v>0.02</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>4</v>
       </c>
-      <c r="T54" t="b">
-        <v>1</v>
-      </c>
       <c r="U54" t="b">
         <v>1</v>
       </c>
-      <c r="V54" t="s">
+      <c r="V54" t="b">
+        <v>1</v>
+      </c>
+      <c r="W54" t="s">
         <v>28</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>64</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>24</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z54">
+      <c r="AA54">
         <v>10</v>
       </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54" t="s">
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="s">
         <v>37</v>
       </c>
-      <c r="AC54" t="s">
+      <c r="AD54" t="s">
         <v>48</v>
       </c>
-      <c r="AD54" t="s">
+      <c r="AE54" t="s">
         <v>21</v>
       </c>
-      <c r="AE54">
+      <c r="AF54">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF54">
+      <c r="AG54">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AG54" s="7">
+      <c r="AH54" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>47</v>
       </c>
       <c r="AI54" t="s">
         <v>47</v>
       </c>
-      <c r="AJ54">
+      <c r="AJ54" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK54">
         <v>0.499</v>
       </c>
-      <c r="AK54">
+      <c r="AL54">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AL54" s="27">
+      <c r="AM54" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AM54">
+      <c r="AN54">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>184</v>
       </c>
@@ -7188,7 +7362,7 @@
         <v>36</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -7208,86 +7382,89 @@
       <c r="M55">
         <v>2017</v>
       </c>
-      <c r="N55">
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
+      <c r="O55">
         <v>4</v>
       </c>
-      <c r="O55" t="b">
-        <v>1</v>
-      </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55" t="b">
         <v>1</v>
       </c>
-      <c r="R55">
+      <c r="R55" t="b">
+        <v>1</v>
+      </c>
+      <c r="S55">
         <v>0.02</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>4</v>
       </c>
-      <c r="T55" t="b">
-        <v>1</v>
-      </c>
       <c r="U55" t="b">
         <v>1</v>
       </c>
-      <c r="V55" t="s">
+      <c r="V55" t="b">
+        <v>1</v>
+      </c>
+      <c r="W55" t="s">
         <v>28</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>64</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>24</v>
       </c>
-      <c r="Y55">
+      <c r="Z55">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z55">
+      <c r="AA55">
         <v>10</v>
       </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55" t="s">
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="s">
         <v>37</v>
       </c>
-      <c r="AC55" t="s">
+      <c r="AD55" t="s">
         <v>48</v>
       </c>
-      <c r="AD55" t="s">
+      <c r="AE55" t="s">
         <v>21</v>
       </c>
-      <c r="AE55">
+      <c r="AF55">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF55">
+      <c r="AG55">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AG55" s="7">
+      <c r="AH55" s="7">
         <v>0.12</v>
       </c>
-      <c r="AH55" t="s">
+      <c r="AI55" t="s">
         <v>142</v>
       </c>
-      <c r="AI55" t="s">
+      <c r="AJ55" t="s">
         <v>141</v>
       </c>
-      <c r="AJ55">
+      <c r="AK55">
         <v>0.499</v>
       </c>
-      <c r="AK55">
+      <c r="AL55">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AL55" s="27">
+      <c r="AM55" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AM55">
+      <c r="AN55">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>147</v>
       </c>
@@ -7327,11 +7504,11 @@
       <c r="M57">
         <v>2017</v>
       </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57" t="b">
-        <v>1</v>
+      <c r="N57" t="b">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
@@ -7339,74 +7516,77 @@
       <c r="Q57" t="b">
         <v>1</v>
       </c>
-      <c r="R57">
+      <c r="R57" t="b">
+        <v>1</v>
+      </c>
+      <c r="S57">
         <v>0.02</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>4</v>
       </c>
-      <c r="T57" t="b">
-        <v>1</v>
-      </c>
       <c r="U57" t="b">
         <v>1</v>
       </c>
-      <c r="V57" t="s">
+      <c r="V57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W57" t="s">
         <v>28</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>64</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>24</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>10</v>
       </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AB57" t="s">
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="s">
         <v>37</v>
       </c>
-      <c r="AC57" t="s">
+      <c r="AD57" t="s">
         <v>48</v>
       </c>
-      <c r="AD57" t="s">
+      <c r="AE57" t="s">
         <v>21</v>
       </c>
-      <c r="AE57">
+      <c r="AF57">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AF57">
+      <c r="AG57">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AG57" s="7">
+      <c r="AH57" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AH57" t="s">
-        <v>47</v>
       </c>
       <c r="AI57" t="s">
         <v>47</v>
       </c>
-      <c r="AJ57">
+      <c r="AJ57" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK57">
         <v>0.499</v>
       </c>
-      <c r="AK57">
+      <c r="AL57">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AL57" s="27">
+      <c r="AM57" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AM57">
+      <c r="AN57">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>148</v>
       </c>
@@ -7446,11 +7626,11 @@
       <c r="M58">
         <v>2017</v>
       </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58" t="b">
-        <v>1</v>
+      <c r="N58" t="b">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
@@ -7458,79 +7638,814 @@
       <c r="Q58" t="b">
         <v>1</v>
       </c>
-      <c r="R58">
+      <c r="R58" t="b">
+        <v>1</v>
+      </c>
+      <c r="S58">
         <v>0.02</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>4</v>
       </c>
-      <c r="T58" t="b">
-        <v>1</v>
-      </c>
       <c r="U58" t="b">
         <v>1</v>
       </c>
-      <c r="V58" t="s">
+      <c r="V58" t="b">
+        <v>1</v>
+      </c>
+      <c r="W58" t="s">
         <v>28</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>64</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>24</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Z58">
+      <c r="AA58">
         <v>10</v>
       </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="s">
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="s">
         <v>37</v>
       </c>
-      <c r="AC58" t="s">
+      <c r="AD58" t="s">
         <v>48</v>
       </c>
-      <c r="AD58" t="s">
+      <c r="AE58" t="s">
         <v>21</v>
       </c>
-      <c r="AE58">
+      <c r="AF58">
         <v>6.25E-2</v>
       </c>
-      <c r="AF58">
+      <c r="AG58">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AG58" s="7">
+      <c r="AH58" s="7">
         <v>0.12</v>
       </c>
-      <c r="AH58" t="s">
+      <c r="AI58" t="s">
         <v>142</v>
       </c>
-      <c r="AI58" t="s">
+      <c r="AJ58" t="s">
         <v>141</v>
       </c>
-      <c r="AJ58">
+      <c r="AK58">
         <v>0.499</v>
       </c>
-      <c r="AK58">
+      <c r="AL58">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AL58" s="27">
+      <c r="AM58" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AM58">
+      <c r="AN58">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>187</v>
+      </c>
+      <c r="F61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>2017</v>
+      </c>
+      <c r="N61" t="b">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>4</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="b">
+        <v>1</v>
+      </c>
+      <c r="R61" t="b">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>0.02</v>
+      </c>
+      <c r="T61" t="s">
+        <v>4</v>
+      </c>
+      <c r="U61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V61" t="b">
+        <v>1</v>
+      </c>
+      <c r="W61" t="s">
+        <v>28</v>
+      </c>
+      <c r="X61" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y61">
+        <v>24</v>
+      </c>
+      <c r="Z61">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA61">
+        <v>10</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF61">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG61">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AH61" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK61">
+        <v>0.499</v>
+      </c>
+      <c r="AL61">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM61" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN61">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>2017</v>
+      </c>
+      <c r="N62" t="b">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>4</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="b">
+        <v>1</v>
+      </c>
+      <c r="R62" t="b">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>0.02</v>
+      </c>
+      <c r="T62" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" t="b">
+        <v>1</v>
+      </c>
+      <c r="V62" t="b">
+        <v>1</v>
+      </c>
+      <c r="W62" t="s">
+        <v>28</v>
+      </c>
+      <c r="X62" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y62">
+        <v>24</v>
+      </c>
+      <c r="Z62">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA62">
+        <v>10</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF62">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG62">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AH62" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK62">
+        <v>0.499</v>
+      </c>
+      <c r="AL62">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM62" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN62">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>2017</v>
+      </c>
+      <c r="N63" t="b">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>4</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="b">
+        <v>1</v>
+      </c>
+      <c r="R63" t="b">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>0.02</v>
+      </c>
+      <c r="T63" t="s">
+        <v>4</v>
+      </c>
+      <c r="U63" t="b">
+        <v>1</v>
+      </c>
+      <c r="V63" t="b">
+        <v>1</v>
+      </c>
+      <c r="W63" t="s">
+        <v>28</v>
+      </c>
+      <c r="X63" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y63">
+        <v>24</v>
+      </c>
+      <c r="Z63">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA63">
+        <v>10</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF63">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AG63">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AH63" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK63">
+        <v>0.499</v>
+      </c>
+      <c r="AL63">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM63" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN63">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>176</v>
+      </c>
+      <c r="F65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>2017</v>
+      </c>
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>3</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="b">
+        <v>1</v>
+      </c>
+      <c r="R65" t="b">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>0.02</v>
+      </c>
+      <c r="T65" t="s">
+        <v>4</v>
+      </c>
+      <c r="U65" t="b">
+        <v>1</v>
+      </c>
+      <c r="V65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W65" t="s">
+        <v>28</v>
+      </c>
+      <c r="X65" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y65">
+        <v>24</v>
+      </c>
+      <c r="Z65">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA65">
+        <v>10</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF65">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG65">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AH65" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK65">
+        <v>0.499</v>
+      </c>
+      <c r="AL65">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM65" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN65">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>175</v>
+      </c>
+      <c r="F66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>2017</v>
+      </c>
+      <c r="N66" t="b">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>3</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="b">
+        <v>1</v>
+      </c>
+      <c r="R66" t="b">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>0.02</v>
+      </c>
+      <c r="T66" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" t="b">
+        <v>1</v>
+      </c>
+      <c r="V66" t="b">
+        <v>1</v>
+      </c>
+      <c r="W66" t="s">
+        <v>28</v>
+      </c>
+      <c r="X66" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y66">
+        <v>24</v>
+      </c>
+      <c r="Z66">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA66">
+        <v>10</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF66">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG66">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AH66" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK66">
+        <v>0.499</v>
+      </c>
+      <c r="AL66">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM66" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN66">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>152</v>
+      </c>
+      <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>2017</v>
+      </c>
+      <c r="N67" t="b">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>3</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="b">
+        <v>1</v>
+      </c>
+      <c r="R67" t="b">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>0.02</v>
+      </c>
+      <c r="T67" t="s">
+        <v>4</v>
+      </c>
+      <c r="U67" t="b">
+        <v>1</v>
+      </c>
+      <c r="V67" t="b">
+        <v>1</v>
+      </c>
+      <c r="W67" t="s">
+        <v>28</v>
+      </c>
+      <c r="X67" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y67">
+        <v>24</v>
+      </c>
+      <c r="Z67">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA67">
+        <v>10</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF67">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AG67">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AH67" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK67">
+        <v>0.499</v>
+      </c>
+      <c r="AL67">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM67" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN67">
         <v>56234303948</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22:I27 G5:G30 H5:I13 H29:I30 G33:I35 H15:I20 G37:I40 G57:G59 H57:I58 G42:I47 G49:I55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22:I27 G5:G30 H5:I13 H29:I30 G33:I35 H15:I20 G37:I40 G57:G59 H57:I58 G42:I47 G49:I55 G61:I63 G65:I67">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC22:AC27 AC15:AC20 AC5:AC13 AC29:AC30 AC33:AC35 AC57:AC58 AC42:AC47 AC37:AC40 AC49:AC55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD22:AD27 AD15:AD20 AD5:AD13 AD29:AD30 AD33:AD35 AD57:AD58 AD42:AD47 AD37:AD40 AD49:AD55 AD61:AD63 AD65:AD67">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7544,8 +8459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -165,6 +165,36 @@
       </text>
     </comment>
     <comment ref="A55" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A74" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A75" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -404,7 +434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="202">
   <si>
     <t>runname</t>
   </si>
@@ -992,6 +1022,24 @@
   </si>
   <si>
     <t>SR1EL1.Reform_sep_R625.d625.DC3</t>
+  </si>
+  <si>
+    <t>discount rate 7.25%, return 7.25%</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_sep_R725.d725.DC4a</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_sep_R625.d725.DC4a</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1_sep_R725.d725</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1_sep_R625.d725</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1_sep_R625.d625</t>
   </si>
 </sst>
 </file>
@@ -2743,13 +2791,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AN67"/>
+  <dimension ref="A4:AN75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F70" sqref="F70"/>
+      <selection pane="bottomRight" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2758,7 +2806,7 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="52.85546875" customWidth="1"/>
+    <col min="5" max="5" width="60" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
@@ -7728,7 +7776,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
@@ -7850,7 +7898,7 @@
         <v>36</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="b">
         <v>1</v>
@@ -7972,7 +8020,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -8440,12 +8488,626 @@
         <v>56234303948</v>
       </c>
     </row>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AH68" s="7"/>
+      <c r="AM68" s="27"/>
+    </row>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>196</v>
+      </c>
+      <c r="F69" t="s">
+        <v>36</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>2017</v>
+      </c>
+      <c r="N69" t="b">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="b">
+        <v>1</v>
+      </c>
+      <c r="R69" t="b">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>0.02</v>
+      </c>
+      <c r="T69" t="s">
+        <v>4</v>
+      </c>
+      <c r="U69" t="b">
+        <v>1</v>
+      </c>
+      <c r="V69" t="b">
+        <v>1</v>
+      </c>
+      <c r="W69" t="s">
+        <v>28</v>
+      </c>
+      <c r="X69" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y69">
+        <v>24</v>
+      </c>
+      <c r="Z69">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA69">
+        <v>10</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF69">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG69">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AH69" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK69">
+        <v>0.499</v>
+      </c>
+      <c r="AL69">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM69" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN69">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>2017</v>
+      </c>
+      <c r="N70" t="b">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="b">
+        <v>1</v>
+      </c>
+      <c r="R70" t="b">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>0.02</v>
+      </c>
+      <c r="T70" t="s">
+        <v>4</v>
+      </c>
+      <c r="U70" t="b">
+        <v>1</v>
+      </c>
+      <c r="V70" t="b">
+        <v>1</v>
+      </c>
+      <c r="W70" t="s">
+        <v>28</v>
+      </c>
+      <c r="X70" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y70">
+        <v>24</v>
+      </c>
+      <c r="Z70">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA70">
+        <v>10</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF70">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG70">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AH70" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK70">
+        <v>0.499</v>
+      </c>
+      <c r="AL70">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM70" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN70">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>137</v>
+      </c>
+      <c r="F71" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>2017</v>
+      </c>
+      <c r="N71" t="b">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="b">
+        <v>1</v>
+      </c>
+      <c r="R71" t="b">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>0.02</v>
+      </c>
+      <c r="T71" t="s">
+        <v>4</v>
+      </c>
+      <c r="U71" t="b">
+        <v>1</v>
+      </c>
+      <c r="V71" t="b">
+        <v>1</v>
+      </c>
+      <c r="W71" t="s">
+        <v>28</v>
+      </c>
+      <c r="X71" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y71">
+        <v>24</v>
+      </c>
+      <c r="Z71">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA71">
+        <v>10</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF71">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AG71">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AH71" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK71">
+        <v>0.499</v>
+      </c>
+      <c r="AL71">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM71" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN71">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>180</v>
+      </c>
+      <c r="F74" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" t="b">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>2017</v>
+      </c>
+      <c r="N74" t="b">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>4</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="b">
+        <v>1</v>
+      </c>
+      <c r="R74" t="b">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>0.02</v>
+      </c>
+      <c r="T74" t="s">
+        <v>4</v>
+      </c>
+      <c r="U74" t="b">
+        <v>1</v>
+      </c>
+      <c r="V74" t="b">
+        <v>1</v>
+      </c>
+      <c r="W74" t="s">
+        <v>28</v>
+      </c>
+      <c r="X74" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y74">
+        <v>24</v>
+      </c>
+      <c r="Z74">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA74">
+        <v>10</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF74">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG74">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AH74" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK74">
+        <v>0.499</v>
+      </c>
+      <c r="AL74">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM74" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN74">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>198</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>180</v>
+      </c>
+      <c r="F75" t="s">
+        <v>36</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>2017</v>
+      </c>
+      <c r="N75" t="b">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>4</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="b">
+        <v>1</v>
+      </c>
+      <c r="R75" t="b">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>0.02</v>
+      </c>
+      <c r="T75" t="s">
+        <v>4</v>
+      </c>
+      <c r="U75" t="b">
+        <v>1</v>
+      </c>
+      <c r="V75" t="b">
+        <v>1</v>
+      </c>
+      <c r="W75" t="s">
+        <v>28</v>
+      </c>
+      <c r="X75" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y75">
+        <v>24</v>
+      </c>
+      <c r="Z75">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA75">
+        <v>10</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF75">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG75">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AH75" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK75">
+        <v>0.499</v>
+      </c>
+      <c r="AL75">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM75" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN75">
+        <v>56234303948</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22:I27 G5:G30 H5:I13 H29:I30 G33:I35 H15:I20 G37:I40 G57:G59 H57:I58 G42:I47 G49:I55 G61:I63 G65:I67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22:I27 G5:G30 H5:I13 H29:I30 G33:I35 H15:I20 G37:I40 G57:G59 H57:I58 G42:I47 G49:I55 G74:I75 G61:I63 G65:I71">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD22:AD27 AD15:AD20 AD5:AD13 AD29:AD30 AD33:AD35 AD57:AD58 AD42:AD47 AD37:AD40 AD49:AD55 AD61:AD63 AD65:AD67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD22:AD27 AD15:AD20 AD5:AD13 AD29:AD30 AD33:AD35 AD57:AD58 AD42:AD47 AD37:AD40 AD49:AD55 AD61:AD63 AD65:AD71 AD74:AD75">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -195,6 +195,51 @@
       </text>
     </comment>
     <comment ref="A75" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A81" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A82" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A83" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -434,7 +479,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="214">
   <si>
     <t>runname</t>
   </si>
@@ -1040,6 +1085,42 @@
   </si>
   <si>
     <t>RS1_SR1EL1_sep_R625.d625</t>
+  </si>
+  <si>
+    <t>SR0EL1.Reform_sep_R625.d725.DC4</t>
+  </si>
+  <si>
+    <t>RS1_SR0EL1_sep_R625.d725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discount rate 7.25%; DC rate 9%; New hires modeled separately; no EE shared-risk </t>
+  </si>
+  <si>
+    <t>SR0EL1.Reform_sep_R625.d725.DC4a</t>
+  </si>
+  <si>
+    <t>RS1_SR0EL1_sep_R725.d725</t>
+  </si>
+  <si>
+    <t>SR0EL1.Reform_sep_R725.d725.DC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discount rate 7.25%, return 7.25%; no EE shared-risk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discount rate 7.25%; no EE shared-risk; no EE shared-risk </t>
+  </si>
+  <si>
+    <t>SR0EL1.Reform_sep_R725.d725.DC4a</t>
+  </si>
+  <si>
+    <t>SR0EL1.Reform_sep_R525.d725.DC4</t>
+  </si>
+  <si>
+    <t>SR0EL1.Reform_sep_R525.d725.DC4a</t>
+  </si>
+  <si>
+    <t>RS1_SR0EL1_sep_R525.d725</t>
   </si>
 </sst>
 </file>
@@ -2791,13 +2872,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AN75"/>
+  <dimension ref="A4:AN87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G78" sqref="G78"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2806,7 +2887,7 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="60" customWidth="1"/>
+    <col min="5" max="5" width="74.85546875" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
@@ -3200,7 +3281,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -3313,7 +3394,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -3426,7 +3507,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -3539,7 +3620,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -3655,7 +3736,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -3768,7 +3849,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -3881,7 +3962,7 @@
         <v>36</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -3994,7 +4075,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -4107,7 +4188,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -4220,7 +4301,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -4333,7 +4414,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -4446,7 +4527,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -4559,7 +4640,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -4672,7 +4753,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -4785,7 +4866,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -4898,7 +4979,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -5011,7 +5092,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -5124,7 +5205,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -5248,7 +5329,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -5361,7 +5442,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -5474,7 +5555,7 @@
         <v>36</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
@@ -5587,7 +5668,7 @@
         <v>36</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -5700,7 +5781,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
@@ -7776,7 +7857,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
@@ -7845,7 +7926,7 @@
         <v>37</v>
       </c>
       <c r="AD61" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AE61" t="s">
         <v>21</v>
@@ -8211,7 +8292,7 @@
         <v>37</v>
       </c>
       <c r="AD65" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AE65" t="s">
         <v>21</v>
@@ -8264,7 +8345,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -8386,7 +8467,7 @@
         <v>36</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
@@ -8487,10 +8568,6 @@
       <c r="AN67">
         <v>56234303948</v>
       </c>
-    </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AH68" s="7"/>
-      <c r="AM68" s="27"/>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -8512,7 +8589,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="b">
         <v>1</v>
@@ -8581,7 +8658,7 @@
         <v>37</v>
       </c>
       <c r="AD69" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AE69" t="s">
         <v>21</v>
@@ -8634,7 +8711,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
@@ -8756,7 +8833,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -8947,7 +9024,7 @@
         <v>37</v>
       </c>
       <c r="AD74" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AE74" t="s">
         <v>21</v>
@@ -9000,7 +9077,7 @@
         <v>36</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="b">
         <v>1</v>
@@ -9102,12 +9179,1122 @@
         <v>56234303948</v>
       </c>
     </row>
+    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AH76" s="7"/>
+      <c r="AM76" s="27"/>
+    </row>
+    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>207</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>204</v>
+      </c>
+      <c r="F77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>2017</v>
+      </c>
+      <c r="N77" t="b">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>4</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="b">
+        <v>1</v>
+      </c>
+      <c r="R77" t="b">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>0.02</v>
+      </c>
+      <c r="T77" t="s">
+        <v>4</v>
+      </c>
+      <c r="U77" t="b">
+        <v>1</v>
+      </c>
+      <c r="V77" t="b">
+        <v>1</v>
+      </c>
+      <c r="W77" t="s">
+        <v>28</v>
+      </c>
+      <c r="X77" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y77">
+        <v>24</v>
+      </c>
+      <c r="Z77">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA77">
+        <v>10</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF77">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG77">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AH77" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK77">
+        <v>0.499</v>
+      </c>
+      <c r="AL77">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM77" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN77">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>204</v>
+      </c>
+      <c r="F78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>2017</v>
+      </c>
+      <c r="N78" t="b">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>4</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="b">
+        <v>1</v>
+      </c>
+      <c r="R78" t="b">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>0.02</v>
+      </c>
+      <c r="T78" t="s">
+        <v>4</v>
+      </c>
+      <c r="U78" t="b">
+        <v>1</v>
+      </c>
+      <c r="V78" t="b">
+        <v>1</v>
+      </c>
+      <c r="W78" t="s">
+        <v>28</v>
+      </c>
+      <c r="X78" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y78">
+        <v>24</v>
+      </c>
+      <c r="Z78">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA78">
+        <v>10</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF78">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG78">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AH78" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK78">
+        <v>0.499</v>
+      </c>
+      <c r="AL78">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM78" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN78">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>211</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>204</v>
+      </c>
+      <c r="F79" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>2017</v>
+      </c>
+      <c r="N79" t="b">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>4</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="b">
+        <v>1</v>
+      </c>
+      <c r="R79" t="b">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>0.02</v>
+      </c>
+      <c r="T79" t="s">
+        <v>4</v>
+      </c>
+      <c r="U79" t="b">
+        <v>1</v>
+      </c>
+      <c r="V79" t="b">
+        <v>1</v>
+      </c>
+      <c r="W79" t="s">
+        <v>28</v>
+      </c>
+      <c r="X79" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y79">
+        <v>24</v>
+      </c>
+      <c r="Z79">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA79">
+        <v>10</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF79">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG79">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="AH79" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ79" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK79">
+        <v>0.499</v>
+      </c>
+      <c r="AL79">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM79" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN79">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AH80" s="7"/>
+      <c r="AM80" s="27"/>
+    </row>
+    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>210</v>
+      </c>
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>180</v>
+      </c>
+      <c r="F81" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="b">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>2017</v>
+      </c>
+      <c r="N81" t="b">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>4</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="b">
+        <v>1</v>
+      </c>
+      <c r="R81" t="b">
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>0.02</v>
+      </c>
+      <c r="T81" t="s">
+        <v>4</v>
+      </c>
+      <c r="U81" t="b">
+        <v>1</v>
+      </c>
+      <c r="V81" t="b">
+        <v>1</v>
+      </c>
+      <c r="W81" t="s">
+        <v>28</v>
+      </c>
+      <c r="X81" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y81">
+        <v>24</v>
+      </c>
+      <c r="Z81">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA81">
+        <v>10</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF81">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG81">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AH81" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ81" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK81">
+        <v>0.499</v>
+      </c>
+      <c r="AL81">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM81" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN81">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>180</v>
+      </c>
+      <c r="F82" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" t="b">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>2017</v>
+      </c>
+      <c r="N82" t="b">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>4</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="b">
+        <v>1</v>
+      </c>
+      <c r="R82" t="b">
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>0.02</v>
+      </c>
+      <c r="T82" t="s">
+        <v>4</v>
+      </c>
+      <c r="U82" t="b">
+        <v>1</v>
+      </c>
+      <c r="V82" t="b">
+        <v>1</v>
+      </c>
+      <c r="W82" t="s">
+        <v>28</v>
+      </c>
+      <c r="X82" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y82">
+        <v>24</v>
+      </c>
+      <c r="Z82">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA82">
+        <v>10</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF82">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG82">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AH82" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ82" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK82">
+        <v>0.499</v>
+      </c>
+      <c r="AL82">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM82" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN82">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>212</v>
+      </c>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>180</v>
+      </c>
+      <c r="F83" t="s">
+        <v>36</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="b">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>2017</v>
+      </c>
+      <c r="N83" t="b">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>4</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="b">
+        <v>1</v>
+      </c>
+      <c r="R83" t="b">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>0.02</v>
+      </c>
+      <c r="T83" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" t="b">
+        <v>1</v>
+      </c>
+      <c r="V83" t="b">
+        <v>1</v>
+      </c>
+      <c r="W83" t="s">
+        <v>28</v>
+      </c>
+      <c r="X83" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y83">
+        <v>24</v>
+      </c>
+      <c r="Z83">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA83">
+        <v>10</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF83">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG83">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="AH83" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK83">
+        <v>0.499</v>
+      </c>
+      <c r="AL83">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM83" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN83">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AH84" s="7"/>
+      <c r="AM84" s="27"/>
+    </row>
+    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>206</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>208</v>
+      </c>
+      <c r="F85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>2017</v>
+      </c>
+      <c r="N85" t="b">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="b">
+        <v>1</v>
+      </c>
+      <c r="R85" t="b">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>0.02</v>
+      </c>
+      <c r="T85" t="s">
+        <v>4</v>
+      </c>
+      <c r="U85" t="b">
+        <v>1</v>
+      </c>
+      <c r="V85" t="b">
+        <v>1</v>
+      </c>
+      <c r="W85" t="s">
+        <v>28</v>
+      </c>
+      <c r="X85" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y85">
+        <v>24</v>
+      </c>
+      <c r="Z85">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA85">
+        <v>10</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF85">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG85">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AH85" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ85" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK85">
+        <v>0.499</v>
+      </c>
+      <c r="AL85">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM85" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN85">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>209</v>
+      </c>
+      <c r="F86" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>2017</v>
+      </c>
+      <c r="N86" t="b">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="b">
+        <v>1</v>
+      </c>
+      <c r="R86" t="b">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>0.02</v>
+      </c>
+      <c r="T86" t="s">
+        <v>4</v>
+      </c>
+      <c r="U86" t="b">
+        <v>1</v>
+      </c>
+      <c r="V86" t="b">
+        <v>1</v>
+      </c>
+      <c r="W86" t="s">
+        <v>28</v>
+      </c>
+      <c r="X86" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y86">
+        <v>24</v>
+      </c>
+      <c r="Z86">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA86">
+        <v>10</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF86">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG86">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AH86" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ86" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK86">
+        <v>0.499</v>
+      </c>
+      <c r="AL86">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM86" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN86">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>213</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>209</v>
+      </c>
+      <c r="F87" t="s">
+        <v>36</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="b">
+        <v>1</v>
+      </c>
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>2017</v>
+      </c>
+      <c r="N87" t="b">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="b">
+        <v>1</v>
+      </c>
+      <c r="R87" t="b">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>0.02</v>
+      </c>
+      <c r="T87" t="s">
+        <v>4</v>
+      </c>
+      <c r="U87" t="b">
+        <v>1</v>
+      </c>
+      <c r="V87" t="b">
+        <v>1</v>
+      </c>
+      <c r="W87" t="s">
+        <v>28</v>
+      </c>
+      <c r="X87" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y87">
+        <v>24</v>
+      </c>
+      <c r="Z87">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA87">
+        <v>10</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF87">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG87">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="AH87" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ87" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK87">
+        <v>0.499</v>
+      </c>
+      <c r="AL87">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM87" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN87">
+        <v>56234303948</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22:I27 G5:G30 H5:I13 H29:I30 G33:I35 H15:I20 G37:I40 G57:G59 H57:I58 G42:I47 G49:I55 G74:I75 G61:I63 G65:I71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G22:I27 G74:I87 H5:I13 G29:I30 G28 G15:I20 G37:I40 G57:G59 H57:I58 G42:I47 G49:I55 G61:I63 G69:I71 G65:I67 G5:G14 G21 G33:I35">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD22:AD27 AD15:AD20 AD5:AD13 AD29:AD30 AD33:AD35 AD57:AD58 AD42:AD47 AD37:AD40 AD49:AD55 AD61:AD63 AD65:AD71 AD74:AD75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD22:AD27 AD15:AD20 AD5:AD13 AD29:AD30 AD33:AD35 AD57:AD58 AD42:AD47 AD37:AD40 AD49:AD55 AD61:AD63 AD69:AD71 AD65:AD67 AD74:AD87">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9192,7 +10379,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -179,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A74" authorId="0" shapeId="0">
+    <comment ref="A69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A75" authorId="0" shapeId="0">
+    <comment ref="A70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A81" authorId="0" shapeId="0">
+    <comment ref="A71" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A82" authorId="0" shapeId="0">
+    <comment ref="A84" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +239,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="A83" authorId="0" shapeId="0">
+    <comment ref="A85" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A86" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -479,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="215">
   <si>
     <t>runname</t>
   </si>
@@ -1051,9 +1066,6 @@
     <t>SR1EL1.Reform_sep_R625.d725.DC4</t>
   </si>
   <si>
-    <t>SR1EL1.Reform_sep_R625.d625.DC4</t>
-  </si>
-  <si>
     <t>discount rate 7.25%; DC rate 9%; New hires modeled separately</t>
   </si>
   <si>
@@ -1084,9 +1096,6 @@
     <t>RS1_SR1EL1_sep_R625.d725</t>
   </si>
   <si>
-    <t>RS1_SR1EL1_sep_R625.d625</t>
-  </si>
-  <si>
     <t>SR0EL1.Reform_sep_R625.d725.DC4</t>
   </si>
   <si>
@@ -1121,6 +1130,15 @@
   </si>
   <si>
     <t>RS1_SR0EL1_sep_R525.d725</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_sep_R525.d725.DC4a</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1_sep_R525.d725</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_sep_R525.d725.DC4</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1207,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1250,8 +1268,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1283,12 +1307,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1372,6 +1433,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2872,13 +2938,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AN87"/>
+  <dimension ref="A4:AN90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33:G35"/>
+      <selection pane="bottomRight" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3281,7 +3347,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -3394,7 +3460,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -3507,7 +3573,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -3620,7 +3686,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -3736,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -3849,7 +3915,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -3962,7 +4028,7 @@
         <v>36</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -4075,7 +4141,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -4188,7 +4254,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -4301,7 +4367,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -4414,7 +4480,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -4527,7 +4593,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -4621,6 +4687,11 @@
       </c>
       <c r="AL20">
         <v>0.57299999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="G21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
@@ -4640,7 +4711,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -4753,7 +4824,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -4866,7 +4937,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -4979,7 +5050,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -5092,7 +5163,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -5205,7 +5276,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -5329,7 +5400,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -5442,7 +5513,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -5555,7 +5626,7 @@
         <v>36</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
@@ -5668,7 +5739,7 @@
         <v>36</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -5781,7 +5852,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
@@ -7837,9 +7908,131 @@
         <v>56234303948</v>
       </c>
     </row>
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>2017</v>
+      </c>
+      <c r="N60" t="b">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>3</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="b">
+        <v>1</v>
+      </c>
+      <c r="R60" t="b">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>0.02</v>
+      </c>
+      <c r="T60" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" t="b">
+        <v>1</v>
+      </c>
+      <c r="V60" t="b">
+        <v>1</v>
+      </c>
+      <c r="W60" t="s">
+        <v>28</v>
+      </c>
+      <c r="X60" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y60">
+        <v>24</v>
+      </c>
+      <c r="Z60">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA60">
+        <v>10</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF60">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG60">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AH60" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK60">
+        <v>0.499</v>
+      </c>
+      <c r="AL60">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM60" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN60">
+        <v>56234303948</v>
+      </c>
+    </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B61" t="s">
         <v>21</v>
@@ -7851,13 +8044,13 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F61" t="s">
         <v>36</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
@@ -7881,7 +8074,7 @@
         <v>1</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
@@ -7926,7 +8119,7 @@
         <v>37</v>
       </c>
       <c r="AD61" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AE61" t="s">
         <v>21</v>
@@ -7935,7 +8128,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AG61">
-        <v>7.9699999999999993E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="AH61" s="7">
         <v>0.12</v>
@@ -7961,7 +8154,7 @@
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -7973,7 +8166,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="F62" t="s">
         <v>36</v>
@@ -8003,7 +8196,7 @@
         <v>1</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
@@ -8054,7 +8247,7 @@
         <v>21</v>
       </c>
       <c r="AF62">
-        <v>7.2499999999999995E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AG62">
         <v>6.9699999999999998E-2</v>
@@ -8063,10 +8256,10 @@
         <v>0.12</v>
       </c>
       <c r="AI62" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="AJ62" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="AK62">
         <v>0.499</v>
@@ -8082,130 +8275,13 @@
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>190</v>
-      </c>
-      <c r="B63" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
-        <v>192</v>
-      </c>
-      <c r="F63" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="b">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>2017</v>
-      </c>
-      <c r="N63" t="b">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>4</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63" t="b">
-        <v>1</v>
-      </c>
-      <c r="R63" t="b">
-        <v>1</v>
-      </c>
-      <c r="S63">
-        <v>0.02</v>
-      </c>
-      <c r="T63" t="s">
-        <v>4</v>
-      </c>
-      <c r="U63" t="b">
-        <v>1</v>
-      </c>
-      <c r="V63" t="b">
-        <v>1</v>
-      </c>
-      <c r="W63" t="s">
-        <v>28</v>
-      </c>
-      <c r="X63" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y63">
-        <v>24</v>
-      </c>
-      <c r="Z63">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AA63">
-        <v>10</v>
-      </c>
-      <c r="AB63">
-        <v>0</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF63">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AG63">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AH63" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AI63" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ63" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK63">
-        <v>0.499</v>
-      </c>
-      <c r="AL63">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AM63" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AN63">
-        <v>56234303948</v>
-      </c>
-    </row>
+      <c r="AH63" s="7"/>
+      <c r="AM63" s="27"/>
+    </row>
+    <row r="64" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>193</v>
+      <c r="A65" s="41" t="s">
+        <v>188</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
@@ -8217,7 +8293,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="F65" t="s">
         <v>36</v>
@@ -8247,7 +8323,7 @@
         <v>1</v>
       </c>
       <c r="O65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
@@ -8326,8 +8402,8 @@
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>194</v>
+      <c r="A66" s="42" t="s">
+        <v>189</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
@@ -8339,13 +8415,13 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="F66" t="s">
         <v>36</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -8369,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="O66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
@@ -8448,8 +8524,8 @@
       </c>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>195</v>
+      <c r="A67" s="42" t="s">
+        <v>214</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
@@ -8461,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="F67" t="s">
         <v>36</v>
@@ -8491,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="O67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
@@ -8542,10 +8618,10 @@
         <v>21</v>
       </c>
       <c r="AF67">
-        <v>6.25E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AG67">
-        <v>6.9699999999999998E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="AH67" s="7">
         <v>0.12</v>
@@ -8569,9 +8645,14 @@
         <v>56234303948</v>
       </c>
     </row>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A68" s="42"/>
+      <c r="AH68" s="7"/>
+      <c r="AM68" s="27"/>
+    </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>199</v>
+      <c r="A69" s="42" t="s">
+        <v>196</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
@@ -8583,7 +8664,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F69" t="s">
         <v>36</v>
@@ -8604,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="L69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69">
         <v>2017</v>
@@ -8613,7 +8694,7 @@
         <v>1</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
@@ -8692,8 +8773,8 @@
       </c>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>200</v>
+      <c r="A70" s="42" t="s">
+        <v>197</v>
       </c>
       <c r="B70" t="s">
         <v>21</v>
@@ -8705,13 +8786,13 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="F70" t="s">
         <v>36</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
@@ -8726,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="L70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70">
         <v>2017</v>
@@ -8735,7 +8816,7 @@
         <v>1</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
@@ -8814,8 +8895,8 @@
       </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>201</v>
+      <c r="A71" s="42" t="s">
+        <v>212</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
@@ -8827,7 +8908,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="F71" t="s">
         <v>36</v>
@@ -8848,7 +8929,7 @@
         <v>1</v>
       </c>
       <c r="L71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71">
         <v>2017</v>
@@ -8857,7 +8938,7 @@
         <v>1</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
@@ -8908,19 +8989,19 @@
         <v>21</v>
       </c>
       <c r="AF71">
-        <v>6.25E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AG71">
-        <v>6.9699999999999998E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="AH71" s="7">
         <v>0.12</v>
       </c>
       <c r="AI71" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="AJ71" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="AK71">
         <v>0.499</v>
@@ -8935,9 +9016,134 @@
         <v>56234303948</v>
       </c>
     </row>
+    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A72" s="42"/>
+    </row>
+    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A73" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>195</v>
+      </c>
+      <c r="F73" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="b">
+        <v>1</v>
+      </c>
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>2017</v>
+      </c>
+      <c r="N73" t="b">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="b">
+        <v>1</v>
+      </c>
+      <c r="R73" t="b">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>0.02</v>
+      </c>
+      <c r="T73" t="s">
+        <v>4</v>
+      </c>
+      <c r="U73" t="b">
+        <v>1</v>
+      </c>
+      <c r="V73" t="b">
+        <v>1</v>
+      </c>
+      <c r="W73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X73" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y73">
+        <v>24</v>
+      </c>
+      <c r="Z73">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA73">
+        <v>10</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF73">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG73">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AH73" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK73">
+        <v>0.499</v>
+      </c>
+      <c r="AL73">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM73" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN73">
+        <v>56234303948</v>
+      </c>
+    </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>197</v>
+      <c r="A74" s="42" t="s">
+        <v>199</v>
       </c>
       <c r="B74" t="s">
         <v>21</v>
@@ -8949,7 +9155,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="F74" t="s">
         <v>36</v>
@@ -8970,7 +9176,7 @@
         <v>1</v>
       </c>
       <c r="L74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74">
         <v>2017</v>
@@ -8979,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
@@ -9024,7 +9230,7 @@
         <v>37</v>
       </c>
       <c r="AD74" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AE74" t="s">
         <v>21</v>
@@ -9033,7 +9239,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AG74">
-        <v>7.9699999999999993E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="AH74" s="7">
         <v>0.12</v>
@@ -9057,9 +9263,9 @@
         <v>56234303948</v>
       </c>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>198</v>
+    <row r="75" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44" t="s">
+        <v>213</v>
       </c>
       <c r="B75" t="s">
         <v>21</v>
@@ -9071,7 +9277,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="F75" t="s">
         <v>36</v>
@@ -9092,7 +9298,7 @@
         <v>1</v>
       </c>
       <c r="L75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>2017</v>
@@ -9101,7 +9307,7 @@
         <v>1</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
@@ -9152,19 +9358,19 @@
         <v>21</v>
       </c>
       <c r="AF75">
-        <v>7.2499999999999995E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AG75">
-        <v>6.9699999999999998E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="AH75" s="7">
         <v>0.12</v>
       </c>
       <c r="AI75" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="AJ75" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="AK75">
         <v>0.499</v>
@@ -9179,383 +9385,139 @@
         <v>56234303948</v>
       </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AH76" s="7"/>
-      <c r="AM76" s="27"/>
-    </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>207</v>
-      </c>
-      <c r="B77" t="s">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AH78" s="7"/>
+      <c r="AM78" s="27"/>
+    </row>
+    <row r="79" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH79" s="7"/>
+      <c r="AM79" s="27"/>
+    </row>
+    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A80" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B80" t="s">
         <v>21</v>
       </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77" t="s">
-        <v>204</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>202</v>
+      </c>
+      <c r="F80" t="s">
         <v>36</v>
       </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="b">
-        <v>1</v>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="b">
-        <v>0</v>
-      </c>
-      <c r="M77">
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80">
         <v>2017</v>
       </c>
-      <c r="N77" t="b">
-        <v>1</v>
-      </c>
-      <c r="O77">
+      <c r="N80" t="b">
+        <v>1</v>
+      </c>
+      <c r="O80">
         <v>4</v>
       </c>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="b">
-        <v>1</v>
-      </c>
-      <c r="R77" t="b">
-        <v>1</v>
-      </c>
-      <c r="S77">
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="b">
+        <v>1</v>
+      </c>
+      <c r="R80" t="b">
+        <v>1</v>
+      </c>
+      <c r="S80">
         <v>0.02</v>
       </c>
-      <c r="T77" t="s">
+      <c r="T80" t="s">
         <v>4</v>
       </c>
-      <c r="U77" t="b">
-        <v>1</v>
-      </c>
-      <c r="V77" t="b">
-        <v>1</v>
-      </c>
-      <c r="W77" t="s">
+      <c r="U80" t="b">
+        <v>1</v>
+      </c>
+      <c r="V80" t="b">
+        <v>1</v>
+      </c>
+      <c r="W80" t="s">
         <v>28</v>
       </c>
-      <c r="X77" t="s">
+      <c r="X80" t="s">
         <v>64</v>
       </c>
-      <c r="Y77">
+      <c r="Y80">
         <v>24</v>
       </c>
-      <c r="Z77">
+      <c r="Z80">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA77">
+      <c r="AA80">
         <v>10</v>
       </c>
-      <c r="AB77">
-        <v>0</v>
-      </c>
-      <c r="AC77" t="s">
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80" t="s">
         <v>37</v>
       </c>
-      <c r="AD77" t="s">
+      <c r="AD80" t="s">
         <v>27</v>
       </c>
-      <c r="AE77" t="s">
+      <c r="AE80" t="s">
         <v>21</v>
       </c>
-      <c r="AF77">
+      <c r="AF80">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG77">
+      <c r="AG80">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AH77" s="7">
+      <c r="AH80" s="7">
         <v>0.12</v>
       </c>
-      <c r="AI77" t="s">
+      <c r="AI80" t="s">
         <v>47</v>
       </c>
-      <c r="AJ77" t="s">
+      <c r="AJ80" t="s">
         <v>47</v>
       </c>
-      <c r="AK77">
+      <c r="AK80">
         <v>0.499</v>
       </c>
-      <c r="AL77">
+      <c r="AL80">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM77" s="27">
+      <c r="AM80" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN77">
+      <c r="AN80">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>202</v>
-      </c>
-      <c r="B78" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78" t="s">
-        <v>204</v>
-      </c>
-      <c r="F78" t="s">
-        <v>36</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="b">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>2017</v>
-      </c>
-      <c r="N78" t="b">
-        <v>1</v>
-      </c>
-      <c r="O78">
-        <v>4</v>
-      </c>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="b">
-        <v>1</v>
-      </c>
-      <c r="R78" t="b">
-        <v>1</v>
-      </c>
-      <c r="S78">
-        <v>0.02</v>
-      </c>
-      <c r="T78" t="s">
-        <v>4</v>
-      </c>
-      <c r="U78" t="b">
-        <v>1</v>
-      </c>
-      <c r="V78" t="b">
-        <v>1</v>
-      </c>
-      <c r="W78" t="s">
-        <v>28</v>
-      </c>
-      <c r="X78" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y78">
-        <v>24</v>
-      </c>
-      <c r="Z78">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AA78">
-        <v>10</v>
-      </c>
-      <c r="AB78">
-        <v>0</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD78" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE78" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF78">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AG78">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AH78" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AI78" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ78" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK78">
-        <v>0.499</v>
-      </c>
-      <c r="AL78">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AM78" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AN78">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>211</v>
-      </c>
-      <c r="B79" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79" t="s">
-        <v>204</v>
-      </c>
-      <c r="F79" t="s">
-        <v>36</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="b">
-        <v>1</v>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="b">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>2017</v>
-      </c>
-      <c r="N79" t="b">
-        <v>1</v>
-      </c>
-      <c r="O79">
-        <v>4</v>
-      </c>
-      <c r="P79" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="b">
-        <v>1</v>
-      </c>
-      <c r="R79" t="b">
-        <v>1</v>
-      </c>
-      <c r="S79">
-        <v>0.02</v>
-      </c>
-      <c r="T79" t="s">
-        <v>4</v>
-      </c>
-      <c r="U79" t="b">
-        <v>1</v>
-      </c>
-      <c r="V79" t="b">
-        <v>1</v>
-      </c>
-      <c r="W79" t="s">
-        <v>28</v>
-      </c>
-      <c r="X79" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y79">
-        <v>24</v>
-      </c>
-      <c r="Z79">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AA79">
-        <v>10</v>
-      </c>
-      <c r="AB79">
-        <v>0</v>
-      </c>
-      <c r="AC79" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD79" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE79" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF79">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AG79">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="AH79" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AI79" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ79" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK79">
-        <v>0.499</v>
-      </c>
-      <c r="AL79">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AM79" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AN79">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AH80" s="7"/>
-      <c r="AM80" s="27"/>
-    </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>210</v>
+      <c r="A81" s="42" t="s">
+        <v>200</v>
       </c>
       <c r="B81" t="s">
         <v>21</v>
@@ -9567,7 +9529,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="F81" t="s">
         <v>36</v>
@@ -9588,7 +9550,7 @@
         <v>1</v>
       </c>
       <c r="L81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81">
         <v>2017</v>
@@ -9642,7 +9604,7 @@
         <v>37</v>
       </c>
       <c r="AD81" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AE81" t="s">
         <v>21</v>
@@ -9651,7 +9613,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AG81">
-        <v>7.9699999999999993E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="AH81" s="7">
         <v>0.12</v>
@@ -9676,8 +9638,8 @@
       </c>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>205</v>
+      <c r="A82" s="43" t="s">
+        <v>209</v>
       </c>
       <c r="B82" t="s">
         <v>21</v>
@@ -9689,7 +9651,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="F82" t="s">
         <v>36</v>
@@ -9710,7 +9672,7 @@
         <v>1</v>
       </c>
       <c r="L82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M82">
         <v>2017</v>
@@ -9773,7 +9735,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AG82">
-        <v>6.9699999999999998E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="AH82" s="7">
         <v>0.12</v>
@@ -9798,134 +9760,135 @@
       </c>
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>212</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="A83" s="42"/>
+      <c r="AH83" s="7"/>
+      <c r="AM83" s="27"/>
+    </row>
+    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A84" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="B84" t="s">
         <v>21</v>
       </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
         <v>180</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F84" t="s">
         <v>36</v>
       </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="b">
-        <v>1</v>
-      </c>
-      <c r="M83">
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M84">
         <v>2017</v>
       </c>
-      <c r="N83" t="b">
-        <v>1</v>
-      </c>
-      <c r="O83">
+      <c r="N84" t="b">
+        <v>1</v>
+      </c>
+      <c r="O84">
         <v>4</v>
       </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="b">
-        <v>1</v>
-      </c>
-      <c r="R83" t="b">
-        <v>1</v>
-      </c>
-      <c r="S83">
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="b">
+        <v>1</v>
+      </c>
+      <c r="R84" t="b">
+        <v>1</v>
+      </c>
+      <c r="S84">
         <v>0.02</v>
       </c>
-      <c r="T83" t="s">
+      <c r="T84" t="s">
         <v>4</v>
       </c>
-      <c r="U83" t="b">
-        <v>1</v>
-      </c>
-      <c r="V83" t="b">
-        <v>1</v>
-      </c>
-      <c r="W83" t="s">
+      <c r="U84" t="b">
+        <v>1</v>
+      </c>
+      <c r="V84" t="b">
+        <v>1</v>
+      </c>
+      <c r="W84" t="s">
         <v>28</v>
       </c>
-      <c r="X83" t="s">
+      <c r="X84" t="s">
         <v>64</v>
       </c>
-      <c r="Y83">
+      <c r="Y84">
         <v>24</v>
       </c>
-      <c r="Z83">
+      <c r="Z84">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA83">
+      <c r="AA84">
         <v>10</v>
       </c>
-      <c r="AB83">
-        <v>0</v>
-      </c>
-      <c r="AC83" t="s">
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84" t="s">
         <v>37</v>
       </c>
-      <c r="AD83" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE83" t="s">
+      <c r="AD84" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE84" t="s">
         <v>21</v>
       </c>
-      <c r="AF83">
+      <c r="AF84">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG83">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="AH83" s="7">
+      <c r="AG84">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AH84" s="7">
         <v>0.12</v>
       </c>
-      <c r="AI83" t="s">
+      <c r="AI84" t="s">
         <v>47</v>
       </c>
-      <c r="AJ83" t="s">
+      <c r="AJ84" t="s">
         <v>47</v>
       </c>
-      <c r="AK83">
+      <c r="AK84">
         <v>0.499</v>
       </c>
-      <c r="AL83">
+      <c r="AL84">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM83" s="27">
+      <c r="AM84" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN83">
+      <c r="AN84">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AH84" s="7"/>
-      <c r="AM84" s="27"/>
-    </row>
     <row r="85" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>206</v>
+      <c r="A85" s="42" t="s">
+        <v>203</v>
       </c>
       <c r="B85" t="s">
         <v>21</v>
@@ -9937,7 +9900,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="F85" t="s">
         <v>36</v>
@@ -9958,7 +9921,7 @@
         <v>1</v>
       </c>
       <c r="L85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85">
         <v>2017</v>
@@ -9967,7 +9930,7 @@
         <v>1</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P85" t="b">
         <v>0</v>
@@ -10012,7 +9975,7 @@
         <v>37</v>
       </c>
       <c r="AD85" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AE85" t="s">
         <v>21</v>
@@ -10021,7 +9984,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AG85">
-        <v>7.9699999999999993E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="AH85" s="7">
         <v>0.12</v>
@@ -10046,8 +10009,8 @@
       </c>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>203</v>
+      <c r="A86" s="43" t="s">
+        <v>210</v>
       </c>
       <c r="B86" t="s">
         <v>21</v>
@@ -10059,13 +10022,13 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="F86" t="s">
         <v>36</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
@@ -10080,7 +10043,7 @@
         <v>1</v>
       </c>
       <c r="L86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86">
         <v>2017</v>
@@ -10089,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P86" t="b">
         <v>0</v>
@@ -10143,7 +10106,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AG86">
-        <v>6.9699999999999998E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="AH86" s="7">
         <v>0.12</v>
@@ -10168,133 +10131,382 @@
       </c>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>213</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="A87" s="42"/>
+      <c r="AH87" s="7"/>
+      <c r="AM87" s="27"/>
+    </row>
+    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A88" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" t="s">
         <v>21</v>
       </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87" t="s">
-        <v>209</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88" t="s">
         <v>36</v>
       </c>
-      <c r="G87" t="b">
-        <v>1</v>
-      </c>
-      <c r="H87" t="b">
-        <v>1</v>
-      </c>
-      <c r="I87" t="b">
-        <v>1</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87" t="b">
-        <v>1</v>
-      </c>
-      <c r="L87" t="b">
-        <v>0</v>
-      </c>
-      <c r="M87">
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88">
         <v>2017</v>
       </c>
-      <c r="N87" t="b">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="b">
-        <v>1</v>
-      </c>
-      <c r="R87" t="b">
-        <v>1</v>
-      </c>
-      <c r="S87">
+      <c r="N88" t="b">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="b">
+        <v>1</v>
+      </c>
+      <c r="R88" t="b">
+        <v>1</v>
+      </c>
+      <c r="S88">
         <v>0.02</v>
       </c>
-      <c r="T87" t="s">
+      <c r="T88" t="s">
         <v>4</v>
       </c>
-      <c r="U87" t="b">
-        <v>1</v>
-      </c>
-      <c r="V87" t="b">
-        <v>1</v>
-      </c>
-      <c r="W87" t="s">
+      <c r="U88" t="b">
+        <v>1</v>
+      </c>
+      <c r="V88" t="b">
+        <v>1</v>
+      </c>
+      <c r="W88" t="s">
         <v>28</v>
       </c>
-      <c r="X87" t="s">
+      <c r="X88" t="s">
         <v>64</v>
       </c>
-      <c r="Y87">
+      <c r="Y88">
         <v>24</v>
       </c>
-      <c r="Z87">
+      <c r="Z88">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA87">
+      <c r="AA88">
         <v>10</v>
       </c>
-      <c r="AB87">
-        <v>0</v>
-      </c>
-      <c r="AC87" t="s">
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88" t="s">
         <v>37</v>
       </c>
-      <c r="AD87" t="s">
+      <c r="AD88" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF88">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG88">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AH88" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ88" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK88">
+        <v>0.499</v>
+      </c>
+      <c r="AL88">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM88" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN88">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A89" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>207</v>
+      </c>
+      <c r="F89" t="s">
+        <v>36</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>2017</v>
+      </c>
+      <c r="N89" t="b">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="b">
+        <v>1</v>
+      </c>
+      <c r="R89" t="b">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>0.02</v>
+      </c>
+      <c r="T89" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" t="b">
+        <v>1</v>
+      </c>
+      <c r="V89" t="b">
+        <v>1</v>
+      </c>
+      <c r="W89" t="s">
+        <v>28</v>
+      </c>
+      <c r="X89" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y89">
+        <v>24</v>
+      </c>
+      <c r="Z89">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA89">
+        <v>10</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD89" t="s">
         <v>48</v>
       </c>
-      <c r="AE87" t="s">
+      <c r="AE89" t="s">
         <v>21</v>
       </c>
-      <c r="AF87">
+      <c r="AF89">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG87">
+      <c r="AG89">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AH89" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ89" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK89">
+        <v>0.499</v>
+      </c>
+      <c r="AL89">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AM89" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AN89">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="90" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>207</v>
+      </c>
+      <c r="F90" t="s">
+        <v>36</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>2017</v>
+      </c>
+      <c r="N90" t="b">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="b">
+        <v>1</v>
+      </c>
+      <c r="R90" t="b">
+        <v>1</v>
+      </c>
+      <c r="S90">
+        <v>0.02</v>
+      </c>
+      <c r="T90" t="s">
+        <v>4</v>
+      </c>
+      <c r="U90" t="b">
+        <v>1</v>
+      </c>
+      <c r="V90" t="b">
+        <v>1</v>
+      </c>
+      <c r="W90" t="s">
+        <v>28</v>
+      </c>
+      <c r="X90" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y90">
+        <v>24</v>
+      </c>
+      <c r="Z90">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA90">
+        <v>10</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF90">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AG90">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="AH87" s="7">
+      <c r="AH90" s="7">
         <v>0.12</v>
       </c>
-      <c r="AI87" t="s">
+      <c r="AI90" t="s">
         <v>47</v>
       </c>
-      <c r="AJ87" t="s">
+      <c r="AJ90" t="s">
         <v>47</v>
       </c>
-      <c r="AK87">
+      <c r="AK90">
         <v>0.499</v>
       </c>
-      <c r="AL87">
+      <c r="AL90">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM87" s="27">
+      <c r="AM90" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN87">
+      <c r="AN90">
         <v>56234303948</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G22:I27 G74:I87 H5:I13 G29:I30 G28 G15:I20 G37:I40 G57:G59 H57:I58 G42:I47 G49:I55 G61:I63 G69:I71 G65:I67 G5:G14 G21 G33:I35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29:I30 H5:I13 H33:I35 H15:I20 H37:I40 H22:I27 H42:I47 H57:I58 H49:I55 H60:I63 G73:I75 H65:I71 G78:I90 G5:G72 G76:G77">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD22:AD27 AD15:AD20 AD5:AD13 AD29:AD30 AD33:AD35 AD57:AD58 AD42:AD47 AD37:AD40 AD49:AD55 AD61:AD63 AD69:AD71 AD65:AD67 AD74:AD87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD22:AD27 AD15:AD20 AD5:AD13 AD29:AD30 AD33:AD35 AD57:AD58 AD42:AD47 AD37:AD40 AD49:AD55 AD73:AD75 AD60:AD63 AD78:AD90 AD65:AD71">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1427,17 +1427,17 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2941,10 +2941,10 @@
   <dimension ref="A4:AN90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G92" sqref="G92"/>
+      <selection pane="bottomRight" activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8280,7 +8280,7 @@
     </row>
     <row r="64" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A65" s="41" t="s">
+      <c r="A65" s="39" t="s">
         <v>188</v>
       </c>
       <c r="B65" t="s">
@@ -8299,7 +8299,7 @@
         <v>36</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -8402,7 +8402,7 @@
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="40" t="s">
         <v>189</v>
       </c>
       <c r="B66" t="s">
@@ -8421,7 +8421,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -8524,7 +8524,7 @@
       </c>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A67" s="42" t="s">
+      <c r="A67" s="40" t="s">
         <v>214</v>
       </c>
       <c r="B67" t="s">
@@ -8543,7 +8543,7 @@
         <v>36</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
@@ -8646,12 +8646,12 @@
       </c>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
+      <c r="A68" s="40"/>
       <c r="AH68" s="7"/>
       <c r="AM68" s="27"/>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="40" t="s">
         <v>196</v>
       </c>
       <c r="B69" t="s">
@@ -8670,7 +8670,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="b">
         <v>1</v>
@@ -8773,7 +8773,7 @@
       </c>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A70" s="42" t="s">
+      <c r="A70" s="40" t="s">
         <v>197</v>
       </c>
       <c r="B70" t="s">
@@ -8792,7 +8792,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
@@ -8895,7 +8895,7 @@
       </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A71" s="42" t="s">
+      <c r="A71" s="40" t="s">
         <v>212</v>
       </c>
       <c r="B71" t="s">
@@ -8914,7 +8914,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -9017,10 +9017,10 @@
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
+      <c r="A72" s="40"/>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="40" t="s">
         <v>198</v>
       </c>
       <c r="B73" t="s">
@@ -9039,7 +9039,7 @@
         <v>36</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
@@ -9142,7 +9142,7 @@
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A74" s="42" t="s">
+      <c r="A74" s="40" t="s">
         <v>199</v>
       </c>
       <c r="B74" t="s">
@@ -9161,7 +9161,7 @@
         <v>36</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
@@ -9264,7 +9264,7 @@
       </c>
     </row>
     <row r="75" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="44" t="s">
+      <c r="A75" s="42" t="s">
         <v>213</v>
       </c>
       <c r="B75" t="s">
@@ -9283,7 +9283,7 @@
         <v>36</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="b">
         <v>1</v>
@@ -9394,7 +9394,7 @@
       <c r="AM79" s="27"/>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A80" s="41" t="s">
+      <c r="A80" s="39" t="s">
         <v>205</v>
       </c>
       <c r="B80" t="s">
@@ -9516,7 +9516,7 @@
       </c>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A81" s="42" t="s">
+      <c r="A81" s="40" t="s">
         <v>200</v>
       </c>
       <c r="B81" t="s">
@@ -9535,7 +9535,7 @@
         <v>36</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
@@ -9638,7 +9638,7 @@
       </c>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A82" s="43" t="s">
+      <c r="A82" s="41" t="s">
         <v>209</v>
       </c>
       <c r="B82" t="s">
@@ -9657,7 +9657,7 @@
         <v>36</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
@@ -9760,12 +9760,12 @@
       </c>
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
+      <c r="A83" s="40"/>
       <c r="AH83" s="7"/>
       <c r="AM83" s="27"/>
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A84" s="42" t="s">
+      <c r="A84" s="40" t="s">
         <v>208</v>
       </c>
       <c r="B84" t="s">
@@ -9784,7 +9784,7 @@
         <v>36</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="b">
         <v>1</v>
@@ -9887,7 +9887,7 @@
       </c>
     </row>
     <row r="85" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A85" s="42" t="s">
+      <c r="A85" s="40" t="s">
         <v>203</v>
       </c>
       <c r="B85" t="s">
@@ -9906,7 +9906,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
@@ -10009,7 +10009,7 @@
       </c>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A86" s="43" t="s">
+      <c r="A86" s="41" t="s">
         <v>210</v>
       </c>
       <c r="B86" t="s">
@@ -10028,7 +10028,7 @@
         <v>36</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
@@ -10131,12 +10131,12 @@
       </c>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
+      <c r="A87" s="40"/>
       <c r="AH87" s="7"/>
       <c r="AM87" s="27"/>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A88" s="42" t="s">
+      <c r="A88" s="40" t="s">
         <v>204</v>
       </c>
       <c r="B88" t="s">
@@ -10155,7 +10155,7 @@
         <v>36</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
@@ -10258,7 +10258,7 @@
       </c>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A89" s="42" t="s">
+      <c r="A89" s="40" t="s">
         <v>201</v>
       </c>
       <c r="B89" t="s">
@@ -10277,7 +10277,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
@@ -10380,7 +10380,7 @@
       </c>
     </row>
     <row r="90" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="45" t="s">
+      <c r="A90" s="43" t="s">
         <v>211</v>
       </c>
       <c r="B90" t="s">
@@ -10399,7 +10399,7 @@
         <v>36</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="b">
         <v>1</v>
@@ -10503,7 +10503,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29:I30 H5:I13 H33:I35 H15:I20 H37:I40 H22:I27 H42:I47 H57:I58 H49:I55 H60:I63 G73:I75 H65:I71 G78:I90 G5:G72 G76:G77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29:I30 H5:I13 H33:I35 H15:I20 H37:I40 H22:I27 H42:I47 H57:I58 H49:I55 H60:I63 H65:I71 H73:I75 G5:G77 G78:I90">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD22:AD27 AD15:AD20 AD5:AD13 AD29:AD30 AD33:AD35 AD57:AD58 AD42:AD47 AD37:AD40 AD49:AD55 AD73:AD75 AD60:AD63 AD78:AD90 AD65:AD71">
@@ -11651,11 +11651,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="29"/>
@@ -11722,11 +11722,11 @@
       <c r="D8" s="31"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="29"/>
@@ -11818,11 +11818,11 @@
       <c r="N30" s="28"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
       <c r="N31" s="28"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z5" authorId="0" shapeId="0">
+    <comment ref="AA5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="220">
   <si>
     <t>runname</t>
   </si>
@@ -1139,6 +1139,21 @@
   </si>
   <si>
     <t>SR1EL1.Reform_sep_R525.d725.DC4</t>
+  </si>
+  <si>
+    <t>Calib.bf</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_sep_R725.d725.DC4.obf</t>
+  </si>
+  <si>
+    <t>DC rate 9%; New hires modeled separately; bfactor not calibrated</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1.obf</t>
+  </si>
+  <si>
+    <t>bfactor not calibrated</t>
   </si>
 </sst>
 </file>
@@ -2938,13 +2953,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AN90"/>
+  <dimension ref="A4:AO94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G94" sqref="G94"/>
+      <selection pane="bottomRight" activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2964,22 +2979,24 @@
     <col min="13" max="13" width="19.42578125" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="20.85546875" customWidth="1"/>
-    <col min="16" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" customWidth="1"/>
-    <col min="28" max="28" width="14" customWidth="1"/>
-    <col min="29" max="29" width="13.42578125" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" customWidth="1"/>
-    <col min="31" max="31" width="14.85546875" customWidth="1"/>
-    <col min="39" max="39" width="21.7109375" customWidth="1"/>
-    <col min="40" max="40" width="16.5703125" customWidth="1"/>
+    <col min="16" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" customWidth="1"/>
+    <col min="29" max="29" width="14" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" customWidth="1"/>
+    <col min="40" max="40" width="21.7109375" customWidth="1"/>
+    <col min="41" max="41" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3038,70 +3055,73 @@
         <v>115</v>
       </c>
       <c r="T4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AC4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AD4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AE4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AF4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AG4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AH4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="5" t="s">
+      <c r="AI4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AK4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AL4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AM4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AN4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -3156,65 +3176,68 @@
       <c r="S5">
         <v>0.02</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
         <v>4</v>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
-      </c>
       <c r="V5" t="b">
         <v>1</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" t="s">
         <v>28</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>64</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>24</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>10</v>
       </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="s">
         <v>37</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>48</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>21</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AH5" s="7">
+      <c r="AI5" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>47</v>
       </c>
       <c r="AJ5" t="s">
         <v>47</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL5">
         <v>0.499</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -3269,68 +3292,71 @@
       <c r="S6">
         <v>0.02</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" t="s">
         <v>4</v>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
-      </c>
       <c r="V6" t="b">
         <v>1</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6" t="s">
         <v>28</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>64</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>24</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>10</v>
       </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="s">
         <v>37</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>48</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>21</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AH6" s="7">
+      <c r="AI6" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>47</v>
       </c>
       <c r="AJ6" t="s">
         <v>47</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL6">
         <v>0.499</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AH7" s="7"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI7" s="7"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -3385,65 +3411,68 @@
       <c r="S8">
         <v>0.02</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" t="b">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
         <v>4</v>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
-      </c>
       <c r="V8" t="b">
         <v>1</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" t="b">
+        <v>1</v>
+      </c>
+      <c r="X8" t="s">
         <v>28</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>64</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>24</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>10</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="s">
         <v>37</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>27</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>21</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH8" s="7">
+      <c r="AI8" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>47</v>
       </c>
       <c r="AJ8" t="s">
         <v>47</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL8">
         <v>0.499</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -3460,7 +3489,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -3498,65 +3527,68 @@
       <c r="S9">
         <v>0.02</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
         <v>4</v>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
-      </c>
       <c r="V9" t="b">
         <v>1</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" t="b">
+        <v>1</v>
+      </c>
+      <c r="X9" t="s">
         <v>28</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>64</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>24</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>10</v>
       </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="s">
         <v>37</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>27</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>21</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH9" s="7">
+      <c r="AI9" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>47</v>
       </c>
       <c r="AJ9" t="s">
         <v>47</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL9">
         <v>0.499</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -3611,65 +3643,68 @@
       <c r="S10">
         <v>0.02</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
         <v>4</v>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
-      </c>
       <c r="V10" t="b">
         <v>1</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X10" t="s">
         <v>28</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>64</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>24</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>10</v>
       </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="s">
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="s">
         <v>37</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>27</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>21</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH10" s="7">
+      <c r="AI10" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>47</v>
       </c>
       <c r="AJ10" t="s">
         <v>47</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL10">
         <v>0.499</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -3724,65 +3759,68 @@
       <c r="S11">
         <v>0.02</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" t="b">
+        <v>1</v>
+      </c>
+      <c r="U11" t="s">
         <v>4</v>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
-      </c>
       <c r="V11" t="b">
         <v>1</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" t="b">
+        <v>1</v>
+      </c>
+      <c r="X11" t="s">
         <v>28</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>64</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>24</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>10</v>
       </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="s">
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="s">
         <v>37</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>27</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>21</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH11" s="7">
+      <c r="AI11" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>47</v>
       </c>
       <c r="AJ11" t="s">
         <v>47</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL11">
         <v>0.499</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -3840,65 +3878,68 @@
       <c r="S12">
         <v>0.05</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" t="b">
+        <v>1</v>
+      </c>
+      <c r="U12" t="s">
         <v>4</v>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
-      </c>
       <c r="V12" t="b">
         <v>1</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" t="b">
+        <v>1</v>
+      </c>
+      <c r="X12" t="s">
         <v>28</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>64</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>24</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>10</v>
       </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="s">
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="s">
         <v>37</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>27</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>21</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH12" s="7">
+      <c r="AI12" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>47</v>
       </c>
       <c r="AJ12" t="s">
         <v>47</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL12">
         <v>0.499</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -3953,65 +3994,68 @@
       <c r="S13">
         <v>0.02</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13" t="b">
+        <v>1</v>
+      </c>
+      <c r="U13" t="s">
         <v>4</v>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
-      </c>
       <c r="V13" t="b">
         <v>1</v>
       </c>
-      <c r="W13" t="s">
+      <c r="W13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X13" t="s">
         <v>28</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>64</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>24</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>10</v>
       </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="s">
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="s">
         <v>37</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>27</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>21</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH13" s="7">
+      <c r="AI13" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>47</v>
       </c>
       <c r="AJ13" t="s">
         <v>47</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL13">
         <v>0.499</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -4066,65 +4110,68 @@
       <c r="S15">
         <v>0.02</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T15" t="b">
+        <v>1</v>
+      </c>
+      <c r="U15" t="s">
         <v>4</v>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
-      </c>
       <c r="V15" t="b">
         <v>1</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W15" t="b">
+        <v>1</v>
+      </c>
+      <c r="X15" t="s">
         <v>28</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>64</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>24</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>10</v>
       </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="s">
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="s">
         <v>37</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>27</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>22</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH15" s="7">
+      <c r="AI15" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>47</v>
       </c>
       <c r="AJ15" t="s">
         <v>47</v>
       </c>
-      <c r="AK15">
+      <c r="AK15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL15">
         <v>0.499</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -4179,65 +4226,68 @@
       <c r="S16">
         <v>0.02</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T16" t="b">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
         <v>4</v>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
-      </c>
       <c r="V16" t="b">
         <v>1</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W16" t="b">
+        <v>1</v>
+      </c>
+      <c r="X16" t="s">
         <v>28</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>64</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>24</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>10</v>
       </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="s">
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="s">
         <v>37</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>27</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>22</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH16" s="7">
+      <c r="AI16" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>47</v>
       </c>
       <c r="AJ16" t="s">
         <v>47</v>
       </c>
-      <c r="AK16">
+      <c r="AK16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL16">
         <v>0.499</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -4292,65 +4342,68 @@
       <c r="S17">
         <v>0.02</v>
       </c>
-      <c r="T17" t="s">
+      <c r="T17" t="b">
+        <v>1</v>
+      </c>
+      <c r="U17" t="s">
         <v>4</v>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
-      </c>
       <c r="V17" t="b">
         <v>1</v>
       </c>
-      <c r="W17" t="s">
+      <c r="W17" t="b">
+        <v>1</v>
+      </c>
+      <c r="X17" t="s">
         <v>28</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>64</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>24</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>10</v>
       </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="s">
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="s">
         <v>37</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>27</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>22</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH17" s="7">
+      <c r="AI17" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>47</v>
       </c>
       <c r="AJ17" t="s">
         <v>47</v>
       </c>
-      <c r="AK17">
+      <c r="AK17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL17">
         <v>0.499</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -4405,65 +4458,68 @@
       <c r="S18">
         <v>0.02</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T18" t="b">
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
         <v>4</v>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
-      </c>
       <c r="V18" t="b">
         <v>1</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W18" t="b">
+        <v>1</v>
+      </c>
+      <c r="X18" t="s">
         <v>28</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>64</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>24</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>10</v>
       </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="s">
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="s">
         <v>37</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>27</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>22</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH18" s="7">
+      <c r="AI18" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>47</v>
       </c>
       <c r="AJ18" t="s">
         <v>47</v>
       </c>
-      <c r="AK18">
+      <c r="AK18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL18">
         <v>0.499</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -4518,65 +4574,68 @@
       <c r="S19">
         <v>0.05</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T19" t="b">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
         <v>4</v>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
-      </c>
       <c r="V19" t="b">
         <v>1</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W19" t="b">
+        <v>1</v>
+      </c>
+      <c r="X19" t="s">
         <v>28</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>64</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>24</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>10</v>
       </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="s">
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="s">
         <v>37</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>27</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>22</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH19" s="7">
+      <c r="AI19" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>47</v>
       </c>
       <c r="AJ19" t="s">
         <v>47</v>
       </c>
-      <c r="AK19">
+      <c r="AK19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL19">
         <v>0.499</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -4631,70 +4690,73 @@
       <c r="S20">
         <v>0.02</v>
       </c>
-      <c r="T20" t="s">
+      <c r="T20" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" t="s">
         <v>4</v>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
-      </c>
       <c r="V20" t="b">
         <v>1</v>
       </c>
-      <c r="W20" t="s">
+      <c r="W20" t="b">
+        <v>1</v>
+      </c>
+      <c r="X20" t="s">
         <v>28</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>64</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>24</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>10</v>
       </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="s">
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="s">
         <v>37</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>27</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>22</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH20" s="7">
+      <c r="AI20" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>47</v>
       </c>
       <c r="AJ20" t="s">
         <v>47</v>
       </c>
-      <c r="AK20">
+      <c r="AK20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL20">
         <v>0.499</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="G21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -4749,65 +4811,68 @@
       <c r="S22">
         <v>0.02</v>
       </c>
-      <c r="T22" t="s">
+      <c r="T22" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" t="s">
         <v>4</v>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
-      </c>
       <c r="V22" t="b">
         <v>1</v>
       </c>
-      <c r="W22" t="s">
+      <c r="W22" t="b">
+        <v>1</v>
+      </c>
+      <c r="X22" t="s">
         <v>28</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>64</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>24</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>10</v>
       </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="s">
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="s">
         <v>37</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>27</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>23</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH22" s="7">
+      <c r="AI22" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>47</v>
       </c>
       <c r="AJ22" t="s">
         <v>47</v>
       </c>
-      <c r="AK22">
+      <c r="AK22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL22">
         <v>0.499</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -4862,65 +4927,68 @@
       <c r="S23">
         <v>0.02</v>
       </c>
-      <c r="T23" t="s">
+      <c r="T23" t="b">
+        <v>1</v>
+      </c>
+      <c r="U23" t="s">
         <v>4</v>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
-      </c>
       <c r="V23" t="b">
         <v>1</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23" t="b">
+        <v>1</v>
+      </c>
+      <c r="X23" t="s">
         <v>28</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>64</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>24</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>10</v>
       </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="s">
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="s">
         <v>37</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>27</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>23</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH23" s="7">
+      <c r="AI23" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>47</v>
       </c>
       <c r="AJ23" t="s">
         <v>47</v>
       </c>
-      <c r="AK23">
+      <c r="AK23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL23">
         <v>0.499</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -4975,65 +5043,68 @@
       <c r="S24">
         <v>0.02</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T24" t="b">
+        <v>1</v>
+      </c>
+      <c r="U24" t="s">
         <v>4</v>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
-      </c>
       <c r="V24" t="b">
         <v>1</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W24" t="b">
+        <v>1</v>
+      </c>
+      <c r="X24" t="s">
         <v>28</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>64</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>24</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>10</v>
       </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="s">
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="s">
         <v>37</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>27</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>23</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH24" s="7">
+      <c r="AI24" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>47</v>
       </c>
       <c r="AJ24" t="s">
         <v>47</v>
       </c>
-      <c r="AK24">
+      <c r="AK24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL24">
         <v>0.499</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -5088,65 +5159,68 @@
       <c r="S25">
         <v>0.02</v>
       </c>
-      <c r="T25" t="s">
+      <c r="T25" t="b">
+        <v>1</v>
+      </c>
+      <c r="U25" t="s">
         <v>4</v>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
-      </c>
       <c r="V25" t="b">
         <v>1</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W25" t="b">
+        <v>1</v>
+      </c>
+      <c r="X25" t="s">
         <v>28</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>64</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>24</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>10</v>
       </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="s">
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="s">
         <v>37</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>27</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>23</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH25" s="7">
+      <c r="AI25" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>47</v>
       </c>
       <c r="AJ25" t="s">
         <v>47</v>
       </c>
-      <c r="AK25">
+      <c r="AK25" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL25">
         <v>0.499</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>120</v>
       </c>
@@ -5201,65 +5275,68 @@
       <c r="S26">
         <v>0.05</v>
       </c>
-      <c r="T26" t="s">
+      <c r="T26" t="b">
+        <v>1</v>
+      </c>
+      <c r="U26" t="s">
         <v>4</v>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
-      </c>
       <c r="V26" t="b">
         <v>1</v>
       </c>
-      <c r="W26" t="s">
+      <c r="W26" t="b">
+        <v>1</v>
+      </c>
+      <c r="X26" t="s">
         <v>28</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>64</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>24</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>10</v>
       </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="s">
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="s">
         <v>37</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>27</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>23</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH26" s="7">
+      <c r="AI26" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>47</v>
       </c>
       <c r="AJ26" t="s">
         <v>47</v>
       </c>
-      <c r="AK26">
+      <c r="AK26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL26">
         <v>0.499</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>121</v>
       </c>
@@ -5314,76 +5391,79 @@
       <c r="S27">
         <v>0.02</v>
       </c>
-      <c r="T27" t="s">
+      <c r="T27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U27" t="s">
         <v>4</v>
       </c>
-      <c r="U27" t="b">
-        <v>1</v>
-      </c>
       <c r="V27" t="b">
         <v>1</v>
       </c>
-      <c r="W27" t="s">
+      <c r="W27" t="b">
+        <v>1</v>
+      </c>
+      <c r="X27" t="s">
         <v>28</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>64</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>24</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>10</v>
       </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="s">
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="s">
         <v>37</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>27</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>23</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH27" s="7">
+      <c r="AI27" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>47</v>
       </c>
       <c r="AJ27" t="s">
         <v>47</v>
       </c>
-      <c r="AK27">
+      <c r="AK27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL27">
         <v>0.499</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="O28">
         <v>0</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>0.499</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -5438,65 +5518,68 @@
       <c r="S29">
         <v>0.02</v>
       </c>
-      <c r="T29" t="s">
+      <c r="T29" t="b">
+        <v>1</v>
+      </c>
+      <c r="U29" t="s">
         <v>4</v>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
-      </c>
       <c r="V29" t="b">
         <v>1</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W29" t="b">
+        <v>1</v>
+      </c>
+      <c r="X29" t="s">
         <v>28</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>123</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>24</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>10</v>
       </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="s">
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="s">
         <v>37</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>27</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AF29" t="s">
         <v>21</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH29" s="7">
+      <c r="AI29" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>47</v>
       </c>
       <c r="AJ29" t="s">
         <v>47</v>
       </c>
-      <c r="AK29">
+      <c r="AK29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL29">
         <v>0.499</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>124</v>
       </c>
@@ -5551,65 +5634,68 @@
       <c r="S30">
         <v>0.02</v>
       </c>
-      <c r="T30" t="s">
+      <c r="T30" t="b">
+        <v>1</v>
+      </c>
+      <c r="U30" t="s">
         <v>4</v>
       </c>
-      <c r="U30" t="b">
-        <v>1</v>
-      </c>
       <c r="V30" t="b">
         <v>1</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W30" t="b">
+        <v>1</v>
+      </c>
+      <c r="X30" t="s">
         <v>28</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>64</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>24</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>10</v>
       </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="s">
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="s">
         <v>37</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>27</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AF30" t="s">
         <v>21</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH30" s="7">
+      <c r="AI30" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>47</v>
       </c>
       <c r="AJ30" t="s">
         <v>47</v>
       </c>
-      <c r="AK30">
+      <c r="AK30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL30">
         <v>0.499</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>125</v>
       </c>
@@ -5664,65 +5750,68 @@
       <c r="S33">
         <v>0.02</v>
       </c>
-      <c r="T33" t="s">
+      <c r="T33" t="b">
+        <v>1</v>
+      </c>
+      <c r="U33" t="s">
         <v>4</v>
       </c>
-      <c r="U33" t="b">
-        <v>1</v>
-      </c>
       <c r="V33" t="b">
         <v>1</v>
       </c>
-      <c r="W33" t="s">
+      <c r="W33" t="b">
+        <v>1</v>
+      </c>
+      <c r="X33" t="s">
         <v>28</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>64</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>24</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>5</v>
       </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="s">
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="s">
         <v>37</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AE33" t="s">
         <v>27</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="AF33" t="s">
         <v>21</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH33" s="7">
+      <c r="AI33" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>47</v>
       </c>
       <c r="AJ33" t="s">
         <v>47</v>
       </c>
-      <c r="AK33">
+      <c r="AK33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL33">
         <v>0.499</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -5777,65 +5866,68 @@
       <c r="S34">
         <v>0.02</v>
       </c>
-      <c r="T34" t="s">
+      <c r="T34" t="b">
+        <v>1</v>
+      </c>
+      <c r="U34" t="s">
         <v>4</v>
       </c>
-      <c r="U34" t="b">
-        <v>1</v>
-      </c>
       <c r="V34" t="b">
         <v>1</v>
       </c>
-      <c r="W34" t="s">
+      <c r="W34" t="b">
+        <v>1</v>
+      </c>
+      <c r="X34" t="s">
         <v>28</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>64</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>24</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>5</v>
       </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="s">
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="s">
         <v>37</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AE34" t="s">
         <v>27</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AF34" t="s">
         <v>22</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH34" s="7">
+      <c r="AI34" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>47</v>
       </c>
       <c r="AJ34" t="s">
         <v>47</v>
       </c>
-      <c r="AK34">
+      <c r="AK34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL34">
         <v>0.499</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -5890,65 +5982,68 @@
       <c r="S35">
         <v>0.02</v>
       </c>
-      <c r="T35" t="s">
+      <c r="T35" t="b">
+        <v>1</v>
+      </c>
+      <c r="U35" t="s">
         <v>4</v>
       </c>
-      <c r="U35" t="b">
-        <v>1</v>
-      </c>
       <c r="V35" t="b">
         <v>1</v>
       </c>
-      <c r="W35" t="s">
+      <c r="W35" t="b">
+        <v>1</v>
+      </c>
+      <c r="X35" t="s">
         <v>28</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>64</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>24</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>5</v>
       </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="s">
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="s">
         <v>37</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AE35" t="s">
         <v>27</v>
       </c>
-      <c r="AE35" t="s">
+      <c r="AF35" t="s">
         <v>23</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AH35" s="7">
+      <c r="AI35" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>47</v>
       </c>
       <c r="AJ35" t="s">
         <v>47</v>
       </c>
-      <c r="AK35">
+      <c r="AK35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL35">
         <v>0.499</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -6003,71 +6098,74 @@
       <c r="S37">
         <v>0.02</v>
       </c>
-      <c r="T37" t="s">
+      <c r="T37" t="b">
+        <v>1</v>
+      </c>
+      <c r="U37" t="s">
         <v>4</v>
       </c>
-      <c r="U37" t="b">
-        <v>1</v>
-      </c>
       <c r="V37" t="b">
         <v>1</v>
       </c>
-      <c r="W37" t="s">
+      <c r="W37" t="b">
+        <v>1</v>
+      </c>
+      <c r="X37" t="s">
         <v>28</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>64</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>24</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>10</v>
       </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="s">
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="s">
         <v>37</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AE37" t="s">
         <v>48</v>
       </c>
-      <c r="AE37" t="s">
+      <c r="AF37" t="s">
         <v>21</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AH37" s="7">
+      <c r="AI37" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>47</v>
       </c>
       <c r="AJ37" t="s">
         <v>47</v>
       </c>
-      <c r="AK37">
+      <c r="AK37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL37">
         <v>0.499</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM37" s="27">
+      <c r="AN37" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -6125,71 +6223,74 @@
       <c r="S38">
         <v>0.02</v>
       </c>
-      <c r="T38" t="s">
+      <c r="T38" t="b">
+        <v>1</v>
+      </c>
+      <c r="U38" t="s">
         <v>4</v>
       </c>
-      <c r="U38" t="b">
-        <v>1</v>
-      </c>
       <c r="V38" t="b">
         <v>1</v>
       </c>
-      <c r="W38" t="s">
+      <c r="W38" t="b">
+        <v>1</v>
+      </c>
+      <c r="X38" t="s">
         <v>28</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>64</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>24</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>10</v>
       </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="s">
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="s">
         <v>37</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AE38" t="s">
         <v>48</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="AF38" t="s">
         <v>21</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AH38" s="7">
+      <c r="AI38" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>47</v>
       </c>
       <c r="AJ38" t="s">
         <v>47</v>
       </c>
-      <c r="AK38">
+      <c r="AK38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL38">
         <v>0.499</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM38" s="27">
+      <c r="AN38" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -6247,74 +6348,77 @@
       <c r="S39">
         <v>0.02</v>
       </c>
-      <c r="T39" t="s">
+      <c r="T39" t="b">
+        <v>1</v>
+      </c>
+      <c r="U39" t="s">
         <v>4</v>
       </c>
-      <c r="U39" t="b">
-        <v>1</v>
-      </c>
       <c r="V39" t="b">
         <v>1</v>
       </c>
-      <c r="W39" t="s">
+      <c r="W39" t="b">
+        <v>1</v>
+      </c>
+      <c r="X39" t="s">
         <v>28</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>64</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>24</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>10</v>
       </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="s">
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="s">
         <v>37</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AE39" t="s">
         <v>48</v>
       </c>
-      <c r="AE39" t="s">
+      <c r="AF39" t="s">
         <v>21</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>6.25E-2</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AH39" s="7">
+      <c r="AI39" s="7">
         <v>0.12</v>
       </c>
-      <c r="AI39" t="s">
+      <c r="AJ39" t="s">
         <v>142</v>
       </c>
-      <c r="AJ39" t="s">
+      <c r="AK39" t="s">
         <v>141</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <v>0.499</v>
       </c>
-      <c r="AL39">
+      <c r="AM39">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM39" s="27">
+      <c r="AN39" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN39">
+      <c r="AO39">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AH40" s="7"/>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI40" s="7"/>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -6372,71 +6476,74 @@
       <c r="S42">
         <v>0.02</v>
       </c>
-      <c r="T42" t="s">
+      <c r="T42" t="b">
+        <v>1</v>
+      </c>
+      <c r="U42" t="s">
         <v>4</v>
       </c>
-      <c r="U42" t="b">
-        <v>1</v>
-      </c>
       <c r="V42" t="b">
         <v>1</v>
       </c>
-      <c r="W42" t="s">
+      <c r="W42" t="b">
+        <v>1</v>
+      </c>
+      <c r="X42" t="s">
         <v>28</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>64</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>24</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>10</v>
       </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="s">
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="s">
         <v>37</v>
       </c>
-      <c r="AD42" t="s">
+      <c r="AE42" t="s">
         <v>48</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="AF42" t="s">
         <v>21</v>
       </c>
-      <c r="AF42">
+      <c r="AG42">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG42">
+      <c r="AH42">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AH42" s="7">
+      <c r="AI42" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>47</v>
       </c>
       <c r="AJ42" t="s">
         <v>47</v>
       </c>
-      <c r="AK42">
+      <c r="AK42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL42">
         <v>0.499</v>
       </c>
-      <c r="AL42">
+      <c r="AM42">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM42" s="27">
+      <c r="AN42" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN42">
+      <c r="AO42">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>149</v>
       </c>
@@ -6494,71 +6601,74 @@
       <c r="S43">
         <v>0.02</v>
       </c>
-      <c r="T43" t="s">
+      <c r="T43" t="b">
+        <v>1</v>
+      </c>
+      <c r="U43" t="s">
         <v>4</v>
       </c>
-      <c r="U43" t="b">
-        <v>1</v>
-      </c>
       <c r="V43" t="b">
         <v>1</v>
       </c>
-      <c r="W43" t="s">
+      <c r="W43" t="b">
+        <v>1</v>
+      </c>
+      <c r="X43" t="s">
         <v>28</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>64</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>24</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>10</v>
       </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="s">
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="s">
         <v>37</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="AE43" t="s">
         <v>48</v>
       </c>
-      <c r="AE43" t="s">
+      <c r="AF43" t="s">
         <v>21</v>
       </c>
-      <c r="AF43">
+      <c r="AG43">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG43">
+      <c r="AH43">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AH43" s="7">
+      <c r="AI43" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI43" t="s">
-        <v>47</v>
       </c>
       <c r="AJ43" t="s">
         <v>47</v>
       </c>
-      <c r="AK43">
+      <c r="AK43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL43">
         <v>0.499</v>
       </c>
-      <c r="AL43">
+      <c r="AM43">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM43" s="27">
+      <c r="AN43" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN43">
+      <c r="AO43">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>150</v>
       </c>
@@ -6616,75 +6726,78 @@
       <c r="S44">
         <v>0.02</v>
       </c>
-      <c r="T44" t="s">
+      <c r="T44" t="b">
+        <v>1</v>
+      </c>
+      <c r="U44" t="s">
         <v>4</v>
       </c>
-      <c r="U44" t="b">
-        <v>1</v>
-      </c>
       <c r="V44" t="b">
         <v>1</v>
       </c>
-      <c r="W44" t="s">
+      <c r="W44" t="b">
+        <v>1</v>
+      </c>
+      <c r="X44" t="s">
         <v>28</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>64</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>24</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>10</v>
       </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="s">
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="s">
         <v>37</v>
       </c>
-      <c r="AD44" t="s">
+      <c r="AE44" t="s">
         <v>48</v>
       </c>
-      <c r="AE44" t="s">
+      <c r="AF44" t="s">
         <v>21</v>
       </c>
-      <c r="AF44">
+      <c r="AG44">
         <v>6.25E-2</v>
       </c>
-      <c r="AG44">
+      <c r="AH44">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AH44" s="7">
+      <c r="AI44" s="7">
         <v>0.12</v>
       </c>
-      <c r="AI44" t="s">
+      <c r="AJ44" t="s">
         <v>142</v>
       </c>
-      <c r="AJ44" t="s">
+      <c r="AK44" t="s">
         <v>141</v>
       </c>
-      <c r="AK44">
+      <c r="AL44">
         <v>0.499</v>
       </c>
-      <c r="AL44">
+      <c r="AM44">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM44" s="27">
+      <c r="AN44" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN44">
+      <c r="AO44">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AH45" s="7"/>
-      <c r="AM45" s="27"/>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI45" s="7"/>
+      <c r="AN45" s="27"/>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -6742,71 +6855,74 @@
       <c r="S46">
         <v>0.02</v>
       </c>
-      <c r="T46" t="s">
+      <c r="T46" t="b">
+        <v>1</v>
+      </c>
+      <c r="U46" t="s">
         <v>4</v>
       </c>
-      <c r="U46" t="b">
-        <v>1</v>
-      </c>
       <c r="V46" t="b">
         <v>1</v>
       </c>
-      <c r="W46" t="s">
+      <c r="W46" t="b">
+        <v>1</v>
+      </c>
+      <c r="X46" t="s">
         <v>28</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>64</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>24</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>10</v>
       </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="s">
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="s">
         <v>37</v>
       </c>
-      <c r="AD46" t="s">
+      <c r="AE46" t="s">
         <v>48</v>
       </c>
-      <c r="AE46" t="s">
+      <c r="AF46" t="s">
         <v>21</v>
       </c>
-      <c r="AF46">
+      <c r="AG46">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG46">
+      <c r="AH46">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AH46" s="7">
+      <c r="AI46" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>47</v>
       </c>
       <c r="AJ46" t="s">
         <v>47</v>
       </c>
-      <c r="AK46">
+      <c r="AK46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL46">
         <v>0.499</v>
       </c>
-      <c r="AL46">
+      <c r="AM46">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM46" s="27">
+      <c r="AN46" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN46">
+      <c r="AO46">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>179</v>
       </c>
@@ -6864,71 +6980,74 @@
       <c r="S47">
         <v>0.02</v>
       </c>
-      <c r="T47" t="s">
+      <c r="T47" t="b">
+        <v>1</v>
+      </c>
+      <c r="U47" t="s">
         <v>4</v>
       </c>
-      <c r="U47" t="b">
-        <v>1</v>
-      </c>
       <c r="V47" t="b">
         <v>1</v>
       </c>
-      <c r="W47" t="s">
+      <c r="W47" t="b">
+        <v>1</v>
+      </c>
+      <c r="X47" t="s">
         <v>28</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>64</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>24</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>10</v>
       </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="s">
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="s">
         <v>37</v>
       </c>
-      <c r="AD47" t="s">
+      <c r="AE47" t="s">
         <v>48</v>
       </c>
-      <c r="AE47" t="s">
+      <c r="AF47" t="s">
         <v>21</v>
       </c>
-      <c r="AF47">
+      <c r="AG47">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG47">
+      <c r="AH47">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AH47" s="7">
+      <c r="AI47" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI47" t="s">
-        <v>47</v>
       </c>
       <c r="AJ47" t="s">
         <v>47</v>
       </c>
-      <c r="AK47">
+      <c r="AK47" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL47">
         <v>0.499</v>
       </c>
-      <c r="AL47">
+      <c r="AM47">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM47" s="27">
+      <c r="AN47" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN47">
+      <c r="AO47">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>170</v>
       </c>
@@ -6986,71 +7105,74 @@
       <c r="S49">
         <v>0.02</v>
       </c>
-      <c r="T49" t="s">
+      <c r="T49" t="b">
+        <v>1</v>
+      </c>
+      <c r="U49" t="s">
         <v>4</v>
       </c>
-      <c r="U49" t="b">
-        <v>1</v>
-      </c>
       <c r="V49" t="b">
         <v>1</v>
       </c>
-      <c r="W49" t="s">
+      <c r="W49" t="b">
+        <v>1</v>
+      </c>
+      <c r="X49" t="s">
         <v>28</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>64</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>24</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>10</v>
       </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="s">
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="s">
         <v>37</v>
       </c>
-      <c r="AD49" t="s">
+      <c r="AE49" t="s">
         <v>48</v>
       </c>
-      <c r="AE49" t="s">
+      <c r="AF49" t="s">
         <v>21</v>
       </c>
-      <c r="AF49">
+      <c r="AG49">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG49">
+      <c r="AH49">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AH49" s="7">
+      <c r="AI49" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>47</v>
       </c>
       <c r="AJ49" t="s">
         <v>47</v>
       </c>
-      <c r="AK49">
+      <c r="AK49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL49">
         <v>0.499</v>
       </c>
-      <c r="AL49">
+      <c r="AM49">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM49" s="27">
+      <c r="AN49" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN49">
+      <c r="AO49">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>171</v>
       </c>
@@ -7108,71 +7230,74 @@
       <c r="S50">
         <v>0.02</v>
       </c>
-      <c r="T50" t="s">
+      <c r="T50" t="b">
+        <v>1</v>
+      </c>
+      <c r="U50" t="s">
         <v>4</v>
       </c>
-      <c r="U50" t="b">
-        <v>1</v>
-      </c>
       <c r="V50" t="b">
         <v>1</v>
       </c>
-      <c r="W50" t="s">
+      <c r="W50" t="b">
+        <v>1</v>
+      </c>
+      <c r="X50" t="s">
         <v>28</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>64</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>24</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>10</v>
       </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="s">
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="s">
         <v>37</v>
       </c>
-      <c r="AD50" t="s">
+      <c r="AE50" t="s">
         <v>48</v>
       </c>
-      <c r="AE50" t="s">
+      <c r="AF50" t="s">
         <v>21</v>
       </c>
-      <c r="AF50">
+      <c r="AG50">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG50">
+      <c r="AH50">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AH50" s="7">
+      <c r="AI50" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI50" t="s">
-        <v>47</v>
       </c>
       <c r="AJ50" t="s">
         <v>47</v>
       </c>
-      <c r="AK50">
+      <c r="AK50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL50">
         <v>0.499</v>
       </c>
-      <c r="AL50">
+      <c r="AM50">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM50" s="27">
+      <c r="AN50" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN50">
+      <c r="AO50">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>172</v>
       </c>
@@ -7230,75 +7355,78 @@
       <c r="S51">
         <v>0.02</v>
       </c>
-      <c r="T51" t="s">
+      <c r="T51" t="b">
+        <v>1</v>
+      </c>
+      <c r="U51" t="s">
         <v>4</v>
       </c>
-      <c r="U51" t="b">
-        <v>1</v>
-      </c>
       <c r="V51" t="b">
         <v>1</v>
       </c>
-      <c r="W51" t="s">
+      <c r="W51" t="b">
+        <v>1</v>
+      </c>
+      <c r="X51" t="s">
         <v>28</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>64</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>24</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>10</v>
       </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-      <c r="AC51" t="s">
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="s">
         <v>37</v>
       </c>
-      <c r="AD51" t="s">
+      <c r="AE51" t="s">
         <v>48</v>
       </c>
-      <c r="AE51" t="s">
+      <c r="AF51" t="s">
         <v>21</v>
       </c>
-      <c r="AF51">
+      <c r="AG51">
         <v>6.25E-2</v>
       </c>
-      <c r="AG51">
+      <c r="AH51">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AH51" s="7">
+      <c r="AI51" s="7">
         <v>0.12</v>
       </c>
-      <c r="AI51" t="s">
+      <c r="AJ51" t="s">
         <v>142</v>
       </c>
-      <c r="AJ51" t="s">
+      <c r="AK51" t="s">
         <v>141</v>
       </c>
-      <c r="AK51">
+      <c r="AL51">
         <v>0.499</v>
       </c>
-      <c r="AL51">
+      <c r="AM51">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM51" s="27">
+      <c r="AN51" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN51">
+      <c r="AO51">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AH52" s="7"/>
-      <c r="AM52" s="27"/>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI52" s="7"/>
+      <c r="AN52" s="27"/>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>183</v>
       </c>
@@ -7356,71 +7484,74 @@
       <c r="S53">
         <v>0.02</v>
       </c>
-      <c r="T53" t="s">
+      <c r="T53" t="b">
+        <v>1</v>
+      </c>
+      <c r="U53" t="s">
         <v>4</v>
       </c>
-      <c r="U53" t="b">
-        <v>1</v>
-      </c>
       <c r="V53" t="b">
         <v>1</v>
       </c>
-      <c r="W53" t="s">
+      <c r="W53" t="b">
+        <v>1</v>
+      </c>
+      <c r="X53" t="s">
         <v>28</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>64</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>24</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <v>10</v>
       </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53" t="s">
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="s">
         <v>37</v>
       </c>
-      <c r="AD53" t="s">
+      <c r="AE53" t="s">
         <v>48</v>
       </c>
-      <c r="AE53" t="s">
+      <c r="AF53" t="s">
         <v>21</v>
       </c>
-      <c r="AF53">
+      <c r="AG53">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG53">
+      <c r="AH53">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AH53" s="7">
+      <c r="AI53" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>47</v>
       </c>
       <c r="AJ53" t="s">
         <v>47</v>
       </c>
-      <c r="AK53">
+      <c r="AK53" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL53">
         <v>0.499</v>
       </c>
-      <c r="AL53">
+      <c r="AM53">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM53" s="27">
+      <c r="AN53" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN53">
+      <c r="AO53">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -7478,71 +7609,74 @@
       <c r="S54">
         <v>0.02</v>
       </c>
-      <c r="T54" t="s">
+      <c r="T54" t="b">
+        <v>1</v>
+      </c>
+      <c r="U54" t="s">
         <v>4</v>
       </c>
-      <c r="U54" t="b">
-        <v>1</v>
-      </c>
       <c r="V54" t="b">
         <v>1</v>
       </c>
-      <c r="W54" t="s">
+      <c r="W54" t="b">
+        <v>1</v>
+      </c>
+      <c r="X54" t="s">
         <v>28</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>64</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>24</v>
       </c>
-      <c r="Z54">
+      <c r="AA54">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>10</v>
       </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54" t="s">
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="s">
         <v>37</v>
       </c>
-      <c r="AD54" t="s">
+      <c r="AE54" t="s">
         <v>48</v>
       </c>
-      <c r="AE54" t="s">
+      <c r="AF54" t="s">
         <v>21</v>
       </c>
-      <c r="AF54">
+      <c r="AG54">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG54">
+      <c r="AH54">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AH54" s="7">
+      <c r="AI54" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI54" t="s">
-        <v>47</v>
       </c>
       <c r="AJ54" t="s">
         <v>47</v>
       </c>
-      <c r="AK54">
+      <c r="AK54" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL54">
         <v>0.499</v>
       </c>
-      <c r="AL54">
+      <c r="AM54">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM54" s="27">
+      <c r="AN54" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN54">
+      <c r="AO54">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>184</v>
       </c>
@@ -7600,71 +7734,74 @@
       <c r="S55">
         <v>0.02</v>
       </c>
-      <c r="T55" t="s">
+      <c r="T55" t="b">
+        <v>1</v>
+      </c>
+      <c r="U55" t="s">
         <v>4</v>
       </c>
-      <c r="U55" t="b">
-        <v>1</v>
-      </c>
       <c r="V55" t="b">
         <v>1</v>
       </c>
-      <c r="W55" t="s">
+      <c r="W55" t="b">
+        <v>1</v>
+      </c>
+      <c r="X55" t="s">
         <v>28</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>64</v>
       </c>
-      <c r="Y55">
+      <c r="Z55">
         <v>24</v>
       </c>
-      <c r="Z55">
+      <c r="AA55">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA55">
+      <c r="AB55">
         <v>10</v>
       </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-      <c r="AC55" t="s">
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="s">
         <v>37</v>
       </c>
-      <c r="AD55" t="s">
+      <c r="AE55" t="s">
         <v>48</v>
       </c>
-      <c r="AE55" t="s">
+      <c r="AF55" t="s">
         <v>21</v>
       </c>
-      <c r="AF55">
+      <c r="AG55">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG55">
+      <c r="AH55">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AH55" s="7">
+      <c r="AI55" s="7">
         <v>0.12</v>
       </c>
-      <c r="AI55" t="s">
+      <c r="AJ55" t="s">
         <v>142</v>
       </c>
-      <c r="AJ55" t="s">
+      <c r="AK55" t="s">
         <v>141</v>
       </c>
-      <c r="AK55">
+      <c r="AL55">
         <v>0.499</v>
       </c>
-      <c r="AL55">
+      <c r="AM55">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM55" s="27">
+      <c r="AN55" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN55">
+      <c r="AO55">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>147</v>
       </c>
@@ -7722,71 +7859,74 @@
       <c r="S57">
         <v>0.02</v>
       </c>
-      <c r="T57" t="s">
+      <c r="T57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U57" t="s">
         <v>4</v>
       </c>
-      <c r="U57" t="b">
-        <v>1</v>
-      </c>
       <c r="V57" t="b">
         <v>1</v>
       </c>
-      <c r="W57" t="s">
+      <c r="W57" t="b">
+        <v>1</v>
+      </c>
+      <c r="X57" t="s">
         <v>28</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>64</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>24</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA57">
+      <c r="AB57">
         <v>10</v>
       </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
-      <c r="AC57" t="s">
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="s">
         <v>37</v>
       </c>
-      <c r="AD57" t="s">
+      <c r="AE57" t="s">
         <v>48</v>
       </c>
-      <c r="AE57" t="s">
+      <c r="AF57" t="s">
         <v>21</v>
       </c>
-      <c r="AF57">
+      <c r="AG57">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG57">
+      <c r="AH57">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AH57" s="7">
+      <c r="AI57" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI57" t="s">
-        <v>47</v>
       </c>
       <c r="AJ57" t="s">
         <v>47</v>
       </c>
-      <c r="AK57">
+      <c r="AK57" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL57">
         <v>0.499</v>
       </c>
-      <c r="AL57">
+      <c r="AM57">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM57" s="27">
+      <c r="AN57" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN57">
+      <c r="AO57">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>148</v>
       </c>
@@ -7844,71 +7984,74 @@
       <c r="S58">
         <v>0.02</v>
       </c>
-      <c r="T58" t="s">
+      <c r="T58" t="b">
+        <v>1</v>
+      </c>
+      <c r="U58" t="s">
         <v>4</v>
       </c>
-      <c r="U58" t="b">
-        <v>1</v>
-      </c>
       <c r="V58" t="b">
         <v>1</v>
       </c>
-      <c r="W58" t="s">
+      <c r="W58" t="b">
+        <v>1</v>
+      </c>
+      <c r="X58" t="s">
         <v>28</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>64</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>24</v>
       </c>
-      <c r="Z58">
+      <c r="AA58">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA58">
+      <c r="AB58">
         <v>10</v>
       </c>
-      <c r="AB58">
-        <v>0</v>
-      </c>
-      <c r="AC58" t="s">
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="s">
         <v>37</v>
       </c>
-      <c r="AD58" t="s">
+      <c r="AE58" t="s">
         <v>48</v>
       </c>
-      <c r="AE58" t="s">
+      <c r="AF58" t="s">
         <v>21</v>
       </c>
-      <c r="AF58">
+      <c r="AG58">
         <v>6.25E-2</v>
       </c>
-      <c r="AG58">
+      <c r="AH58">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AH58" s="7">
+      <c r="AI58" s="7">
         <v>0.12</v>
       </c>
-      <c r="AI58" t="s">
+      <c r="AJ58" t="s">
         <v>142</v>
       </c>
-      <c r="AJ58" t="s">
+      <c r="AK58" t="s">
         <v>141</v>
       </c>
-      <c r="AK58">
+      <c r="AL58">
         <v>0.499</v>
       </c>
-      <c r="AL58">
+      <c r="AM58">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM58" s="27">
+      <c r="AN58" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN58">
+      <c r="AO58">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>192</v>
       </c>
@@ -7966,71 +8109,74 @@
       <c r="S60">
         <v>0.02</v>
       </c>
-      <c r="T60" t="s">
+      <c r="T60" t="b">
+        <v>1</v>
+      </c>
+      <c r="U60" t="s">
         <v>4</v>
       </c>
-      <c r="U60" t="b">
-        <v>1</v>
-      </c>
       <c r="V60" t="b">
         <v>1</v>
       </c>
-      <c r="W60" t="s">
+      <c r="W60" t="b">
+        <v>1</v>
+      </c>
+      <c r="X60" t="s">
         <v>28</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>64</v>
       </c>
-      <c r="Y60">
+      <c r="Z60">
         <v>24</v>
       </c>
-      <c r="Z60">
+      <c r="AA60">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA60">
+      <c r="AB60">
         <v>10</v>
       </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
-      <c r="AC60" t="s">
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60" t="s">
         <v>37</v>
       </c>
-      <c r="AD60" t="s">
+      <c r="AE60" t="s">
         <v>27</v>
       </c>
-      <c r="AE60" t="s">
+      <c r="AF60" t="s">
         <v>21</v>
       </c>
-      <c r="AF60">
+      <c r="AG60">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG60">
+      <c r="AH60">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AH60" s="7">
+      <c r="AI60" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI60" t="s">
-        <v>47</v>
       </c>
       <c r="AJ60" t="s">
         <v>47</v>
       </c>
-      <c r="AK60">
+      <c r="AK60" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL60">
         <v>0.499</v>
       </c>
-      <c r="AL60">
+      <c r="AM60">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM60" s="27">
+      <c r="AN60" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN60">
+      <c r="AO60">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>193</v>
       </c>
@@ -8088,71 +8234,74 @@
       <c r="S61">
         <v>0.02</v>
       </c>
-      <c r="T61" t="s">
+      <c r="T61" t="b">
+        <v>1</v>
+      </c>
+      <c r="U61" t="s">
         <v>4</v>
       </c>
-      <c r="U61" t="b">
-        <v>1</v>
-      </c>
       <c r="V61" t="b">
         <v>1</v>
       </c>
-      <c r="W61" t="s">
+      <c r="W61" t="b">
+        <v>1</v>
+      </c>
+      <c r="X61" t="s">
         <v>28</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>64</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>24</v>
       </c>
-      <c r="Z61">
+      <c r="AA61">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA61">
+      <c r="AB61">
         <v>10</v>
       </c>
-      <c r="AB61">
-        <v>0</v>
-      </c>
-      <c r="AC61" t="s">
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="s">
         <v>37</v>
       </c>
-      <c r="AD61" t="s">
+      <c r="AE61" t="s">
         <v>48</v>
       </c>
-      <c r="AE61" t="s">
+      <c r="AF61" t="s">
         <v>21</v>
       </c>
-      <c r="AF61">
+      <c r="AG61">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG61">
+      <c r="AH61">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AH61" s="7">
+      <c r="AI61" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI61" t="s">
-        <v>47</v>
       </c>
       <c r="AJ61" t="s">
         <v>47</v>
       </c>
-      <c r="AK61">
+      <c r="AK61" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL61">
         <v>0.499</v>
       </c>
-      <c r="AL61">
+      <c r="AM61">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM61" s="27">
+      <c r="AN61" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN61">
+      <c r="AO61">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>194</v>
       </c>
@@ -8210,76 +8359,79 @@
       <c r="S62">
         <v>0.02</v>
       </c>
-      <c r="T62" t="s">
+      <c r="T62" t="b">
+        <v>1</v>
+      </c>
+      <c r="U62" t="s">
         <v>4</v>
       </c>
-      <c r="U62" t="b">
-        <v>1</v>
-      </c>
       <c r="V62" t="b">
         <v>1</v>
       </c>
-      <c r="W62" t="s">
+      <c r="W62" t="b">
+        <v>1</v>
+      </c>
+      <c r="X62" t="s">
         <v>28</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>64</v>
       </c>
-      <c r="Y62">
+      <c r="Z62">
         <v>24</v>
       </c>
-      <c r="Z62">
+      <c r="AA62">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA62">
+      <c r="AB62">
         <v>10</v>
       </c>
-      <c r="AB62">
-        <v>0</v>
-      </c>
-      <c r="AC62" t="s">
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62" t="s">
         <v>37</v>
       </c>
-      <c r="AD62" t="s">
+      <c r="AE62" t="s">
         <v>48</v>
       </c>
-      <c r="AE62" t="s">
+      <c r="AF62" t="s">
         <v>21</v>
       </c>
-      <c r="AF62">
+      <c r="AG62">
         <v>6.25E-2</v>
       </c>
-      <c r="AG62">
+      <c r="AH62">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AH62" s="7">
+      <c r="AI62" s="7">
         <v>0.12</v>
       </c>
-      <c r="AI62" t="s">
+      <c r="AJ62" t="s">
         <v>142</v>
       </c>
-      <c r="AJ62" t="s">
+      <c r="AK62" t="s">
         <v>141</v>
       </c>
-      <c r="AK62">
+      <c r="AL62">
         <v>0.499</v>
       </c>
-      <c r="AL62">
+      <c r="AM62">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM62" s="27">
+      <c r="AN62" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN62">
+      <c r="AO62">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AH63" s="7"/>
-      <c r="AM63" s="27"/>
-    </row>
-    <row r="64" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI63" s="7"/>
+      <c r="AN63" s="27"/>
+    </row>
+    <row r="64" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" s="39" t="s">
         <v>188</v>
       </c>
@@ -8337,71 +8489,74 @@
       <c r="S65">
         <v>0.02</v>
       </c>
-      <c r="T65" t="s">
+      <c r="T65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U65" t="s">
         <v>4</v>
       </c>
-      <c r="U65" t="b">
-        <v>1</v>
-      </c>
       <c r="V65" t="b">
         <v>1</v>
       </c>
-      <c r="W65" t="s">
+      <c r="W65" t="b">
+        <v>1</v>
+      </c>
+      <c r="X65" t="s">
         <v>28</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>64</v>
       </c>
-      <c r="Y65">
+      <c r="Z65">
         <v>24</v>
       </c>
-      <c r="Z65">
+      <c r="AA65">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA65">
+      <c r="AB65">
         <v>10</v>
       </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
-      <c r="AC65" t="s">
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65" t="s">
         <v>37</v>
       </c>
-      <c r="AD65" t="s">
+      <c r="AE65" t="s">
         <v>27</v>
       </c>
-      <c r="AE65" t="s">
+      <c r="AF65" t="s">
         <v>21</v>
       </c>
-      <c r="AF65">
+      <c r="AG65">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG65">
+      <c r="AH65">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AH65" s="7">
+      <c r="AI65" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI65" t="s">
-        <v>47</v>
       </c>
       <c r="AJ65" t="s">
         <v>47</v>
       </c>
-      <c r="AK65">
+      <c r="AK65" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL65">
         <v>0.499</v>
       </c>
-      <c r="AL65">
+      <c r="AM65">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM65" s="27">
+      <c r="AN65" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN65">
+      <c r="AO65">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" s="40" t="s">
         <v>189</v>
       </c>
@@ -8459,71 +8614,74 @@
       <c r="S66">
         <v>0.02</v>
       </c>
-      <c r="T66" t="s">
+      <c r="T66" t="b">
+        <v>1</v>
+      </c>
+      <c r="U66" t="s">
         <v>4</v>
       </c>
-      <c r="U66" t="b">
-        <v>1</v>
-      </c>
       <c r="V66" t="b">
         <v>1</v>
       </c>
-      <c r="W66" t="s">
+      <c r="W66" t="b">
+        <v>1</v>
+      </c>
+      <c r="X66" t="s">
         <v>28</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>64</v>
       </c>
-      <c r="Y66">
+      <c r="Z66">
         <v>24</v>
       </c>
-      <c r="Z66">
+      <c r="AA66">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA66">
+      <c r="AB66">
         <v>10</v>
       </c>
-      <c r="AB66">
-        <v>0</v>
-      </c>
-      <c r="AC66" t="s">
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66" t="s">
         <v>37</v>
       </c>
-      <c r="AD66" t="s">
+      <c r="AE66" t="s">
         <v>48</v>
       </c>
-      <c r="AE66" t="s">
+      <c r="AF66" t="s">
         <v>21</v>
       </c>
-      <c r="AF66">
+      <c r="AG66">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG66">
+      <c r="AH66">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AH66" s="7">
+      <c r="AI66" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI66" t="s">
-        <v>47</v>
       </c>
       <c r="AJ66" t="s">
         <v>47</v>
       </c>
-      <c r="AK66">
+      <c r="AK66" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL66">
         <v>0.499</v>
       </c>
-      <c r="AL66">
+      <c r="AM66">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM66" s="27">
+      <c r="AN66" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN66">
+      <c r="AO66">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" s="40" t="s">
         <v>214</v>
       </c>
@@ -8543,7 +8701,7 @@
         <v>36</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
@@ -8581,76 +8739,79 @@
       <c r="S67">
         <v>0.02</v>
       </c>
-      <c r="T67" t="s">
+      <c r="T67" t="b">
+        <v>1</v>
+      </c>
+      <c r="U67" t="s">
         <v>4</v>
       </c>
-      <c r="U67" t="b">
-        <v>1</v>
-      </c>
       <c r="V67" t="b">
         <v>1</v>
       </c>
-      <c r="W67" t="s">
+      <c r="W67" t="b">
+        <v>1</v>
+      </c>
+      <c r="X67" t="s">
         <v>28</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>64</v>
       </c>
-      <c r="Y67">
+      <c r="Z67">
         <v>24</v>
       </c>
-      <c r="Z67">
+      <c r="AA67">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA67">
+      <c r="AB67">
         <v>10</v>
       </c>
-      <c r="AB67">
-        <v>0</v>
-      </c>
-      <c r="AC67" t="s">
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67" t="s">
         <v>37</v>
       </c>
-      <c r="AD67" t="s">
+      <c r="AE67" t="s">
         <v>48</v>
       </c>
-      <c r="AE67" t="s">
+      <c r="AF67" t="s">
         <v>21</v>
       </c>
-      <c r="AF67">
+      <c r="AG67">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG67">
+      <c r="AH67">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="AH67" s="7">
+      <c r="AI67" s="7">
         <v>0.12</v>
       </c>
-      <c r="AI67" t="s">
+      <c r="AJ67" t="s">
         <v>142</v>
       </c>
-      <c r="AJ67" t="s">
+      <c r="AK67" t="s">
         <v>141</v>
       </c>
-      <c r="AK67">
+      <c r="AL67">
         <v>0.499</v>
       </c>
-      <c r="AL67">
+      <c r="AM67">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM67" s="27">
+      <c r="AN67" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN67">
+      <c r="AO67">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
-      <c r="AH68" s="7"/>
-      <c r="AM68" s="27"/>
-    </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AI68" s="7"/>
+      <c r="AN68" s="27"/>
+    </row>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" s="40" t="s">
         <v>196</v>
       </c>
@@ -8708,71 +8869,74 @@
       <c r="S69">
         <v>0.02</v>
       </c>
-      <c r="T69" t="s">
+      <c r="T69" t="b">
+        <v>1</v>
+      </c>
+      <c r="U69" t="s">
         <v>4</v>
       </c>
-      <c r="U69" t="b">
-        <v>1</v>
-      </c>
       <c r="V69" t="b">
         <v>1</v>
       </c>
-      <c r="W69" t="s">
+      <c r="W69" t="b">
+        <v>1</v>
+      </c>
+      <c r="X69" t="s">
         <v>28</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>64</v>
       </c>
-      <c r="Y69">
+      <c r="Z69">
         <v>24</v>
       </c>
-      <c r="Z69">
+      <c r="AA69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA69">
+      <c r="AB69">
         <v>10</v>
       </c>
-      <c r="AB69">
-        <v>0</v>
-      </c>
-      <c r="AC69" t="s">
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69" t="s">
         <v>37</v>
       </c>
-      <c r="AD69" t="s">
+      <c r="AE69" t="s">
         <v>27</v>
       </c>
-      <c r="AE69" t="s">
+      <c r="AF69" t="s">
         <v>21</v>
       </c>
-      <c r="AF69">
+      <c r="AG69">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG69">
+      <c r="AH69">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AH69" s="7">
+      <c r="AI69" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI69" t="s">
-        <v>47</v>
       </c>
       <c r="AJ69" t="s">
         <v>47</v>
       </c>
-      <c r="AK69">
+      <c r="AK69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL69">
         <v>0.499</v>
       </c>
-      <c r="AL69">
+      <c r="AM69">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM69" s="27">
+      <c r="AN69" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN69">
+      <c r="AO69">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" s="40" t="s">
         <v>197</v>
       </c>
@@ -8830,71 +8994,74 @@
       <c r="S70">
         <v>0.02</v>
       </c>
-      <c r="T70" t="s">
+      <c r="T70" t="b">
+        <v>1</v>
+      </c>
+      <c r="U70" t="s">
         <v>4</v>
       </c>
-      <c r="U70" t="b">
-        <v>1</v>
-      </c>
       <c r="V70" t="b">
         <v>1</v>
       </c>
-      <c r="W70" t="s">
+      <c r="W70" t="b">
+        <v>1</v>
+      </c>
+      <c r="X70" t="s">
         <v>28</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>64</v>
       </c>
-      <c r="Y70">
+      <c r="Z70">
         <v>24</v>
       </c>
-      <c r="Z70">
+      <c r="AA70">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA70">
+      <c r="AB70">
         <v>10</v>
       </c>
-      <c r="AB70">
-        <v>0</v>
-      </c>
-      <c r="AC70" t="s">
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70" t="s">
         <v>37</v>
       </c>
-      <c r="AD70" t="s">
+      <c r="AE70" t="s">
         <v>48</v>
       </c>
-      <c r="AE70" t="s">
+      <c r="AF70" t="s">
         <v>21</v>
       </c>
-      <c r="AF70">
+      <c r="AG70">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG70">
+      <c r="AH70">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AH70" s="7">
+      <c r="AI70" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI70" t="s">
-        <v>47</v>
       </c>
       <c r="AJ70" t="s">
         <v>47</v>
       </c>
-      <c r="AK70">
+      <c r="AK70" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL70">
         <v>0.499</v>
       </c>
-      <c r="AL70">
+      <c r="AM70">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM70" s="27">
+      <c r="AN70" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN70">
+      <c r="AO70">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" s="40" t="s">
         <v>212</v>
       </c>
@@ -8914,7 +9081,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -8952,74 +9119,77 @@
       <c r="S71">
         <v>0.02</v>
       </c>
-      <c r="T71" t="s">
+      <c r="T71" t="b">
+        <v>1</v>
+      </c>
+      <c r="U71" t="s">
         <v>4</v>
       </c>
-      <c r="U71" t="b">
-        <v>1</v>
-      </c>
       <c r="V71" t="b">
         <v>1</v>
       </c>
-      <c r="W71" t="s">
+      <c r="W71" t="b">
+        <v>1</v>
+      </c>
+      <c r="X71" t="s">
         <v>28</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>64</v>
       </c>
-      <c r="Y71">
+      <c r="Z71">
         <v>24</v>
       </c>
-      <c r="Z71">
+      <c r="AA71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA71">
+      <c r="AB71">
         <v>10</v>
       </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
-      <c r="AC71" t="s">
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71" t="s">
         <v>37</v>
       </c>
-      <c r="AD71" t="s">
+      <c r="AE71" t="s">
         <v>48</v>
       </c>
-      <c r="AE71" t="s">
+      <c r="AF71" t="s">
         <v>21</v>
       </c>
-      <c r="AF71">
+      <c r="AG71">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG71">
+      <c r="AH71">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="AH71" s="7">
+      <c r="AI71" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI71" t="s">
-        <v>47</v>
       </c>
       <c r="AJ71" t="s">
         <v>47</v>
       </c>
-      <c r="AK71">
+      <c r="AK71" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL71">
         <v>0.499</v>
       </c>
-      <c r="AL71">
+      <c r="AM71">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM71" s="27">
+      <c r="AN71" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN71">
+      <c r="AO71">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" s="40" t="s">
         <v>198</v>
       </c>
@@ -9077,71 +9247,74 @@
       <c r="S73">
         <v>0.02</v>
       </c>
-      <c r="T73" t="s">
+      <c r="T73" t="b">
+        <v>1</v>
+      </c>
+      <c r="U73" t="s">
         <v>4</v>
       </c>
-      <c r="U73" t="b">
-        <v>1</v>
-      </c>
       <c r="V73" t="b">
         <v>1</v>
       </c>
-      <c r="W73" t="s">
+      <c r="W73" t="b">
+        <v>1</v>
+      </c>
+      <c r="X73" t="s">
         <v>28</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>64</v>
       </c>
-      <c r="Y73">
+      <c r="Z73">
         <v>24</v>
       </c>
-      <c r="Z73">
+      <c r="AA73">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA73">
+      <c r="AB73">
         <v>10</v>
       </c>
-      <c r="AB73">
-        <v>0</v>
-      </c>
-      <c r="AC73" t="s">
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73" t="s">
         <v>37</v>
       </c>
-      <c r="AD73" t="s">
+      <c r="AE73" t="s">
         <v>27</v>
       </c>
-      <c r="AE73" t="s">
+      <c r="AF73" t="s">
         <v>21</v>
       </c>
-      <c r="AF73">
+      <c r="AG73">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG73">
+      <c r="AH73">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AH73" s="7">
+      <c r="AI73" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI73" t="s">
-        <v>47</v>
       </c>
       <c r="AJ73" t="s">
         <v>47</v>
       </c>
-      <c r="AK73">
+      <c r="AK73" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL73">
         <v>0.499</v>
       </c>
-      <c r="AL73">
+      <c r="AM73">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM73" s="27">
+      <c r="AN73" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN73">
+      <c r="AO73">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" s="40" t="s">
         <v>199</v>
       </c>
@@ -9199,71 +9372,74 @@
       <c r="S74">
         <v>0.02</v>
       </c>
-      <c r="T74" t="s">
+      <c r="T74" t="b">
+        <v>1</v>
+      </c>
+      <c r="U74" t="s">
         <v>4</v>
       </c>
-      <c r="U74" t="b">
-        <v>1</v>
-      </c>
       <c r="V74" t="b">
         <v>1</v>
       </c>
-      <c r="W74" t="s">
+      <c r="W74" t="b">
+        <v>1</v>
+      </c>
+      <c r="X74" t="s">
         <v>28</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>64</v>
       </c>
-      <c r="Y74">
+      <c r="Z74">
         <v>24</v>
       </c>
-      <c r="Z74">
+      <c r="AA74">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA74">
+      <c r="AB74">
         <v>10</v>
       </c>
-      <c r="AB74">
-        <v>0</v>
-      </c>
-      <c r="AC74" t="s">
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74" t="s">
         <v>37</v>
       </c>
-      <c r="AD74" t="s">
+      <c r="AE74" t="s">
         <v>48</v>
       </c>
-      <c r="AE74" t="s">
+      <c r="AF74" t="s">
         <v>21</v>
       </c>
-      <c r="AF74">
+      <c r="AG74">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG74">
+      <c r="AH74">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AH74" s="7">
+      <c r="AI74" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI74" t="s">
-        <v>47</v>
       </c>
       <c r="AJ74" t="s">
         <v>47</v>
       </c>
-      <c r="AK74">
+      <c r="AK74" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL74">
         <v>0.499</v>
       </c>
-      <c r="AL74">
+      <c r="AM74">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM74" s="27">
+      <c r="AN74" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN74">
+      <c r="AO74">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="75" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="42" t="s">
         <v>213</v>
       </c>
@@ -9283,7 +9459,7 @@
         <v>36</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="b">
         <v>1</v>
@@ -9321,79 +9497,82 @@
       <c r="S75">
         <v>0.02</v>
       </c>
-      <c r="T75" t="s">
+      <c r="T75" t="b">
+        <v>1</v>
+      </c>
+      <c r="U75" t="s">
         <v>4</v>
       </c>
-      <c r="U75" t="b">
-        <v>1</v>
-      </c>
       <c r="V75" t="b">
         <v>1</v>
       </c>
-      <c r="W75" t="s">
+      <c r="W75" t="b">
+        <v>1</v>
+      </c>
+      <c r="X75" t="s">
         <v>28</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>64</v>
       </c>
-      <c r="Y75">
+      <c r="Z75">
         <v>24</v>
       </c>
-      <c r="Z75">
+      <c r="AA75">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA75">
+      <c r="AB75">
         <v>10</v>
       </c>
-      <c r="AB75">
-        <v>0</v>
-      </c>
-      <c r="AC75" t="s">
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75" t="s">
         <v>37</v>
       </c>
-      <c r="AD75" t="s">
+      <c r="AE75" t="s">
         <v>48</v>
       </c>
-      <c r="AE75" t="s">
+      <c r="AF75" t="s">
         <v>21</v>
       </c>
-      <c r="AF75">
+      <c r="AG75">
         <v>6.25E-2</v>
       </c>
-      <c r="AG75">
+      <c r="AH75">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="AH75" s="7">
+      <c r="AI75" s="7">
         <v>0.12</v>
       </c>
-      <c r="AI75" t="s">
+      <c r="AJ75" t="s">
         <v>142</v>
       </c>
-      <c r="AJ75" t="s">
+      <c r="AK75" t="s">
         <v>141</v>
       </c>
-      <c r="AK75">
+      <c r="AL75">
         <v>0.499</v>
       </c>
-      <c r="AL75">
+      <c r="AM75">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM75" s="27">
+      <c r="AN75" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN75">
+      <c r="AO75">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AH78" s="7"/>
-      <c r="AM78" s="27"/>
-    </row>
-    <row r="79" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AH79" s="7"/>
-      <c r="AM79" s="27"/>
-    </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI78" s="7"/>
+      <c r="AN78" s="27"/>
+    </row>
+    <row r="79" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI79" s="7"/>
+      <c r="AN79" s="27"/>
+    </row>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80" s="39" t="s">
         <v>205</v>
       </c>
@@ -9451,71 +9630,74 @@
       <c r="S80">
         <v>0.02</v>
       </c>
-      <c r="T80" t="s">
+      <c r="T80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U80" t="s">
         <v>4</v>
       </c>
-      <c r="U80" t="b">
-        <v>1</v>
-      </c>
       <c r="V80" t="b">
         <v>1</v>
       </c>
-      <c r="W80" t="s">
+      <c r="W80" t="b">
+        <v>1</v>
+      </c>
+      <c r="X80" t="s">
         <v>28</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>64</v>
       </c>
-      <c r="Y80">
+      <c r="Z80">
         <v>24</v>
       </c>
-      <c r="Z80">
+      <c r="AA80">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA80">
+      <c r="AB80">
         <v>10</v>
       </c>
-      <c r="AB80">
-        <v>0</v>
-      </c>
-      <c r="AC80" t="s">
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80" t="s">
         <v>37</v>
       </c>
-      <c r="AD80" t="s">
+      <c r="AE80" t="s">
         <v>27</v>
       </c>
-      <c r="AE80" t="s">
+      <c r="AF80" t="s">
         <v>21</v>
       </c>
-      <c r="AF80">
+      <c r="AG80">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG80">
+      <c r="AH80">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AH80" s="7">
+      <c r="AI80" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI80" t="s">
-        <v>47</v>
       </c>
       <c r="AJ80" t="s">
         <v>47</v>
       </c>
-      <c r="AK80">
+      <c r="AK80" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL80">
         <v>0.499</v>
       </c>
-      <c r="AL80">
+      <c r="AM80">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM80" s="27">
+      <c r="AN80" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN80">
+      <c r="AO80">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A81" s="40" t="s">
         <v>200</v>
       </c>
@@ -9573,71 +9755,74 @@
       <c r="S81">
         <v>0.02</v>
       </c>
-      <c r="T81" t="s">
+      <c r="T81" t="b">
+        <v>1</v>
+      </c>
+      <c r="U81" t="s">
         <v>4</v>
       </c>
-      <c r="U81" t="b">
-        <v>1</v>
-      </c>
       <c r="V81" t="b">
         <v>1</v>
       </c>
-      <c r="W81" t="s">
+      <c r="W81" t="b">
+        <v>1</v>
+      </c>
+      <c r="X81" t="s">
         <v>28</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>64</v>
       </c>
-      <c r="Y81">
+      <c r="Z81">
         <v>24</v>
       </c>
-      <c r="Z81">
+      <c r="AA81">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA81">
+      <c r="AB81">
         <v>10</v>
       </c>
-      <c r="AB81">
-        <v>0</v>
-      </c>
-      <c r="AC81" t="s">
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81" t="s">
         <v>37</v>
       </c>
-      <c r="AD81" t="s">
+      <c r="AE81" t="s">
         <v>48</v>
       </c>
-      <c r="AE81" t="s">
+      <c r="AF81" t="s">
         <v>21</v>
       </c>
-      <c r="AF81">
+      <c r="AG81">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG81">
+      <c r="AH81">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AH81" s="7">
+      <c r="AI81" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI81" t="s">
-        <v>47</v>
       </c>
       <c r="AJ81" t="s">
         <v>47</v>
       </c>
-      <c r="AK81">
+      <c r="AK81" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL81">
         <v>0.499</v>
       </c>
-      <c r="AL81">
+      <c r="AM81">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM81" s="27">
+      <c r="AN81" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN81">
+      <c r="AO81">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A82" s="41" t="s">
         <v>209</v>
       </c>
@@ -9657,7 +9842,7 @@
         <v>36</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
@@ -9695,76 +9880,79 @@
       <c r="S82">
         <v>0.02</v>
       </c>
-      <c r="T82" t="s">
+      <c r="T82" t="b">
+        <v>1</v>
+      </c>
+      <c r="U82" t="s">
         <v>4</v>
       </c>
-      <c r="U82" t="b">
-        <v>1</v>
-      </c>
       <c r="V82" t="b">
         <v>1</v>
       </c>
-      <c r="W82" t="s">
+      <c r="W82" t="b">
+        <v>1</v>
+      </c>
+      <c r="X82" t="s">
         <v>28</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>64</v>
       </c>
-      <c r="Y82">
+      <c r="Z82">
         <v>24</v>
       </c>
-      <c r="Z82">
+      <c r="AA82">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA82">
+      <c r="AB82">
         <v>10</v>
       </c>
-      <c r="AB82">
-        <v>0</v>
-      </c>
-      <c r="AC82" t="s">
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82" t="s">
         <v>37</v>
       </c>
-      <c r="AD82" t="s">
+      <c r="AE82" t="s">
         <v>48</v>
       </c>
-      <c r="AE82" t="s">
+      <c r="AF82" t="s">
         <v>21</v>
       </c>
-      <c r="AF82">
+      <c r="AG82">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG82">
+      <c r="AH82">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="AH82" s="7">
+      <c r="AI82" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI82" t="s">
-        <v>47</v>
       </c>
       <c r="AJ82" t="s">
         <v>47</v>
       </c>
-      <c r="AK82">
+      <c r="AK82" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL82">
         <v>0.499</v>
       </c>
-      <c r="AL82">
+      <c r="AM82">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM82" s="27">
+      <c r="AN82" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN82">
+      <c r="AO82">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
-      <c r="AH83" s="7"/>
-      <c r="AM83" s="27"/>
-    </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AI83" s="7"/>
+      <c r="AN83" s="27"/>
+    </row>
+    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A84" s="40" t="s">
         <v>208</v>
       </c>
@@ -9822,71 +10010,74 @@
       <c r="S84">
         <v>0.02</v>
       </c>
-      <c r="T84" t="s">
+      <c r="T84" t="b">
+        <v>1</v>
+      </c>
+      <c r="U84" t="s">
         <v>4</v>
       </c>
-      <c r="U84" t="b">
-        <v>1</v>
-      </c>
       <c r="V84" t="b">
         <v>1</v>
       </c>
-      <c r="W84" t="s">
+      <c r="W84" t="b">
+        <v>1</v>
+      </c>
+      <c r="X84" t="s">
         <v>28</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>64</v>
       </c>
-      <c r="Y84">
+      <c r="Z84">
         <v>24</v>
       </c>
-      <c r="Z84">
+      <c r="AA84">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA84">
+      <c r="AB84">
         <v>10</v>
       </c>
-      <c r="AB84">
-        <v>0</v>
-      </c>
-      <c r="AC84" t="s">
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84" t="s">
         <v>37</v>
       </c>
-      <c r="AD84" t="s">
+      <c r="AE84" t="s">
         <v>27</v>
       </c>
-      <c r="AE84" t="s">
+      <c r="AF84" t="s">
         <v>21</v>
       </c>
-      <c r="AF84">
+      <c r="AG84">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG84">
+      <c r="AH84">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AH84" s="7">
+      <c r="AI84" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI84" t="s">
-        <v>47</v>
       </c>
       <c r="AJ84" t="s">
         <v>47</v>
       </c>
-      <c r="AK84">
+      <c r="AK84" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL84">
         <v>0.499</v>
       </c>
-      <c r="AL84">
+      <c r="AM84">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM84" s="27">
+      <c r="AN84" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN84">
+      <c r="AO84">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A85" s="40" t="s">
         <v>203</v>
       </c>
@@ -9944,71 +10135,74 @@
       <c r="S85">
         <v>0.02</v>
       </c>
-      <c r="T85" t="s">
+      <c r="T85" t="b">
+        <v>1</v>
+      </c>
+      <c r="U85" t="s">
         <v>4</v>
       </c>
-      <c r="U85" t="b">
-        <v>1</v>
-      </c>
       <c r="V85" t="b">
         <v>1</v>
       </c>
-      <c r="W85" t="s">
+      <c r="W85" t="b">
+        <v>1</v>
+      </c>
+      <c r="X85" t="s">
         <v>28</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>64</v>
       </c>
-      <c r="Y85">
+      <c r="Z85">
         <v>24</v>
       </c>
-      <c r="Z85">
+      <c r="AA85">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA85">
+      <c r="AB85">
         <v>10</v>
       </c>
-      <c r="AB85">
-        <v>0</v>
-      </c>
-      <c r="AC85" t="s">
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85" t="s">
         <v>37</v>
       </c>
-      <c r="AD85" t="s">
+      <c r="AE85" t="s">
         <v>48</v>
       </c>
-      <c r="AE85" t="s">
+      <c r="AF85" t="s">
         <v>21</v>
       </c>
-      <c r="AF85">
+      <c r="AG85">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG85">
+      <c r="AH85">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AH85" s="7">
+      <c r="AI85" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI85" t="s">
-        <v>47</v>
       </c>
       <c r="AJ85" t="s">
         <v>47</v>
       </c>
-      <c r="AK85">
+      <c r="AK85" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL85">
         <v>0.499</v>
       </c>
-      <c r="AL85">
+      <c r="AM85">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM85" s="27">
+      <c r="AN85" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN85">
+      <c r="AO85">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A86" s="41" t="s">
         <v>210</v>
       </c>
@@ -10028,7 +10222,7 @@
         <v>36</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
@@ -10066,76 +10260,79 @@
       <c r="S86">
         <v>0.02</v>
       </c>
-      <c r="T86" t="s">
+      <c r="T86" t="b">
+        <v>1</v>
+      </c>
+      <c r="U86" t="s">
         <v>4</v>
       </c>
-      <c r="U86" t="b">
-        <v>1</v>
-      </c>
       <c r="V86" t="b">
         <v>1</v>
       </c>
-      <c r="W86" t="s">
+      <c r="W86" t="b">
+        <v>1</v>
+      </c>
+      <c r="X86" t="s">
         <v>28</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>64</v>
       </c>
-      <c r="Y86">
+      <c r="Z86">
         <v>24</v>
       </c>
-      <c r="Z86">
+      <c r="AA86">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA86">
+      <c r="AB86">
         <v>10</v>
       </c>
-      <c r="AB86">
-        <v>0</v>
-      </c>
-      <c r="AC86" t="s">
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86" t="s">
         <v>37</v>
       </c>
-      <c r="AD86" t="s">
+      <c r="AE86" t="s">
         <v>48</v>
       </c>
-      <c r="AE86" t="s">
+      <c r="AF86" t="s">
         <v>21</v>
       </c>
-      <c r="AF86">
+      <c r="AG86">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG86">
+      <c r="AH86">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="AH86" s="7">
+      <c r="AI86" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI86" t="s">
-        <v>47</v>
       </c>
       <c r="AJ86" t="s">
         <v>47</v>
       </c>
-      <c r="AK86">
+      <c r="AK86" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL86">
         <v>0.499</v>
       </c>
-      <c r="AL86">
+      <c r="AM86">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM86" s="27">
+      <c r="AN86" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN86">
+      <c r="AO86">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
-      <c r="AH87" s="7"/>
-      <c r="AM87" s="27"/>
-    </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AI87" s="7"/>
+      <c r="AN87" s="27"/>
+    </row>
+    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A88" s="40" t="s">
         <v>204</v>
       </c>
@@ -10193,71 +10390,74 @@
       <c r="S88">
         <v>0.02</v>
       </c>
-      <c r="T88" t="s">
+      <c r="T88" t="b">
+        <v>1</v>
+      </c>
+      <c r="U88" t="s">
         <v>4</v>
       </c>
-      <c r="U88" t="b">
-        <v>1</v>
-      </c>
       <c r="V88" t="b">
         <v>1</v>
       </c>
-      <c r="W88" t="s">
+      <c r="W88" t="b">
+        <v>1</v>
+      </c>
+      <c r="X88" t="s">
         <v>28</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>64</v>
       </c>
-      <c r="Y88">
+      <c r="Z88">
         <v>24</v>
       </c>
-      <c r="Z88">
+      <c r="AA88">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA88">
+      <c r="AB88">
         <v>10</v>
       </c>
-      <c r="AB88">
-        <v>0</v>
-      </c>
-      <c r="AC88" t="s">
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88" t="s">
         <v>37</v>
       </c>
-      <c r="AD88" t="s">
+      <c r="AE88" t="s">
         <v>27</v>
       </c>
-      <c r="AE88" t="s">
+      <c r="AF88" t="s">
         <v>21</v>
       </c>
-      <c r="AF88">
+      <c r="AG88">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG88">
+      <c r="AH88">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AH88" s="7">
+      <c r="AI88" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI88" t="s">
-        <v>47</v>
       </c>
       <c r="AJ88" t="s">
         <v>47</v>
       </c>
-      <c r="AK88">
+      <c r="AK88" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL88">
         <v>0.499</v>
       </c>
-      <c r="AL88">
+      <c r="AM88">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM88" s="27">
+      <c r="AN88" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN88">
+      <c r="AO88">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A89" s="40" t="s">
         <v>201</v>
       </c>
@@ -10315,71 +10515,74 @@
       <c r="S89">
         <v>0.02</v>
       </c>
-      <c r="T89" t="s">
+      <c r="T89" t="b">
+        <v>1</v>
+      </c>
+      <c r="U89" t="s">
         <v>4</v>
       </c>
-      <c r="U89" t="b">
-        <v>1</v>
-      </c>
       <c r="V89" t="b">
         <v>1</v>
       </c>
-      <c r="W89" t="s">
+      <c r="W89" t="b">
+        <v>1</v>
+      </c>
+      <c r="X89" t="s">
         <v>28</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>64</v>
       </c>
-      <c r="Y89">
+      <c r="Z89">
         <v>24</v>
       </c>
-      <c r="Z89">
+      <c r="AA89">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA89">
+      <c r="AB89">
         <v>10</v>
       </c>
-      <c r="AB89">
-        <v>0</v>
-      </c>
-      <c r="AC89" t="s">
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89" t="s">
         <v>37</v>
       </c>
-      <c r="AD89" t="s">
+      <c r="AE89" t="s">
         <v>48</v>
       </c>
-      <c r="AE89" t="s">
+      <c r="AF89" t="s">
         <v>21</v>
       </c>
-      <c r="AF89">
+      <c r="AG89">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG89">
+      <c r="AH89">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AH89" s="7">
+      <c r="AI89" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI89" t="s">
-        <v>47</v>
       </c>
       <c r="AJ89" t="s">
         <v>47</v>
       </c>
-      <c r="AK89">
+      <c r="AK89" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL89">
         <v>0.499</v>
       </c>
-      <c r="AL89">
+      <c r="AM89">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM89" s="27">
+      <c r="AN89" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN89">
+      <c r="AO89">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="90" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="43" t="s">
         <v>211</v>
       </c>
@@ -10399,7 +10602,7 @@
         <v>36</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="b">
         <v>1</v>
@@ -10437,76 +10640,324 @@
       <c r="S90">
         <v>0.02</v>
       </c>
-      <c r="T90" t="s">
+      <c r="T90" t="b">
+        <v>1</v>
+      </c>
+      <c r="U90" t="s">
         <v>4</v>
       </c>
-      <c r="U90" t="b">
-        <v>1</v>
-      </c>
       <c r="V90" t="b">
         <v>1</v>
       </c>
-      <c r="W90" t="s">
+      <c r="W90" t="b">
+        <v>1</v>
+      </c>
+      <c r="X90" t="s">
         <v>28</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>64</v>
       </c>
-      <c r="Y90">
+      <c r="Z90">
         <v>24</v>
       </c>
-      <c r="Z90">
+      <c r="AA90">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA90">
+      <c r="AB90">
         <v>10</v>
       </c>
-      <c r="AB90">
-        <v>0</v>
-      </c>
-      <c r="AC90" t="s">
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90" t="s">
         <v>37</v>
       </c>
-      <c r="AD90" t="s">
+      <c r="AE90" t="s">
         <v>48</v>
       </c>
-      <c r="AE90" t="s">
+      <c r="AF90" t="s">
         <v>21</v>
       </c>
-      <c r="AF90">
+      <c r="AG90">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AG90">
+      <c r="AH90">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="AH90" s="7">
+      <c r="AI90" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AI90" t="s">
-        <v>47</v>
       </c>
       <c r="AJ90" t="s">
         <v>47</v>
       </c>
-      <c r="AK90">
+      <c r="AK90" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL90">
         <v>0.499</v>
       </c>
-      <c r="AL90">
+      <c r="AM90">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AM90" s="27">
+      <c r="AN90" s="27">
         <v>48971933106</v>
       </c>
-      <c r="AN90">
+      <c r="AO90">
         <v>56234303948</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A93" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="B93" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>217</v>
+      </c>
+      <c r="F93" t="s">
+        <v>36</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>2017</v>
+      </c>
+      <c r="N93" t="b">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>4</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="b">
+        <v>1</v>
+      </c>
+      <c r="R93" t="b">
+        <v>1</v>
+      </c>
+      <c r="S93">
+        <v>0.02</v>
+      </c>
+      <c r="T93" t="b">
+        <v>0</v>
+      </c>
+      <c r="U93" t="s">
+        <v>4</v>
+      </c>
+      <c r="V93" t="b">
+        <v>1</v>
+      </c>
+      <c r="W93" t="b">
+        <v>1</v>
+      </c>
+      <c r="X93" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z93">
+        <v>24</v>
+      </c>
+      <c r="AA93">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AB93">
+        <v>10</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG93">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AH93">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AI93" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AJ93" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK93" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL93">
+        <v>0.499</v>
+      </c>
+      <c r="AM93">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AN93" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AO93">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>218</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>219</v>
+      </c>
+      <c r="F94" t="s">
+        <v>36</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>2017</v>
+      </c>
+      <c r="N94" t="b">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="b">
+        <v>1</v>
+      </c>
+      <c r="R94" t="b">
+        <v>1</v>
+      </c>
+      <c r="S94">
+        <v>0.02</v>
+      </c>
+      <c r="T94" t="b">
+        <v>0</v>
+      </c>
+      <c r="U94" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" t="b">
+        <v>1</v>
+      </c>
+      <c r="W94" t="b">
+        <v>1</v>
+      </c>
+      <c r="X94" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z94">
+        <v>24</v>
+      </c>
+      <c r="AA94">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AB94">
+        <v>10</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF94" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG94">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AH94">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AI94" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AJ94" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK94" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL94">
+        <v>0.499</v>
+      </c>
+      <c r="AM94">
+        <v>0.57299999999999995</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29:I30 H5:I13 H33:I35 H15:I20 H37:I40 H22:I27 H42:I47 H57:I58 H49:I55 H60:I63 H65:I71 H73:I75 G5:G77 G78:I90">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29:I30 H5:I13 H33:I35 H15:I20 H37:I40 H22:I27 H42:I47 H57:I58 H49:I55 H60:I63 H65:I71 G73:I75 G76:G77 G5:G72 G78:I90 G93:I94">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD22:AD27 AD15:AD20 AD5:AD13 AD29:AD30 AD33:AD35 AD57:AD58 AD42:AD47 AD37:AD40 AD49:AD55 AD73:AD75 AD60:AD63 AD78:AD90 AD65:AD71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE22:AE27 AE15:AE20 AE5:AE13 AE29:AE30 AE33:AE35 AE57:AE58 AE42:AE47 AE37:AE40 AE49:AE55 AE73:AE75 AE60:AE63 AE78:AE90 AE65:AE71 AE93:AE94">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="224">
   <si>
     <t>runname</t>
   </si>
@@ -1057,21 +1057,12 @@
     <t>SepNewHires</t>
   </si>
   <si>
-    <t>DC rate 9%; New hires modeled separately</t>
-  </si>
-  <si>
     <t>SR1EL1.Reform_sep_R725.d725.DC4</t>
   </si>
   <si>
     <t>SR1EL1.Reform_sep_R625.d725.DC4</t>
   </si>
   <si>
-    <t>discount rate 7.25%; DC rate 9%; New hires modeled separately</t>
-  </si>
-  <si>
-    <t>discount rate 6.25%; DC rate 9%; New hires modeled separately</t>
-  </si>
-  <si>
     <t>SR1EL1.Reform_sep_R725.d725.DC3</t>
   </si>
   <si>
@@ -1102,9 +1093,6 @@
     <t>RS1_SR0EL1_sep_R625.d725</t>
   </si>
   <si>
-    <t xml:space="preserve">discount rate 7.25%; DC rate 9%; New hires modeled separately; no EE shared-risk </t>
-  </si>
-  <si>
     <t>SR0EL1.Reform_sep_R625.d725.DC4a</t>
   </si>
   <si>
@@ -1147,13 +1135,37 @@
     <t>SR1EL1.Reform_sep_R725.d725.DC4.obf</t>
   </si>
   <si>
-    <t>DC rate 9%; New hires modeled separately; bfactor not calibrated</t>
-  </si>
-  <si>
     <t>RS1_SR1EL1.obf</t>
   </si>
   <si>
     <t>bfactor not calibrated</t>
+  </si>
+  <si>
+    <t>SR1EL1.Reform_sep_R625.d625.DC4</t>
+  </si>
+  <si>
+    <t>SR0EL1.Reform_sep_R625.d625.DC4</t>
+  </si>
+  <si>
+    <t>RS1_SR0EL1_sep_R625.d625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discount rate 7.25%; DC rate 7.2%; New hires modeled separately; no EE shared-risk </t>
+  </si>
+  <si>
+    <t>DC rate 7.2%; New hires modeled separately; bfactor not calibrated</t>
+  </si>
+  <si>
+    <t>DC rate 7.2%; New hires modeled separately</t>
+  </si>
+  <si>
+    <t>discount rate 7.25%; DC rate 7.2%; New hires modeled separately</t>
+  </si>
+  <si>
+    <t>discount rate 6.25%; DC rate 7.2%; New hires modeled separately</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1_sep_R625.d625</t>
   </si>
 </sst>
 </file>
@@ -1446,13 +1458,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2953,13 +2965,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AO94"/>
+  <dimension ref="A4:AO96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E96" sqref="E96"/>
+      <selection pane="bottomRight" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,7 +2990,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
     <col min="13" max="13" width="19.42578125" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
     <col min="16" max="18" width="14.28515625" customWidth="1"/>
     <col min="19" max="19" width="14.85546875" customWidth="1"/>
     <col min="20" max="20" width="15.7109375" customWidth="1"/>
@@ -3055,7 +3067,7 @@
         <v>115</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>16</v>
@@ -3489,7 +3501,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -8053,7 +8065,7 @@
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
@@ -8178,7 +8190,7 @@
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B61" t="s">
         <v>21</v>
@@ -8303,7 +8315,7 @@
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -8433,7 +8445,7 @@
     <row r="64" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
@@ -8445,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="F65" t="s">
         <v>36</v>
@@ -8558,7 +8570,7 @@
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
@@ -8570,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="F66" t="s">
         <v>36</v>
@@ -8683,7 +8695,7 @@
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" s="40" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
@@ -8695,7 +8707,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="F67" t="s">
         <v>36</v>
@@ -8813,7 +8825,7 @@
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" s="40" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
@@ -8938,7 +8950,7 @@
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" s="40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B70" t="s">
         <v>21</v>
@@ -9063,7 +9075,7 @@
     </row>
     <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" s="40" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
@@ -9191,7 +9203,7 @@
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" s="40" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B73" t="s">
         <v>21</v>
@@ -9203,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F73" t="s">
         <v>36</v>
@@ -9316,7 +9328,7 @@
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" s="40" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B74" t="s">
         <v>21</v>
@@ -9439,9 +9451,9 @@
         <v>56234303948</v>
       </c>
     </row>
-    <row r="75" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="42" t="s">
-        <v>213</v>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A75" s="40" t="s">
+        <v>209</v>
       </c>
       <c r="B75" t="s">
         <v>21</v>
@@ -9564,9 +9576,258 @@
         <v>56234303948</v>
       </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AI78" s="7"/>
-      <c r="AN78" s="27"/>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A76" s="40"/>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A77" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>136</v>
+      </c>
+      <c r="F77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>10</v>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>2017</v>
+      </c>
+      <c r="N77" t="b">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="b">
+        <v>1</v>
+      </c>
+      <c r="R77" t="b">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>0.02</v>
+      </c>
+      <c r="T77" t="b">
+        <v>1</v>
+      </c>
+      <c r="U77" t="s">
+        <v>4</v>
+      </c>
+      <c r="V77" t="b">
+        <v>1</v>
+      </c>
+      <c r="W77" t="b">
+        <v>1</v>
+      </c>
+      <c r="X77" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z77">
+        <v>24</v>
+      </c>
+      <c r="AA77">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AB77">
+        <v>10</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG77">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AH77">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AI77" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL77">
+        <v>0.499</v>
+      </c>
+      <c r="AM77">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AN77" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AO77">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>221</v>
+      </c>
+      <c r="F78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>2017</v>
+      </c>
+      <c r="N78" t="b">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>4</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="b">
+        <v>1</v>
+      </c>
+      <c r="R78" t="b">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>0.02</v>
+      </c>
+      <c r="T78" t="b">
+        <v>1</v>
+      </c>
+      <c r="U78" t="s">
+        <v>4</v>
+      </c>
+      <c r="V78" t="b">
+        <v>1</v>
+      </c>
+      <c r="W78" t="b">
+        <v>1</v>
+      </c>
+      <c r="X78" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z78">
+        <v>24</v>
+      </c>
+      <c r="AA78">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AB78">
+        <v>10</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG78">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AH78">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AI78" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL78">
+        <v>0.499</v>
+      </c>
+      <c r="AM78">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AN78" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AO78">
+        <v>56234303948</v>
+      </c>
     </row>
     <row r="79" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI79" s="7"/>
@@ -9574,7 +9835,7 @@
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80" s="39" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B80" t="s">
         <v>21</v>
@@ -9586,13 +9847,13 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="F80" t="s">
         <v>36</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -9699,7 +9960,7 @@
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A81" s="40" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B81" t="s">
         <v>21</v>
@@ -9711,13 +9972,13 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="F81" t="s">
         <v>36</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
@@ -9824,7 +10085,7 @@
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A82" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B82" t="s">
         <v>21</v>
@@ -9836,7 +10097,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="F82" t="s">
         <v>36</v>
@@ -9954,7 +10215,7 @@
     </row>
     <row r="84" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A84" s="40" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B84" t="s">
         <v>21</v>
@@ -9972,7 +10233,7 @@
         <v>36</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="b">
         <v>1</v>
@@ -10079,7 +10340,7 @@
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A85" s="40" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B85" t="s">
         <v>21</v>
@@ -10097,7 +10358,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
@@ -10204,7 +10465,7 @@
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A86" s="41" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B86" t="s">
         <v>21</v>
@@ -10334,7 +10595,7 @@
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A88" s="40" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B88" t="s">
         <v>21</v>
@@ -10346,13 +10607,13 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F88" t="s">
         <v>36</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
@@ -10459,7 +10720,7 @@
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A89" s="40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B89" t="s">
         <v>21</v>
@@ -10471,13 +10732,13 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F89" t="s">
         <v>36</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
@@ -10582,9 +10843,9 @@
         <v>56234303948</v>
       </c>
     </row>
-    <row r="90" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="43" t="s">
-        <v>211</v>
+    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A90" s="41" t="s">
+        <v>207</v>
       </c>
       <c r="B90" t="s">
         <v>21</v>
@@ -10596,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F90" t="s">
         <v>36</v>
@@ -10707,10 +10968,137 @@
         <v>56234303948</v>
       </c>
     </row>
-    <row r="92" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A93" s="39" t="s">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A91" s="40"/>
+    </row>
+    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A92" s="40" t="s">
         <v>216</v>
+      </c>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>218</v>
+      </c>
+      <c r="F92" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>2017</v>
+      </c>
+      <c r="N92" t="b">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>4</v>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="b">
+        <v>1</v>
+      </c>
+      <c r="R92" t="b">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>0.02</v>
+      </c>
+      <c r="T92" t="b">
+        <v>1</v>
+      </c>
+      <c r="U92" t="s">
+        <v>4</v>
+      </c>
+      <c r="V92" t="b">
+        <v>1</v>
+      </c>
+      <c r="W92" t="b">
+        <v>1</v>
+      </c>
+      <c r="X92" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z92">
+        <v>24</v>
+      </c>
+      <c r="AA92">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AB92">
+        <v>10</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG92">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AH92">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AI92" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AJ92" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK92" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL92">
+        <v>0.499</v>
+      </c>
+      <c r="AM92">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AN92" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AO92">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="42" t="s">
+        <v>217</v>
       </c>
       <c r="B93" t="s">
         <v>21</v>
@@ -10722,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="F93" t="s">
         <v>36</v>
@@ -10752,10 +11140,10 @@
         <v>1</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93" t="b">
         <v>1</v>
@@ -10767,7 +11155,7 @@
         <v>0.02</v>
       </c>
       <c r="T93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U93" t="s">
         <v>4</v>
@@ -10800,25 +11188,25 @@
         <v>37</v>
       </c>
       <c r="AE93" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AF93" t="s">
         <v>21</v>
       </c>
       <c r="AG93">
-        <v>7.2499999999999995E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AH93">
-        <v>7.9699999999999993E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="AI93" s="7">
         <v>0.12</v>
       </c>
       <c r="AJ93" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="AK93" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="AL93">
         <v>0.499</v>
@@ -10834,130 +11222,258 @@
       </c>
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>218</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="A94" s="45"/>
+    </row>
+    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A95" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="B95" t="s">
         <v>21</v>
       </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
         <v>219</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F95" t="s">
         <v>36</v>
       </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="b">
-        <v>1</v>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" t="b">
-        <v>0</v>
-      </c>
-      <c r="M94">
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95">
         <v>2017</v>
       </c>
-      <c r="N94" t="b">
-        <v>0</v>
-      </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="P94" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q94" t="b">
-        <v>1</v>
-      </c>
-      <c r="R94" t="b">
-        <v>1</v>
-      </c>
-      <c r="S94">
+      <c r="N95" t="b">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>4</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95" t="b">
+        <v>1</v>
+      </c>
+      <c r="R95" t="b">
+        <v>1</v>
+      </c>
+      <c r="S95">
         <v>0.02</v>
       </c>
-      <c r="T94" t="b">
-        <v>0</v>
-      </c>
-      <c r="U94" t="s">
+      <c r="T95" t="b">
+        <v>0</v>
+      </c>
+      <c r="U95" t="s">
         <v>4</v>
       </c>
-      <c r="V94" t="b">
-        <v>1</v>
-      </c>
-      <c r="W94" t="b">
-        <v>1</v>
-      </c>
-      <c r="X94" t="s">
+      <c r="V95" t="b">
+        <v>1</v>
+      </c>
+      <c r="W95" t="b">
+        <v>1</v>
+      </c>
+      <c r="X95" t="s">
         <v>28</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>64</v>
       </c>
-      <c r="Z94">
+      <c r="Z95">
         <v>24</v>
       </c>
-      <c r="AA94">
+      <c r="AA95">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB94">
+      <c r="AB95">
         <v>10</v>
       </c>
-      <c r="AC94">
-        <v>0</v>
-      </c>
-      <c r="AD94" t="s">
+      <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AD95" t="s">
         <v>37</v>
       </c>
-      <c r="AE94" t="s">
+      <c r="AE95" t="s">
         <v>27</v>
       </c>
-      <c r="AF94" t="s">
+      <c r="AF95" t="s">
         <v>21</v>
       </c>
-      <c r="AG94">
+      <c r="AG95">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH94">
+      <c r="AH95">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AI95" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AJ95" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK95" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL95">
+        <v>0.499</v>
+      </c>
+      <c r="AM95">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AN95" s="27">
+        <v>48971933106</v>
+      </c>
+      <c r="AO95">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A96" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="B96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>214</v>
+      </c>
+      <c r="F96" t="s">
+        <v>36</v>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>2017</v>
+      </c>
+      <c r="N96" t="b">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96" t="b">
+        <v>1</v>
+      </c>
+      <c r="R96" t="b">
+        <v>1</v>
+      </c>
+      <c r="S96">
+        <v>0.02</v>
+      </c>
+      <c r="T96" t="b">
+        <v>0</v>
+      </c>
+      <c r="U96" t="s">
+        <v>4</v>
+      </c>
+      <c r="V96" t="b">
+        <v>1</v>
+      </c>
+      <c r="W96" t="b">
+        <v>1</v>
+      </c>
+      <c r="X96" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z96">
+        <v>24</v>
+      </c>
+      <c r="AA96">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AB96">
+        <v>10</v>
+      </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF96" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG96">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AH96">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI94" s="7">
+      <c r="AI96" s="7">
         <v>0.12</v>
       </c>
-      <c r="AJ94" t="s">
+      <c r="AJ96" t="s">
         <v>47</v>
       </c>
-      <c r="AK94" t="s">
+      <c r="AK96" t="s">
         <v>47</v>
       </c>
-      <c r="AL94">
+      <c r="AL96">
         <v>0.499</v>
       </c>
-      <c r="AM94">
+      <c r="AM96">
         <v>0.57299999999999995</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29:I30 H5:I13 H33:I35 H15:I20 H37:I40 H22:I27 H42:I47 H57:I58 H49:I55 H60:I63 H65:I71 G73:I75 G76:G77 G5:G72 G78:I90 G93:I94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29:I30 H5:I13 H33:I35 H15:I20 H37:I40 H22:I27 H42:I47 H57:I58 H49:I55 H60:I63 H65:I71 G73:I75 G95:I96 G92:I93 G5:G72 H77:I90 G76:G91">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE22:AE27 AE15:AE20 AE5:AE13 AE29:AE30 AE33:AE35 AE57:AE58 AE42:AE47 AE37:AE40 AE49:AE55 AE73:AE75 AE60:AE63 AE78:AE90 AE65:AE71 AE93:AE94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE22:AE27 AE15:AE20 AE5:AE13 AE29:AE30 AE33:AE35 AE57:AE58 AE42:AE47 AE37:AE40 AE49:AE55 AE73:AE75 AE60:AE63 AE95:AE96 AE65:AE71 AE92:AE93 AE77:AE90">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12102,11 +12618,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="29"/>
@@ -12173,11 +12689,11 @@
       <c r="D8" s="31"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="29"/>
@@ -12269,11 +12785,11 @@
       <c r="N30" s="28"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
       <c r="N31" s="28"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -2968,10 +2968,10 @@
   <dimension ref="A4:AO96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C98" sqref="C98"/>
+      <selection pane="bottomRight" activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8713,7 +8713,7 @@
         <v>36</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
@@ -9093,7 +9093,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -9471,7 +9471,7 @@
         <v>36</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="b">
         <v>1</v>
@@ -9599,7 +9599,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="b">
         <v>1</v>
@@ -9724,7 +9724,7 @@
         <v>36</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -9853,7 +9853,7 @@
         <v>36</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -9978,7 +9978,7 @@
         <v>36</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
@@ -10103,7 +10103,7 @@
         <v>36</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
@@ -10233,7 +10233,7 @@
         <v>36</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="b">
         <v>1</v>
@@ -10358,7 +10358,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
@@ -10483,7 +10483,7 @@
         <v>36</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
@@ -10613,7 +10613,7 @@
         <v>36</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
@@ -10738,7 +10738,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
@@ -10863,7 +10863,7 @@
         <v>36</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="b">
         <v>1</v>
@@ -10991,7 +10991,7 @@
         <v>36</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
@@ -11116,7 +11116,7 @@
         <v>36</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -11470,7 +11470,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29:I30 H5:I13 H33:I35 H15:I20 H37:I40 H22:I27 H42:I47 H57:I58 H49:I55 H60:I63 H65:I71 G73:I75 G95:I96 G92:I93 G5:G72 H77:I90 G76:G91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29:I30 H5:I13 H33:I35 H15:I20 H37:I40 H22:I27 H42:I47 H57:I58 H49:I55 H60:I63 H65:I71 G95:I96 G92:I93 H77:I90 G73:I75 G5:G72 G76:G91">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE22:AE27 AE15:AE20 AE5:AE13 AE29:AE30 AE33:AE35 AE57:AE58 AE42:AE47 AE37:AE40 AE49:AE55 AE73:AE75 AE60:AE63 AE95:AE96 AE65:AE71 AE92:AE93 AE77:AE90">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12210"/>
@@ -104,6 +104,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="A45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A46" authorId="0" shapeId="0">
       <text>
         <r>
@@ -134,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A53" authorId="0" shapeId="0">
+    <comment ref="A60" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A54" authorId="0" shapeId="0">
+    <comment ref="A61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -164,97 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A55" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A69" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A70" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A71" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A84" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A85" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A86" authorId="0" shapeId="0">
+    <comment ref="A62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -494,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="208">
   <si>
     <t>runname</t>
   </si>
@@ -913,9 +838,6 @@
     <t>DC_reform_start.year</t>
   </si>
   <si>
-    <t>discount rate 6.25%; DC rate calc. at 6.25%</t>
-  </si>
-  <si>
     <t>DC.rate</t>
   </si>
   <si>
@@ -925,33 +847,6 @@
     <t>MA0</t>
   </si>
   <si>
-    <t>discount rate 7.25%; DC rate calc. at 7.25%</t>
-  </si>
-  <si>
-    <t>SR1EL1.Reform_R725.d725.DC1</t>
-  </si>
-  <si>
-    <t>SR1EL1.Reform_R625.d725.DC1</t>
-  </si>
-  <si>
-    <t>SR1EL1.Reform_R625.d625.DC1</t>
-  </si>
-  <si>
-    <t>RS1_SR1EL1_R625.d725</t>
-  </si>
-  <si>
-    <t>RS1_SR1EL1_R625.d625</t>
-  </si>
-  <si>
-    <t>SR1EL1.Reform_R625.d725.DC3</t>
-  </si>
-  <si>
-    <t>SR1EL1.Reform_R625.d625.DC3</t>
-  </si>
-  <si>
-    <t>SR1EL1.Reform_R725.d725.DC3</t>
-  </si>
-  <si>
     <t>discount rate 6.25%; DC rate 5%</t>
   </si>
   <si>
@@ -1006,54 +901,18 @@
     <t xml:space="preserve">PSERS is about twice as large as SERS. </t>
   </si>
   <si>
-    <t>SR1EL1.Reform_R725.d725.DC4</t>
-  </si>
-  <si>
-    <t>SR1EL1.Reform_R625.d725.DC4</t>
-  </si>
-  <si>
-    <t>SR1EL1.Reform_R625.d625.DC4</t>
-  </si>
-  <si>
-    <t>discount rate 6.25%; DC rate 9%</t>
-  </si>
-  <si>
-    <t>discount rate 7.25%; DC rate 9%</t>
-  </si>
-  <si>
     <t>discount rate 7.25%; DC rate 5%</t>
   </si>
   <si>
     <t>DC rate 5%</t>
   </si>
   <si>
-    <t>DC rate 9%</t>
-  </si>
-  <si>
     <t>DC_reform_all</t>
   </si>
   <si>
-    <t>SR1EL1.Reform_R625.d725.DC3a</t>
-  </si>
-  <si>
     <t>discount rate 7.25%; DC rate 5%; DC reform on all current and future members</t>
   </si>
   <si>
-    <t>SR1EL1.Reform_R625.d725.DC4a</t>
-  </si>
-  <si>
-    <t>SR1EL1.Reform_R725.d725.DC3a</t>
-  </si>
-  <si>
-    <t>SR1EL1.Reform_R725.d725.DC4a</t>
-  </si>
-  <si>
-    <t>SR1EL1.Reform_R725.d725.DC4b</t>
-  </si>
-  <si>
-    <t>discount rate 7.25%; DC rate 5%; DC reform on all current and future members; use origional init values MA and AA</t>
-  </si>
-  <si>
     <t>SepNewHires</t>
   </si>
   <si>
@@ -1166,6 +1025,24 @@
   </si>
   <si>
     <t>RS1_SR1EL1_sep_R625.d625</t>
+  </si>
+  <si>
+    <t>SR0EL1.Reform_sep_R725.d725.DC5</t>
+  </si>
+  <si>
+    <t>SR0EL1.Reform_sep_R625.d725.DC5</t>
+  </si>
+  <si>
+    <t>discount rate 7.25%; DC rate 7.2%; New hires modeled separately; no EE shared-risk; bf and DB EEC rate reduced by 75%</t>
+  </si>
+  <si>
+    <t>discount rate 7.25%; DC rate 7.2%; New hires modeled separately; no EE shared-risk ; bf and DB EEC rate reduced by 75%</t>
+  </si>
+  <si>
+    <t>RS4</t>
+  </si>
+  <si>
+    <t>RS5</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1387,7 +1264,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1401,7 +1277,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1458,13 +1333,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2965,13 +2845,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AO96"/>
+  <dimension ref="A4:AO75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H100" sqref="H100"/>
+      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2980,8 +2860,8 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="74.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
@@ -3039,20 +2919,20 @@
       <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="M4" s="25" t="s">
+      <c r="L4" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="M4" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="N4" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>140</v>
+      <c r="N4" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>63</v>
@@ -3067,7 +2947,7 @@
         <v>115</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>16</v>
@@ -3114,16 +2994,16 @@
       <c r="AI4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AJ4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AK4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AL4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AM4" s="8" t="s">
         <v>46</v>
       </c>
       <c r="AN4" s="1" t="s">
@@ -3365,11 +3245,11 @@
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI7" s="7"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="37" t="s">
         <v>101</v>
       </c>
       <c r="B8" t="s">
@@ -3485,7 +3365,7 @@
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="39" t="s">
         <v>102</v>
       </c>
       <c r="B9" t="s">
@@ -3501,7 +3381,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -3601,7 +3481,7 @@
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="39" t="s">
         <v>103</v>
       </c>
       <c r="B10" t="s">
@@ -3617,7 +3497,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -3717,7 +3597,7 @@
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="39" t="s">
         <v>104</v>
       </c>
       <c r="B11" t="s">
@@ -3733,7 +3613,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -3833,7 +3713,7 @@
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="38" t="s">
         <v>116</v>
       </c>
       <c r="B12" t="s">
@@ -3952,7 +3832,7 @@
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="38" t="s">
         <v>117</v>
       </c>
       <c r="B13" t="s">
@@ -4067,8 +3947,11 @@
         <v>0.57299999999999995</v>
       </c>
     </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+    </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="38" t="s">
         <v>107</v>
       </c>
       <c r="B15" t="s">
@@ -4184,7 +4067,7 @@
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="39" t="s">
         <v>108</v>
       </c>
       <c r="B16" t="s">
@@ -4200,7 +4083,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -4300,7 +4183,7 @@
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="39" t="s">
         <v>109</v>
       </c>
       <c r="B17" t="s">
@@ -4316,7 +4199,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -4416,7 +4299,7 @@
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="39" t="s">
         <v>110</v>
       </c>
       <c r="B18" t="s">
@@ -4432,7 +4315,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -4532,7 +4415,7 @@
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="38" t="s">
         <v>118</v>
       </c>
       <c r="B19" t="s">
@@ -4648,7 +4531,7 @@
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="38" t="s">
         <v>119</v>
       </c>
       <c r="B20" t="s">
@@ -4764,12 +4647,10 @@
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
+      <c r="A21" s="38"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="38" t="s">
         <v>111</v>
       </c>
       <c r="B22" t="s">
@@ -4885,7 +4766,7 @@
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="39" t="s">
         <v>112</v>
       </c>
       <c r="B23" t="s">
@@ -4901,7 +4782,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -5001,7 +4882,7 @@
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="39" t="s">
         <v>113</v>
       </c>
       <c r="B24" t="s">
@@ -5017,7 +4898,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -5117,7 +4998,7 @@
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="39" t="s">
         <v>114</v>
       </c>
       <c r="B25" t="s">
@@ -5133,7 +5014,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -5233,7 +5114,7 @@
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="38" t="s">
         <v>120</v>
       </c>
       <c r="B26" t="s">
@@ -5349,7 +5230,7 @@
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="38" t="s">
         <v>121</v>
       </c>
       <c r="B27" t="s">
@@ -5465,6 +5346,7 @@
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
       <c r="O28">
         <v>0</v>
       </c>
@@ -5476,7 +5358,7 @@
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="39" t="s">
         <v>122</v>
       </c>
       <c r="B29" t="s">
@@ -5492,7 +5374,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -5592,7 +5474,7 @@
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="39" t="s">
         <v>124</v>
       </c>
       <c r="B30" t="s">
@@ -5608,7 +5490,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -5707,12 +5589,131 @@
         <v>0.57299999999999995</v>
       </c>
     </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>2017</v>
+      </c>
+      <c r="N32" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R32" t="b">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>0.02</v>
+      </c>
+      <c r="T32" t="b">
+        <v>1</v>
+      </c>
+      <c r="U32" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" t="b">
+        <v>1</v>
+      </c>
+      <c r="W32" t="b">
+        <v>1</v>
+      </c>
+      <c r="X32" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z32">
+        <v>24</v>
+      </c>
+      <c r="AA32">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AB32">
+        <v>5</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG32">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AH32">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AI32" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL32">
+        <v>0.499</v>
+      </c>
+      <c r="AM32">
+        <v>0.57299999999999995</v>
+      </c>
+    </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>125</v>
+      <c r="A33" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -5724,7 +5725,7 @@
         <v>36</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
@@ -5799,7 +5800,7 @@
         <v>27</v>
       </c>
       <c r="AF33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG33">
         <v>7.2499999999999995E-2</v>
@@ -5823,12 +5824,12 @@
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>126</v>
+    <row r="34" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="47" t="s">
+        <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -5840,7 +5841,7 @@
         <v>36</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -5915,7 +5916,7 @@
         <v>27</v>
       </c>
       <c r="AF34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG34">
         <v>7.2499999999999995E-2</v>
@@ -5939,125 +5940,134 @@
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" t="s">
         <v>36</v>
       </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35">
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36">
         <v>2017</v>
       </c>
-      <c r="N35" t="b">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="b">
-        <v>1</v>
-      </c>
-      <c r="R35" t="b">
-        <v>1</v>
-      </c>
-      <c r="S35">
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="b">
+        <v>1</v>
+      </c>
+      <c r="R36" t="b">
+        <v>1</v>
+      </c>
+      <c r="S36">
         <v>0.02</v>
       </c>
-      <c r="T35" t="b">
-        <v>1</v>
-      </c>
-      <c r="U35" t="s">
+      <c r="T36" t="b">
+        <v>1</v>
+      </c>
+      <c r="U36" t="s">
         <v>4</v>
       </c>
-      <c r="V35" t="b">
-        <v>1</v>
-      </c>
-      <c r="W35" t="b">
-        <v>1</v>
-      </c>
-      <c r="X35" t="s">
+      <c r="V36" t="b">
+        <v>1</v>
+      </c>
+      <c r="W36" t="b">
+        <v>1</v>
+      </c>
+      <c r="X36" t="s">
         <v>28</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Y36" t="s">
         <v>64</v>
       </c>
-      <c r="Z35">
+      <c r="Z36">
         <v>24</v>
       </c>
-      <c r="AA35">
+      <c r="AA36">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB35">
-        <v>5</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="s">
+      <c r="AB36">
+        <v>10</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="s">
         <v>37</v>
       </c>
-      <c r="AE35" t="s">
+      <c r="AE36" t="s">
         <v>27</v>
       </c>
-      <c r="AF35" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG35">
+      <c r="AF36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG36">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH35">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AI35" s="7">
+      <c r="AH36">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AI36" s="7">
         <v>0.12</v>
       </c>
-      <c r="AJ35" t="s">
+      <c r="AJ36" t="s">
         <v>47</v>
       </c>
-      <c r="AK35" t="s">
+      <c r="AK36" t="s">
         <v>47</v>
       </c>
-      <c r="AL35">
+      <c r="AL36">
         <v>0.499</v>
       </c>
-      <c r="AM35">
+      <c r="AM36">
         <v>0.57299999999999995</v>
+      </c>
+      <c r="AN36" s="25">
+        <v>48971933106</v>
+      </c>
+      <c r="AO36">
+        <v>56234303948</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
@@ -6068,6 +6078,9 @@
       <c r="D37">
         <v>1</v>
       </c>
+      <c r="E37" t="s">
+        <v>160</v>
+      </c>
       <c r="F37" t="s">
         <v>36</v>
       </c>
@@ -6093,10 +6106,10 @@
         <v>2017</v>
       </c>
       <c r="N37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
@@ -6153,7 +6166,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AH37">
-        <v>7.9699999999999993E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="AI37" s="7">
         <v>0.12</v>
@@ -6170,7 +6183,7 @@
       <c r="AM37">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN37" s="27">
+      <c r="AN37" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO37">
@@ -6179,7 +6192,7 @@
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
@@ -6191,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
@@ -6218,10 +6231,10 @@
         <v>2017</v>
       </c>
       <c r="N38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
@@ -6275,7 +6288,7 @@
         <v>21</v>
       </c>
       <c r="AG38">
-        <v>7.2499999999999995E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AH38">
         <v>6.9699999999999998E-2</v>
@@ -6284,10 +6297,10 @@
         <v>0.12</v>
       </c>
       <c r="AJ38" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="AK38" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="AL38">
         <v>0.499</v>
@@ -6295,7 +6308,7 @@
       <c r="AM38">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN38" s="27">
+      <c r="AN38" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO38">
@@ -6303,136 +6316,138 @@
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="AI39" s="7"/>
+      <c r="AN39" s="25"/>
+    </row>
+    <row r="40" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" t="s">
         <v>21</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" t="s">
         <v>36</v>
       </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39">
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41">
         <v>2017</v>
       </c>
-      <c r="N39" t="b">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39" t="b">
-        <v>1</v>
-      </c>
-      <c r="R39" t="b">
-        <v>1</v>
-      </c>
-      <c r="S39">
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>4</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>1</v>
+      </c>
+      <c r="R41" t="b">
+        <v>1</v>
+      </c>
+      <c r="S41">
         <v>0.02</v>
       </c>
-      <c r="T39" t="b">
-        <v>1</v>
-      </c>
-      <c r="U39" t="s">
+      <c r="T41" t="b">
+        <v>1</v>
+      </c>
+      <c r="U41" t="s">
         <v>4</v>
       </c>
-      <c r="V39" t="b">
-        <v>1</v>
-      </c>
-      <c r="W39" t="b">
-        <v>1</v>
-      </c>
-      <c r="X39" t="s">
+      <c r="V41" t="b">
+        <v>1</v>
+      </c>
+      <c r="W41" t="b">
+        <v>1</v>
+      </c>
+      <c r="X41" t="s">
         <v>28</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Y41" t="s">
         <v>64</v>
       </c>
-      <c r="Z39">
+      <c r="Z41">
         <v>24</v>
       </c>
-      <c r="AA39">
+      <c r="AA41">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB39">
+      <c r="AB41">
         <v>10</v>
       </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="s">
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="s">
         <v>37</v>
       </c>
-      <c r="AE39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF39" t="s">
+      <c r="AE41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF41" t="s">
         <v>21</v>
       </c>
-      <c r="AG39">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AH39">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AI39" s="7">
+      <c r="AG41">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AH41">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AI41" s="7">
         <v>0.12</v>
       </c>
-      <c r="AJ39" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL39">
+      <c r="AJ41" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL41">
         <v>0.499</v>
       </c>
-      <c r="AM39">
+      <c r="AM41">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN39" s="27">
+      <c r="AN41" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO39">
+      <c r="AO41">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AI40" s="7"/>
-    </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>151</v>
+      <c r="A42" s="38" t="s">
+        <v>166</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
@@ -6444,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="F42" t="s">
         <v>36</v>
@@ -6471,10 +6486,10 @@
         <v>2017</v>
       </c>
       <c r="N42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
@@ -6522,16 +6537,16 @@
         <v>37</v>
       </c>
       <c r="AE42" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AF42" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="AG42">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AH42">
-        <v>7.9699999999999993E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="AI42" s="7">
         <v>0.12</v>
@@ -6548,7 +6563,7 @@
       <c r="AM42">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN42" s="27">
+      <c r="AN42" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO42">
@@ -6556,8 +6571,8 @@
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>149</v>
+      <c r="A43" s="38" t="s">
+        <v>188</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
@@ -6569,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="F43" t="s">
         <v>36</v>
@@ -6596,10 +6611,10 @@
         <v>2017</v>
       </c>
       <c r="N43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
@@ -6647,25 +6662,25 @@
         <v>37</v>
       </c>
       <c r="AE43" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AF43" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="AG43">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AH43">
-        <v>6.9699999999999998E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="AI43" s="7">
         <v>0.12</v>
       </c>
       <c r="AJ43" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="AK43" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="AL43">
         <v>0.499</v>
@@ -6673,7 +6688,7 @@
       <c r="AM43">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN43" s="27">
+      <c r="AN43" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO43">
@@ -6681,137 +6696,138 @@
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" s="38"/>
+      <c r="AI44" s="7"/>
+      <c r="AN44" s="25"/>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" t="s">
         <v>21</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>152</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" t="s">
         <v>36</v>
       </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="b">
-        <v>1</v>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="b">
-        <v>0</v>
-      </c>
-      <c r="M44">
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45">
         <v>2017</v>
       </c>
-      <c r="N44" t="b">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>3</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="b">
-        <v>1</v>
-      </c>
-      <c r="R44" t="b">
-        <v>1</v>
-      </c>
-      <c r="S44">
+      <c r="N45" t="b">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>4</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="b">
+        <v>1</v>
+      </c>
+      <c r="R45" t="b">
+        <v>1</v>
+      </c>
+      <c r="S45">
         <v>0.02</v>
       </c>
-      <c r="T44" t="b">
-        <v>1</v>
-      </c>
-      <c r="U44" t="s">
+      <c r="T45" t="b">
+        <v>1</v>
+      </c>
+      <c r="U45" t="s">
         <v>4</v>
       </c>
-      <c r="V44" t="b">
-        <v>1</v>
-      </c>
-      <c r="W44" t="b">
-        <v>1</v>
-      </c>
-      <c r="X44" t="s">
+      <c r="V45" t="b">
+        <v>1</v>
+      </c>
+      <c r="W45" t="b">
+        <v>1</v>
+      </c>
+      <c r="X45" t="s">
         <v>28</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Y45" t="s">
         <v>64</v>
       </c>
-      <c r="Z44">
+      <c r="Z45">
         <v>24</v>
       </c>
-      <c r="AA44">
+      <c r="AA45">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB44">
+      <c r="AB45">
         <v>10</v>
       </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="s">
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="s">
         <v>37</v>
       </c>
-      <c r="AE44" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF44" t="s">
+      <c r="AE45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF45" t="s">
         <v>21</v>
       </c>
-      <c r="AG44">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AH44">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AI44" s="7">
+      <c r="AG45">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AH45">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AI45" s="7">
         <v>0.12</v>
       </c>
-      <c r="AJ44" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK44" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL44">
+      <c r="AJ45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL45">
         <v>0.499</v>
       </c>
-      <c r="AM44">
+      <c r="AM45">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN44" s="27">
+      <c r="AN45" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO44">
+      <c r="AO45">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AI45" s="7"/>
-      <c r="AN45" s="27"/>
-    </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>182</v>
+      <c r="A46" s="38" t="s">
+        <v>172</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
@@ -6823,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F46" t="s">
         <v>36</v>
@@ -6850,10 +6866,10 @@
         <v>2017</v>
       </c>
       <c r="N46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
@@ -6901,16 +6917,16 @@
         <v>37</v>
       </c>
       <c r="AE46" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AF46" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="AG46">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AH46">
-        <v>7.9699999999999993E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="AI46" s="7">
         <v>0.12</v>
@@ -6927,7 +6943,7 @@
       <c r="AM46">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN46" s="27">
+      <c r="AN46" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO46">
@@ -6935,8 +6951,8 @@
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>179</v>
+      <c r="A47" s="38" t="s">
+        <v>186</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
@@ -6948,7 +6964,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F47" t="s">
         <v>36</v>
@@ -6975,10 +6991,10 @@
         <v>2017</v>
       </c>
       <c r="N47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
@@ -7026,16 +7042,16 @@
         <v>37</v>
       </c>
       <c r="AE47" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AF47" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="AG47">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AH47">
-        <v>6.9699999999999998E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="AI47" s="7">
         <v>0.12</v>
@@ -7052,16 +7068,19 @@
       <c r="AM47">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN47" s="27">
+      <c r="AN47" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO47">
         <v>56234303948</v>
       </c>
     </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
+    </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>170</v>
+      <c r="A49" s="38" t="s">
+        <v>173</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
@@ -7073,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F49" t="s">
         <v>36</v>
@@ -7100,10 +7119,10 @@
         <v>2017</v>
       </c>
       <c r="N49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
@@ -7151,7 +7170,7 @@
         <v>37</v>
       </c>
       <c r="AE49" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AF49" t="s">
         <v>21</v>
@@ -7177,7 +7196,7 @@
       <c r="AM49">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN49" s="27">
+      <c r="AN49" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO49">
@@ -7185,8 +7204,8 @@
       </c>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>171</v>
+      <c r="A50" s="38" t="s">
+        <v>174</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
@@ -7198,7 +7217,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="F50" t="s">
         <v>36</v>
@@ -7225,10 +7244,10 @@
         <v>2017</v>
       </c>
       <c r="N50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
@@ -7276,10 +7295,10 @@
         <v>37</v>
       </c>
       <c r="AE50" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AF50" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="AG50">
         <v>7.2499999999999995E-2</v>
@@ -7302,7 +7321,7 @@
       <c r="AM50">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN50" s="27">
+      <c r="AN50" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO50">
@@ -7310,8 +7329,8 @@
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>172</v>
+      <c r="A51" s="38" t="s">
+        <v>187</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
@@ -7323,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="F51" t="s">
         <v>36</v>
@@ -7350,10 +7369,10 @@
         <v>2017</v>
       </c>
       <c r="N51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
@@ -7401,25 +7420,25 @@
         <v>37</v>
       </c>
       <c r="AE51" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AF51" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="AG51">
         <v>6.25E-2</v>
       </c>
       <c r="AH51">
-        <v>6.9699999999999998E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="AI51" s="7">
         <v>0.12</v>
       </c>
       <c r="AJ51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AL51">
         <v>0.499</v>
@@ -7427,7 +7446,7 @@
       <c r="AM51">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN51" s="27">
+      <c r="AN51" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO51">
@@ -7435,12 +7454,11 @@
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AI52" s="7"/>
-      <c r="AN52" s="27"/>
+      <c r="A52" s="38"/>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>183</v>
+      <c r="A53" s="38" t="s">
+        <v>201</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
@@ -7452,7 +7470,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="F53" t="s">
         <v>36</v>
@@ -7467,22 +7485,22 @@
         <v>1</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K53" t="b">
         <v>1</v>
       </c>
       <c r="L53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>2017</v>
       </c>
       <c r="N53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
@@ -7530,25 +7548,25 @@
         <v>37</v>
       </c>
       <c r="AE53" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AF53" t="s">
         <v>21</v>
       </c>
       <c r="AG53">
-        <v>7.2499999999999995E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AH53">
-        <v>7.9699999999999993E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="AI53" s="7">
         <v>0.12</v>
       </c>
       <c r="AJ53" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="AK53" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="AL53">
         <v>0.499</v>
@@ -7556,16 +7574,16 @@
       <c r="AM53">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN53" s="27">
+      <c r="AN53" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO53">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>181</v>
+    <row r="54" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
@@ -7577,7 +7595,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F54" t="s">
         <v>36</v>
@@ -7598,13 +7616,13 @@
         <v>1</v>
       </c>
       <c r="L54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>2017</v>
       </c>
       <c r="N54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54">
         <v>4</v>
@@ -7655,13 +7673,13 @@
         <v>37</v>
       </c>
       <c r="AE54" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AF54" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="AG54">
-        <v>7.2499999999999995E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AH54">
         <v>6.9699999999999998E-2</v>
@@ -7670,10 +7688,10 @@
         <v>0.12</v>
       </c>
       <c r="AJ54" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="AK54" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="AL54">
         <v>0.499</v>
@@ -7681,141 +7699,145 @@
       <c r="AM54">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN54" s="27">
+      <c r="AN54" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO54">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>184</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="55" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI55" s="7"/>
+      <c r="AN55" s="25"/>
+    </row>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A56" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" t="s">
         <v>21</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>185</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>196</v>
+      </c>
+      <c r="F56" t="s">
         <v>36</v>
       </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="b">
-        <v>1</v>
-      </c>
-      <c r="M55">
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56">
         <v>2017</v>
       </c>
-      <c r="N55" t="b">
-        <v>0</v>
-      </c>
-      <c r="O55">
+      <c r="N56" t="b">
+        <v>1</v>
+      </c>
+      <c r="O56">
         <v>4</v>
       </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55" t="b">
-        <v>1</v>
-      </c>
-      <c r="R55" t="b">
-        <v>1</v>
-      </c>
-      <c r="S55">
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="b">
+        <v>1</v>
+      </c>
+      <c r="R56" t="b">
+        <v>1</v>
+      </c>
+      <c r="S56">
         <v>0.02</v>
       </c>
-      <c r="T55" t="b">
-        <v>1</v>
-      </c>
-      <c r="U55" t="s">
+      <c r="T56" t="b">
+        <v>1</v>
+      </c>
+      <c r="U56" t="s">
         <v>4</v>
       </c>
-      <c r="V55" t="b">
-        <v>1</v>
-      </c>
-      <c r="W55" t="b">
-        <v>1</v>
-      </c>
-      <c r="X55" t="s">
+      <c r="V56" t="b">
+        <v>1</v>
+      </c>
+      <c r="W56" t="b">
+        <v>1</v>
+      </c>
+      <c r="X56" t="s">
         <v>28</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Y56" t="s">
         <v>64</v>
       </c>
-      <c r="Z55">
+      <c r="Z56">
         <v>24</v>
       </c>
-      <c r="AA55">
+      <c r="AA56">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB55">
+      <c r="AB56">
         <v>10</v>
       </c>
-      <c r="AC55">
-        <v>0</v>
-      </c>
-      <c r="AD55" t="s">
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="s">
         <v>37</v>
       </c>
-      <c r="AE55" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF55" t="s">
+      <c r="AE56" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF56" t="s">
         <v>21</v>
       </c>
-      <c r="AG55">
+      <c r="AG56">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH55">
+      <c r="AH56">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AI55" s="7">
+      <c r="AI56" s="7">
         <v>0.12</v>
       </c>
-      <c r="AJ55" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK55" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL55">
+      <c r="AJ56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL56">
         <v>0.499</v>
       </c>
-      <c r="AM55">
+      <c r="AM56">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN55" s="27">
+      <c r="AN56" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO55">
+      <c r="AO56">
         <v>56234303948</v>
       </c>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>147</v>
+      <c r="A57" s="48" t="s">
+        <v>175</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
@@ -7827,13 +7849,13 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="F57" t="s">
         <v>36</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
@@ -7845,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
@@ -7854,13 +7876,13 @@
         <v>2017</v>
       </c>
       <c r="N57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="b">
         <v>1</v>
@@ -7905,10 +7927,10 @@
         <v>37</v>
       </c>
       <c r="AE57" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AF57" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="AG57">
         <v>7.2499999999999995E-2</v>
@@ -7931,7 +7953,7 @@
       <c r="AM57">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN57" s="27">
+      <c r="AN57" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO57">
@@ -7939,8 +7961,8 @@
       </c>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>148</v>
+      <c r="A58" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
@@ -7952,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F58" t="s">
         <v>36</v>
@@ -7970,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -7979,13 +8001,13 @@
         <v>2017</v>
       </c>
       <c r="N58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="b">
         <v>1</v>
@@ -8030,25 +8052,25 @@
         <v>37</v>
       </c>
       <c r="AE58" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AF58" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="AG58">
-        <v>6.25E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AH58">
-        <v>6.9699999999999998E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="AI58" s="7">
         <v>0.12</v>
       </c>
       <c r="AJ58" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="AK58" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="AL58">
         <v>0.499</v>
@@ -8056,16 +8078,21 @@
       <c r="AM58">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN58" s="27">
+      <c r="AN58" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO58">
         <v>56234303948</v>
       </c>
     </row>
+    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A59" s="48"/>
+      <c r="AI59" s="7"/>
+      <c r="AN59" s="25"/>
+    </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>189</v>
+      <c r="A60" s="48" t="s">
+        <v>182</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
@@ -8077,13 +8104,13 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F60" t="s">
         <v>36</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
@@ -8098,7 +8125,7 @@
         <v>1</v>
       </c>
       <c r="L60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60">
         <v>2017</v>
@@ -8107,10 +8134,10 @@
         <v>1</v>
       </c>
       <c r="O60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="b">
         <v>1</v>
@@ -8181,7 +8208,7 @@
       <c r="AM60">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN60" s="27">
+      <c r="AN60" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO60">
@@ -8189,8 +8216,8 @@
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>190</v>
+      <c r="A61" s="48" t="s">
+        <v>177</v>
       </c>
       <c r="B61" t="s">
         <v>21</v>
@@ -8202,13 +8229,13 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F61" t="s">
         <v>36</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
@@ -8223,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="L61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61">
         <v>2017</v>
@@ -8232,10 +8259,10 @@
         <v>1</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="b">
         <v>1</v>
@@ -8280,10 +8307,10 @@
         <v>37</v>
       </c>
       <c r="AE61" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AF61" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="AG61">
         <v>7.2499999999999995E-2</v>
@@ -8306,7 +8333,7 @@
       <c r="AM61">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN61" s="27">
+      <c r="AN61" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO61">
@@ -8314,8 +8341,8 @@
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>191</v>
+      <c r="A62" s="48" t="s">
+        <v>184</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -8327,7 +8354,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F62" t="s">
         <v>36</v>
@@ -8348,7 +8375,7 @@
         <v>1</v>
       </c>
       <c r="L62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62">
         <v>2017</v>
@@ -8357,10 +8384,10 @@
         <v>1</v>
       </c>
       <c r="O62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="b">
         <v>1</v>
@@ -8405,25 +8432,25 @@
         <v>37</v>
       </c>
       <c r="AE62" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AF62" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="AG62">
-        <v>6.25E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AH62">
-        <v>6.9699999999999998E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="AI62" s="7">
         <v>0.12</v>
       </c>
       <c r="AJ62" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="AK62" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="AL62">
         <v>0.499</v>
@@ -8431,7 +8458,7 @@
       <c r="AM62">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN62" s="27">
+      <c r="AN62" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO62">
@@ -8439,13 +8466,138 @@
       </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A63" s="48"/>
       <c r="AI63" s="7"/>
-      <c r="AN63" s="27"/>
-    </row>
-    <row r="64" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="AN63" s="25"/>
+    </row>
+    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A64" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>2017</v>
+      </c>
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="b">
+        <v>1</v>
+      </c>
+      <c r="R64" t="b">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>0.02</v>
+      </c>
+      <c r="T64" t="b">
+        <v>1</v>
+      </c>
+      <c r="U64" t="s">
+        <v>4</v>
+      </c>
+      <c r="V64" t="b">
+        <v>1</v>
+      </c>
+      <c r="W64" t="b">
+        <v>1</v>
+      </c>
+      <c r="X64" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z64">
+        <v>24</v>
+      </c>
+      <c r="AA64">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AB64">
+        <v>10</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG64">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AH64">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AI64" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL64">
+        <v>0.499</v>
+      </c>
+      <c r="AM64">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AN64" s="25">
+        <v>48971933106</v>
+      </c>
+      <c r="AO64">
+        <v>56234303948</v>
+      </c>
+    </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
-        <v>187</v>
+      <c r="A65" s="48" t="s">
+        <v>176</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
@@ -8457,13 +8609,13 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="F65" t="s">
         <v>36</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -8487,10 +8639,10 @@
         <v>1</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="b">
         <v>1</v>
@@ -8538,13 +8690,13 @@
         <v>27</v>
       </c>
       <c r="AF65" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="AG65">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AH65">
-        <v>7.9699999999999993E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="AI65" s="7">
         <v>0.12</v>
@@ -8561,7 +8713,7 @@
       <c r="AM65">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN65" s="27">
+      <c r="AN65" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO65">
@@ -8569,8 +8721,8 @@
       </c>
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A66" s="40" t="s">
-        <v>188</v>
+      <c r="A66" s="48" t="s">
+        <v>185</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
@@ -8582,7 +8734,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="F66" t="s">
         <v>36</v>
@@ -8612,10 +8764,10 @@
         <v>1</v>
       </c>
       <c r="O66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="b">
         <v>1</v>
@@ -8660,16 +8812,16 @@
         <v>37</v>
       </c>
       <c r="AE66" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AF66" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="AG66">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AH66">
-        <v>6.9699999999999998E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="AI66" s="7">
         <v>0.12</v>
@@ -8686,146 +8838,146 @@
       <c r="AM66">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN66" s="27">
+      <c r="AN66" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO66">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A67" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="67" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="48"/>
+      <c r="AI67" s="7"/>
+      <c r="AN67" s="25"/>
+    </row>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A68" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" t="s">
         <v>21</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>222</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>205</v>
+      </c>
+      <c r="F68" t="s">
         <v>36</v>
       </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" t="b">
-        <v>0</v>
-      </c>
-      <c r="M67">
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68">
         <v>2017</v>
       </c>
-      <c r="N67" t="b">
-        <v>1</v>
-      </c>
-      <c r="O67">
+      <c r="N68" t="b">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>5</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="b">
+        <v>1</v>
+      </c>
+      <c r="R68" t="b">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>0.02</v>
+      </c>
+      <c r="T68" t="b">
+        <v>1</v>
+      </c>
+      <c r="U68" t="s">
         <v>4</v>
       </c>
-      <c r="P67" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q67" t="b">
-        <v>1</v>
-      </c>
-      <c r="R67" t="b">
-        <v>1</v>
-      </c>
-      <c r="S67">
-        <v>0.02</v>
-      </c>
-      <c r="T67" t="b">
-        <v>1</v>
-      </c>
-      <c r="U67" t="s">
-        <v>4</v>
-      </c>
-      <c r="V67" t="b">
-        <v>1</v>
-      </c>
-      <c r="W67" t="b">
-        <v>1</v>
-      </c>
-      <c r="X67" t="s">
+      <c r="V68" t="b">
+        <v>1</v>
+      </c>
+      <c r="W68" t="b">
+        <v>1</v>
+      </c>
+      <c r="X68" t="s">
         <v>28</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Y68" t="s">
         <v>64</v>
       </c>
-      <c r="Z67">
+      <c r="Z68">
         <v>24</v>
       </c>
-      <c r="AA67">
+      <c r="AA68">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB67">
+      <c r="AB68">
         <v>10</v>
       </c>
-      <c r="AC67">
-        <v>0</v>
-      </c>
-      <c r="AD67" t="s">
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68" t="s">
         <v>37</v>
       </c>
-      <c r="AE67" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF67" t="s">
+      <c r="AE68" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF68" t="s">
         <v>21</v>
       </c>
-      <c r="AG67">
+      <c r="AG68">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH67">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="AI67" s="7">
+      <c r="AH68">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AI68" s="7">
         <v>0.12</v>
       </c>
-      <c r="AJ67" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK67" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL67">
+      <c r="AJ68" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL68">
         <v>0.499</v>
       </c>
-      <c r="AM67">
+      <c r="AM68">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN67" s="27">
+      <c r="AN68" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO67">
+      <c r="AO68">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
-      <c r="AI68" s="7"/>
-      <c r="AN68" s="27"/>
-    </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A69" s="40" t="s">
-        <v>193</v>
+      <c r="A69" s="38" t="s">
+        <v>203</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
@@ -8837,7 +8989,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="F69" t="s">
         <v>36</v>
@@ -8858,7 +9010,7 @@
         <v>1</v>
       </c>
       <c r="L69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69">
         <v>2017</v>
@@ -8867,10 +9019,10 @@
         <v>1</v>
       </c>
       <c r="O69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="b">
         <v>1</v>
@@ -8918,13 +9070,13 @@
         <v>27</v>
       </c>
       <c r="AF69" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="AG69">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AH69">
-        <v>7.9699999999999993E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="AI69" s="7">
         <v>0.12</v>
@@ -8941,7 +9093,7 @@
       <c r="AM69">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN69" s="27">
+      <c r="AN69" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO69">
@@ -8949,133 +9101,11 @@
       </c>
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="38"/>
+    </row>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A71" s="38" t="s">
         <v>194</v>
-      </c>
-      <c r="B70" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" t="s">
-        <v>180</v>
-      </c>
-      <c r="F70" t="s">
-        <v>36</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="b">
-        <v>1</v>
-      </c>
-      <c r="M70">
-        <v>2017</v>
-      </c>
-      <c r="N70" t="b">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>4</v>
-      </c>
-      <c r="P70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q70" t="b">
-        <v>1</v>
-      </c>
-      <c r="R70" t="b">
-        <v>1</v>
-      </c>
-      <c r="S70">
-        <v>0.02</v>
-      </c>
-      <c r="T70" t="b">
-        <v>1</v>
-      </c>
-      <c r="U70" t="s">
-        <v>4</v>
-      </c>
-      <c r="V70" t="b">
-        <v>1</v>
-      </c>
-      <c r="W70" t="b">
-        <v>1</v>
-      </c>
-      <c r="X70" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z70">
-        <v>24</v>
-      </c>
-      <c r="AA70">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB70">
-        <v>10</v>
-      </c>
-      <c r="AC70">
-        <v>0</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF70" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG70">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AH70">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AI70" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AJ70" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK70" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL70">
-        <v>0.499</v>
-      </c>
-      <c r="AM70">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AN70" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AO70">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A71" s="40" t="s">
-        <v>208</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
@@ -9087,13 +9117,13 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="F71" t="s">
         <v>36</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -9108,7 +9138,7 @@
         <v>1</v>
       </c>
       <c r="L71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71">
         <v>2017</v>
@@ -9120,7 +9150,7 @@
         <v>4</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="b">
         <v>1</v>
@@ -9165,25 +9195,25 @@
         <v>37</v>
       </c>
       <c r="AE71" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AF71" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="AG71">
-        <v>7.2499999999999995E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AH71">
-        <v>5.9700000000000003E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="AI71" s="7">
         <v>0.12</v>
       </c>
       <c r="AJ71" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="AK71" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="AL71">
         <v>0.499</v>
@@ -9191,144 +9221,144 @@
       <c r="AM71">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN71" s="27">
+      <c r="AN71" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO71">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+    <row r="72" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>181</v>
+      </c>
+      <c r="F72" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>2017</v>
+      </c>
+      <c r="N72" t="b">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="b">
+        <v>1</v>
+      </c>
+      <c r="R72" t="b">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>0.02</v>
+      </c>
+      <c r="T72" t="b">
+        <v>1</v>
+      </c>
+      <c r="U72" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" t="b">
+        <v>1</v>
+      </c>
+      <c r="W72" t="b">
+        <v>1</v>
+      </c>
+      <c r="X72" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z72">
+        <v>24</v>
+      </c>
+      <c r="AA72">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AB72">
+        <v>10</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG72">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AH72">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AI72" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL72">
+        <v>0.499</v>
+      </c>
+      <c r="AM72">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AN72" s="25">
+        <v>48971933106</v>
+      </c>
+      <c r="AO72">
+        <v>56234303948</v>
+      </c>
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A73" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="B73" t="s">
-        <v>21</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>192</v>
-      </c>
-      <c r="F73" t="s">
-        <v>36</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="b">
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73" t="b">
-        <v>1</v>
-      </c>
-      <c r="L73" t="b">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>2017</v>
-      </c>
-      <c r="N73" t="b">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q73" t="b">
-        <v>1</v>
-      </c>
-      <c r="R73" t="b">
-        <v>1</v>
-      </c>
-      <c r="S73">
-        <v>0.02</v>
-      </c>
-      <c r="T73" t="b">
-        <v>1</v>
-      </c>
-      <c r="U73" t="s">
-        <v>4</v>
-      </c>
-      <c r="V73" t="b">
-        <v>1</v>
-      </c>
-      <c r="W73" t="b">
-        <v>1</v>
-      </c>
-      <c r="X73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z73">
-        <v>24</v>
-      </c>
-      <c r="AA73">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB73">
-        <v>10</v>
-      </c>
-      <c r="AC73">
-        <v>0</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF73" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG73">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AH73">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="AI73" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AJ73" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK73" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL73">
-        <v>0.499</v>
-      </c>
-      <c r="AM73">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AN73" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AO73">
-        <v>56234303948</v>
-      </c>
+      <c r="A73" s="41"/>
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A74" s="40" t="s">
-        <v>196</v>
+      <c r="A74" s="41" t="s">
+        <v>190</v>
       </c>
       <c r="B74" t="s">
         <v>21</v>
@@ -9340,7 +9370,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="F74" t="s">
         <v>36</v>
@@ -9370,7 +9400,7 @@
         <v>1</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
@@ -9385,7 +9415,7 @@
         <v>0.02</v>
       </c>
       <c r="T74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U74" t="s">
         <v>4</v>
@@ -9418,7 +9448,7 @@
         <v>37</v>
       </c>
       <c r="AE74" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AF74" t="s">
         <v>21</v>
@@ -9427,7 +9457,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AH74">
-        <v>6.9699999999999998E-2</v>
+        <v>7.9699999999999993E-2</v>
       </c>
       <c r="AI74" s="7">
         <v>0.12</v>
@@ -9444,7 +9474,7 @@
       <c r="AM74">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN74" s="27">
+      <c r="AN74" s="25">
         <v>48971933106</v>
       </c>
       <c r="AO74">
@@ -9452,8 +9482,8 @@
       </c>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A75" s="40" t="s">
-        <v>209</v>
+      <c r="A75" s="41" t="s">
+        <v>191</v>
       </c>
       <c r="B75" t="s">
         <v>21</v>
@@ -9465,13 +9495,13 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F75" t="s">
         <v>36</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="b">
         <v>1</v>
@@ -9483,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="K75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" t="b">
         <v>0</v>
@@ -9492,7 +9522,7 @@
         <v>2017</v>
       </c>
       <c r="N75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -9510,7 +9540,7 @@
         <v>0.02</v>
       </c>
       <c r="T75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75" t="s">
         <v>4</v>
@@ -9543,25 +9573,25 @@
         <v>37</v>
       </c>
       <c r="AE75" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AF75" t="s">
         <v>21</v>
       </c>
       <c r="AG75">
-        <v>6.25E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AH75">
-        <v>5.9700000000000003E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AI75" s="7">
         <v>0.12</v>
       </c>
       <c r="AJ75" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="AK75" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="AL75">
         <v>0.499</v>
@@ -9569,1911 +9599,13 @@
       <c r="AM75">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN75" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AO75">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-    </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A77" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="B77" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77" t="s">
-        <v>136</v>
-      </c>
-      <c r="F77" t="s">
-        <v>36</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="b">
-        <v>1</v>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <v>10</v>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="b">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>2017</v>
-      </c>
-      <c r="N77" t="b">
-        <v>1</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q77" t="b">
-        <v>1</v>
-      </c>
-      <c r="R77" t="b">
-        <v>1</v>
-      </c>
-      <c r="S77">
-        <v>0.02</v>
-      </c>
-      <c r="T77" t="b">
-        <v>1</v>
-      </c>
-      <c r="U77" t="s">
-        <v>4</v>
-      </c>
-      <c r="V77" t="b">
-        <v>1</v>
-      </c>
-      <c r="W77" t="b">
-        <v>1</v>
-      </c>
-      <c r="X77" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z77">
-        <v>24</v>
-      </c>
-      <c r="AA77">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB77">
-        <v>10</v>
-      </c>
-      <c r="AC77">
-        <v>0</v>
-      </c>
-      <c r="AD77" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF77" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG77">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AH77">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AI77" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AJ77" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK77" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL77">
-        <v>0.499</v>
-      </c>
-      <c r="AM77">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AN77" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AO77">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="78" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="B78" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78" t="s">
-        <v>221</v>
-      </c>
-      <c r="F78" t="s">
-        <v>36</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="b">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>2017</v>
-      </c>
-      <c r="N78" t="b">
-        <v>1</v>
-      </c>
-      <c r="O78">
-        <v>4</v>
-      </c>
-      <c r="P78" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q78" t="b">
-        <v>1</v>
-      </c>
-      <c r="R78" t="b">
-        <v>1</v>
-      </c>
-      <c r="S78">
-        <v>0.02</v>
-      </c>
-      <c r="T78" t="b">
-        <v>1</v>
-      </c>
-      <c r="U78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V78" t="b">
-        <v>1</v>
-      </c>
-      <c r="W78" t="b">
-        <v>1</v>
-      </c>
-      <c r="X78" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z78">
-        <v>24</v>
-      </c>
-      <c r="AA78">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB78">
-        <v>10</v>
-      </c>
-      <c r="AC78">
-        <v>0</v>
-      </c>
-      <c r="AD78" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE78" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF78" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG78">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AH78">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AI78" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AJ78" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK78" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL78">
-        <v>0.499</v>
-      </c>
-      <c r="AM78">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AN78" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AO78">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="79" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AI79" s="7"/>
-      <c r="AN79" s="27"/>
-    </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A80" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="B80" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80" t="s">
-        <v>218</v>
-      </c>
-      <c r="F80" t="s">
-        <v>36</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="b">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>2017</v>
-      </c>
-      <c r="N80" t="b">
-        <v>1</v>
-      </c>
-      <c r="O80">
-        <v>4</v>
-      </c>
-      <c r="P80" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="b">
-        <v>1</v>
-      </c>
-      <c r="R80" t="b">
-        <v>1</v>
-      </c>
-      <c r="S80">
-        <v>0.02</v>
-      </c>
-      <c r="T80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U80" t="s">
-        <v>4</v>
-      </c>
-      <c r="V80" t="b">
-        <v>1</v>
-      </c>
-      <c r="W80" t="b">
-        <v>1</v>
-      </c>
-      <c r="X80" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z80">
-        <v>24</v>
-      </c>
-      <c r="AA80">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB80">
-        <v>10</v>
-      </c>
-      <c r="AC80">
-        <v>0</v>
-      </c>
-      <c r="AD80" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE80" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF80" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG80">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AH80">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="AI80" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AJ80" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK80" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL80">
-        <v>0.499</v>
-      </c>
-      <c r="AM80">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AN80" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AO80">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A81" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="B81" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81" t="s">
-        <v>218</v>
-      </c>
-      <c r="F81" t="s">
-        <v>36</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="b">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>2017</v>
-      </c>
-      <c r="N81" t="b">
-        <v>1</v>
-      </c>
-      <c r="O81">
-        <v>4</v>
-      </c>
-      <c r="P81" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="b">
-        <v>1</v>
-      </c>
-      <c r="R81" t="b">
-        <v>1</v>
-      </c>
-      <c r="S81">
-        <v>0.02</v>
-      </c>
-      <c r="T81" t="b">
-        <v>1</v>
-      </c>
-      <c r="U81" t="s">
-        <v>4</v>
-      </c>
-      <c r="V81" t="b">
-        <v>1</v>
-      </c>
-      <c r="W81" t="b">
-        <v>1</v>
-      </c>
-      <c r="X81" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z81">
-        <v>24</v>
-      </c>
-      <c r="AA81">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB81">
-        <v>10</v>
-      </c>
-      <c r="AC81">
-        <v>0</v>
-      </c>
-      <c r="AD81" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE81" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF81" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG81">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AH81">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AI81" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AJ81" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK81" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL81">
-        <v>0.499</v>
-      </c>
-      <c r="AM81">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AN81" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AO81">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A82" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="B82" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82" t="s">
-        <v>218</v>
-      </c>
-      <c r="F82" t="s">
-        <v>36</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
-      <c r="L82" t="b">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>2017</v>
-      </c>
-      <c r="N82" t="b">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>4</v>
-      </c>
-      <c r="P82" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="b">
-        <v>1</v>
-      </c>
-      <c r="R82" t="b">
-        <v>1</v>
-      </c>
-      <c r="S82">
-        <v>0.02</v>
-      </c>
-      <c r="T82" t="b">
-        <v>1</v>
-      </c>
-      <c r="U82" t="s">
-        <v>4</v>
-      </c>
-      <c r="V82" t="b">
-        <v>1</v>
-      </c>
-      <c r="W82" t="b">
-        <v>1</v>
-      </c>
-      <c r="X82" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z82">
-        <v>24</v>
-      </c>
-      <c r="AA82">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB82">
-        <v>10</v>
-      </c>
-      <c r="AC82">
-        <v>0</v>
-      </c>
-      <c r="AD82" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE82" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF82" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG82">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AH82">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="AI82" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AJ82" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK82" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL82">
-        <v>0.499</v>
-      </c>
-      <c r="AM82">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AN82" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AO82">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="AI83" s="7"/>
-      <c r="AN83" s="27"/>
-    </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A84" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="B84" t="s">
-        <v>21</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84" t="s">
-        <v>180</v>
-      </c>
-      <c r="F84" t="s">
-        <v>36</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="b">
-        <v>1</v>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="b">
-        <v>1</v>
-      </c>
-      <c r="M84">
-        <v>2017</v>
-      </c>
-      <c r="N84" t="b">
-        <v>1</v>
-      </c>
-      <c r="O84">
-        <v>4</v>
-      </c>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="b">
-        <v>1</v>
-      </c>
-      <c r="R84" t="b">
-        <v>1</v>
-      </c>
-      <c r="S84">
-        <v>0.02</v>
-      </c>
-      <c r="T84" t="b">
-        <v>1</v>
-      </c>
-      <c r="U84" t="s">
-        <v>4</v>
-      </c>
-      <c r="V84" t="b">
-        <v>1</v>
-      </c>
-      <c r="W84" t="b">
-        <v>1</v>
-      </c>
-      <c r="X84" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z84">
-        <v>24</v>
-      </c>
-      <c r="AA84">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB84">
-        <v>10</v>
-      </c>
-      <c r="AC84">
-        <v>0</v>
-      </c>
-      <c r="AD84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE84" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF84" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG84">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AH84">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="AI84" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AJ84" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK84" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL84">
-        <v>0.499</v>
-      </c>
-      <c r="AM84">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AN84" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AO84">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A85" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="B85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85" t="s">
-        <v>180</v>
-      </c>
-      <c r="F85" t="s">
-        <v>36</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="b">
-        <v>1</v>
-      </c>
-      <c r="M85">
-        <v>2017</v>
-      </c>
-      <c r="N85" t="b">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>4</v>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="b">
-        <v>1</v>
-      </c>
-      <c r="R85" t="b">
-        <v>1</v>
-      </c>
-      <c r="S85">
-        <v>0.02</v>
-      </c>
-      <c r="T85" t="b">
-        <v>1</v>
-      </c>
-      <c r="U85" t="s">
-        <v>4</v>
-      </c>
-      <c r="V85" t="b">
-        <v>1</v>
-      </c>
-      <c r="W85" t="b">
-        <v>1</v>
-      </c>
-      <c r="X85" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z85">
-        <v>24</v>
-      </c>
-      <c r="AA85">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB85">
-        <v>10</v>
-      </c>
-      <c r="AC85">
-        <v>0</v>
-      </c>
-      <c r="AD85" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE85" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF85" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG85">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AH85">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AI85" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AJ85" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK85" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL85">
-        <v>0.499</v>
-      </c>
-      <c r="AM85">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AN85" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AO85">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A86" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="B86" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86" t="s">
-        <v>180</v>
-      </c>
-      <c r="F86" t="s">
-        <v>36</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86" t="b">
-        <v>1</v>
-      </c>
-      <c r="M86">
-        <v>2017</v>
-      </c>
-      <c r="N86" t="b">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>4</v>
-      </c>
-      <c r="P86" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="b">
-        <v>1</v>
-      </c>
-      <c r="R86" t="b">
-        <v>1</v>
-      </c>
-      <c r="S86">
-        <v>0.02</v>
-      </c>
-      <c r="T86" t="b">
-        <v>1</v>
-      </c>
-      <c r="U86" t="s">
-        <v>4</v>
-      </c>
-      <c r="V86" t="b">
-        <v>1</v>
-      </c>
-      <c r="W86" t="b">
-        <v>1</v>
-      </c>
-      <c r="X86" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z86">
-        <v>24</v>
-      </c>
-      <c r="AA86">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB86">
-        <v>10</v>
-      </c>
-      <c r="AC86">
-        <v>0</v>
-      </c>
-      <c r="AD86" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE86" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF86" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG86">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AH86">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="AI86" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AJ86" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK86" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL86">
-        <v>0.499</v>
-      </c>
-      <c r="AM86">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AN86" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AO86">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
-      <c r="AI87" s="7"/>
-      <c r="AN87" s="27"/>
-    </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A88" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="B88" t="s">
-        <v>21</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88" t="s">
-        <v>202</v>
-      </c>
-      <c r="F88" t="s">
-        <v>36</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="b">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>2017</v>
-      </c>
-      <c r="N88" t="b">
-        <v>1</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="b">
-        <v>1</v>
-      </c>
-      <c r="R88" t="b">
-        <v>1</v>
-      </c>
-      <c r="S88">
-        <v>0.02</v>
-      </c>
-      <c r="T88" t="b">
-        <v>1</v>
-      </c>
-      <c r="U88" t="s">
-        <v>4</v>
-      </c>
-      <c r="V88" t="b">
-        <v>1</v>
-      </c>
-      <c r="W88" t="b">
-        <v>1</v>
-      </c>
-      <c r="X88" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z88">
-        <v>24</v>
-      </c>
-      <c r="AA88">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB88">
-        <v>10</v>
-      </c>
-      <c r="AC88">
-        <v>0</v>
-      </c>
-      <c r="AD88" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE88" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF88" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG88">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AH88">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="AI88" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AJ88" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK88" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL88">
-        <v>0.499</v>
-      </c>
-      <c r="AM88">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AN88" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AO88">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A89" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="B89" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89" t="s">
-        <v>203</v>
-      </c>
-      <c r="F89" t="s">
-        <v>36</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="b">
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <v>2017</v>
-      </c>
-      <c r="N89" t="b">
-        <v>1</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="b">
-        <v>1</v>
-      </c>
-      <c r="R89" t="b">
-        <v>1</v>
-      </c>
-      <c r="S89">
-        <v>0.02</v>
-      </c>
-      <c r="T89" t="b">
-        <v>1</v>
-      </c>
-      <c r="U89" t="s">
-        <v>4</v>
-      </c>
-      <c r="V89" t="b">
-        <v>1</v>
-      </c>
-      <c r="W89" t="b">
-        <v>1</v>
-      </c>
-      <c r="X89" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z89">
-        <v>24</v>
-      </c>
-      <c r="AA89">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB89">
-        <v>10</v>
-      </c>
-      <c r="AC89">
-        <v>0</v>
-      </c>
-      <c r="AD89" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE89" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF89" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG89">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AH89">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AI89" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AJ89" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK89" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL89">
-        <v>0.499</v>
-      </c>
-      <c r="AM89">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AN89" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AO89">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A90" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="B90" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90" t="s">
-        <v>203</v>
-      </c>
-      <c r="F90" t="s">
-        <v>36</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="b">
-        <v>1</v>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" t="b">
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <v>2017</v>
-      </c>
-      <c r="N90" t="b">
-        <v>1</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="b">
-        <v>1</v>
-      </c>
-      <c r="R90" t="b">
-        <v>1</v>
-      </c>
-      <c r="S90">
-        <v>0.02</v>
-      </c>
-      <c r="T90" t="b">
-        <v>1</v>
-      </c>
-      <c r="U90" t="s">
-        <v>4</v>
-      </c>
-      <c r="V90" t="b">
-        <v>1</v>
-      </c>
-      <c r="W90" t="b">
-        <v>1</v>
-      </c>
-      <c r="X90" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z90">
-        <v>24</v>
-      </c>
-      <c r="AA90">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB90">
-        <v>10</v>
-      </c>
-      <c r="AC90">
-        <v>0</v>
-      </c>
-      <c r="AD90" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE90" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF90" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG90">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AH90">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="AI90" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AJ90" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK90" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL90">
-        <v>0.499</v>
-      </c>
-      <c r="AM90">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AN90" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AO90">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
-    </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A92" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="B92" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92" t="s">
-        <v>218</v>
-      </c>
-      <c r="F92" t="s">
-        <v>36</v>
-      </c>
-      <c r="G92" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92" t="b">
-        <v>1</v>
-      </c>
-      <c r="L92" t="b">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>2017</v>
-      </c>
-      <c r="N92" t="b">
-        <v>1</v>
-      </c>
-      <c r="O92">
-        <v>4</v>
-      </c>
-      <c r="P92" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="b">
-        <v>1</v>
-      </c>
-      <c r="R92" t="b">
-        <v>1</v>
-      </c>
-      <c r="S92">
-        <v>0.02</v>
-      </c>
-      <c r="T92" t="b">
-        <v>1</v>
-      </c>
-      <c r="U92" t="s">
-        <v>4</v>
-      </c>
-      <c r="V92" t="b">
-        <v>1</v>
-      </c>
-      <c r="W92" t="b">
-        <v>1</v>
-      </c>
-      <c r="X92" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z92">
-        <v>24</v>
-      </c>
-      <c r="AA92">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB92">
-        <v>10</v>
-      </c>
-      <c r="AC92">
-        <v>0</v>
-      </c>
-      <c r="AD92" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE92" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF92" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG92">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AH92">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AI92" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AJ92" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK92" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL92">
-        <v>0.499</v>
-      </c>
-      <c r="AM92">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AN92" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AO92">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="93" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="B93" t="s">
-        <v>21</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93" t="s">
-        <v>203</v>
-      </c>
-      <c r="F93" t="s">
-        <v>36</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="b">
-        <v>1</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93" t="b">
-        <v>1</v>
-      </c>
-      <c r="L93" t="b">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>2017</v>
-      </c>
-      <c r="N93" t="b">
-        <v>1</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="b">
-        <v>1</v>
-      </c>
-      <c r="R93" t="b">
-        <v>1</v>
-      </c>
-      <c r="S93">
-        <v>0.02</v>
-      </c>
-      <c r="T93" t="b">
-        <v>1</v>
-      </c>
-      <c r="U93" t="s">
-        <v>4</v>
-      </c>
-      <c r="V93" t="b">
-        <v>1</v>
-      </c>
-      <c r="W93" t="b">
-        <v>1</v>
-      </c>
-      <c r="X93" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z93">
-        <v>24</v>
-      </c>
-      <c r="AA93">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB93">
-        <v>10</v>
-      </c>
-      <c r="AC93">
-        <v>0</v>
-      </c>
-      <c r="AD93" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE93" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF93" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG93">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AH93">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AI93" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AJ93" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK93" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL93">
-        <v>0.499</v>
-      </c>
-      <c r="AM93">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AN93" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AO93">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A94" s="45"/>
-    </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A95" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="B95" t="s">
-        <v>21</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95" t="s">
-        <v>219</v>
-      </c>
-      <c r="F95" t="s">
-        <v>36</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="b">
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <v>2017</v>
-      </c>
-      <c r="N95" t="b">
-        <v>1</v>
-      </c>
-      <c r="O95">
-        <v>4</v>
-      </c>
-      <c r="P95" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q95" t="b">
-        <v>1</v>
-      </c>
-      <c r="R95" t="b">
-        <v>1</v>
-      </c>
-      <c r="S95">
-        <v>0.02</v>
-      </c>
-      <c r="T95" t="b">
-        <v>0</v>
-      </c>
-      <c r="U95" t="s">
-        <v>4</v>
-      </c>
-      <c r="V95" t="b">
-        <v>1</v>
-      </c>
-      <c r="W95" t="b">
-        <v>1</v>
-      </c>
-      <c r="X95" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y95" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z95">
-        <v>24</v>
-      </c>
-      <c r="AA95">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB95">
-        <v>10</v>
-      </c>
-      <c r="AC95">
-        <v>0</v>
-      </c>
-      <c r="AD95" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE95" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF95" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG95">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AH95">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="AI95" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AJ95" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK95" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL95">
-        <v>0.499</v>
-      </c>
-      <c r="AM95">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AN95" s="27">
-        <v>48971933106</v>
-      </c>
-      <c r="AO95">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A96" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="B96" t="s">
-        <v>21</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96" t="s">
-        <v>214</v>
-      </c>
-      <c r="F96" t="s">
-        <v>36</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="b">
-        <v>1</v>
-      </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" t="b">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>2017</v>
-      </c>
-      <c r="N96" t="b">
-        <v>0</v>
-      </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
-      <c r="P96" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q96" t="b">
-        <v>1</v>
-      </c>
-      <c r="R96" t="b">
-        <v>1</v>
-      </c>
-      <c r="S96">
-        <v>0.02</v>
-      </c>
-      <c r="T96" t="b">
-        <v>0</v>
-      </c>
-      <c r="U96" t="s">
-        <v>4</v>
-      </c>
-      <c r="V96" t="b">
-        <v>1</v>
-      </c>
-      <c r="W96" t="b">
-        <v>1</v>
-      </c>
-      <c r="X96" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y96" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z96">
-        <v>24</v>
-      </c>
-      <c r="AA96">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB96">
-        <v>10</v>
-      </c>
-      <c r="AC96">
-        <v>0</v>
-      </c>
-      <c r="AD96" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE96" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF96" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG96">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AH96">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AI96" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AJ96" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK96" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL96">
-        <v>0.499</v>
-      </c>
-      <c r="AM96">
-        <v>0.57299999999999995</v>
-      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29:I30 H5:I13 H33:I35 H15:I20 H37:I40 H22:I27 H42:I47 H57:I58 H49:I55 H60:I63 H65:I71 G95:I96 G92:I93 H77:I90 G73:I75 G5:G72 G76:G91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29:I30 H5:I13 H32:I34 G15:I20 G22:I27 H36:I39 H41:I47 G74:I75 G71:I72 G49:I51 H53:I69 G28:G48 G5:G14 G21 G52:G70">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE22:AE27 AE15:AE20 AE5:AE13 AE29:AE30 AE33:AE35 AE57:AE58 AE42:AE47 AE37:AE40 AE49:AE55 AE73:AE75 AE60:AE63 AE95:AE96 AE65:AE71 AE92:AE93 AE77:AE90">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE22:AE27 AE15:AE20 AE5:AE13 AE29:AE30 AE32:AE34 AE41:AE47 AE36:AE39 AE74:AE75 AE49:AE51 AE53:AE69 AE71:AE72">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11488,7 +9620,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11530,7 +9662,7 @@
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -11555,10 +9687,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11598,118 +9730,284 @@
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="8">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="D2">
-        <v>40</v>
-      </c>
-      <c r="E2" s="8">
-        <f>B2-C2^2/2</f>
+      <c r="B2" s="22">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="F2" s="26">
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>1</v>
+      </c>
+      <c r="E2" s="22">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="F2" s="24">
         <f>B2 - C2^2/2</f>
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>106</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>5.7200000000000001E-2</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="45">
+        <v>7.9699999999999993E-2</v>
       </c>
       <c r="C3" s="7">
         <v>0.12</v>
       </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="22">
+        <v>40</v>
+      </c>
+      <c r="E3" s="45">
         <f>B3-C3^2/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="26">
-        <f t="shared" ref="F3:F6" si="0">B3 - C3^2/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="G3" t="s">
-        <v>105</v>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="F3" s="24">
+        <f>B3 - C3^2/2</f>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>7.22E-2</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <f>B4-C4^2/2</f>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F4" s="26">
-        <f t="shared" si="0"/>
-        <v>6.5000000000000002E-2</v>
-      </c>
+      <c r="B4" s="22">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
+        <v>1</v>
+      </c>
+      <c r="E4" s="22">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="F4" s="24">
+        <f>B4 - C4^2/2</f>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5">
-        <v>7.9699999999999993E-2</v>
+      <c r="B5" s="22">
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="C5" s="7">
         <v>0.12</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="22">
+        <v>10</v>
+      </c>
+      <c r="E5" s="22">
+        <f>B5-C5^2/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="24">
+        <f t="shared" ref="F5:F9" si="0">B5 - C5^2/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="22">
+        <v>7.22E-2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="D6" s="22">
+        <v>5</v>
+      </c>
+      <c r="E6" s="22">
+        <f>B6-C6^2/2</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F6" s="24">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="22">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="D7" s="22">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="E7" s="22">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F7" s="24">
         <f t="shared" si="0"/>
         <v>7.2499999999999995E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B8" s="22">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>1</v>
+      </c>
+      <c r="E8" s="22">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="F8" s="24">
+        <f>B8 - C8^2/2</f>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="13">
         <v>8.7291999999999995E-2</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C9" s="14">
         <v>0.17199999999999999</v>
       </c>
-      <c r="D6">
+      <c r="D9" s="22">
         <v>40</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E9" s="46">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F9" s="24">
         <f t="shared" si="0"/>
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G9" t="s">
         <v>91</v>
       </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="22">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="F10" s="24">
+        <f>B10 - C10^2/2</f>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="45">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="D11" s="22">
+        <v>40</v>
+      </c>
+      <c r="E11" s="45">
+        <f>B11-C11^2/2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F11" s="24">
+        <f>B11 - C11^2/2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G11" s="44">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="22">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0</v>
+      </c>
+      <c r="D12" s="22">
+        <v>1</v>
+      </c>
+      <c r="E12" s="22">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="F12" s="24">
+        <f>B12 - C12^2/2</f>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="45">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="D13" s="22">
+        <v>40</v>
+      </c>
+      <c r="E13" s="45">
+        <f>B13-C13^2/2</f>
+        <v>5.2500000000000005E-2</v>
+      </c>
+      <c r="F13" s="24">
+        <f>B13 - C13^2/2</f>
+        <v>5.2500000000000005E-2</v>
+      </c>
+      <c r="G13" s="44">
+        <v>5.2499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11727,83 +10025,83 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="9" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
         <v>61.86</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>62.89</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <f>D3/C3</f>
         <v>1.0166505011315874</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>55.31</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <v>55.38</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <f t="shared" ref="E4:E17" si="0">D4/C4</f>
         <v>1.0012655939251491</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>1.83</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <v>1.83</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>42.85</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>40.92</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <f>D6/C6</f>
         <v>0.9549591598599767</v>
       </c>
@@ -11813,260 +10111,260 @@
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <f>SUM(C4:C6)</f>
         <v>99.990000000000009</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <f>SUM(D4:D6)</f>
         <v>98.13</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <f t="shared" si="0"/>
         <v>0.98139813981398127</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <v>57.39</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>56.2</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <f t="shared" si="0"/>
         <v>0.97926468025788471</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <v>49.96</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>49</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <f t="shared" si="0"/>
         <v>0.98078462770216168</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <v>42.7</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>41.91</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <f t="shared" si="0"/>
         <v>0.98149882903981245</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <f>C22*C12/100</f>
         <v>2.0496276</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <v>2.2067999999999999</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="17">
         <f t="shared" si="0"/>
         <v>1.0766833936076972</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>15.24</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12">
+      <c r="D12" s="10"/>
+      <c r="E12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <f>C22*C14/100</f>
         <v>3.2331395999999999</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>3.19</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <f t="shared" si="0"/>
         <v>0.98665705619392374</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>24.04</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12">
+      <c r="D14" s="10"/>
+      <c r="E14" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>7.54</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>7.57</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <f t="shared" si="0"/>
         <v>1.0039787798408488</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <f>C23*C15/100</f>
         <v>0.96888999999999992</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="16">
         <v>6.36</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="16">
         <v>6.18</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="17">
         <f t="shared" si="0"/>
         <v>0.97169811320754707</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="16">
         <v>0.182</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="19">
         <v>0.25800000000000001</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="21">
         <f>3.2+2+0.687</f>
         <v>5.8870000000000005</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="21">
         <v>5.67</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="16">
         <v>5.49</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="17">
         <f t="shared" ref="E21" si="1">D21/C21</f>
         <v>0.96825396825396826</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>13.449</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12">
+      <c r="D22" s="10"/>
+      <c r="E22" s="11">
         <f>D22/C22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>12.85</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>12.92</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <f>D23/C23</f>
         <v>1.0054474708171206</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <f>49956.6/100114</f>
         <v>0.49899714325668737</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D57" s="10">
+      <c r="D57" s="9">
         <f>(64.7-41.8)/64.7</f>
         <v>0.35394126738794446</v>
       </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D60" s="10">
+      <c r="D60" s="9">
         <f>(2.187 - 0.979 + 3.1)/12.92</f>
         <v>0.33343653250773991</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D66" s="10">
+      <c r="D66" s="9">
         <f>33.3/31.7</f>
         <v>1.0504731861198737</v>
       </c>
@@ -12089,286 +10387,286 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="9" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
         <v>61.13</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>60</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <f>D3/C3</f>
         <v>0.98151480451496809</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>52.74</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <f>D7-D6</f>
         <v>52.900000000000006</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <f t="shared" ref="E4:E16" si="0">D4/C4</f>
         <v>1.0030337504740237</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>1.61</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>40.200000000000003</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>39</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <f>D6/C6</f>
         <v>0.9701492537313432</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <f>SUM(C4:C6)</f>
         <v>94.550000000000011</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>91.9</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <f t="shared" si="0"/>
         <v>0.97197250132205182</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <v>57.36</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>55.7</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <f t="shared" si="0"/>
         <v>0.97105997210599726</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <f>C7*0.546</f>
         <v>51.624300000000012</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>50.2</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <f t="shared" si="0"/>
         <v>0.9724102796551235</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <v>37.35</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>36.200000000000003</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <f t="shared" si="0"/>
         <v>0.9692101740294512</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>15.83</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>16.600000000000001</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <f t="shared" si="0"/>
         <v>1.0486418193303855</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>2.83</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>2.75</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <f t="shared" si="0"/>
         <v>0.9717314487632509</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>20</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>21.6</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <f t="shared" si="0"/>
         <v>1.08</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>7.49</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>7.56</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <f t="shared" si="0"/>
         <v>1.0093457943925233</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="16">
         <v>6.2</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="16">
         <v>5.52</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <f t="shared" si="0"/>
         <v>0.89032258064516123</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="16">
         <v>0.17799999999999999</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="19">
         <v>0.23499999999999999</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="21">
         <f>3.09+2+0.687</f>
         <v>5.7770000000000001</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>13.38</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12">
+      <c r="D20" s="10"/>
+      <c r="E20" s="11">
         <f>D20/C20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>12.68</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>12.7</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <f>D21/C21</f>
         <v>1.001577287066246</v>
       </c>
@@ -12618,240 +10916,240 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="B2" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
-      <c r="C3" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>155</v>
+      <c r="B3" s="27"/>
+      <c r="C3" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="31">
+      <c r="B4" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="29">
         <v>135.13999999999999</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="29">
         <v>145.97999999999999</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="31">
+      <c r="B5" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="29">
         <v>167.97</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="29">
         <v>174.1</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="34">
+      <c r="B6" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="32">
         <f>C5-C4</f>
         <v>32.830000000000013</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="32">
         <f>D5-D4</f>
         <v>28.120000000000005</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="31">
+      <c r="B7" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="29">
         <f>C6-D6</f>
         <v>4.710000000000008</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="32">
+      <c r="B8" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="30">
         <f>C7/C6</f>
         <v>0.14346634176058501</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+      <c r="B17" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
-      <c r="C18" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>155</v>
+      <c r="B18" s="27"/>
+      <c r="C18" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="31">
+      <c r="B19" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="29">
         <v>133.96</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="29">
         <v>145.68</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="31">
+      <c r="B20" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="29">
         <v>178.61</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="29">
         <v>187.98</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="34">
+      <c r="B21" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="32">
         <f>C20-C19</f>
         <v>44.650000000000006</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="32">
         <f>D20-D19</f>
         <v>42.299999999999983</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="31">
+      <c r="B22" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="29">
         <f>C21-D21</f>
         <v>2.3500000000000227</v>
       </c>
-      <c r="D22" s="31"/>
+      <c r="D22" s="29"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="32">
+      <c r="B23" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="30">
         <f>C22/C21</f>
         <v>5.2631578947368925E-2</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="N23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="N23" s="26"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="N24" s="28"/>
+      <c r="B24" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="N24" s="26"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N25" s="28"/>
+      <c r="N25" s="26"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N26" s="28"/>
+      <c r="N26" s="26"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N27" s="28"/>
+      <c r="N27" s="26"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N28" s="28"/>
+      <c r="N28" s="26"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N29" s="28"/>
+      <c r="N29" s="26"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N30" s="28"/>
+      <c r="N30" s="26"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="N31" s="28"/>
+      <c r="B31" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="N31" s="26"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="37"/>
-      <c r="C32" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="N32" s="28"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="N32" s="26"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" s="36">
+      <c r="B33" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="34">
         <v>94.6</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="34">
         <v>46.3</v>
       </c>
-      <c r="N33" s="28"/>
+      <c r="N33" s="26"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" s="36">
+      <c r="B34" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="34">
         <v>5.52</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="34">
         <v>2.66</v>
       </c>
-      <c r="N34" s="28"/>
+      <c r="N34" s="26"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>169</v>
-      </c>
-      <c r="N35" s="28"/>
+        <v>159</v>
+      </c>
+      <c r="N35" s="26"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N36" s="28"/>
+      <c r="N36" s="26"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N37" s="28"/>
+      <c r="N37" s="26"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N38" s="28"/>
+      <c r="N38" s="26"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N39" s="28"/>
+      <c r="N39" s="26"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N40" s="28"/>
+      <c r="N40" s="26"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N41" s="28"/>
+      <c r="N41" s="26"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N42" s="28"/>
+      <c r="N42" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -80,7 +80,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA5" authorId="0" shapeId="0">
+    <comment ref="Q4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+only for PSERS_Models_sim.R
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0" shapeId="0">
+    <comment ref="A49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A46" authorId="0" shapeId="0">
+    <comment ref="A50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A47" authorId="0" shapeId="0">
+    <comment ref="A51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A60" authorId="0" shapeId="0">
+    <comment ref="A64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A61" authorId="0" shapeId="0">
+    <comment ref="A65" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A62" authorId="0" shapeId="0">
+    <comment ref="A66" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -419,7 +444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="215">
   <si>
     <t>runname</t>
   </si>
@@ -1043,6 +1068,27 @@
   </si>
   <si>
     <t>RS5</t>
+  </si>
+  <si>
+    <t>useSharedRisk.tCD</t>
+  </si>
+  <si>
+    <t>RS1_SR1allEL1</t>
+  </si>
+  <si>
+    <t>RS2_SR1allEL1</t>
+  </si>
+  <si>
+    <t>RS3_SR1allEL1</t>
+  </si>
+  <si>
+    <t>shared risk applied to all members</t>
+  </si>
+  <si>
+    <t>discount rate 6.25% for Greg's question; DC rate 7.2%; New hires modeled separately; no EE shared-risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discount rate 6.25% for Greg's question; no EE shared-risk; no EE shared-risk </t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1334,17 +1380,19 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2845,13 +2893,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AO75"/>
+  <dimension ref="A4:AP79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,7 +2909,7 @@
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="55.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
@@ -2871,24 +2919,26 @@
     <col min="13" max="13" width="19.42578125" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="15.140625" customWidth="1"/>
-    <col min="16" max="18" width="14.28515625" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" customWidth="1"/>
-    <col min="29" max="29" width="14" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" customWidth="1"/>
-    <col min="40" max="40" width="21.7109375" customWidth="1"/>
-    <col min="41" max="41" width="16.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1"/>
+    <col min="18" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" customWidth="1"/>
+    <col min="30" max="30" width="14" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" customWidth="1"/>
+    <col min="33" max="33" width="14.85546875" customWidth="1"/>
+    <col min="41" max="41" width="21.7109375" customWidth="1"/>
+    <col min="42" max="42" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2938,82 +2988,85 @@
         <v>63</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AD4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AE4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AF4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AG4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AH4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" s="5" t="s">
+      <c r="AI4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="5" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AJ4" s="8" t="s">
+      <c r="AK4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AK4" s="8" t="s">
+      <c r="AL4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AL4" s="8" t="s">
+      <c r="AM4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AM4" s="8" t="s">
+      <c r="AN4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -3060,76 +3113,79 @@
         <v>1</v>
       </c>
       <c r="Q5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="b">
         <v>1</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5">
         <v>0.02</v>
       </c>
-      <c r="T5" t="b">
-        <v>1</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
         <v>4</v>
       </c>
-      <c r="V5" t="b">
-        <v>1</v>
-      </c>
       <c r="W5" t="b">
         <v>1</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="s">
         <v>28</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>64</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>24</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>10</v>
       </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="s">
         <v>37</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>48</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>21</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AI5" s="7">
+      <c r="AJ5" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>47</v>
       </c>
       <c r="AK5" t="s">
         <v>47</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM5">
         <v>0.499</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -3176,79 +3232,85 @@
         <v>1</v>
       </c>
       <c r="Q6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="b">
         <v>1</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6">
         <v>0.02</v>
       </c>
-      <c r="T6" t="b">
-        <v>1</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="U6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
         <v>4</v>
       </c>
-      <c r="V6" t="b">
-        <v>1</v>
-      </c>
       <c r="W6" t="b">
         <v>1</v>
       </c>
-      <c r="X6" t="s">
+      <c r="X6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="s">
         <v>28</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>64</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>24</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>10</v>
       </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="s">
         <v>37</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>48</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>21</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AI6" s="7">
+      <c r="AJ6" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>47</v>
       </c>
       <c r="AK6" t="s">
         <v>47</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM6">
         <v>0.499</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AI7" s="7"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="7"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>101</v>
       </c>
@@ -3265,7 +3327,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -3298,73 +3360,76 @@
         <v>0</v>
       </c>
       <c r="R8" t="b">
-        <v>1</v>
-      </c>
-      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8">
         <v>0.02</v>
       </c>
-      <c r="T8" t="b">
-        <v>1</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="U8" t="b">
+        <v>1</v>
+      </c>
+      <c r="V8" t="s">
         <v>4</v>
       </c>
-      <c r="V8" t="b">
-        <v>1</v>
-      </c>
       <c r="W8" t="b">
         <v>1</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="s">
         <v>28</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>64</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>24</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>10</v>
       </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="s">
         <v>37</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>21</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI8" s="7">
+      <c r="AJ8" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>47</v>
       </c>
       <c r="AK8" t="s">
         <v>47</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM8">
         <v>0.499</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>102</v>
       </c>
@@ -3381,7 +3446,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -3411,76 +3476,79 @@
         <v>1</v>
       </c>
       <c r="Q9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="b">
         <v>1</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9">
         <v>0.02</v>
       </c>
-      <c r="T9" t="b">
-        <v>1</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="U9" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9" t="s">
         <v>4</v>
       </c>
-      <c r="V9" t="b">
-        <v>1</v>
-      </c>
       <c r="W9" t="b">
         <v>1</v>
       </c>
-      <c r="X9" t="s">
+      <c r="X9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="s">
         <v>28</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>64</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>24</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>10</v>
       </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="s">
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="s">
         <v>37</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>27</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>21</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI9" s="7">
+      <c r="AJ9" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>47</v>
       </c>
       <c r="AK9" t="s">
         <v>47</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM9">
         <v>0.499</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>103</v>
       </c>
@@ -3497,7 +3565,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -3527,76 +3595,79 @@
         <v>0</v>
       </c>
       <c r="Q10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="b">
         <v>1</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10">
         <v>0.02</v>
       </c>
-      <c r="T10" t="b">
-        <v>1</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="U10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10" t="s">
         <v>4</v>
       </c>
-      <c r="V10" t="b">
-        <v>1</v>
-      </c>
       <c r="W10" t="b">
         <v>1</v>
       </c>
-      <c r="X10" t="s">
+      <c r="X10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="s">
         <v>28</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>64</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>24</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>10</v>
       </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="s">
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="s">
         <v>37</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>27</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>21</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI10" s="7">
+      <c r="AJ10" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>47</v>
       </c>
       <c r="AK10" t="s">
         <v>47</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM10">
         <v>0.499</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>104</v>
       </c>
@@ -3613,7 +3684,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -3646,73 +3717,76 @@
         <v>0</v>
       </c>
       <c r="R11" t="b">
-        <v>1</v>
-      </c>
-      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11">
         <v>0.02</v>
       </c>
-      <c r="T11" t="b">
-        <v>1</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="U11" t="b">
+        <v>1</v>
+      </c>
+      <c r="V11" t="s">
         <v>4</v>
       </c>
-      <c r="V11" t="b">
-        <v>1</v>
-      </c>
       <c r="W11" t="b">
         <v>1</v>
       </c>
-      <c r="X11" t="s">
+      <c r="X11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>64</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>24</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>10</v>
       </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="s">
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="s">
         <v>37</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>27</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>21</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI11" s="7">
+      <c r="AJ11" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>47</v>
       </c>
       <c r="AK11" t="s">
         <v>47</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM11">
         <v>0.499</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>116</v>
       </c>
@@ -3732,7 +3806,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -3762,76 +3836,79 @@
         <v>1</v>
       </c>
       <c r="Q12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="b">
         <v>1</v>
       </c>
-      <c r="S12">
+      <c r="S12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12">
         <v>0.05</v>
       </c>
-      <c r="T12" t="b">
-        <v>1</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="U12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V12" t="s">
         <v>4</v>
       </c>
-      <c r="V12" t="b">
-        <v>1</v>
-      </c>
       <c r="W12" t="b">
         <v>1</v>
       </c>
-      <c r="X12" t="s">
+      <c r="X12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="s">
         <v>28</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>64</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>24</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>10</v>
       </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="s">
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="s">
         <v>37</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>27</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>21</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI12" s="7">
+      <c r="AJ12" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>47</v>
       </c>
       <c r="AK12" t="s">
         <v>47</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM12">
         <v>0.499</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>117</v>
       </c>
@@ -3848,7 +3925,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -3878,79 +3955,82 @@
         <v>1</v>
       </c>
       <c r="Q13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="b">
-        <v>0</v>
-      </c>
-      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="S13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>0.02</v>
       </c>
-      <c r="T13" t="b">
-        <v>1</v>
-      </c>
-      <c r="U13" t="s">
+      <c r="U13" t="b">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
         <v>4</v>
       </c>
-      <c r="V13" t="b">
-        <v>1</v>
-      </c>
       <c r="W13" t="b">
         <v>1</v>
       </c>
-      <c r="X13" t="s">
+      <c r="X13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
         <v>28</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>64</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>24</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>10</v>
       </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="s">
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="s">
         <v>37</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>27</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>21</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI13" s="7">
+      <c r="AJ13" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>47</v>
       </c>
       <c r="AK13" t="s">
         <v>47</v>
       </c>
-      <c r="AL13">
+      <c r="AL13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM13">
         <v>0.499</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>107</v>
       </c>
@@ -4000,73 +4080,76 @@
         <v>0</v>
       </c>
       <c r="R15" t="b">
-        <v>1</v>
-      </c>
-      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="S15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15">
         <v>0.02</v>
       </c>
-      <c r="T15" t="b">
-        <v>1</v>
-      </c>
-      <c r="U15" t="s">
+      <c r="U15" t="b">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
         <v>4</v>
       </c>
-      <c r="V15" t="b">
-        <v>1</v>
-      </c>
       <c r="W15" t="b">
         <v>1</v>
       </c>
-      <c r="X15" t="s">
+      <c r="X15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="s">
         <v>28</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>64</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>24</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>10</v>
       </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="s">
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="s">
         <v>37</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>27</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>22</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI15" s="7">
+      <c r="AJ15" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>47</v>
       </c>
       <c r="AK15" t="s">
         <v>47</v>
       </c>
-      <c r="AL15">
+      <c r="AL15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM15">
         <v>0.499</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>108</v>
       </c>
@@ -4083,7 +4166,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -4113,76 +4196,79 @@
         <v>1</v>
       </c>
       <c r="Q16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="b">
         <v>1</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16">
         <v>0.02</v>
       </c>
-      <c r="T16" t="b">
-        <v>1</v>
-      </c>
-      <c r="U16" t="s">
+      <c r="U16" t="b">
+        <v>1</v>
+      </c>
+      <c r="V16" t="s">
         <v>4</v>
       </c>
-      <c r="V16" t="b">
-        <v>1</v>
-      </c>
       <c r="W16" t="b">
         <v>1</v>
       </c>
-      <c r="X16" t="s">
+      <c r="X16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="s">
         <v>28</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>64</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>24</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>10</v>
       </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="s">
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="s">
         <v>37</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>27</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>22</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI16" s="7">
+      <c r="AJ16" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>47</v>
       </c>
       <c r="AK16" t="s">
         <v>47</v>
       </c>
-      <c r="AL16">
+      <c r="AL16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM16">
         <v>0.499</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>109</v>
       </c>
@@ -4199,7 +4285,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -4229,76 +4315,79 @@
         <v>0</v>
       </c>
       <c r="Q17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="b">
         <v>1</v>
       </c>
-      <c r="S17">
+      <c r="S17" t="b">
+        <v>1</v>
+      </c>
+      <c r="T17">
         <v>0.02</v>
       </c>
-      <c r="T17" t="b">
-        <v>1</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="U17" t="b">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
         <v>4</v>
       </c>
-      <c r="V17" t="b">
-        <v>1</v>
-      </c>
       <c r="W17" t="b">
         <v>1</v>
       </c>
-      <c r="X17" t="s">
+      <c r="X17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="s">
         <v>28</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>64</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>24</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>10</v>
       </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="s">
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="s">
         <v>37</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>27</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>22</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI17" s="7">
+      <c r="AJ17" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>47</v>
       </c>
       <c r="AK17" t="s">
         <v>47</v>
       </c>
-      <c r="AL17">
+      <c r="AL17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM17">
         <v>0.499</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>110</v>
       </c>
@@ -4315,7 +4404,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -4348,73 +4437,76 @@
         <v>0</v>
       </c>
       <c r="R18" t="b">
-        <v>1</v>
-      </c>
-      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="S18" t="b">
+        <v>1</v>
+      </c>
+      <c r="T18">
         <v>0.02</v>
       </c>
-      <c r="T18" t="b">
-        <v>1</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="U18" t="b">
+        <v>1</v>
+      </c>
+      <c r="V18" t="s">
         <v>4</v>
       </c>
-      <c r="V18" t="b">
-        <v>1</v>
-      </c>
       <c r="W18" t="b">
         <v>1</v>
       </c>
-      <c r="X18" t="s">
+      <c r="X18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="s">
         <v>28</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>64</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>24</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>10</v>
       </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="s">
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="s">
         <v>37</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>27</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>22</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI18" s="7">
+      <c r="AJ18" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>47</v>
       </c>
       <c r="AK18" t="s">
         <v>47</v>
       </c>
-      <c r="AL18">
+      <c r="AL18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM18">
         <v>0.499</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>118</v>
       </c>
@@ -4461,76 +4553,79 @@
         <v>1</v>
       </c>
       <c r="Q19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="b">
         <v>1</v>
       </c>
-      <c r="S19">
+      <c r="S19" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19">
         <v>0.05</v>
       </c>
-      <c r="T19" t="b">
-        <v>1</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="U19" t="b">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
         <v>4</v>
       </c>
-      <c r="V19" t="b">
-        <v>1</v>
-      </c>
       <c r="W19" t="b">
         <v>1</v>
       </c>
-      <c r="X19" t="s">
+      <c r="X19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="s">
         <v>28</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>64</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>24</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>10</v>
       </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="s">
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="s">
         <v>37</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>27</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>22</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI19" s="7">
+      <c r="AJ19" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>47</v>
       </c>
       <c r="AK19" t="s">
         <v>47</v>
       </c>
-      <c r="AL19">
+      <c r="AL19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM19">
         <v>0.499</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>119</v>
       </c>
@@ -4577,79 +4672,82 @@
         <v>1</v>
       </c>
       <c r="Q20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="S20" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <v>0.02</v>
       </c>
-      <c r="T20" t="b">
-        <v>1</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="U20" t="b">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
         <v>4</v>
       </c>
-      <c r="V20" t="b">
-        <v>1</v>
-      </c>
       <c r="W20" t="b">
         <v>1</v>
       </c>
-      <c r="X20" t="s">
+      <c r="X20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="s">
         <v>28</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>64</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>24</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>10</v>
       </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="s">
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="s">
         <v>37</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>27</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>22</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI20" s="7">
+      <c r="AJ20" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>47</v>
       </c>
       <c r="AK20" t="s">
         <v>47</v>
       </c>
-      <c r="AL20">
+      <c r="AL20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM20">
         <v>0.499</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>111</v>
       </c>
@@ -4699,73 +4797,76 @@
         <v>0</v>
       </c>
       <c r="R22" t="b">
-        <v>1</v>
-      </c>
-      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="S22" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22">
         <v>0.02</v>
       </c>
-      <c r="T22" t="b">
-        <v>1</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="U22" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
         <v>4</v>
       </c>
-      <c r="V22" t="b">
-        <v>1</v>
-      </c>
       <c r="W22" t="b">
         <v>1</v>
       </c>
-      <c r="X22" t="s">
+      <c r="X22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="s">
         <v>28</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>64</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>24</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>10</v>
       </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="s">
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="s">
         <v>37</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>27</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>23</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI22" s="7">
+      <c r="AJ22" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>47</v>
       </c>
       <c r="AK22" t="s">
         <v>47</v>
       </c>
-      <c r="AL22">
+      <c r="AL22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM22">
         <v>0.499</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>112</v>
       </c>
@@ -4782,7 +4883,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -4812,76 +4913,79 @@
         <v>1</v>
       </c>
       <c r="Q23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="b">
         <v>1</v>
       </c>
-      <c r="S23">
+      <c r="S23" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23">
         <v>0.02</v>
       </c>
-      <c r="T23" t="b">
-        <v>1</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="U23" t="b">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
         <v>4</v>
       </c>
-      <c r="V23" t="b">
-        <v>1</v>
-      </c>
       <c r="W23" t="b">
         <v>1</v>
       </c>
-      <c r="X23" t="s">
+      <c r="X23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="s">
         <v>28</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>64</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>24</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>10</v>
       </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="s">
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="s">
         <v>37</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>27</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>23</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI23" s="7">
+      <c r="AJ23" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>47</v>
       </c>
       <c r="AK23" t="s">
         <v>47</v>
       </c>
-      <c r="AL23">
+      <c r="AL23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM23">
         <v>0.499</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>113</v>
       </c>
@@ -4898,7 +5002,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -4928,76 +5032,79 @@
         <v>0</v>
       </c>
       <c r="Q24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="b">
         <v>1</v>
       </c>
-      <c r="S24">
+      <c r="S24" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24">
         <v>0.02</v>
       </c>
-      <c r="T24" t="b">
-        <v>1</v>
-      </c>
-      <c r="U24" t="s">
+      <c r="U24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V24" t="s">
         <v>4</v>
       </c>
-      <c r="V24" t="b">
-        <v>1</v>
-      </c>
       <c r="W24" t="b">
         <v>1</v>
       </c>
-      <c r="X24" t="s">
+      <c r="X24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="s">
         <v>28</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>64</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>24</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>10</v>
       </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="s">
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="s">
         <v>37</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>27</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>23</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI24" s="7">
+      <c r="AJ24" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>47</v>
       </c>
       <c r="AK24" t="s">
         <v>47</v>
       </c>
-      <c r="AL24">
+      <c r="AL24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM24">
         <v>0.499</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>114</v>
       </c>
@@ -5014,7 +5121,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -5047,73 +5154,76 @@
         <v>0</v>
       </c>
       <c r="R25" t="b">
-        <v>1</v>
-      </c>
-      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="S25" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25">
         <v>0.02</v>
       </c>
-      <c r="T25" t="b">
-        <v>1</v>
-      </c>
-      <c r="U25" t="s">
+      <c r="U25" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
         <v>4</v>
       </c>
-      <c r="V25" t="b">
-        <v>1</v>
-      </c>
       <c r="W25" t="b">
         <v>1</v>
       </c>
-      <c r="X25" t="s">
+      <c r="X25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="s">
         <v>28</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>64</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>24</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>10</v>
       </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="s">
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="s">
         <v>37</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>27</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>23</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI25" s="7">
+      <c r="AJ25" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>47</v>
       </c>
       <c r="AK25" t="s">
         <v>47</v>
       </c>
-      <c r="AL25">
+      <c r="AL25" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM25">
         <v>0.499</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
         <v>120</v>
       </c>
@@ -5160,76 +5270,79 @@
         <v>1</v>
       </c>
       <c r="Q26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" t="b">
         <v>1</v>
       </c>
-      <c r="S26">
+      <c r="S26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T26">
         <v>0.05</v>
       </c>
-      <c r="T26" t="b">
-        <v>1</v>
-      </c>
-      <c r="U26" t="s">
+      <c r="U26" t="b">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
         <v>4</v>
       </c>
-      <c r="V26" t="b">
-        <v>1</v>
-      </c>
       <c r="W26" t="b">
         <v>1</v>
       </c>
-      <c r="X26" t="s">
+      <c r="X26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="s">
         <v>28</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>64</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>24</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>10</v>
       </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="s">
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="s">
         <v>37</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>27</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>23</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI26" s="7">
+      <c r="AJ26" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>47</v>
       </c>
       <c r="AK26" t="s">
         <v>47</v>
       </c>
-      <c r="AL26">
+      <c r="AL26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM26">
         <v>0.499</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>121</v>
       </c>
@@ -5276,88 +5389,91 @@
         <v>1</v>
       </c>
       <c r="Q27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" t="b">
-        <v>0</v>
-      </c>
-      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="S27" t="b">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <v>0.02</v>
       </c>
-      <c r="T27" t="b">
-        <v>1</v>
-      </c>
-      <c r="U27" t="s">
+      <c r="U27" t="b">
+        <v>1</v>
+      </c>
+      <c r="V27" t="s">
         <v>4</v>
       </c>
-      <c r="V27" t="b">
-        <v>1</v>
-      </c>
       <c r="W27" t="b">
         <v>1</v>
       </c>
-      <c r="X27" t="s">
+      <c r="X27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y27" t="s">
         <v>28</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>64</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>24</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>10</v>
       </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="s">
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="s">
         <v>37</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>27</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>23</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI27" s="7">
+      <c r="AJ27" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>47</v>
       </c>
       <c r="AK27" t="s">
         <v>47</v>
       </c>
-      <c r="AL27">
+      <c r="AL27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM27">
         <v>0.499</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="O28">
         <v>0</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>0.499</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>122</v>
       </c>
@@ -5374,7 +5490,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -5404,76 +5520,79 @@
         <v>1</v>
       </c>
       <c r="Q29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" t="b">
         <v>1</v>
       </c>
-      <c r="S29">
+      <c r="S29" t="b">
+        <v>1</v>
+      </c>
+      <c r="T29">
         <v>0.02</v>
       </c>
-      <c r="T29" t="b">
-        <v>1</v>
-      </c>
-      <c r="U29" t="s">
+      <c r="U29" t="b">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
         <v>4</v>
       </c>
-      <c r="V29" t="b">
-        <v>1</v>
-      </c>
       <c r="W29" t="b">
         <v>1</v>
       </c>
-      <c r="X29" t="s">
+      <c r="X29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y29" t="s">
         <v>28</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>123</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>24</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>10</v>
       </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="s">
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="s">
         <v>37</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AF29" t="s">
         <v>27</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AG29" t="s">
         <v>21</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI29" s="7">
+      <c r="AJ29" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>47</v>
       </c>
       <c r="AK29" t="s">
         <v>47</v>
       </c>
-      <c r="AL29">
+      <c r="AL29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM29">
         <v>0.499</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>124</v>
       </c>
@@ -5490,7 +5609,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -5520,79 +5639,82 @@
         <v>1</v>
       </c>
       <c r="Q30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" t="b">
         <v>1</v>
       </c>
-      <c r="S30">
+      <c r="S30" t="b">
+        <v>1</v>
+      </c>
+      <c r="T30">
         <v>0.02</v>
       </c>
-      <c r="T30" t="b">
-        <v>1</v>
-      </c>
-      <c r="U30" t="s">
+      <c r="U30" t="b">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
         <v>4</v>
       </c>
-      <c r="V30" t="b">
-        <v>1</v>
-      </c>
       <c r="W30" t="b">
         <v>1</v>
       </c>
-      <c r="X30" t="s">
+      <c r="X30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="s">
         <v>28</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>64</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>24</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>10</v>
       </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="s">
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="s">
         <v>37</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AF30" t="s">
         <v>27</v>
       </c>
-      <c r="AF30" t="s">
+      <c r="AG30" t="s">
         <v>21</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI30" s="7">
+      <c r="AJ30" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>47</v>
       </c>
       <c r="AK30" t="s">
         <v>47</v>
       </c>
-      <c r="AL30">
+      <c r="AL30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM30">
         <v>0.499</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
         <v>125</v>
       </c>
@@ -5609,7 +5731,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
@@ -5639,76 +5761,79 @@
         <v>1</v>
       </c>
       <c r="Q32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" t="b">
         <v>1</v>
       </c>
-      <c r="S32">
+      <c r="S32" t="b">
+        <v>1</v>
+      </c>
+      <c r="T32">
         <v>0.02</v>
       </c>
-      <c r="T32" t="b">
-        <v>1</v>
-      </c>
-      <c r="U32" t="s">
+      <c r="U32" t="b">
+        <v>1</v>
+      </c>
+      <c r="V32" t="s">
         <v>4</v>
       </c>
-      <c r="V32" t="b">
-        <v>1</v>
-      </c>
       <c r="W32" t="b">
         <v>1</v>
       </c>
-      <c r="X32" t="s">
+      <c r="X32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="s">
         <v>28</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>64</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>24</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>5</v>
       </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="s">
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="s">
         <v>37</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AF32" t="s">
         <v>27</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AG32" t="s">
         <v>21</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI32" s="7">
+      <c r="AJ32" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>47</v>
       </c>
       <c r="AK32" t="s">
         <v>47</v>
       </c>
-      <c r="AL32">
+      <c r="AL32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM32">
         <v>0.499</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
         <v>126</v>
       </c>
@@ -5725,7 +5850,7 @@
         <v>36</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
@@ -5755,77 +5880,80 @@
         <v>1</v>
       </c>
       <c r="Q33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" t="b">
         <v>1</v>
       </c>
-      <c r="S33">
+      <c r="S33" t="b">
+        <v>1</v>
+      </c>
+      <c r="T33">
         <v>0.02</v>
       </c>
-      <c r="T33" t="b">
-        <v>1</v>
-      </c>
-      <c r="U33" t="s">
+      <c r="U33" t="b">
+        <v>1</v>
+      </c>
+      <c r="V33" t="s">
         <v>4</v>
       </c>
-      <c r="V33" t="b">
-        <v>1</v>
-      </c>
       <c r="W33" t="b">
         <v>1</v>
       </c>
-      <c r="X33" t="s">
+      <c r="X33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="s">
         <v>28</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>64</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>24</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>5</v>
       </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="s">
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="s">
         <v>37</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="AF33" t="s">
         <v>27</v>
       </c>
-      <c r="AF33" t="s">
+      <c r="AG33" t="s">
         <v>22</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI33" s="7">
+      <c r="AJ33" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>47</v>
       </c>
       <c r="AK33" t="s">
         <v>47</v>
       </c>
-      <c r="AL33">
+      <c r="AL33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM33">
         <v>0.499</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47" t="s">
+    <row r="34" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="45" t="s">
         <v>127</v>
       </c>
       <c r="B34" t="s">
@@ -5841,7 +5969,7 @@
         <v>36</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -5871,78 +5999,85 @@
         <v>1</v>
       </c>
       <c r="Q34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" t="b">
         <v>1</v>
       </c>
-      <c r="S34">
+      <c r="S34" t="b">
+        <v>1</v>
+      </c>
+      <c r="T34">
         <v>0.02</v>
       </c>
-      <c r="T34" t="b">
-        <v>1</v>
-      </c>
-      <c r="U34" t="s">
+      <c r="U34" t="b">
+        <v>1</v>
+      </c>
+      <c r="V34" t="s">
         <v>4</v>
       </c>
-      <c r="V34" t="b">
-        <v>1</v>
-      </c>
       <c r="W34" t="b">
         <v>1</v>
       </c>
-      <c r="X34" t="s">
+      <c r="X34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y34" t="s">
         <v>28</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>64</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>24</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>5</v>
       </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="s">
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="s">
         <v>37</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AF34" t="s">
         <v>27</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AG34" t="s">
         <v>23</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI34" s="7">
+      <c r="AJ34" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>47</v>
       </c>
       <c r="AK34" t="s">
         <v>47</v>
       </c>
-      <c r="AL34">
+      <c r="AL34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM34">
         <v>0.499</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>167</v>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="AJ35" s="7"/>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
+        <v>209</v>
       </c>
       <c r="B36" t="s">
         <v>21</v>
@@ -5954,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="F36" t="s">
         <v>36</v>
@@ -5972,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -5981,10 +6116,10 @@
         <v>2017</v>
       </c>
       <c r="N36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
@@ -5995,82 +6130,79 @@
       <c r="R36" t="b">
         <v>1</v>
       </c>
-      <c r="S36">
+      <c r="S36" t="b">
+        <v>1</v>
+      </c>
+      <c r="T36">
         <v>0.02</v>
       </c>
-      <c r="T36" t="b">
-        <v>1</v>
-      </c>
-      <c r="U36" t="s">
+      <c r="U36" t="b">
+        <v>1</v>
+      </c>
+      <c r="V36" t="s">
         <v>4</v>
       </c>
-      <c r="V36" t="b">
-        <v>1</v>
-      </c>
       <c r="W36" t="b">
         <v>1</v>
       </c>
-      <c r="X36" t="s">
+      <c r="X36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y36" t="s">
         <v>28</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>64</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>24</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>10</v>
       </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="s">
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="s">
         <v>37</v>
       </c>
-      <c r="AE36" t="s">
+      <c r="AF36" t="s">
         <v>27</v>
       </c>
-      <c r="AF36" t="s">
+      <c r="AG36" t="s">
         <v>21</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH36">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="AI36" s="7">
+      <c r="AI36">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AJ36" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>47</v>
       </c>
       <c r="AK36" t="s">
         <v>47</v>
       </c>
-      <c r="AL36">
+      <c r="AL36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM36">
         <v>0.499</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN36" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AO36">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>168</v>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
+        <v>210</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -6079,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="F37" t="s">
         <v>36</v>
@@ -6097,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -6106,10 +6238,10 @@
         <v>2017</v>
       </c>
       <c r="N37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
@@ -6120,82 +6252,79 @@
       <c r="R37" t="b">
         <v>1</v>
       </c>
-      <c r="S37">
+      <c r="S37" t="b">
+        <v>1</v>
+      </c>
+      <c r="T37">
         <v>0.02</v>
       </c>
-      <c r="T37" t="b">
-        <v>1</v>
-      </c>
-      <c r="U37" t="s">
+      <c r="U37" t="b">
+        <v>1</v>
+      </c>
+      <c r="V37" t="s">
         <v>4</v>
       </c>
-      <c r="V37" t="b">
-        <v>1</v>
-      </c>
       <c r="W37" t="b">
         <v>1</v>
       </c>
-      <c r="X37" t="s">
+      <c r="X37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y37" t="s">
         <v>28</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>64</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>24</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>10</v>
       </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="s">
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="s">
         <v>37</v>
       </c>
-      <c r="AE37" t="s">
-        <v>48</v>
-      </c>
       <c r="AF37" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG37">
+        <v>27</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH37">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH37">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AI37" s="7">
+      <c r="AI37">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AJ37" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>47</v>
       </c>
       <c r="AK37" t="s">
         <v>47</v>
       </c>
-      <c r="AL37">
+      <c r="AL37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM37">
         <v>0.499</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN37" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AO37">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>169</v>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
+        <v>211</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -6204,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
@@ -6222,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -6231,98 +6360,218 @@
         <v>2017</v>
       </c>
       <c r="N38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="b">
+        <v>1</v>
+      </c>
+      <c r="R38" t="b">
+        <v>1</v>
+      </c>
+      <c r="S38" t="b">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>0.02</v>
+      </c>
+      <c r="U38" t="b">
+        <v>1</v>
+      </c>
+      <c r="V38" t="s">
+        <v>4</v>
+      </c>
+      <c r="W38" t="b">
+        <v>1</v>
+      </c>
+      <c r="X38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA38">
+        <v>24</v>
+      </c>
+      <c r="AB38">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AC38">
+        <v>10</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH38">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AI38">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AJ38" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM38">
+        <v>0.499</v>
+      </c>
+      <c r="AN38">
+        <v>0.57299999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>2017</v>
+      </c>
+      <c r="N40" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40">
         <v>3</v>
       </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38" t="b">
-        <v>1</v>
-      </c>
-      <c r="R38" t="b">
-        <v>1</v>
-      </c>
-      <c r="S38">
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="b">
+        <v>0</v>
+      </c>
+      <c r="R40" t="b">
+        <v>1</v>
+      </c>
+      <c r="S40" t="b">
+        <v>1</v>
+      </c>
+      <c r="T40">
         <v>0.02</v>
       </c>
-      <c r="T38" t="b">
-        <v>1</v>
-      </c>
-      <c r="U38" t="s">
+      <c r="U40" t="b">
+        <v>1</v>
+      </c>
+      <c r="V40" t="s">
         <v>4</v>
       </c>
-      <c r="V38" t="b">
-        <v>1</v>
-      </c>
-      <c r="W38" t="b">
-        <v>1</v>
-      </c>
-      <c r="X38" t="s">
+      <c r="W40" t="b">
+        <v>1</v>
+      </c>
+      <c r="X40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="s">
         <v>28</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z40" t="s">
         <v>64</v>
       </c>
-      <c r="Z38">
+      <c r="AA40">
         <v>24</v>
       </c>
-      <c r="AA38">
+      <c r="AB40">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB38">
+      <c r="AC40">
         <v>10</v>
       </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38" t="s">
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="s">
         <v>37</v>
       </c>
-      <c r="AE38" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF38" t="s">
+      <c r="AF40" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG40" t="s">
         <v>21</v>
       </c>
-      <c r="AG38">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AH38">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AI38" s="7">
+      <c r="AH40">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AI40">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AJ40" s="7">
         <v>0.12</v>
       </c>
-      <c r="AJ38" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL38">
+      <c r="AK40" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM40">
         <v>0.499</v>
       </c>
-      <c r="AM38">
+      <c r="AN40">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN38" s="25">
+      <c r="AO40" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO38">
+      <c r="AP40">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AI39" s="7"/>
-      <c r="AN39" s="25"/>
-    </row>
-    <row r="40" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
-        <v>165</v>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>168</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
@@ -6334,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="F41" t="s">
         <v>36</v>
@@ -6364,90 +6613,93 @@
         <v>1</v>
       </c>
       <c r="O41">
+        <v>3</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>0</v>
+      </c>
+      <c r="R41" t="b">
+        <v>1</v>
+      </c>
+      <c r="S41" t="b">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>0.02</v>
+      </c>
+      <c r="U41" t="b">
+        <v>1</v>
+      </c>
+      <c r="V41" t="s">
         <v>4</v>
       </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41" t="b">
-        <v>1</v>
-      </c>
-      <c r="R41" t="b">
-        <v>1</v>
-      </c>
-      <c r="S41">
-        <v>0.02</v>
-      </c>
-      <c r="T41" t="b">
-        <v>1</v>
-      </c>
-      <c r="U41" t="s">
-        <v>4</v>
-      </c>
-      <c r="V41" t="b">
-        <v>1</v>
-      </c>
       <c r="W41" t="b">
         <v>1</v>
       </c>
-      <c r="X41" t="s">
+      <c r="X41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y41" t="s">
         <v>28</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>64</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>24</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>10</v>
       </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="s">
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="s">
         <v>37</v>
       </c>
-      <c r="AE41" t="s">
-        <v>27</v>
-      </c>
       <c r="AF41" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG41" t="s">
         <v>21</v>
       </c>
-      <c r="AG41">
+      <c r="AH41">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH41">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="AI41" s="7">
+      <c r="AI41">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AJ41" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>47</v>
       </c>
       <c r="AK41" t="s">
         <v>47</v>
       </c>
-      <c r="AL41">
+      <c r="AL41" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM41">
         <v>0.499</v>
       </c>
-      <c r="AM41">
+      <c r="AN41">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN41" s="25">
+      <c r="AO41" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO41">
+      <c r="AP41">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
-        <v>166</v>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>169</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
@@ -6459,7 +6711,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="F42" t="s">
         <v>36</v>
@@ -6489,220 +6741,98 @@
         <v>1</v>
       </c>
       <c r="O42">
+        <v>3</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="b">
+        <v>0</v>
+      </c>
+      <c r="R42" t="b">
+        <v>1</v>
+      </c>
+      <c r="S42" t="b">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>0.02</v>
+      </c>
+      <c r="U42" t="b">
+        <v>1</v>
+      </c>
+      <c r="V42" t="s">
         <v>4</v>
       </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42" t="b">
-        <v>1</v>
-      </c>
-      <c r="R42" t="b">
-        <v>1</v>
-      </c>
-      <c r="S42">
-        <v>0.02</v>
-      </c>
-      <c r="T42" t="b">
-        <v>1</v>
-      </c>
-      <c r="U42" t="s">
-        <v>4</v>
-      </c>
-      <c r="V42" t="b">
-        <v>1</v>
-      </c>
       <c r="W42" t="b">
         <v>1</v>
       </c>
-      <c r="X42" t="s">
+      <c r="X42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y42" t="s">
         <v>28</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>64</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>24</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>10</v>
       </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="s">
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="s">
         <v>37</v>
       </c>
-      <c r="AE42" t="s">
-        <v>27</v>
-      </c>
       <c r="AF42" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG42">
-        <v>7.2499999999999995E-2</v>
+        <v>48</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>21</v>
       </c>
       <c r="AH42">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AI42">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AI42" s="7">
+      <c r="AJ42" s="7">
         <v>0.12</v>
       </c>
-      <c r="AJ42" t="s">
-        <v>47</v>
-      </c>
       <c r="AK42" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL42">
+        <v>141</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM42">
         <v>0.499</v>
       </c>
-      <c r="AM42">
+      <c r="AN42">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN42" s="25">
+      <c r="AO42" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO42">
+      <c r="AP42">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="B43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>200</v>
-      </c>
-      <c r="F43" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>2017</v>
-      </c>
-      <c r="N43" t="b">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>4</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43" t="b">
-        <v>1</v>
-      </c>
-      <c r="R43" t="b">
-        <v>1</v>
-      </c>
-      <c r="S43">
-        <v>0.02</v>
-      </c>
-      <c r="T43" t="b">
-        <v>1</v>
-      </c>
-      <c r="U43" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" t="b">
-        <v>1</v>
-      </c>
-      <c r="W43" t="b">
-        <v>1</v>
-      </c>
-      <c r="X43" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z43">
-        <v>24</v>
-      </c>
-      <c r="AA43">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB43">
-        <v>10</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>207</v>
-      </c>
-      <c r="AG43">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AH43">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="AI43" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AJ43" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK43" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL43">
-        <v>0.499</v>
-      </c>
-      <c r="AM43">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AN43" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AO43">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="AI44" s="7"/>
-      <c r="AN44" s="25"/>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
-        <v>171</v>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AJ43" s="7"/>
+      <c r="AO43" s="25"/>
+    </row>
+    <row r="44" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A45" s="37" t="s">
+        <v>165</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
@@ -6714,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="F45" t="s">
         <v>36</v>
@@ -6735,7 +6865,7 @@
         <v>1</v>
       </c>
       <c r="L45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>2017</v>
@@ -6750,84 +6880,87 @@
         <v>1</v>
       </c>
       <c r="Q45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" t="b">
         <v>1</v>
       </c>
-      <c r="S45">
+      <c r="S45" t="b">
+        <v>1</v>
+      </c>
+      <c r="T45">
         <v>0.02</v>
       </c>
-      <c r="T45" t="b">
-        <v>1</v>
-      </c>
-      <c r="U45" t="s">
+      <c r="U45" t="b">
+        <v>1</v>
+      </c>
+      <c r="V45" t="s">
         <v>4</v>
       </c>
-      <c r="V45" t="b">
-        <v>1</v>
-      </c>
       <c r="W45" t="b">
         <v>1</v>
       </c>
-      <c r="X45" t="s">
+      <c r="X45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y45" t="s">
         <v>28</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>64</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>24</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>10</v>
       </c>
-      <c r="AC45">
-        <v>0</v>
-      </c>
-      <c r="AD45" t="s">
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="s">
         <v>37</v>
       </c>
-      <c r="AE45" t="s">
+      <c r="AF45" t="s">
         <v>27</v>
       </c>
-      <c r="AF45" t="s">
+      <c r="AG45" t="s">
         <v>21</v>
       </c>
-      <c r="AG45">
+      <c r="AH45">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH45">
+      <c r="AI45">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AI45" s="7">
+      <c r="AJ45" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>47</v>
       </c>
       <c r="AK45" t="s">
         <v>47</v>
       </c>
-      <c r="AL45">
+      <c r="AL45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM45">
         <v>0.499</v>
       </c>
-      <c r="AM45">
+      <c r="AN45">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN45" s="25">
+      <c r="AO45" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO45">
+      <c r="AP45">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
@@ -6839,7 +6972,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="F46" t="s">
         <v>36</v>
@@ -6860,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="L46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>2017</v>
@@ -6875,84 +7008,87 @@
         <v>1</v>
       </c>
       <c r="Q46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" t="b">
         <v>1</v>
       </c>
-      <c r="S46">
+      <c r="S46" t="b">
+        <v>1</v>
+      </c>
+      <c r="T46">
         <v>0.02</v>
       </c>
-      <c r="T46" t="b">
-        <v>1</v>
-      </c>
-      <c r="U46" t="s">
+      <c r="U46" t="b">
+        <v>1</v>
+      </c>
+      <c r="V46" t="s">
         <v>4</v>
       </c>
-      <c r="V46" t="b">
-        <v>1</v>
-      </c>
       <c r="W46" t="b">
         <v>1</v>
       </c>
-      <c r="X46" t="s">
+      <c r="X46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y46" t="s">
         <v>28</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>64</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>24</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>10</v>
       </c>
-      <c r="AC46">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="s">
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="s">
         <v>37</v>
       </c>
-      <c r="AE46" t="s">
+      <c r="AF46" t="s">
         <v>27</v>
       </c>
-      <c r="AF46" t="s">
+      <c r="AG46" t="s">
         <v>206</v>
       </c>
-      <c r="AG46">
+      <c r="AH46">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH46">
+      <c r="AI46">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AI46" s="7">
+      <c r="AJ46" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>47</v>
       </c>
       <c r="AK46" t="s">
         <v>47</v>
       </c>
-      <c r="AL46">
+      <c r="AL46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM46">
         <v>0.499</v>
       </c>
-      <c r="AM46">
+      <c r="AN46">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN46" s="25">
+      <c r="AO46" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO46">
+      <c r="AP46">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
@@ -6964,7 +7100,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="F47" t="s">
         <v>36</v>
@@ -6985,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="L47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>2017</v>
@@ -7000,87 +7136,92 @@
         <v>1</v>
       </c>
       <c r="Q47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" t="b">
         <v>1</v>
       </c>
-      <c r="S47">
+      <c r="S47" t="b">
+        <v>1</v>
+      </c>
+      <c r="T47">
         <v>0.02</v>
       </c>
-      <c r="T47" t="b">
-        <v>1</v>
-      </c>
-      <c r="U47" t="s">
+      <c r="U47" t="b">
+        <v>1</v>
+      </c>
+      <c r="V47" t="s">
         <v>4</v>
       </c>
-      <c r="V47" t="b">
-        <v>1</v>
-      </c>
       <c r="W47" t="b">
         <v>1</v>
       </c>
-      <c r="X47" t="s">
+      <c r="X47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y47" t="s">
         <v>28</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>64</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>24</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <v>10</v>
       </c>
-      <c r="AC47">
-        <v>0</v>
-      </c>
-      <c r="AD47" t="s">
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="s">
         <v>37</v>
       </c>
-      <c r="AE47" t="s">
+      <c r="AF47" t="s">
         <v>27</v>
       </c>
-      <c r="AF47" t="s">
+      <c r="AG47" t="s">
         <v>207</v>
       </c>
-      <c r="AG47">
+      <c r="AH47">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH47">
+      <c r="AI47">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="AI47" s="7">
+      <c r="AJ47" s="7">
         <v>0.12</v>
       </c>
-      <c r="AJ47" t="s">
-        <v>47</v>
-      </c>
       <c r="AK47" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL47">
+        <v>141</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM47">
         <v>0.499</v>
       </c>
-      <c r="AM47">
+      <c r="AN47">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN47" s="25">
+      <c r="AO47" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO47">
+      <c r="AP47">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
-    </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AJ48" s="7"/>
+      <c r="AO48" s="25"/>
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
@@ -7092,7 +7233,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F49" t="s">
         <v>36</v>
@@ -7113,7 +7254,7 @@
         <v>1</v>
       </c>
       <c r="L49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
         <v>2017</v>
@@ -7122,90 +7263,93 @@
         <v>1</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" t="b">
         <v>1</v>
       </c>
-      <c r="S49">
+      <c r="S49" t="b">
+        <v>1</v>
+      </c>
+      <c r="T49">
         <v>0.02</v>
       </c>
-      <c r="T49" t="b">
-        <v>1</v>
-      </c>
-      <c r="U49" t="s">
+      <c r="U49" t="b">
+        <v>1</v>
+      </c>
+      <c r="V49" t="s">
         <v>4</v>
       </c>
-      <c r="V49" t="b">
-        <v>1</v>
-      </c>
       <c r="W49" t="b">
         <v>1</v>
       </c>
-      <c r="X49" t="s">
+      <c r="X49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y49" t="s">
         <v>28</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>64</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>24</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <v>10</v>
       </c>
-      <c r="AC49">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="s">
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" t="s">
+      <c r="AF49" t="s">
         <v>27</v>
       </c>
-      <c r="AF49" t="s">
+      <c r="AG49" t="s">
         <v>21</v>
       </c>
-      <c r="AG49">
+      <c r="AH49">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH49">
+      <c r="AI49">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AI49" s="7">
+      <c r="AJ49" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ49" t="s">
-        <v>47</v>
       </c>
       <c r="AK49" t="s">
         <v>47</v>
       </c>
-      <c r="AL49">
+      <c r="AL49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM49">
         <v>0.499</v>
       </c>
-      <c r="AM49">
+      <c r="AN49">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN49" s="25">
+      <c r="AO49" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO49">
+      <c r="AP49">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
@@ -7217,7 +7361,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F50" t="s">
         <v>36</v>
@@ -7238,7 +7382,7 @@
         <v>1</v>
       </c>
       <c r="L50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <v>2017</v>
@@ -7247,90 +7391,93 @@
         <v>1</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" t="b">
         <v>1</v>
       </c>
-      <c r="S50">
+      <c r="S50" t="b">
+        <v>1</v>
+      </c>
+      <c r="T50">
         <v>0.02</v>
       </c>
-      <c r="T50" t="b">
-        <v>1</v>
-      </c>
-      <c r="U50" t="s">
+      <c r="U50" t="b">
+        <v>1</v>
+      </c>
+      <c r="V50" t="s">
         <v>4</v>
       </c>
-      <c r="V50" t="b">
-        <v>1</v>
-      </c>
       <c r="W50" t="b">
         <v>1</v>
       </c>
-      <c r="X50" t="s">
+      <c r="X50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y50" t="s">
         <v>28</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>64</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>24</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <v>10</v>
       </c>
-      <c r="AC50">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="s">
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="s">
         <v>37</v>
       </c>
-      <c r="AE50" t="s">
+      <c r="AF50" t="s">
         <v>27</v>
       </c>
-      <c r="AF50" t="s">
+      <c r="AG50" t="s">
         <v>206</v>
       </c>
-      <c r="AG50">
+      <c r="AH50">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH50">
+      <c r="AI50">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AI50" s="7">
+      <c r="AJ50" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ50" t="s">
-        <v>47</v>
       </c>
       <c r="AK50" t="s">
         <v>47</v>
       </c>
-      <c r="AL50">
+      <c r="AL50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM50">
         <v>0.499</v>
       </c>
-      <c r="AM50">
+      <c r="AN50">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN50" s="25">
+      <c r="AO50" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO50">
+      <c r="AP50">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
@@ -7342,7 +7489,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="F51" t="s">
         <v>36</v>
@@ -7363,7 +7510,7 @@
         <v>1</v>
       </c>
       <c r="L51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51">
         <v>2017</v>
@@ -7372,93 +7519,96 @@
         <v>1</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" t="b">
         <v>1</v>
       </c>
-      <c r="S51">
+      <c r="S51" t="b">
+        <v>1</v>
+      </c>
+      <c r="T51">
         <v>0.02</v>
       </c>
-      <c r="T51" t="b">
-        <v>1</v>
-      </c>
-      <c r="U51" t="s">
+      <c r="U51" t="b">
+        <v>1</v>
+      </c>
+      <c r="V51" t="s">
         <v>4</v>
       </c>
-      <c r="V51" t="b">
-        <v>1</v>
-      </c>
       <c r="W51" t="b">
         <v>1</v>
       </c>
-      <c r="X51" t="s">
+      <c r="X51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y51" t="s">
         <v>28</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>64</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>24</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <v>10</v>
       </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="s">
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="s">
         <v>37</v>
       </c>
-      <c r="AE51" t="s">
+      <c r="AF51" t="s">
         <v>27</v>
       </c>
-      <c r="AF51" t="s">
+      <c r="AG51" t="s">
         <v>207</v>
       </c>
-      <c r="AG51">
-        <v>6.25E-2</v>
-      </c>
       <c r="AH51">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AI51">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="AI51" s="7">
+      <c r="AJ51" s="7">
         <v>0.12</v>
       </c>
-      <c r="AJ51" t="s">
-        <v>141</v>
-      </c>
       <c r="AK51" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL51">
+        <v>47</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM51">
         <v>0.499</v>
       </c>
-      <c r="AM51">
+      <c r="AN51">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN51" s="25">
+      <c r="AO51" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO51">
+      <c r="AP51">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
@@ -7470,7 +7620,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="F53" t="s">
         <v>36</v>
@@ -7485,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="J53">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K53" t="b">
         <v>1</v>
@@ -7506,84 +7656,87 @@
         <v>1</v>
       </c>
       <c r="Q53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" t="b">
         <v>1</v>
       </c>
-      <c r="S53">
+      <c r="S53" t="b">
+        <v>1</v>
+      </c>
+      <c r="T53">
         <v>0.02</v>
       </c>
-      <c r="T53" t="b">
-        <v>1</v>
-      </c>
-      <c r="U53" t="s">
+      <c r="U53" t="b">
+        <v>1</v>
+      </c>
+      <c r="V53" t="s">
         <v>4</v>
       </c>
-      <c r="V53" t="b">
-        <v>1</v>
-      </c>
       <c r="W53" t="b">
         <v>1</v>
       </c>
-      <c r="X53" t="s">
+      <c r="X53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y53" t="s">
         <v>28</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>64</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>24</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB53">
+      <c r="AC53">
         <v>10</v>
       </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="s">
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="s">
         <v>37</v>
       </c>
-      <c r="AE53" t="s">
+      <c r="AF53" t="s">
         <v>27</v>
       </c>
-      <c r="AF53" t="s">
+      <c r="AG53" t="s">
         <v>21</v>
       </c>
-      <c r="AG53">
-        <v>6.25E-2</v>
-      </c>
       <c r="AH53">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AI53" s="7">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AI53">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AJ53" s="7">
         <v>0.12</v>
       </c>
-      <c r="AJ53" t="s">
-        <v>141</v>
-      </c>
       <c r="AK53" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL53">
+        <v>47</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM53">
         <v>0.499</v>
       </c>
-      <c r="AM53">
+      <c r="AN53">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN53" s="25">
+      <c r="AO53" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO53">
+      <c r="AP53">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="40" t="s">
-        <v>193</v>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>174</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
@@ -7595,7 +7748,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="F54" t="s">
         <v>36</v>
@@ -7625,219 +7778,224 @@
         <v>1</v>
       </c>
       <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="b">
+        <v>0</v>
+      </c>
+      <c r="R54" t="b">
+        <v>1</v>
+      </c>
+      <c r="S54" t="b">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>0.02</v>
+      </c>
+      <c r="U54" t="b">
+        <v>1</v>
+      </c>
+      <c r="V54" t="s">
         <v>4</v>
       </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54" t="b">
-        <v>1</v>
-      </c>
-      <c r="R54" t="b">
-        <v>1</v>
-      </c>
-      <c r="S54">
+      <c r="W54" t="b">
+        <v>1</v>
+      </c>
+      <c r="X54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA54">
+        <v>24</v>
+      </c>
+      <c r="AB54">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AC54">
+        <v>10</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH54">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AI54">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AJ54" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM54">
+        <v>0.499</v>
+      </c>
+      <c r="AN54">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AO54" s="25">
+        <v>48971933106</v>
+      </c>
+      <c r="AP54">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>2017</v>
+      </c>
+      <c r="N55" t="b">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="b">
+        <v>0</v>
+      </c>
+      <c r="R55" t="b">
+        <v>1</v>
+      </c>
+      <c r="S55" t="b">
+        <v>1</v>
+      </c>
+      <c r="T55">
         <v>0.02</v>
       </c>
-      <c r="T54" t="b">
-        <v>1</v>
-      </c>
-      <c r="U54" t="s">
+      <c r="U55" t="b">
+        <v>1</v>
+      </c>
+      <c r="V55" t="s">
         <v>4</v>
       </c>
-      <c r="V54" t="b">
-        <v>1</v>
-      </c>
-      <c r="W54" t="b">
-        <v>1</v>
-      </c>
-      <c r="X54" t="s">
+      <c r="W55" t="b">
+        <v>1</v>
+      </c>
+      <c r="X55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y55" t="s">
         <v>28</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z55" t="s">
         <v>64</v>
       </c>
-      <c r="Z54">
+      <c r="AA55">
         <v>24</v>
       </c>
-      <c r="AA54">
+      <c r="AB55">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB54">
+      <c r="AC55">
         <v>10</v>
       </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AD54" t="s">
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="s">
         <v>37</v>
       </c>
-      <c r="AE54" t="s">
+      <c r="AF55" t="s">
         <v>27</v>
       </c>
-      <c r="AF54" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG54">
+      <c r="AG55" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH55">
         <v>6.25E-2</v>
       </c>
-      <c r="AH54">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AI54" s="7">
+      <c r="AI55">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="AJ55" s="7">
         <v>0.12</v>
       </c>
-      <c r="AJ54" t="s">
+      <c r="AK55" t="s">
         <v>141</v>
       </c>
-      <c r="AK54" t="s">
+      <c r="AL55" t="s">
         <v>140</v>
       </c>
-      <c r="AL54">
+      <c r="AM55">
         <v>0.499</v>
       </c>
-      <c r="AM54">
+      <c r="AN55">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN54" s="25">
+      <c r="AO55" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO54">
+      <c r="AP55">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="55" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AI55" s="7"/>
-      <c r="AN55" s="25"/>
-    </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A56" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="B56" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s">
-        <v>196</v>
-      </c>
-      <c r="F56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="b">
-        <v>1</v>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>2017</v>
-      </c>
-      <c r="N56" t="b">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>4</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="b">
-        <v>1</v>
-      </c>
-      <c r="R56" t="b">
-        <v>1</v>
-      </c>
-      <c r="S56">
-        <v>0.02</v>
-      </c>
-      <c r="T56" t="b">
-        <v>1</v>
-      </c>
-      <c r="U56" t="s">
-        <v>4</v>
-      </c>
-      <c r="V56" t="b">
-        <v>1</v>
-      </c>
-      <c r="W56" t="b">
-        <v>1</v>
-      </c>
-      <c r="X56" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z56">
-        <v>24</v>
-      </c>
-      <c r="AA56">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB56">
-        <v>10</v>
-      </c>
-      <c r="AC56">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG56">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AH56">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="AI56" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AJ56" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK56" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL56">
-        <v>0.499</v>
-      </c>
-      <c r="AM56">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AN56" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AO56">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A57" s="48" t="s">
-        <v>175</v>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
+        <v>201</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
@@ -7849,13 +8007,13 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="F57" t="s">
         <v>36</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
@@ -7864,7 +8022,7 @@
         <v>1</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K57" t="b">
         <v>1</v>
@@ -7879,90 +8037,93 @@
         <v>1</v>
       </c>
       <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="b">
+        <v>0</v>
+      </c>
+      <c r="R57" t="b">
+        <v>1</v>
+      </c>
+      <c r="S57" t="b">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>0.02</v>
+      </c>
+      <c r="U57" t="b">
+        <v>1</v>
+      </c>
+      <c r="V57" t="s">
         <v>4</v>
       </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="b">
-        <v>1</v>
-      </c>
-      <c r="R57" t="b">
-        <v>1</v>
-      </c>
-      <c r="S57">
-        <v>0.02</v>
-      </c>
-      <c r="T57" t="b">
-        <v>1</v>
-      </c>
-      <c r="U57" t="s">
-        <v>4</v>
-      </c>
-      <c r="V57" t="b">
-        <v>1</v>
-      </c>
       <c r="W57" t="b">
         <v>1</v>
       </c>
-      <c r="X57" t="s">
+      <c r="X57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y57" t="s">
         <v>28</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>64</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>24</v>
       </c>
-      <c r="AA57">
+      <c r="AB57">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB57">
+      <c r="AC57">
         <v>10</v>
       </c>
-      <c r="AC57">
-        <v>0</v>
-      </c>
-      <c r="AD57" t="s">
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="s">
         <v>37</v>
       </c>
-      <c r="AE57" t="s">
+      <c r="AF57" t="s">
         <v>27</v>
       </c>
-      <c r="AF57" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG57">
-        <v>7.2499999999999995E-2</v>
+      <c r="AG57" t="s">
+        <v>21</v>
       </c>
       <c r="AH57">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AI57">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AI57" s="7">
+      <c r="AJ57" s="7">
         <v>0.12</v>
       </c>
-      <c r="AJ57" t="s">
-        <v>47</v>
-      </c>
       <c r="AK57" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL57">
+        <v>141</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM57">
         <v>0.499</v>
       </c>
-      <c r="AM57">
+      <c r="AN57">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN57" s="25">
+      <c r="AO57" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO57">
+      <c r="AP57">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A58" s="48" t="s">
-        <v>183</v>
+    <row r="58" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
@@ -7974,7 +8135,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F58" t="s">
         <v>36</v>
@@ -8007,92 +8168,94 @@
         <v>4</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" t="b">
         <v>1</v>
       </c>
-      <c r="S58">
+      <c r="S58" t="b">
+        <v>1</v>
+      </c>
+      <c r="T58">
         <v>0.02</v>
       </c>
-      <c r="T58" t="b">
-        <v>1</v>
-      </c>
-      <c r="U58" t="s">
+      <c r="U58" t="b">
+        <v>1</v>
+      </c>
+      <c r="V58" t="s">
         <v>4</v>
       </c>
-      <c r="V58" t="b">
-        <v>1</v>
-      </c>
       <c r="W58" t="b">
         <v>1</v>
       </c>
-      <c r="X58" t="s">
+      <c r="X58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y58" t="s">
         <v>28</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>64</v>
       </c>
-      <c r="Z58">
+      <c r="AA58">
         <v>24</v>
       </c>
-      <c r="AA58">
+      <c r="AB58">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB58">
+      <c r="AC58">
         <v>10</v>
       </c>
-      <c r="AC58">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="s">
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="s">
         <v>37</v>
       </c>
-      <c r="AE58" t="s">
+      <c r="AF58" t="s">
         <v>27</v>
       </c>
-      <c r="AF58" t="s">
-        <v>207</v>
-      </c>
-      <c r="AG58">
-        <v>7.2499999999999995E-2</v>
+      <c r="AG58" t="s">
+        <v>206</v>
       </c>
       <c r="AH58">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="AI58" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AI58">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AJ58" s="7">
         <v>0.12</v>
       </c>
-      <c r="AJ58" t="s">
-        <v>47</v>
-      </c>
       <c r="AK58" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL58">
+        <v>141</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM58">
         <v>0.499</v>
       </c>
-      <c r="AM58">
+      <c r="AN58">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN58" s="25">
+      <c r="AO58" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO58">
+      <c r="AP58">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
-      <c r="AI59" s="7"/>
-      <c r="AN59" s="25"/>
-    </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A60" s="48" t="s">
-        <v>182</v>
+    <row r="59" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ59" s="7"/>
+      <c r="AO59" s="25"/>
+    </row>
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A60" s="49" t="s">
+        <v>179</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
@@ -8104,13 +8267,13 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="F60" t="s">
         <v>36</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
@@ -8125,7 +8288,7 @@
         <v>1</v>
       </c>
       <c r="L60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60">
         <v>2017</v>
@@ -8140,84 +8303,87 @@
         <v>0</v>
       </c>
       <c r="Q60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" t="b">
         <v>1</v>
       </c>
-      <c r="S60">
+      <c r="S60" t="b">
+        <v>1</v>
+      </c>
+      <c r="T60">
         <v>0.02</v>
       </c>
-      <c r="T60" t="b">
-        <v>1</v>
-      </c>
-      <c r="U60" t="s">
+      <c r="U60" t="b">
+        <v>1</v>
+      </c>
+      <c r="V60" t="s">
         <v>4</v>
       </c>
-      <c r="V60" t="b">
-        <v>1</v>
-      </c>
       <c r="W60" t="b">
         <v>1</v>
       </c>
-      <c r="X60" t="s">
+      <c r="X60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y60" t="s">
         <v>28</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>64</v>
       </c>
-      <c r="Z60">
+      <c r="AA60">
         <v>24</v>
       </c>
-      <c r="AA60">
+      <c r="AB60">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB60">
+      <c r="AC60">
         <v>10</v>
       </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-      <c r="AD60" t="s">
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="s">
         <v>37</v>
       </c>
-      <c r="AE60" t="s">
+      <c r="AF60" t="s">
         <v>27</v>
       </c>
-      <c r="AF60" t="s">
+      <c r="AG60" t="s">
         <v>21</v>
       </c>
-      <c r="AG60">
+      <c r="AH60">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH60">
+      <c r="AI60">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AI60" s="7">
+      <c r="AJ60" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ60" t="s">
-        <v>47</v>
       </c>
       <c r="AK60" t="s">
         <v>47</v>
       </c>
-      <c r="AL60">
+      <c r="AL60" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM60">
         <v>0.499</v>
       </c>
-      <c r="AM60">
+      <c r="AN60">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN60" s="25">
+      <c r="AO60" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO60">
+      <c r="AP60">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A61" s="48" t="s">
-        <v>177</v>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A61" s="39" t="s">
+        <v>175</v>
       </c>
       <c r="B61" t="s">
         <v>21</v>
@@ -8229,13 +8395,13 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="F61" t="s">
         <v>36</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
@@ -8250,7 +8416,7 @@
         <v>1</v>
       </c>
       <c r="L61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61">
         <v>2017</v>
@@ -8265,84 +8431,87 @@
         <v>0</v>
       </c>
       <c r="Q61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" t="b">
         <v>1</v>
       </c>
-      <c r="S61">
+      <c r="S61" t="b">
+        <v>1</v>
+      </c>
+      <c r="T61">
         <v>0.02</v>
       </c>
-      <c r="T61" t="b">
-        <v>1</v>
-      </c>
-      <c r="U61" t="s">
+      <c r="U61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V61" t="s">
         <v>4</v>
       </c>
-      <c r="V61" t="b">
-        <v>1</v>
-      </c>
       <c r="W61" t="b">
         <v>1</v>
       </c>
-      <c r="X61" t="s">
+      <c r="X61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y61" t="s">
         <v>28</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>64</v>
       </c>
-      <c r="Z61">
+      <c r="AA61">
         <v>24</v>
       </c>
-      <c r="AA61">
+      <c r="AB61">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB61">
+      <c r="AC61">
         <v>10</v>
       </c>
-      <c r="AC61">
-        <v>0</v>
-      </c>
-      <c r="AD61" t="s">
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="s">
         <v>37</v>
       </c>
-      <c r="AE61" t="s">
+      <c r="AF61" t="s">
         <v>27</v>
       </c>
-      <c r="AF61" t="s">
+      <c r="AG61" t="s">
         <v>206</v>
       </c>
-      <c r="AG61">
+      <c r="AH61">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH61">
+      <c r="AI61">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AI61" s="7">
+      <c r="AJ61" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ61" t="s">
-        <v>47</v>
       </c>
       <c r="AK61" t="s">
         <v>47</v>
       </c>
-      <c r="AL61">
+      <c r="AL61" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM61">
         <v>0.499</v>
       </c>
-      <c r="AM61">
+      <c r="AN61">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN61" s="25">
+      <c r="AO61" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO61">
+      <c r="AP61">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A62" s="48" t="s">
-        <v>184</v>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A62" s="39" t="s">
+        <v>183</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -8354,7 +8523,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="F62" t="s">
         <v>36</v>
@@ -8375,7 +8544,7 @@
         <v>1</v>
       </c>
       <c r="L62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <v>2017</v>
@@ -8390,89 +8559,92 @@
         <v>0</v>
       </c>
       <c r="Q62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" t="b">
         <v>1</v>
       </c>
-      <c r="S62">
+      <c r="S62" t="b">
+        <v>1</v>
+      </c>
+      <c r="T62">
         <v>0.02</v>
       </c>
-      <c r="T62" t="b">
-        <v>1</v>
-      </c>
-      <c r="U62" t="s">
+      <c r="U62" t="b">
+        <v>1</v>
+      </c>
+      <c r="V62" t="s">
         <v>4</v>
       </c>
-      <c r="V62" t="b">
-        <v>1</v>
-      </c>
       <c r="W62" t="b">
         <v>1</v>
       </c>
-      <c r="X62" t="s">
+      <c r="X62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y62" t="s">
         <v>28</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>64</v>
       </c>
-      <c r="Z62">
+      <c r="AA62">
         <v>24</v>
       </c>
-      <c r="AA62">
+      <c r="AB62">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB62">
+      <c r="AC62">
         <v>10</v>
       </c>
-      <c r="AC62">
-        <v>0</v>
-      </c>
-      <c r="AD62" t="s">
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="s">
         <v>37</v>
       </c>
-      <c r="AE62" t="s">
+      <c r="AF62" t="s">
         <v>27</v>
       </c>
-      <c r="AF62" t="s">
+      <c r="AG62" t="s">
         <v>207</v>
       </c>
-      <c r="AG62">
+      <c r="AH62">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH62">
+      <c r="AI62">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="AI62" s="7">
+      <c r="AJ62" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ62" t="s">
-        <v>47</v>
       </c>
       <c r="AK62" t="s">
         <v>47</v>
       </c>
-      <c r="AL62">
+      <c r="AL62" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM62">
         <v>0.499</v>
       </c>
-      <c r="AM62">
+      <c r="AN62">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN62" s="25">
+      <c r="AO62" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO62">
+      <c r="AP62">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
-      <c r="AI63" s="7"/>
-      <c r="AN63" s="25"/>
-    </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A64" s="48" t="s">
-        <v>178</v>
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A63" s="46"/>
+      <c r="AJ63" s="7"/>
+      <c r="AO63" s="25"/>
+    </row>
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A64" s="39" t="s">
+        <v>182</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
@@ -8484,13 +8656,13 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F64" t="s">
         <v>36</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -8505,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="L64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64">
         <v>2017</v>
@@ -8514,90 +8686,93 @@
         <v>1</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P64" t="b">
         <v>0</v>
       </c>
       <c r="Q64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64" t="b">
         <v>1</v>
       </c>
-      <c r="S64">
+      <c r="S64" t="b">
+        <v>1</v>
+      </c>
+      <c r="T64">
         <v>0.02</v>
       </c>
-      <c r="T64" t="b">
-        <v>1</v>
-      </c>
-      <c r="U64" t="s">
+      <c r="U64" t="b">
+        <v>1</v>
+      </c>
+      <c r="V64" t="s">
         <v>4</v>
       </c>
-      <c r="V64" t="b">
-        <v>1</v>
-      </c>
       <c r="W64" t="b">
         <v>1</v>
       </c>
-      <c r="X64" t="s">
+      <c r="X64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y64" t="s">
         <v>28</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>64</v>
       </c>
-      <c r="Z64">
+      <c r="AA64">
         <v>24</v>
       </c>
-      <c r="AA64">
+      <c r="AB64">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB64">
+      <c r="AC64">
         <v>10</v>
       </c>
-      <c r="AC64">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="s">
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="s">
         <v>37</v>
       </c>
-      <c r="AE64" t="s">
+      <c r="AF64" t="s">
         <v>27</v>
       </c>
-      <c r="AF64" t="s">
+      <c r="AG64" t="s">
         <v>21</v>
       </c>
-      <c r="AG64">
+      <c r="AH64">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH64">
+      <c r="AI64">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AI64" s="7">
+      <c r="AJ64" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ64" t="s">
-        <v>47</v>
       </c>
       <c r="AK64" t="s">
         <v>47</v>
       </c>
-      <c r="AL64">
+      <c r="AL64" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM64">
         <v>0.499</v>
       </c>
-      <c r="AM64">
+      <c r="AN64">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN64" s="25">
+      <c r="AO64" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO64">
+      <c r="AP64">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A65" s="48" t="s">
-        <v>176</v>
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A65" s="39" t="s">
+        <v>177</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
@@ -8609,13 +8784,13 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="F65" t="s">
         <v>36</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -8630,7 +8805,7 @@
         <v>1</v>
       </c>
       <c r="L65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65">
         <v>2017</v>
@@ -8639,90 +8814,93 @@
         <v>1</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P65" t="b">
         <v>0</v>
       </c>
       <c r="Q65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" t="b">
         <v>1</v>
       </c>
-      <c r="S65">
+      <c r="S65" t="b">
+        <v>1</v>
+      </c>
+      <c r="T65">
         <v>0.02</v>
       </c>
-      <c r="T65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U65" t="s">
+      <c r="U65" t="b">
+        <v>1</v>
+      </c>
+      <c r="V65" t="s">
         <v>4</v>
       </c>
-      <c r="V65" t="b">
-        <v>1</v>
-      </c>
       <c r="W65" t="b">
         <v>1</v>
       </c>
-      <c r="X65" t="s">
+      <c r="X65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y65" t="s">
         <v>28</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>64</v>
       </c>
-      <c r="Z65">
+      <c r="AA65">
         <v>24</v>
       </c>
-      <c r="AA65">
+      <c r="AB65">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB65">
+      <c r="AC65">
         <v>10</v>
       </c>
-      <c r="AC65">
-        <v>0</v>
-      </c>
-      <c r="AD65" t="s">
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="s">
         <v>37</v>
       </c>
-      <c r="AE65" t="s">
+      <c r="AF65" t="s">
         <v>27</v>
       </c>
-      <c r="AF65" t="s">
+      <c r="AG65" t="s">
         <v>206</v>
       </c>
-      <c r="AG65">
+      <c r="AH65">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH65">
+      <c r="AI65">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AI65" s="7">
+      <c r="AJ65" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ65" t="s">
-        <v>47</v>
       </c>
       <c r="AK65" t="s">
         <v>47</v>
       </c>
-      <c r="AL65">
+      <c r="AL65" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM65">
         <v>0.499</v>
       </c>
-      <c r="AM65">
+      <c r="AN65">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN65" s="25">
+      <c r="AO65" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO65">
+      <c r="AP65">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A66" s="48" t="s">
-        <v>185</v>
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A66" s="46" t="s">
+        <v>184</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
@@ -8734,13 +8912,13 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="F66" t="s">
         <v>36</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -8755,7 +8933,7 @@
         <v>1</v>
       </c>
       <c r="L66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66">
         <v>2017</v>
@@ -8764,95 +8942,98 @@
         <v>1</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P66" t="b">
         <v>0</v>
       </c>
       <c r="Q66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" t="b">
         <v>1</v>
       </c>
-      <c r="S66">
+      <c r="S66" t="b">
+        <v>1</v>
+      </c>
+      <c r="T66">
         <v>0.02</v>
       </c>
-      <c r="T66" t="b">
-        <v>1</v>
-      </c>
-      <c r="U66" t="s">
+      <c r="U66" t="b">
+        <v>1</v>
+      </c>
+      <c r="V66" t="s">
         <v>4</v>
       </c>
-      <c r="V66" t="b">
-        <v>1</v>
-      </c>
       <c r="W66" t="b">
         <v>1</v>
       </c>
-      <c r="X66" t="s">
+      <c r="X66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y66" t="s">
         <v>28</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>64</v>
       </c>
-      <c r="Z66">
+      <c r="AA66">
         <v>24</v>
       </c>
-      <c r="AA66">
+      <c r="AB66">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB66">
+      <c r="AC66">
         <v>10</v>
       </c>
-      <c r="AC66">
-        <v>0</v>
-      </c>
-      <c r="AD66" t="s">
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="s">
         <v>37</v>
       </c>
-      <c r="AE66" t="s">
+      <c r="AF66" t="s">
         <v>27</v>
       </c>
-      <c r="AF66" t="s">
+      <c r="AG66" t="s">
         <v>207</v>
       </c>
-      <c r="AG66">
+      <c r="AH66">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH66">
+      <c r="AI66">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="AI66" s="7">
+      <c r="AJ66" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ66" t="s">
-        <v>47</v>
       </c>
       <c r="AK66" t="s">
         <v>47</v>
       </c>
-      <c r="AL66">
+      <c r="AL66" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM66">
         <v>0.499</v>
       </c>
-      <c r="AM66">
+      <c r="AN66">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN66" s="25">
+      <c r="AO66" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO66">
+      <c r="AP66">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="67" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="48"/>
-      <c r="AI67" s="7"/>
-      <c r="AN67" s="25"/>
-    </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A68" s="37" t="s">
-        <v>202</v>
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A67" s="46"/>
+      <c r="AJ67" s="7"/>
+      <c r="AO67" s="25"/>
+    </row>
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A68" s="39" t="s">
+        <v>178</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
@@ -8864,7 +9045,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="F68" t="s">
         <v>36</v>
@@ -8894,90 +9075,93 @@
         <v>1</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
         <v>0</v>
       </c>
       <c r="Q68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" t="b">
         <v>1</v>
       </c>
-      <c r="S68">
+      <c r="S68" t="b">
+        <v>1</v>
+      </c>
+      <c r="T68">
         <v>0.02</v>
       </c>
-      <c r="T68" t="b">
-        <v>1</v>
-      </c>
-      <c r="U68" t="s">
+      <c r="U68" t="b">
+        <v>1</v>
+      </c>
+      <c r="V68" t="s">
         <v>4</v>
       </c>
-      <c r="V68" t="b">
-        <v>1</v>
-      </c>
       <c r="W68" t="b">
         <v>1</v>
       </c>
-      <c r="X68" t="s">
+      <c r="X68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y68" t="s">
         <v>28</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>64</v>
       </c>
-      <c r="Z68">
+      <c r="AA68">
         <v>24</v>
       </c>
-      <c r="AA68">
+      <c r="AB68">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB68">
+      <c r="AC68">
         <v>10</v>
       </c>
-      <c r="AC68">
-        <v>0</v>
-      </c>
-      <c r="AD68" t="s">
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="s">
         <v>37</v>
       </c>
-      <c r="AE68" t="s">
+      <c r="AF68" t="s">
         <v>27</v>
       </c>
-      <c r="AF68" t="s">
+      <c r="AG68" t="s">
         <v>21</v>
       </c>
-      <c r="AG68">
+      <c r="AH68">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH68">
+      <c r="AI68">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AI68" s="7">
+      <c r="AJ68" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ68" t="s">
-        <v>47</v>
       </c>
       <c r="AK68" t="s">
         <v>47</v>
       </c>
-      <c r="AL68">
+      <c r="AL68" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM68">
         <v>0.499</v>
       </c>
-      <c r="AM68">
+      <c r="AN68">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN68" s="25">
+      <c r="AO68" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO68">
+      <c r="AP68">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
-        <v>203</v>
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A69" s="39" t="s">
+        <v>176</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
@@ -8989,7 +9173,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="F69" t="s">
         <v>36</v>
@@ -9019,218 +9203,226 @@
         <v>1</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
         <v>0</v>
       </c>
       <c r="Q69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R69" t="b">
         <v>1</v>
       </c>
-      <c r="S69">
+      <c r="S69" t="b">
+        <v>1</v>
+      </c>
+      <c r="T69">
         <v>0.02</v>
       </c>
-      <c r="T69" t="b">
-        <v>1</v>
-      </c>
-      <c r="U69" t="s">
+      <c r="U69" t="b">
+        <v>1</v>
+      </c>
+      <c r="V69" t="s">
         <v>4</v>
       </c>
-      <c r="V69" t="b">
-        <v>1</v>
-      </c>
       <c r="W69" t="b">
         <v>1</v>
       </c>
-      <c r="X69" t="s">
+      <c r="X69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y69" t="s">
         <v>28</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>64</v>
       </c>
-      <c r="Z69">
+      <c r="AA69">
         <v>24</v>
       </c>
-      <c r="AA69">
+      <c r="AB69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB69">
+      <c r="AC69">
         <v>10</v>
       </c>
-      <c r="AC69">
-        <v>0</v>
-      </c>
-      <c r="AD69" t="s">
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="s">
         <v>37</v>
       </c>
-      <c r="AE69" t="s">
+      <c r="AF69" t="s">
         <v>27</v>
       </c>
-      <c r="AF69" t="s">
+      <c r="AG69" t="s">
         <v>206</v>
       </c>
-      <c r="AG69">
+      <c r="AH69">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH69">
+      <c r="AI69">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AI69" s="7">
+      <c r="AJ69" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AJ69" t="s">
-        <v>47</v>
       </c>
       <c r="AK69" t="s">
         <v>47</v>
       </c>
-      <c r="AL69">
+      <c r="AL69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM69">
         <v>0.499</v>
       </c>
-      <c r="AM69">
+      <c r="AN69">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN69" s="25">
+      <c r="AO69" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO69">
+      <c r="AP69">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
-    </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A71" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A70" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="B70" t="s">
         <v>21</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>196</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>181</v>
+      </c>
+      <c r="F70" t="s">
         <v>36</v>
       </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71" t="b">
-        <v>1</v>
-      </c>
-      <c r="L71" t="b">
-        <v>0</v>
-      </c>
-      <c r="M71">
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70">
         <v>2017</v>
       </c>
-      <c r="N71" t="b">
-        <v>1</v>
-      </c>
-      <c r="O71">
+      <c r="N70" t="b">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="b">
+        <v>0</v>
+      </c>
+      <c r="R70" t="b">
+        <v>1</v>
+      </c>
+      <c r="S70" t="b">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>0.02</v>
+      </c>
+      <c r="U70" t="b">
+        <v>1</v>
+      </c>
+      <c r="V70" t="s">
         <v>4</v>
       </c>
-      <c r="P71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="b">
-        <v>1</v>
-      </c>
-      <c r="R71" t="b">
-        <v>1</v>
-      </c>
-      <c r="S71">
-        <v>0.02</v>
-      </c>
-      <c r="T71" t="b">
-        <v>1</v>
-      </c>
-      <c r="U71" t="s">
-        <v>4</v>
-      </c>
-      <c r="V71" t="b">
-        <v>1</v>
-      </c>
-      <c r="W71" t="b">
-        <v>1</v>
-      </c>
-      <c r="X71" t="s">
+      <c r="W70" t="b">
+        <v>1</v>
+      </c>
+      <c r="X70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y70" t="s">
         <v>28</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z70" t="s">
         <v>64</v>
       </c>
-      <c r="Z71">
+      <c r="AA70">
         <v>24</v>
       </c>
-      <c r="AA71">
+      <c r="AB70">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB71">
+      <c r="AC70">
         <v>10</v>
       </c>
-      <c r="AC71">
-        <v>0</v>
-      </c>
-      <c r="AD71" t="s">
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="s">
         <v>37</v>
       </c>
-      <c r="AE71" t="s">
+      <c r="AF70" t="s">
         <v>27</v>
       </c>
-      <c r="AF71" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG71">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AH71">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AI71" s="7">
+      <c r="AG70" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH70">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AI70">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="AJ70" s="7">
         <v>0.12</v>
       </c>
-      <c r="AJ71" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK71" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL71">
+      <c r="AK70" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM70">
         <v>0.499</v>
       </c>
-      <c r="AM71">
+      <c r="AN70">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN71" s="25">
+      <c r="AO70" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO71">
+      <c r="AP70">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="72" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="40" t="s">
-        <v>195</v>
+    <row r="71" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="46"/>
+      <c r="AJ71" s="7"/>
+      <c r="AO71" s="25"/>
+    </row>
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A72" s="37" t="s">
+        <v>202</v>
       </c>
       <c r="B72" t="s">
         <v>21</v>
@@ -9242,13 +9434,13 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="F72" t="s">
         <v>36</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="b">
         <v>1</v>
@@ -9272,218 +9464,224 @@
         <v>1</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P72" t="b">
         <v>0</v>
       </c>
       <c r="Q72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72" t="b">
         <v>1</v>
       </c>
-      <c r="S72">
+      <c r="S72" t="b">
+        <v>1</v>
+      </c>
+      <c r="T72">
         <v>0.02</v>
       </c>
-      <c r="T72" t="b">
-        <v>1</v>
-      </c>
-      <c r="U72" t="s">
+      <c r="U72" t="b">
+        <v>1</v>
+      </c>
+      <c r="V72" t="s">
         <v>4</v>
       </c>
-      <c r="V72" t="b">
-        <v>1</v>
-      </c>
       <c r="W72" t="b">
         <v>1</v>
       </c>
-      <c r="X72" t="s">
+      <c r="X72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y72" t="s">
         <v>28</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>64</v>
       </c>
-      <c r="Z72">
+      <c r="AA72">
         <v>24</v>
       </c>
-      <c r="AA72">
+      <c r="AB72">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB72">
+      <c r="AC72">
         <v>10</v>
       </c>
-      <c r="AC72">
-        <v>0</v>
-      </c>
-      <c r="AD72" t="s">
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="s">
         <v>37</v>
       </c>
-      <c r="AE72" t="s">
+      <c r="AF72" t="s">
         <v>27</v>
       </c>
-      <c r="AF72" t="s">
+      <c r="AG72" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH72">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AI72">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AJ72" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM72">
+        <v>0.499</v>
+      </c>
+      <c r="AN72">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AO72" s="25">
+        <v>48971933106</v>
+      </c>
+      <c r="AP72">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A73" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>204</v>
+      </c>
+      <c r="F73" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="b">
+        <v>1</v>
+      </c>
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>2017</v>
+      </c>
+      <c r="N73" t="b">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>5</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="b">
+        <v>0</v>
+      </c>
+      <c r="R73" t="b">
+        <v>1</v>
+      </c>
+      <c r="S73" t="b">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>0.02</v>
+      </c>
+      <c r="U73" t="b">
+        <v>1</v>
+      </c>
+      <c r="V73" t="s">
+        <v>4</v>
+      </c>
+      <c r="W73" t="b">
+        <v>1</v>
+      </c>
+      <c r="X73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA73">
+        <v>24</v>
+      </c>
+      <c r="AB73">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AC73">
+        <v>10</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG73" t="s">
         <v>206</v>
       </c>
-      <c r="AG72">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AH72">
+      <c r="AH73">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AI73">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AI72" s="7">
+      <c r="AJ73" s="7">
         <v>0.12</v>
       </c>
-      <c r="AJ72" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK72" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL72">
+      <c r="AK73" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM73">
         <v>0.499</v>
       </c>
-      <c r="AM72">
+      <c r="AN73">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AN72" s="25">
+      <c r="AO73" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AO72">
+      <c r="AP73">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
-    </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A74" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="B74" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s">
-        <v>197</v>
-      </c>
-      <c r="F74" t="s">
-        <v>36</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="b">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74" t="b">
-        <v>1</v>
-      </c>
-      <c r="L74" t="b">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>2017</v>
-      </c>
-      <c r="N74" t="b">
-        <v>1</v>
-      </c>
-      <c r="O74">
-        <v>4</v>
-      </c>
-      <c r="P74" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q74" t="b">
-        <v>1</v>
-      </c>
-      <c r="R74" t="b">
-        <v>1</v>
-      </c>
-      <c r="S74">
-        <v>0.02</v>
-      </c>
-      <c r="T74" t="b">
-        <v>0</v>
-      </c>
-      <c r="U74" t="s">
-        <v>4</v>
-      </c>
-      <c r="V74" t="b">
-        <v>1</v>
-      </c>
-      <c r="W74" t="b">
-        <v>1</v>
-      </c>
-      <c r="X74" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z74">
-        <v>24</v>
-      </c>
-      <c r="AA74">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB74">
-        <v>10</v>
-      </c>
-      <c r="AC74">
-        <v>0</v>
-      </c>
-      <c r="AD74" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG74">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AH74">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="AI74" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AJ74" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK74" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL74">
-        <v>0.499</v>
-      </c>
-      <c r="AM74">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AN74" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AO74">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A75" s="41" t="s">
-        <v>191</v>
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A74" s="38"/>
+    </row>
+    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A75" s="38" t="s">
+        <v>194</v>
       </c>
       <c r="B75" t="s">
         <v>21</v>
@@ -9495,13 +9693,13 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="F75" t="s">
         <v>36</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="b">
         <v>1</v>
@@ -9513,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="K75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="b">
         <v>0</v>
@@ -9522,90 +9720,480 @@
         <v>2017</v>
       </c>
       <c r="N75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" t="b">
         <v>1</v>
       </c>
-      <c r="S75">
+      <c r="S75" t="b">
+        <v>1</v>
+      </c>
+      <c r="T75">
         <v>0.02</v>
       </c>
-      <c r="T75" t="b">
-        <v>0</v>
-      </c>
-      <c r="U75" t="s">
+      <c r="U75" t="b">
+        <v>1</v>
+      </c>
+      <c r="V75" t="s">
         <v>4</v>
       </c>
-      <c r="V75" t="b">
-        <v>1</v>
-      </c>
       <c r="W75" t="b">
         <v>1</v>
       </c>
-      <c r="X75" t="s">
+      <c r="X75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y75" t="s">
         <v>28</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>64</v>
       </c>
-      <c r="Z75">
+      <c r="AA75">
         <v>24</v>
       </c>
-      <c r="AA75">
+      <c r="AB75">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB75">
+      <c r="AC75">
         <v>10</v>
       </c>
-      <c r="AC75">
-        <v>0</v>
-      </c>
-      <c r="AD75" t="s">
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="s">
         <v>37</v>
       </c>
-      <c r="AE75" t="s">
+      <c r="AF75" t="s">
         <v>27</v>
       </c>
-      <c r="AF75" t="s">
+      <c r="AG75" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH75">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AI75">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AJ75" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM75">
+        <v>0.499</v>
+      </c>
+      <c r="AN75">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AO75" s="25">
+        <v>48971933106</v>
+      </c>
+      <c r="AP75">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="76" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B76" t="s">
         <v>21</v>
       </c>
-      <c r="AG75">
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>214</v>
+      </c>
+      <c r="F76" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>2017</v>
+      </c>
+      <c r="N76" t="b">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="b">
+        <v>0</v>
+      </c>
+      <c r="R76" t="b">
+        <v>1</v>
+      </c>
+      <c r="S76" t="b">
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <v>0.02</v>
+      </c>
+      <c r="U76" t="b">
+        <v>1</v>
+      </c>
+      <c r="V76" t="s">
+        <v>4</v>
+      </c>
+      <c r="W76" t="b">
+        <v>1</v>
+      </c>
+      <c r="X76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA76">
+        <v>24</v>
+      </c>
+      <c r="AB76">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AC76">
+        <v>10</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH76">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AI76">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AJ76" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM76">
+        <v>0.499</v>
+      </c>
+      <c r="AN76">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AO76" s="25">
+        <v>48971933106</v>
+      </c>
+      <c r="AP76">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A77" s="41"/>
+    </row>
+    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A78" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>197</v>
+      </c>
+      <c r="F78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>2017</v>
+      </c>
+      <c r="N78" t="b">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>4</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="b">
+        <v>0</v>
+      </c>
+      <c r="R78" t="b">
+        <v>1</v>
+      </c>
+      <c r="S78" t="b">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>0.02</v>
+      </c>
+      <c r="U78" t="b">
+        <v>0</v>
+      </c>
+      <c r="V78" t="s">
+        <v>4</v>
+      </c>
+      <c r="W78" t="b">
+        <v>1</v>
+      </c>
+      <c r="X78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA78">
+        <v>24</v>
+      </c>
+      <c r="AB78">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AC78">
+        <v>10</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH78">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AH75">
+      <c r="AI78">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AJ78" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM78">
+        <v>0.499</v>
+      </c>
+      <c r="AN78">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AO78" s="25">
+        <v>48971933106</v>
+      </c>
+      <c r="AP78">
+        <v>56234303948</v>
+      </c>
+    </row>
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A79" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>192</v>
+      </c>
+      <c r="F79" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>2017</v>
+      </c>
+      <c r="N79" t="b">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="b">
+        <v>0</v>
+      </c>
+      <c r="R79" t="b">
+        <v>1</v>
+      </c>
+      <c r="S79" t="b">
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>0.02</v>
+      </c>
+      <c r="U79" t="b">
+        <v>0</v>
+      </c>
+      <c r="V79" t="s">
+        <v>4</v>
+      </c>
+      <c r="W79" t="b">
+        <v>1</v>
+      </c>
+      <c r="X79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA79">
+        <v>24</v>
+      </c>
+      <c r="AB79">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AC79">
+        <v>10</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH79">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AI79">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AI75" s="7">
+      <c r="AJ79" s="7">
         <v>0.12</v>
       </c>
-      <c r="AJ75" t="s">
+      <c r="AK79" t="s">
         <v>47</v>
       </c>
-      <c r="AK75" t="s">
+      <c r="AL79" t="s">
         <v>47</v>
       </c>
-      <c r="AL75">
+      <c r="AM79">
         <v>0.499</v>
       </c>
-      <c r="AM75">
+      <c r="AN79">
         <v>0.57299999999999995</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29:I30 H5:I13 H32:I34 G15:I20 G22:I27 H36:I39 H41:I47 G74:I75 G71:I72 G49:I51 H53:I69 G28:G48 G5:G14 G21 G52:G70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:I30 H5:I13 H40:I43 H45:I51 G78:I79 G75:I76 G53:I55 H57:I73 G56:G74 G31:G52 H15:I20 H22:I27 G5:G28 H32:I38">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE22:AE27 AE15:AE20 AE5:AE13 AE29:AE30 AE32:AE34 AE41:AE47 AE36:AE39 AE74:AE75 AE49:AE51 AE53:AE69 AE71:AE72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF22:AF27 AF15:AF20 AF5:AF13 AF29:AF30 AF75:AF76 AF45:AF51 AF40:AF43 AF78:AF79 AF53:AF55 AF57:AF73 AF32:AF38">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9752,7 +10340,7 @@
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="43">
         <v>7.9699999999999993E-2</v>
       </c>
       <c r="C3" s="7">
@@ -9761,7 +10349,7 @@
       <c r="D3" s="22">
         <v>40</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="43">
         <f>B3-C3^2/2</f>
         <v>7.2499999999999995E-2</v>
       </c>
@@ -9898,7 +10486,7 @@
       <c r="D9" s="22">
         <v>40</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="44">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="F9" s="24">
@@ -9935,7 +10523,7 @@
       <c r="A11" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="43">
         <v>6.9699999999999998E-2</v>
       </c>
       <c r="C11" s="7">
@@ -9944,7 +10532,7 @@
       <c r="D11" s="22">
         <v>40</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="43">
         <f>B11-C11^2/2</f>
         <v>6.25E-2</v>
       </c>
@@ -9952,7 +10540,7 @@
         <f>B11 - C11^2/2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="42">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -9982,7 +10570,7 @@
       <c r="A13" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="43">
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="C13" s="7">
@@ -9991,7 +10579,7 @@
       <c r="D13" s="22">
         <v>40</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="43">
         <f>B13-C13^2/2</f>
         <v>5.2500000000000005E-2</v>
       </c>
@@ -9999,7 +10587,7 @@
         <f>B13 - C13^2/2</f>
         <v>5.2500000000000005E-2</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="42">
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
@@ -10916,11 +11504,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="27"/>
@@ -10987,11 +11575,11 @@
       <c r="D8" s="29"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="27"/>
@@ -11083,11 +11671,11 @@
       <c r="N30" s="26"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
       <c r="N31" s="26"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -105,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB5" authorId="0" shapeId="0">
+    <comment ref="AC5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="216">
   <si>
     <t>runname</t>
   </si>
@@ -1089,6 +1089,9 @@
   </si>
   <si>
     <t xml:space="preserve">discount rate 6.25% for Greg's question; no EE shared-risk; no EE shared-risk </t>
+  </si>
+  <si>
+    <t>SharedRisk_floor</t>
   </si>
 </sst>
 </file>
@@ -1375,24 +1378,24 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2893,13 +2896,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AP79"/>
+  <dimension ref="A4:AQ79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2908,7 +2911,7 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="55.7109375" customWidth="1"/>
+    <col min="5" max="5" width="64" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
@@ -2923,22 +2926,23 @@
     <col min="17" max="17" width="17.42578125" customWidth="1"/>
     <col min="18" max="19" width="14.28515625" customWidth="1"/>
     <col min="20" max="20" width="14.85546875" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" customWidth="1"/>
-    <col min="30" max="30" width="14" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" customWidth="1"/>
-    <col min="32" max="32" width="12.5703125" customWidth="1"/>
-    <col min="33" max="33" width="14.85546875" customWidth="1"/>
-    <col min="41" max="41" width="21.7109375" customWidth="1"/>
-    <col min="42" max="42" width="16.5703125" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.7109375" customWidth="1"/>
+    <col min="31" max="31" width="14" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" customWidth="1"/>
+    <col min="34" max="34" width="14.85546875" customWidth="1"/>
+    <col min="42" max="42" width="21.7109375" customWidth="1"/>
+    <col min="43" max="43" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2999,74 +3003,77 @@
       <c r="T4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AE4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AF4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AG4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AH4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AH4" s="5" t="s">
+      <c r="AI4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AI4" s="5" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AK4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AK4" s="8" t="s">
+      <c r="AL4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AL4" s="8" t="s">
+      <c r="AM4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AM4" s="8" t="s">
+      <c r="AN4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AN4" s="8" t="s">
+      <c r="AO4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AQ4" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -3124,68 +3131,71 @@
       <c r="T5">
         <v>0.02</v>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="U5">
+        <v>-0.02</v>
+      </c>
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" t="s">
         <v>4</v>
       </c>
-      <c r="W5" t="b">
-        <v>1</v>
-      </c>
       <c r="X5" t="b">
         <v>1</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="s">
         <v>28</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>64</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>24</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>10</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="s">
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="s">
         <v>37</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>48</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>21</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AJ5" s="7">
+      <c r="AK5" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>47</v>
       </c>
       <c r="AL5" t="s">
         <v>47</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN5">
         <v>0.499</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -3243,75 +3253,78 @@
       <c r="T6">
         <v>0.02</v>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="U6">
+        <v>-0.02</v>
+      </c>
+      <c r="V6" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
         <v>4</v>
       </c>
-      <c r="W6" t="b">
-        <v>1</v>
-      </c>
       <c r="X6" t="b">
         <v>1</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="s">
         <v>28</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>64</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>24</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>10</v>
       </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="s">
         <v>37</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>48</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>21</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AJ6" s="7">
+      <c r="AK6" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>47</v>
       </c>
       <c r="AL6" t="s">
         <v>47</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN6">
         <v>0.499</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q7" t="b">
         <v>0</v>
       </c>
-      <c r="AJ7" s="7"/>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="AK7" s="7"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>101</v>
       </c>
       <c r="B8" t="s">
@@ -3327,7 +3340,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -3368,69 +3381,72 @@
       <c r="T8">
         <v>0.02</v>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="U8">
+        <v>-0.02</v>
+      </c>
+      <c r="V8" t="b">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
         <v>4</v>
       </c>
-      <c r="W8" t="b">
-        <v>1</v>
-      </c>
       <c r="X8" t="b">
         <v>1</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="s">
         <v>28</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>64</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>24</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>10</v>
       </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="s">
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="s">
         <v>37</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>27</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>21</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ8" s="7">
+      <c r="AK8" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>47</v>
       </c>
       <c r="AL8" t="s">
         <v>47</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN8">
         <v>0.499</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
         <v>102</v>
       </c>
       <c r="B9" t="s">
@@ -3487,69 +3503,72 @@
       <c r="T9">
         <v>0.02</v>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="U9">
+        <v>-0.02</v>
+      </c>
+      <c r="V9" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" t="s">
         <v>4</v>
       </c>
-      <c r="W9" t="b">
-        <v>1</v>
-      </c>
       <c r="X9" t="b">
         <v>1</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>64</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>24</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>10</v>
       </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="s">
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="s">
         <v>37</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>27</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>21</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ9" s="7">
+      <c r="AK9" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>47</v>
       </c>
       <c r="AL9" t="s">
         <v>47</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN9">
         <v>0.499</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
         <v>103</v>
       </c>
       <c r="B10" t="s">
@@ -3606,69 +3625,72 @@
       <c r="T10">
         <v>0.02</v>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="U10">
+        <v>-0.02</v>
+      </c>
+      <c r="V10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
         <v>4</v>
       </c>
-      <c r="W10" t="b">
-        <v>1</v>
-      </c>
       <c r="X10" t="b">
         <v>1</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="s">
         <v>28</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>64</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>24</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>10</v>
       </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="s">
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="s">
         <v>37</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>27</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>21</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ10" s="7">
+      <c r="AK10" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>47</v>
       </c>
       <c r="AL10" t="s">
         <v>47</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN10">
         <v>0.499</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
         <v>104</v>
       </c>
       <c r="B11" t="s">
@@ -3725,68 +3747,71 @@
       <c r="T11">
         <v>0.02</v>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="U11">
+        <v>-0.02</v>
+      </c>
+      <c r="V11" t="b">
+        <v>1</v>
+      </c>
+      <c r="W11" t="s">
         <v>4</v>
       </c>
-      <c r="W11" t="b">
-        <v>1</v>
-      </c>
       <c r="X11" t="b">
         <v>1</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Y11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="s">
         <v>28</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>64</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>24</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>10</v>
       </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="s">
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="s">
         <v>37</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>27</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>21</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ11" s="7">
+      <c r="AK11" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>47</v>
       </c>
       <c r="AL11" t="s">
         <v>47</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN11">
         <v>0.499</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>116</v>
       </c>
@@ -3806,7 +3831,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -3847,68 +3872,71 @@
       <c r="T12">
         <v>0.05</v>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="U12">
+        <v>-0.02</v>
+      </c>
+      <c r="V12" t="b">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
         <v>4</v>
       </c>
-      <c r="W12" t="b">
-        <v>1</v>
-      </c>
       <c r="X12" t="b">
         <v>1</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Y12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="s">
         <v>28</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>64</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>24</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>10</v>
       </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="s">
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="s">
         <v>37</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>27</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>21</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ12" s="7">
+      <c r="AK12" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>47</v>
       </c>
       <c r="AL12" t="s">
         <v>47</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN12">
         <v>0.499</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>117</v>
       </c>
@@ -3925,7 +3953,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -3966,72 +3994,75 @@
       <c r="T13">
         <v>0.02</v>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="U13">
+        <v>-0.02</v>
+      </c>
+      <c r="V13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
         <v>4</v>
       </c>
-      <c r="W13" t="b">
-        <v>1</v>
-      </c>
       <c r="X13" t="b">
         <v>1</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Y13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="s">
         <v>28</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>64</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>24</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>10</v>
       </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="s">
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="s">
         <v>37</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>27</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>21</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ13" s="7">
+      <c r="AK13" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>47</v>
       </c>
       <c r="AL13" t="s">
         <v>47</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN13">
         <v>0.499</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
         <v>107</v>
       </c>
       <c r="B15" t="s">
@@ -4088,69 +4119,72 @@
       <c r="T15">
         <v>0.02</v>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="U15">
+        <v>-0.02</v>
+      </c>
+      <c r="V15" t="b">
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
         <v>4</v>
       </c>
-      <c r="W15" t="b">
-        <v>1</v>
-      </c>
       <c r="X15" t="b">
         <v>1</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Y15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="s">
         <v>28</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>64</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>24</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>10</v>
       </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="s">
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="s">
         <v>37</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>27</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>22</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ15" s="7">
+      <c r="AK15" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>47</v>
       </c>
       <c r="AL15" t="s">
         <v>47</v>
       </c>
-      <c r="AM15">
+      <c r="AM15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN15">
         <v>0.499</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
         <v>108</v>
       </c>
       <c r="B16" t="s">
@@ -4207,69 +4241,72 @@
       <c r="T16">
         <v>0.02</v>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="U16">
+        <v>-0.02</v>
+      </c>
+      <c r="V16" t="b">
+        <v>1</v>
+      </c>
+      <c r="W16" t="s">
         <v>4</v>
       </c>
-      <c r="W16" t="b">
-        <v>1</v>
-      </c>
       <c r="X16" t="b">
         <v>1</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Y16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="s">
         <v>28</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>64</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>24</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>10</v>
       </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="s">
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="s">
         <v>37</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>27</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>22</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ16" s="7">
+      <c r="AK16" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>47</v>
       </c>
       <c r="AL16" t="s">
         <v>47</v>
       </c>
-      <c r="AM16">
+      <c r="AM16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN16">
         <v>0.499</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
         <v>109</v>
       </c>
       <c r="B17" t="s">
@@ -4326,69 +4363,72 @@
       <c r="T17">
         <v>0.02</v>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="U17">
+        <v>-0.02</v>
+      </c>
+      <c r="V17" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" t="s">
         <v>4</v>
       </c>
-      <c r="W17" t="b">
-        <v>1</v>
-      </c>
       <c r="X17" t="b">
         <v>1</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Y17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="s">
         <v>28</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>64</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>24</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>10</v>
       </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="s">
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="s">
         <v>37</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>27</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>22</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ17" s="7">
+      <c r="AK17" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>47</v>
       </c>
       <c r="AL17" t="s">
         <v>47</v>
       </c>
-      <c r="AM17">
+      <c r="AM17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN17">
         <v>0.499</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
         <v>110</v>
       </c>
       <c r="B18" t="s">
@@ -4445,69 +4485,72 @@
       <c r="T18">
         <v>0.02</v>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
-      </c>
-      <c r="V18" t="s">
+      <c r="U18">
+        <v>-0.02</v>
+      </c>
+      <c r="V18" t="b">
+        <v>1</v>
+      </c>
+      <c r="W18" t="s">
         <v>4</v>
       </c>
-      <c r="W18" t="b">
-        <v>1</v>
-      </c>
       <c r="X18" t="b">
         <v>1</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Y18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="s">
         <v>28</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>64</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>24</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>10</v>
       </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="s">
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="s">
         <v>37</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>27</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>22</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ18" s="7">
+      <c r="AK18" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>47</v>
       </c>
       <c r="AL18" t="s">
         <v>47</v>
       </c>
-      <c r="AM18">
+      <c r="AM18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN18">
         <v>0.499</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
         <v>118</v>
       </c>
       <c r="B19" t="s">
@@ -4564,69 +4607,72 @@
       <c r="T19">
         <v>0.05</v>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="U19">
+        <v>-0.02</v>
+      </c>
+      <c r="V19" t="b">
+        <v>1</v>
+      </c>
+      <c r="W19" t="s">
         <v>4</v>
       </c>
-      <c r="W19" t="b">
-        <v>1</v>
-      </c>
       <c r="X19" t="b">
         <v>1</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Y19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="s">
         <v>28</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>64</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>24</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>10</v>
       </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="s">
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="s">
         <v>37</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>27</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>22</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ19" s="7">
+      <c r="AK19" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>47</v>
       </c>
       <c r="AL19" t="s">
         <v>47</v>
       </c>
-      <c r="AM19">
+      <c r="AM19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN19">
         <v>0.499</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
         <v>119</v>
       </c>
       <c r="B20" t="s">
@@ -4683,72 +4729,75 @@
       <c r="T20">
         <v>0.02</v>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
-      </c>
-      <c r="V20" t="s">
+      <c r="U20">
+        <v>-0.02</v>
+      </c>
+      <c r="V20" t="b">
+        <v>1</v>
+      </c>
+      <c r="W20" t="s">
         <v>4</v>
       </c>
-      <c r="W20" t="b">
-        <v>1</v>
-      </c>
       <c r="X20" t="b">
         <v>1</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Y20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="s">
         <v>28</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>64</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>24</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>10</v>
       </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="s">
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="s">
         <v>37</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>27</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>22</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ20" s="7">
+      <c r="AK20" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>47</v>
       </c>
       <c r="AL20" t="s">
         <v>47</v>
       </c>
-      <c r="AM20">
+      <c r="AM20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN20">
         <v>0.499</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
         <v>111</v>
       </c>
       <c r="B22" t="s">
@@ -4805,69 +4854,72 @@
       <c r="T22">
         <v>0.02</v>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="U22">
+        <v>-0.02</v>
+      </c>
+      <c r="V22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" t="s">
         <v>4</v>
       </c>
-      <c r="W22" t="b">
-        <v>1</v>
-      </c>
       <c r="X22" t="b">
         <v>1</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Y22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="s">
         <v>28</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>64</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>24</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>10</v>
       </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="s">
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="s">
         <v>37</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>27</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
         <v>23</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ22" s="7">
+      <c r="AK22" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>47</v>
       </c>
       <c r="AL22" t="s">
         <v>47</v>
       </c>
-      <c r="AM22">
+      <c r="AM22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN22">
         <v>0.499</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
         <v>112</v>
       </c>
       <c r="B23" t="s">
@@ -4924,69 +4976,72 @@
       <c r="T23">
         <v>0.02</v>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
-      </c>
-      <c r="V23" t="s">
+      <c r="U23">
+        <v>-0.02</v>
+      </c>
+      <c r="V23" t="b">
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
         <v>4</v>
       </c>
-      <c r="W23" t="b">
-        <v>1</v>
-      </c>
       <c r="X23" t="b">
         <v>1</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Y23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="s">
         <v>28</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>64</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>24</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>10</v>
       </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="s">
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="s">
         <v>37</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>27</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" t="s">
         <v>23</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ23" s="7">
+      <c r="AK23" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>47</v>
       </c>
       <c r="AL23" t="s">
         <v>47</v>
       </c>
-      <c r="AM23">
+      <c r="AM23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN23">
         <v>0.499</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
         <v>113</v>
       </c>
       <c r="B24" t="s">
@@ -5043,69 +5098,72 @@
       <c r="T24">
         <v>0.02</v>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
-      </c>
-      <c r="V24" t="s">
+      <c r="U24">
+        <v>-0.02</v>
+      </c>
+      <c r="V24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W24" t="s">
         <v>4</v>
       </c>
-      <c r="W24" t="b">
-        <v>1</v>
-      </c>
       <c r="X24" t="b">
         <v>1</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Y24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="s">
         <v>28</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>64</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>24</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>10</v>
       </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="s">
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="s">
         <v>37</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>27</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>23</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ24" s="7">
+      <c r="AK24" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>47</v>
       </c>
       <c r="AL24" t="s">
         <v>47</v>
       </c>
-      <c r="AM24">
+      <c r="AM24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN24">
         <v>0.499</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
         <v>114</v>
       </c>
       <c r="B25" t="s">
@@ -5162,69 +5220,72 @@
       <c r="T25">
         <v>0.02</v>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="U25">
+        <v>-0.02</v>
+      </c>
+      <c r="V25" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25" t="s">
         <v>4</v>
       </c>
-      <c r="W25" t="b">
-        <v>1</v>
-      </c>
       <c r="X25" t="b">
         <v>1</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Y25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="s">
         <v>28</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>64</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>24</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>10</v>
       </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="s">
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="s">
         <v>37</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>27</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>23</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ25" s="7">
+      <c r="AK25" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>47</v>
       </c>
       <c r="AL25" t="s">
         <v>47</v>
       </c>
-      <c r="AM25">
+      <c r="AM25" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN25">
         <v>0.499</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
         <v>120</v>
       </c>
       <c r="B26" t="s">
@@ -5281,69 +5342,72 @@
       <c r="T26">
         <v>0.05</v>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="U26">
+        <v>-0.02</v>
+      </c>
+      <c r="V26" t="b">
+        <v>1</v>
+      </c>
+      <c r="W26" t="s">
         <v>4</v>
       </c>
-      <c r="W26" t="b">
-        <v>1</v>
-      </c>
       <c r="X26" t="b">
         <v>1</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Y26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="s">
         <v>28</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>64</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>24</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>10</v>
       </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="s">
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="s">
         <v>37</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>27</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
         <v>23</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ26" s="7">
+      <c r="AK26" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>47</v>
       </c>
       <c r="AL26" t="s">
         <v>47</v>
       </c>
-      <c r="AM26">
+      <c r="AM26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN26">
         <v>0.499</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
         <v>121</v>
       </c>
       <c r="B27" t="s">
@@ -5400,81 +5464,84 @@
       <c r="T27">
         <v>0.02</v>
       </c>
-      <c r="U27" t="b">
-        <v>1</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="U27">
+        <v>-0.02</v>
+      </c>
+      <c r="V27" t="b">
+        <v>1</v>
+      </c>
+      <c r="W27" t="s">
         <v>4</v>
       </c>
-      <c r="W27" t="b">
-        <v>1</v>
-      </c>
       <c r="X27" t="b">
         <v>1</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Y27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z27" t="s">
         <v>28</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>64</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>24</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>10</v>
       </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="s">
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="s">
         <v>37</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>27</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AH27" t="s">
         <v>23</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ27" s="7">
+      <c r="AK27" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>47</v>
       </c>
       <c r="AL27" t="s">
         <v>47</v>
       </c>
-      <c r="AM27">
+      <c r="AM27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN27">
         <v>0.499</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
       <c r="O28">
         <v>0</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>0.499</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
         <v>122</v>
       </c>
       <c r="B29" t="s">
@@ -5531,69 +5598,72 @@
       <c r="T29">
         <v>0.02</v>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
-      </c>
-      <c r="V29" t="s">
+      <c r="U29">
+        <v>-0.02</v>
+      </c>
+      <c r="V29" t="b">
+        <v>1</v>
+      </c>
+      <c r="W29" t="s">
         <v>4</v>
       </c>
-      <c r="W29" t="b">
-        <v>1</v>
-      </c>
       <c r="X29" t="b">
         <v>1</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Y29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="s">
         <v>28</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>123</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>24</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>10</v>
       </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="s">
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="s">
         <v>37</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AG29" t="s">
         <v>27</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AH29" t="s">
         <v>21</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ29" s="7">
+      <c r="AK29" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>47</v>
       </c>
       <c r="AL29" t="s">
         <v>47</v>
       </c>
-      <c r="AM29">
+      <c r="AM29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN29">
         <v>0.499</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
         <v>124</v>
       </c>
       <c r="B30" t="s">
@@ -5650,72 +5720,75 @@
       <c r="T30">
         <v>0.02</v>
       </c>
-      <c r="U30" t="b">
-        <v>1</v>
-      </c>
-      <c r="V30" t="s">
+      <c r="U30">
+        <v>-0.02</v>
+      </c>
+      <c r="V30" t="b">
+        <v>1</v>
+      </c>
+      <c r="W30" t="s">
         <v>4</v>
       </c>
-      <c r="W30" t="b">
-        <v>1</v>
-      </c>
       <c r="X30" t="b">
         <v>1</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Y30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z30" t="s">
         <v>28</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>64</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>24</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>10</v>
       </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="s">
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="s">
         <v>37</v>
       </c>
-      <c r="AF30" t="s">
+      <c r="AG30" t="s">
         <v>27</v>
       </c>
-      <c r="AG30" t="s">
+      <c r="AH30" t="s">
         <v>21</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ30" s="7">
+      <c r="AK30" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>47</v>
       </c>
       <c r="AL30" t="s">
         <v>47</v>
       </c>
-      <c r="AM30">
+      <c r="AM30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN30">
         <v>0.499</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
         <v>125</v>
       </c>
       <c r="B32" t="s">
@@ -5772,69 +5845,72 @@
       <c r="T32">
         <v>0.02</v>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
-      </c>
-      <c r="V32" t="s">
+      <c r="U32">
+        <v>-0.02</v>
+      </c>
+      <c r="V32" t="b">
+        <v>1</v>
+      </c>
+      <c r="W32" t="s">
         <v>4</v>
       </c>
-      <c r="W32" t="b">
-        <v>1</v>
-      </c>
       <c r="X32" t="b">
         <v>1</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Y32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z32" t="s">
         <v>28</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>64</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>24</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>5</v>
       </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="s">
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="s">
         <v>37</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AG32" t="s">
         <v>27</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="AH32" t="s">
         <v>21</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ32" s="7">
+      <c r="AK32" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>47</v>
       </c>
       <c r="AL32" t="s">
         <v>47</v>
       </c>
-      <c r="AM32">
+      <c r="AM32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN32">
         <v>0.499</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
         <v>126</v>
       </c>
       <c r="B33" t="s">
@@ -5891,69 +5967,72 @@
       <c r="T33">
         <v>0.02</v>
       </c>
-      <c r="U33" t="b">
-        <v>1</v>
-      </c>
-      <c r="V33" t="s">
+      <c r="U33">
+        <v>-0.02</v>
+      </c>
+      <c r="V33" t="b">
+        <v>1</v>
+      </c>
+      <c r="W33" t="s">
         <v>4</v>
       </c>
-      <c r="W33" t="b">
-        <v>1</v>
-      </c>
       <c r="X33" t="b">
         <v>1</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Y33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z33" t="s">
         <v>28</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>64</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>24</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>5</v>
       </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="s">
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="s">
         <v>37</v>
       </c>
-      <c r="AF33" t="s">
+      <c r="AG33" t="s">
         <v>27</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AH33" t="s">
         <v>22</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ33" s="7">
+      <c r="AK33" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>47</v>
       </c>
       <c r="AL33" t="s">
         <v>47</v>
       </c>
-      <c r="AM33">
+      <c r="AM33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN33">
         <v>0.499</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
+    <row r="34" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B34" t="s">
@@ -6010,73 +6089,76 @@
       <c r="T34">
         <v>0.02</v>
       </c>
-      <c r="U34" t="b">
-        <v>1</v>
-      </c>
-      <c r="V34" t="s">
+      <c r="U34">
+        <v>-0.02</v>
+      </c>
+      <c r="V34" t="b">
+        <v>1</v>
+      </c>
+      <c r="W34" t="s">
         <v>4</v>
       </c>
-      <c r="W34" t="b">
-        <v>1</v>
-      </c>
       <c r="X34" t="b">
         <v>1</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Y34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z34" t="s">
         <v>28</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>64</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>24</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>5</v>
       </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="s">
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="s">
         <v>37</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AG34" t="s">
         <v>27</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AH34" t="s">
         <v>23</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ34" s="7">
+      <c r="AK34" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>47</v>
       </c>
       <c r="AL34" t="s">
         <v>47</v>
       </c>
-      <c r="AM34">
+      <c r="AM34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN34">
         <v>0.499</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="AJ35" s="7"/>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A35" s="46"/>
+      <c r="AK35" s="7"/>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
         <v>209</v>
       </c>
       <c r="B36" t="s">
@@ -6136,69 +6218,72 @@
       <c r="T36">
         <v>0.02</v>
       </c>
-      <c r="U36" t="b">
-        <v>1</v>
-      </c>
-      <c r="V36" t="s">
+      <c r="U36">
+        <v>-0.02</v>
+      </c>
+      <c r="V36" t="b">
+        <v>1</v>
+      </c>
+      <c r="W36" t="s">
         <v>4</v>
       </c>
-      <c r="W36" t="b">
-        <v>1</v>
-      </c>
       <c r="X36" t="b">
         <v>1</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Y36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z36" t="s">
         <v>28</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>64</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>24</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>10</v>
       </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="s">
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="s">
         <v>37</v>
       </c>
-      <c r="AF36" t="s">
+      <c r="AG36" t="s">
         <v>27</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="AH36" t="s">
         <v>21</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ36" s="7">
+      <c r="AK36" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>47</v>
       </c>
       <c r="AL36" t="s">
         <v>47</v>
       </c>
-      <c r="AM36">
+      <c r="AM36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN36">
         <v>0.499</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
         <v>210</v>
       </c>
       <c r="B37" t="s">
@@ -6258,69 +6343,72 @@
       <c r="T37">
         <v>0.02</v>
       </c>
-      <c r="U37" t="b">
-        <v>1</v>
-      </c>
-      <c r="V37" t="s">
+      <c r="U37">
+        <v>-0.02</v>
+      </c>
+      <c r="V37" t="b">
+        <v>1</v>
+      </c>
+      <c r="W37" t="s">
         <v>4</v>
       </c>
-      <c r="W37" t="b">
-        <v>1</v>
-      </c>
       <c r="X37" t="b">
         <v>1</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Y37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z37" t="s">
         <v>28</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>64</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>24</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>10</v>
       </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="s">
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="s">
         <v>37</v>
       </c>
-      <c r="AF37" t="s">
+      <c r="AG37" t="s">
         <v>27</v>
       </c>
-      <c r="AG37" t="s">
+      <c r="AH37" t="s">
         <v>22</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ37" s="7">
+      <c r="AK37" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>47</v>
       </c>
       <c r="AL37" t="s">
         <v>47</v>
       </c>
-      <c r="AM37">
+      <c r="AM37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN37">
         <v>0.499</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
         <v>211</v>
       </c>
       <c r="B38" t="s">
@@ -6380,68 +6468,71 @@
       <c r="T38">
         <v>0.02</v>
       </c>
-      <c r="U38" t="b">
-        <v>1</v>
-      </c>
-      <c r="V38" t="s">
+      <c r="U38">
+        <v>-0.02</v>
+      </c>
+      <c r="V38" t="b">
+        <v>1</v>
+      </c>
+      <c r="W38" t="s">
         <v>4</v>
       </c>
-      <c r="W38" t="b">
-        <v>1</v>
-      </c>
       <c r="X38" t="b">
         <v>1</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Y38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z38" t="s">
         <v>28</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>64</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>24</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>10</v>
       </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="s">
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="s">
         <v>37</v>
       </c>
-      <c r="AF38" t="s">
+      <c r="AG38" t="s">
         <v>27</v>
       </c>
-      <c r="AG38" t="s">
+      <c r="AH38" t="s">
         <v>23</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ38" s="7">
+      <c r="AK38" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>47</v>
       </c>
       <c r="AL38" t="s">
         <v>47</v>
       </c>
-      <c r="AM38">
+      <c r="AM38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN38">
         <v>0.499</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>167</v>
       </c>
@@ -6502,74 +6593,77 @@
       <c r="T40">
         <v>0.02</v>
       </c>
-      <c r="U40" t="b">
-        <v>1</v>
-      </c>
-      <c r="V40" t="s">
+      <c r="U40">
+        <v>-0.02</v>
+      </c>
+      <c r="V40" t="b">
+        <v>1</v>
+      </c>
+      <c r="W40" t="s">
         <v>4</v>
       </c>
-      <c r="W40" t="b">
-        <v>1</v>
-      </c>
       <c r="X40" t="b">
         <v>1</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Y40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z40" t="s">
         <v>28</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>64</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>24</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>10</v>
       </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="s">
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="s">
         <v>37</v>
       </c>
-      <c r="AF40" t="s">
+      <c r="AG40" t="s">
         <v>27</v>
       </c>
-      <c r="AG40" t="s">
+      <c r="AH40" t="s">
         <v>21</v>
       </c>
-      <c r="AH40">
+      <c r="AI40">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI40">
+      <c r="AJ40">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AJ40" s="7">
+      <c r="AK40" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>47</v>
       </c>
       <c r="AL40" t="s">
         <v>47</v>
       </c>
-      <c r="AM40">
+      <c r="AM40" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN40">
         <v>0.499</v>
       </c>
-      <c r="AN40">
+      <c r="AO40">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO40" s="25">
+      <c r="AP40" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP40">
+      <c r="AQ40">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>168</v>
       </c>
@@ -6630,74 +6724,77 @@
       <c r="T41">
         <v>0.02</v>
       </c>
-      <c r="U41" t="b">
-        <v>1</v>
-      </c>
-      <c r="V41" t="s">
+      <c r="U41">
+        <v>-0.02</v>
+      </c>
+      <c r="V41" t="b">
+        <v>1</v>
+      </c>
+      <c r="W41" t="s">
         <v>4</v>
       </c>
-      <c r="W41" t="b">
-        <v>1</v>
-      </c>
       <c r="X41" t="b">
         <v>1</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Y41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z41" t="s">
         <v>28</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>64</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>24</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>10</v>
       </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="s">
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="s">
         <v>37</v>
       </c>
-      <c r="AF41" t="s">
+      <c r="AG41" t="s">
         <v>48</v>
       </c>
-      <c r="AG41" t="s">
+      <c r="AH41" t="s">
         <v>21</v>
       </c>
-      <c r="AH41">
+      <c r="AI41">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI41">
+      <c r="AJ41">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AJ41" s="7">
+      <c r="AK41" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK41" t="s">
-        <v>47</v>
       </c>
       <c r="AL41" t="s">
         <v>47</v>
       </c>
-      <c r="AM41">
+      <c r="AM41" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN41">
         <v>0.499</v>
       </c>
-      <c r="AN41">
+      <c r="AO41">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO41" s="25">
+      <c r="AP41" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP41">
+      <c r="AQ41">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>169</v>
       </c>
@@ -6758,80 +6855,83 @@
       <c r="T42">
         <v>0.02</v>
       </c>
-      <c r="U42" t="b">
-        <v>1</v>
-      </c>
-      <c r="V42" t="s">
+      <c r="U42">
+        <v>-0.02</v>
+      </c>
+      <c r="V42" t="b">
+        <v>1</v>
+      </c>
+      <c r="W42" t="s">
         <v>4</v>
       </c>
-      <c r="W42" t="b">
-        <v>1</v>
-      </c>
       <c r="X42" t="b">
         <v>1</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Y42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z42" t="s">
         <v>28</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>64</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>24</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC42">
+      <c r="AD42">
         <v>10</v>
       </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="s">
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="s">
         <v>37</v>
       </c>
-      <c r="AF42" t="s">
+      <c r="AG42" t="s">
         <v>48</v>
       </c>
-      <c r="AG42" t="s">
+      <c r="AH42" t="s">
         <v>21</v>
       </c>
-      <c r="AH42">
+      <c r="AI42">
         <v>6.25E-2</v>
       </c>
-      <c r="AI42">
+      <c r="AJ42">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AJ42" s="7">
+      <c r="AK42" s="7">
         <v>0.12</v>
       </c>
-      <c r="AK42" t="s">
+      <c r="AL42" t="s">
         <v>141</v>
       </c>
-      <c r="AL42" t="s">
+      <c r="AM42" t="s">
         <v>140</v>
       </c>
-      <c r="AM42">
+      <c r="AN42">
         <v>0.499</v>
       </c>
-      <c r="AN42">
+      <c r="AO42">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO42" s="25">
+      <c r="AP42" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP42">
+      <c r="AQ42">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="AJ43" s="7"/>
-      <c r="AO43" s="25"/>
-    </row>
-    <row r="44" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AK43" s="7"/>
+      <c r="AP43" s="25"/>
+    </row>
+    <row r="44" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A45" s="45" t="s">
         <v>165</v>
       </c>
       <c r="B45" t="s">
@@ -6891,74 +6991,77 @@
       <c r="T45">
         <v>0.02</v>
       </c>
-      <c r="U45" t="b">
-        <v>1</v>
-      </c>
-      <c r="V45" t="s">
+      <c r="U45">
+        <v>-0.02</v>
+      </c>
+      <c r="V45" t="b">
+        <v>1</v>
+      </c>
+      <c r="W45" t="s">
         <v>4</v>
       </c>
-      <c r="W45" t="b">
-        <v>1</v>
-      </c>
       <c r="X45" t="b">
         <v>1</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Y45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z45" t="s">
         <v>28</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>64</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>24</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <v>10</v>
       </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45" t="s">
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="s">
         <v>37</v>
       </c>
-      <c r="AF45" t="s">
+      <c r="AG45" t="s">
         <v>27</v>
       </c>
-      <c r="AG45" t="s">
+      <c r="AH45" t="s">
         <v>21</v>
       </c>
-      <c r="AH45">
+      <c r="AI45">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI45">
+      <c r="AJ45">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AJ45" s="7">
+      <c r="AK45" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK45" t="s">
-        <v>47</v>
       </c>
       <c r="AL45" t="s">
         <v>47</v>
       </c>
-      <c r="AM45">
+      <c r="AM45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN45">
         <v>0.499</v>
       </c>
-      <c r="AN45">
+      <c r="AO45">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO45" s="25">
+      <c r="AP45" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP45">
+      <c r="AQ45">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
         <v>166</v>
       </c>
@@ -7019,75 +7122,78 @@
       <c r="T46">
         <v>0.02</v>
       </c>
-      <c r="U46" t="b">
-        <v>1</v>
-      </c>
-      <c r="V46" t="s">
+      <c r="U46">
+        <v>-0.02</v>
+      </c>
+      <c r="V46" t="b">
+        <v>1</v>
+      </c>
+      <c r="W46" t="s">
         <v>4</v>
       </c>
-      <c r="W46" t="b">
-        <v>1</v>
-      </c>
       <c r="X46" t="b">
         <v>1</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Y46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z46" t="s">
         <v>28</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>64</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>24</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC46">
+      <c r="AD46">
         <v>10</v>
       </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="s">
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="s">
         <v>37</v>
       </c>
-      <c r="AF46" t="s">
+      <c r="AG46" t="s">
         <v>27</v>
       </c>
-      <c r="AG46" t="s">
+      <c r="AH46" t="s">
         <v>206</v>
       </c>
-      <c r="AH46">
+      <c r="AI46">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI46">
+      <c r="AJ46">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AJ46" s="7">
+      <c r="AK46" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK46" t="s">
-        <v>47</v>
       </c>
       <c r="AL46" t="s">
         <v>47</v>
       </c>
-      <c r="AM46">
+      <c r="AM46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN46">
         <v>0.499</v>
       </c>
-      <c r="AN46">
+      <c r="AO46">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO46" s="25">
+      <c r="AP46" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP46">
+      <c r="AQ46">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A47" s="44" t="s">
         <v>188</v>
       </c>
       <c r="B47" t="s">
@@ -7147,79 +7253,82 @@
       <c r="T47">
         <v>0.02</v>
       </c>
-      <c r="U47" t="b">
-        <v>1</v>
-      </c>
-      <c r="V47" t="s">
+      <c r="U47">
+        <v>-0.02</v>
+      </c>
+      <c r="V47" t="b">
+        <v>1</v>
+      </c>
+      <c r="W47" t="s">
         <v>4</v>
       </c>
-      <c r="W47" t="b">
-        <v>1</v>
-      </c>
       <c r="X47" t="b">
         <v>1</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Y47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z47" t="s">
         <v>28</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>64</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>24</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC47">
+      <c r="AD47">
         <v>10</v>
       </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47" t="s">
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="s">
         <v>37</v>
       </c>
-      <c r="AF47" t="s">
+      <c r="AG47" t="s">
         <v>27</v>
       </c>
-      <c r="AG47" t="s">
+      <c r="AH47" t="s">
         <v>207</v>
       </c>
-      <c r="AH47">
+      <c r="AI47">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI47">
+      <c r="AJ47">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="AJ47" s="7">
+      <c r="AK47" s="7">
         <v>0.12</v>
       </c>
-      <c r="AK47" t="s">
+      <c r="AL47" t="s">
         <v>141</v>
       </c>
-      <c r="AL47" t="s">
+      <c r="AM47" t="s">
         <v>140</v>
       </c>
-      <c r="AM47">
+      <c r="AN47">
         <v>0.499</v>
       </c>
-      <c r="AN47">
+      <c r="AO47">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO47" s="25">
+      <c r="AP47" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP47">
+      <c r="AQ47">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="AJ48" s="7"/>
-      <c r="AO48" s="25"/>
-    </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
+      <c r="AK48" s="7"/>
+      <c r="AP48" s="25"/>
+    </row>
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>171</v>
       </c>
@@ -7280,74 +7389,77 @@
       <c r="T49">
         <v>0.02</v>
       </c>
-      <c r="U49" t="b">
-        <v>1</v>
-      </c>
-      <c r="V49" t="s">
+      <c r="U49">
+        <v>-0.02</v>
+      </c>
+      <c r="V49" t="b">
+        <v>1</v>
+      </c>
+      <c r="W49" t="s">
         <v>4</v>
       </c>
-      <c r="W49" t="b">
-        <v>1</v>
-      </c>
       <c r="X49" t="b">
         <v>1</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Y49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z49" t="s">
         <v>28</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>64</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>24</v>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC49">
+      <c r="AD49">
         <v>10</v>
       </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="s">
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="s">
         <v>37</v>
       </c>
-      <c r="AF49" t="s">
+      <c r="AG49" t="s">
         <v>27</v>
       </c>
-      <c r="AG49" t="s">
+      <c r="AH49" t="s">
         <v>21</v>
       </c>
-      <c r="AH49">
+      <c r="AI49">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI49">
+      <c r="AJ49">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AJ49" s="7">
+      <c r="AK49" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK49" t="s">
-        <v>47</v>
       </c>
       <c r="AL49" t="s">
         <v>47</v>
       </c>
-      <c r="AM49">
+      <c r="AM49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN49">
         <v>0.499</v>
       </c>
-      <c r="AN49">
+      <c r="AO49">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO49" s="25">
+      <c r="AP49" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP49">
+      <c r="AQ49">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
         <v>172</v>
       </c>
@@ -7408,75 +7520,78 @@
       <c r="T50">
         <v>0.02</v>
       </c>
-      <c r="U50" t="b">
-        <v>1</v>
-      </c>
-      <c r="V50" t="s">
+      <c r="U50">
+        <v>-0.02</v>
+      </c>
+      <c r="V50" t="b">
+        <v>1</v>
+      </c>
+      <c r="W50" t="s">
         <v>4</v>
       </c>
-      <c r="W50" t="b">
-        <v>1</v>
-      </c>
       <c r="X50" t="b">
         <v>1</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Y50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z50" t="s">
         <v>28</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>64</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>24</v>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC50">
+      <c r="AD50">
         <v>10</v>
       </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="s">
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="s">
         <v>37</v>
       </c>
-      <c r="AF50" t="s">
+      <c r="AG50" t="s">
         <v>27</v>
       </c>
-      <c r="AG50" t="s">
+      <c r="AH50" t="s">
         <v>206</v>
       </c>
-      <c r="AH50">
+      <c r="AI50">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI50">
+      <c r="AJ50">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AJ50" s="7">
+      <c r="AK50" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK50" t="s">
-        <v>47</v>
       </c>
       <c r="AL50" t="s">
         <v>47</v>
       </c>
-      <c r="AM50">
+      <c r="AM50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN50">
         <v>0.499</v>
       </c>
-      <c r="AN50">
+      <c r="AO50">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO50" s="25">
+      <c r="AP50" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP50">
+      <c r="AQ50">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A51" s="44" t="s">
         <v>186</v>
       </c>
       <c r="B51" t="s">
@@ -7536,77 +7651,80 @@
       <c r="T51">
         <v>0.02</v>
       </c>
-      <c r="U51" t="b">
-        <v>1</v>
-      </c>
-      <c r="V51" t="s">
+      <c r="U51">
+        <v>-0.02</v>
+      </c>
+      <c r="V51" t="b">
+        <v>1</v>
+      </c>
+      <c r="W51" t="s">
         <v>4</v>
       </c>
-      <c r="W51" t="b">
-        <v>1</v>
-      </c>
       <c r="X51" t="b">
         <v>1</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Y51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z51" t="s">
         <v>28</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>64</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>24</v>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC51">
+      <c r="AD51">
         <v>10</v>
       </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51" t="s">
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="s">
         <v>37</v>
       </c>
-      <c r="AF51" t="s">
+      <c r="AG51" t="s">
         <v>27</v>
       </c>
-      <c r="AG51" t="s">
+      <c r="AH51" t="s">
         <v>207</v>
       </c>
-      <c r="AH51">
+      <c r="AI51">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI51">
+      <c r="AJ51">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="AJ51" s="7">
+      <c r="AK51" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK51" t="s">
-        <v>47</v>
       </c>
       <c r="AL51" t="s">
         <v>47</v>
       </c>
-      <c r="AM51">
+      <c r="AM51" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN51">
         <v>0.499</v>
       </c>
-      <c r="AN51">
+      <c r="AO51">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO51" s="25">
+      <c r="AP51" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP51">
+      <c r="AQ51">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-    </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A52" s="44"/>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
         <v>173</v>
       </c>
@@ -7667,74 +7785,77 @@
       <c r="T53">
         <v>0.02</v>
       </c>
-      <c r="U53" t="b">
-        <v>1</v>
-      </c>
-      <c r="V53" t="s">
+      <c r="U53">
+        <v>-0.02</v>
+      </c>
+      <c r="V53" t="b">
+        <v>1</v>
+      </c>
+      <c r="W53" t="s">
         <v>4</v>
       </c>
-      <c r="W53" t="b">
-        <v>1</v>
-      </c>
       <c r="X53" t="b">
         <v>1</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Y53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z53" t="s">
         <v>28</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>64</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <v>24</v>
       </c>
-      <c r="AB53">
+      <c r="AC53">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC53">
+      <c r="AD53">
         <v>10</v>
       </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="s">
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="s">
         <v>37</v>
       </c>
-      <c r="AF53" t="s">
+      <c r="AG53" t="s">
         <v>27</v>
       </c>
-      <c r="AG53" t="s">
+      <c r="AH53" t="s">
         <v>21</v>
       </c>
-      <c r="AH53">
+      <c r="AI53">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI53">
+      <c r="AJ53">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AJ53" s="7">
+      <c r="AK53" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK53" t="s">
-        <v>47</v>
       </c>
       <c r="AL53" t="s">
         <v>47</v>
       </c>
-      <c r="AM53">
+      <c r="AM53" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN53">
         <v>0.499</v>
       </c>
-      <c r="AN53">
+      <c r="AO53">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO53" s="25">
+      <c r="AP53" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP53">
+      <c r="AQ53">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
         <v>174</v>
       </c>
@@ -7795,75 +7916,78 @@
       <c r="T54">
         <v>0.02</v>
       </c>
-      <c r="U54" t="b">
-        <v>1</v>
-      </c>
-      <c r="V54" t="s">
+      <c r="U54">
+        <v>-0.02</v>
+      </c>
+      <c r="V54" t="b">
+        <v>1</v>
+      </c>
+      <c r="W54" t="s">
         <v>4</v>
       </c>
-      <c r="W54" t="b">
-        <v>1</v>
-      </c>
       <c r="X54" t="b">
         <v>1</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Y54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z54" t="s">
         <v>28</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>64</v>
       </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>24</v>
       </c>
-      <c r="AB54">
+      <c r="AC54">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC54">
+      <c r="AD54">
         <v>10</v>
       </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54" t="s">
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="s">
         <v>37</v>
       </c>
-      <c r="AF54" t="s">
+      <c r="AG54" t="s">
         <v>27</v>
       </c>
-      <c r="AG54" t="s">
+      <c r="AH54" t="s">
         <v>206</v>
       </c>
-      <c r="AH54">
+      <c r="AI54">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI54">
+      <c r="AJ54">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AJ54" s="7">
+      <c r="AK54" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK54" t="s">
-        <v>47</v>
       </c>
       <c r="AL54" t="s">
         <v>47</v>
       </c>
-      <c r="AM54">
+      <c r="AM54" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN54">
         <v>0.499</v>
       </c>
-      <c r="AN54">
+      <c r="AO54">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO54" s="25">
+      <c r="AP54" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP54">
+      <c r="AQ54">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A55" s="38" t="s">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A55" s="44" t="s">
         <v>187</v>
       </c>
       <c r="B55" t="s">
@@ -7923,78 +8047,81 @@
       <c r="T55">
         <v>0.02</v>
       </c>
-      <c r="U55" t="b">
-        <v>1</v>
-      </c>
-      <c r="V55" t="s">
+      <c r="U55">
+        <v>-0.02</v>
+      </c>
+      <c r="V55" t="b">
+        <v>1</v>
+      </c>
+      <c r="W55" t="s">
         <v>4</v>
       </c>
-      <c r="W55" t="b">
-        <v>1</v>
-      </c>
       <c r="X55" t="b">
         <v>1</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Y55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z55" t="s">
         <v>28</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>64</v>
       </c>
-      <c r="AA55">
+      <c r="AB55">
         <v>24</v>
       </c>
-      <c r="AB55">
+      <c r="AC55">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC55">
+      <c r="AD55">
         <v>10</v>
       </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
-      <c r="AE55" t="s">
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="s">
         <v>37</v>
       </c>
-      <c r="AF55" t="s">
+      <c r="AG55" t="s">
         <v>27</v>
       </c>
-      <c r="AG55" t="s">
+      <c r="AH55" t="s">
         <v>207</v>
       </c>
-      <c r="AH55">
+      <c r="AI55">
         <v>6.25E-2</v>
       </c>
-      <c r="AI55">
+      <c r="AJ55">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="AJ55" s="7">
+      <c r="AK55" s="7">
         <v>0.12</v>
       </c>
-      <c r="AK55" t="s">
+      <c r="AL55" t="s">
         <v>141</v>
       </c>
-      <c r="AL55" t="s">
+      <c r="AM55" t="s">
         <v>140</v>
       </c>
-      <c r="AM55">
+      <c r="AN55">
         <v>0.499</v>
       </c>
-      <c r="AN55">
+      <c r="AO55">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO55" s="25">
+      <c r="AP55" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP55">
+      <c r="AQ55">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
-    </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A57" s="38" t="s">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A56" s="44"/>
+    </row>
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A57" s="44" t="s">
         <v>201</v>
       </c>
       <c r="B57" t="s">
@@ -8013,7 +8140,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
@@ -8022,7 +8149,7 @@
         <v>1</v>
       </c>
       <c r="J57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>1</v>
@@ -8054,75 +8181,78 @@
       <c r="T57">
         <v>0.02</v>
       </c>
-      <c r="U57" t="b">
-        <v>1</v>
-      </c>
-      <c r="V57" t="s">
+      <c r="U57">
+        <v>-0.02</v>
+      </c>
+      <c r="V57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W57" t="s">
         <v>4</v>
       </c>
-      <c r="W57" t="b">
-        <v>1</v>
-      </c>
       <c r="X57" t="b">
         <v>1</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Y57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z57" t="s">
         <v>28</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>64</v>
       </c>
-      <c r="AA57">
+      <c r="AB57">
         <v>24</v>
       </c>
-      <c r="AB57">
+      <c r="AC57">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC57">
+      <c r="AD57">
         <v>10</v>
       </c>
-      <c r="AD57">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="s">
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="s">
         <v>37</v>
       </c>
-      <c r="AF57" t="s">
+      <c r="AG57" t="s">
         <v>27</v>
       </c>
-      <c r="AG57" t="s">
+      <c r="AH57" t="s">
         <v>21</v>
       </c>
-      <c r="AH57">
+      <c r="AI57">
         <v>6.25E-2</v>
       </c>
-      <c r="AI57">
+      <c r="AJ57">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AJ57" s="7">
+      <c r="AK57" s="7">
         <v>0.12</v>
       </c>
-      <c r="AK57" t="s">
+      <c r="AL57" t="s">
         <v>141</v>
       </c>
-      <c r="AL57" t="s">
+      <c r="AM57" t="s">
         <v>140</v>
       </c>
-      <c r="AM57">
+      <c r="AN57">
         <v>0.499</v>
       </c>
-      <c r="AN57">
+      <c r="AO57">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO57" s="25">
+      <c r="AP57" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP57">
+      <c r="AQ57">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="58" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="40" t="s">
+    <row r="58" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="49" t="s">
         <v>193</v>
       </c>
       <c r="B58" t="s">
@@ -8141,7 +8271,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="b">
         <v>1</v>
@@ -8182,79 +8312,83 @@
       <c r="T58">
         <v>0.02</v>
       </c>
-      <c r="U58" t="b">
-        <v>1</v>
-      </c>
-      <c r="V58" t="s">
+      <c r="U58">
+        <v>-0.02</v>
+      </c>
+      <c r="V58" t="b">
+        <v>1</v>
+      </c>
+      <c r="W58" t="s">
         <v>4</v>
       </c>
-      <c r="W58" t="b">
-        <v>1</v>
-      </c>
       <c r="X58" t="b">
         <v>1</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Y58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z58" t="s">
         <v>28</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>64</v>
       </c>
-      <c r="AA58">
+      <c r="AB58">
         <v>24</v>
       </c>
-      <c r="AB58">
+      <c r="AC58">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC58">
+      <c r="AD58">
         <v>10</v>
       </c>
-      <c r="AD58">
-        <v>0</v>
-      </c>
-      <c r="AE58" t="s">
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="s">
         <v>37</v>
       </c>
-      <c r="AF58" t="s">
+      <c r="AG58" t="s">
         <v>27</v>
       </c>
-      <c r="AG58" t="s">
+      <c r="AH58" t="s">
         <v>206</v>
       </c>
-      <c r="AH58">
+      <c r="AI58">
         <v>6.25E-2</v>
       </c>
-      <c r="AI58">
+      <c r="AJ58">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AJ58" s="7">
+      <c r="AK58" s="7">
         <v>0.12</v>
       </c>
-      <c r="AK58" t="s">
+      <c r="AL58" t="s">
         <v>141</v>
       </c>
-      <c r="AL58" t="s">
+      <c r="AM58" t="s">
         <v>140</v>
       </c>
-      <c r="AM58">
+      <c r="AN58">
         <v>0.499</v>
       </c>
-      <c r="AN58">
+      <c r="AO58">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO58" s="25">
+      <c r="AP58" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP58">
+      <c r="AQ58">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ59" s="7"/>
-      <c r="AO59" s="25"/>
-    </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="s">
+    <row r="59" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="50"/>
+      <c r="AK59" s="7"/>
+      <c r="AP59" s="25"/>
+    </row>
+    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A60" s="45" t="s">
         <v>179</v>
       </c>
       <c r="B60" t="s">
@@ -8314,75 +8448,78 @@
       <c r="T60">
         <v>0.02</v>
       </c>
-      <c r="U60" t="b">
-        <v>1</v>
-      </c>
-      <c r="V60" t="s">
+      <c r="U60">
+        <v>-0.02</v>
+      </c>
+      <c r="V60" t="b">
+        <v>1</v>
+      </c>
+      <c r="W60" t="s">
         <v>4</v>
       </c>
-      <c r="W60" t="b">
-        <v>1</v>
-      </c>
       <c r="X60" t="b">
         <v>1</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Y60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z60" t="s">
         <v>28</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>64</v>
       </c>
-      <c r="AA60">
+      <c r="AB60">
         <v>24</v>
       </c>
-      <c r="AB60">
+      <c r="AC60">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC60">
+      <c r="AD60">
         <v>10</v>
       </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
-      <c r="AE60" t="s">
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="s">
         <v>37</v>
       </c>
-      <c r="AF60" t="s">
+      <c r="AG60" t="s">
         <v>27</v>
       </c>
-      <c r="AG60" t="s">
+      <c r="AH60" t="s">
         <v>21</v>
       </c>
-      <c r="AH60">
+      <c r="AI60">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI60">
+      <c r="AJ60">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AJ60" s="7">
+      <c r="AK60" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK60" t="s">
-        <v>47</v>
       </c>
       <c r="AL60" t="s">
         <v>47</v>
       </c>
-      <c r="AM60">
+      <c r="AM60" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN60">
         <v>0.499</v>
       </c>
-      <c r="AN60">
+      <c r="AO60">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO60" s="25">
+      <c r="AP60" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP60">
+      <c r="AQ60">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A61" s="38" t="s">
         <v>175</v>
       </c>
       <c r="B61" t="s">
@@ -8442,75 +8579,78 @@
       <c r="T61">
         <v>0.02</v>
       </c>
-      <c r="U61" t="b">
-        <v>1</v>
-      </c>
-      <c r="V61" t="s">
+      <c r="U61">
+        <v>-0.02</v>
+      </c>
+      <c r="V61" t="b">
+        <v>1</v>
+      </c>
+      <c r="W61" t="s">
         <v>4</v>
       </c>
-      <c r="W61" t="b">
-        <v>1</v>
-      </c>
       <c r="X61" t="b">
         <v>1</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Y61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z61" t="s">
         <v>28</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>64</v>
       </c>
-      <c r="AA61">
+      <c r="AB61">
         <v>24</v>
       </c>
-      <c r="AB61">
+      <c r="AC61">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC61">
+      <c r="AD61">
         <v>10</v>
       </c>
-      <c r="AD61">
-        <v>0</v>
-      </c>
-      <c r="AE61" t="s">
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="s">
         <v>37</v>
       </c>
-      <c r="AF61" t="s">
+      <c r="AG61" t="s">
         <v>27</v>
       </c>
-      <c r="AG61" t="s">
+      <c r="AH61" t="s">
         <v>206</v>
       </c>
-      <c r="AH61">
+      <c r="AI61">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI61">
+      <c r="AJ61">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AJ61" s="7">
+      <c r="AK61" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK61" t="s">
-        <v>47</v>
       </c>
       <c r="AL61" t="s">
         <v>47</v>
       </c>
-      <c r="AM61">
+      <c r="AM61" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN61">
         <v>0.499</v>
       </c>
-      <c r="AN61">
+      <c r="AO61">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO61" s="25">
+      <c r="AP61" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP61">
+      <c r="AQ61">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A62" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B62" t="s">
@@ -8570,80 +8710,83 @@
       <c r="T62">
         <v>0.02</v>
       </c>
-      <c r="U62" t="b">
-        <v>1</v>
-      </c>
-      <c r="V62" t="s">
+      <c r="U62">
+        <v>-0.02</v>
+      </c>
+      <c r="V62" t="b">
+        <v>1</v>
+      </c>
+      <c r="W62" t="s">
         <v>4</v>
       </c>
-      <c r="W62" t="b">
-        <v>1</v>
-      </c>
       <c r="X62" t="b">
         <v>1</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Y62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z62" t="s">
         <v>28</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>64</v>
       </c>
-      <c r="AA62">
+      <c r="AB62">
         <v>24</v>
       </c>
-      <c r="AB62">
+      <c r="AC62">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC62">
+      <c r="AD62">
         <v>10</v>
       </c>
-      <c r="AD62">
-        <v>0</v>
-      </c>
-      <c r="AE62" t="s">
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62" t="s">
         <v>37</v>
       </c>
-      <c r="AF62" t="s">
+      <c r="AG62" t="s">
         <v>27</v>
       </c>
-      <c r="AG62" t="s">
+      <c r="AH62" t="s">
         <v>207</v>
       </c>
-      <c r="AH62">
+      <c r="AI62">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI62">
+      <c r="AJ62">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="AJ62" s="7">
+      <c r="AK62" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK62" t="s">
-        <v>47</v>
       </c>
       <c r="AL62" t="s">
         <v>47</v>
       </c>
-      <c r="AM62">
+      <c r="AM62" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN62">
         <v>0.499</v>
       </c>
-      <c r="AN62">
+      <c r="AO62">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO62" s="25">
+      <c r="AP62" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP62">
+      <c r="AQ62">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A63" s="46"/>
-      <c r="AJ63" s="7"/>
-      <c r="AO63" s="25"/>
-    </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A64" s="39" t="s">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A63" s="44"/>
+      <c r="AK63" s="7"/>
+      <c r="AP63" s="25"/>
+    </row>
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A64" s="38" t="s">
         <v>182</v>
       </c>
       <c r="B64" t="s">
@@ -8703,75 +8846,78 @@
       <c r="T64">
         <v>0.02</v>
       </c>
-      <c r="U64" t="b">
-        <v>1</v>
-      </c>
-      <c r="V64" t="s">
+      <c r="U64">
+        <v>-0.02</v>
+      </c>
+      <c r="V64" t="b">
+        <v>1</v>
+      </c>
+      <c r="W64" t="s">
         <v>4</v>
       </c>
-      <c r="W64" t="b">
-        <v>1</v>
-      </c>
       <c r="X64" t="b">
         <v>1</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Y64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z64" t="s">
         <v>28</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>64</v>
       </c>
-      <c r="AA64">
+      <c r="AB64">
         <v>24</v>
       </c>
-      <c r="AB64">
+      <c r="AC64">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC64">
+      <c r="AD64">
         <v>10</v>
       </c>
-      <c r="AD64">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="s">
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="s">
         <v>37</v>
       </c>
-      <c r="AF64" t="s">
+      <c r="AG64" t="s">
         <v>27</v>
       </c>
-      <c r="AG64" t="s">
+      <c r="AH64" t="s">
         <v>21</v>
       </c>
-      <c r="AH64">
+      <c r="AI64">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI64">
+      <c r="AJ64">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AJ64" s="7">
+      <c r="AK64" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK64" t="s">
-        <v>47</v>
       </c>
       <c r="AL64" t="s">
         <v>47</v>
       </c>
-      <c r="AM64">
+      <c r="AM64" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN64">
         <v>0.499</v>
       </c>
-      <c r="AN64">
+      <c r="AO64">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO64" s="25">
+      <c r="AP64" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP64">
+      <c r="AQ64">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A65" s="38" t="s">
         <v>177</v>
       </c>
       <c r="B65" t="s">
@@ -8831,75 +8977,78 @@
       <c r="T65">
         <v>0.02</v>
       </c>
-      <c r="U65" t="b">
-        <v>1</v>
-      </c>
-      <c r="V65" t="s">
+      <c r="U65">
+        <v>-0.02</v>
+      </c>
+      <c r="V65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W65" t="s">
         <v>4</v>
       </c>
-      <c r="W65" t="b">
-        <v>1</v>
-      </c>
       <c r="X65" t="b">
         <v>1</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Y65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z65" t="s">
         <v>28</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>64</v>
       </c>
-      <c r="AA65">
+      <c r="AB65">
         <v>24</v>
       </c>
-      <c r="AB65">
+      <c r="AC65">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC65">
+      <c r="AD65">
         <v>10</v>
       </c>
-      <c r="AD65">
-        <v>0</v>
-      </c>
-      <c r="AE65" t="s">
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65" t="s">
         <v>37</v>
       </c>
-      <c r="AF65" t="s">
+      <c r="AG65" t="s">
         <v>27</v>
       </c>
-      <c r="AG65" t="s">
+      <c r="AH65" t="s">
         <v>206</v>
       </c>
-      <c r="AH65">
+      <c r="AI65">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI65">
+      <c r="AJ65">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AJ65" s="7">
+      <c r="AK65" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK65" t="s">
-        <v>47</v>
       </c>
       <c r="AL65" t="s">
         <v>47</v>
       </c>
-      <c r="AM65">
+      <c r="AM65" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN65">
         <v>0.499</v>
       </c>
-      <c r="AN65">
+      <c r="AO65">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO65" s="25">
+      <c r="AP65" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP65">
+      <c r="AQ65">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A66" s="46" t="s">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A66" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B66" t="s">
@@ -8918,7 +9067,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -8959,80 +9108,83 @@
       <c r="T66">
         <v>0.02</v>
       </c>
-      <c r="U66" t="b">
-        <v>1</v>
-      </c>
-      <c r="V66" t="s">
+      <c r="U66">
+        <v>-0.02</v>
+      </c>
+      <c r="V66" t="b">
+        <v>1</v>
+      </c>
+      <c r="W66" t="s">
         <v>4</v>
       </c>
-      <c r="W66" t="b">
-        <v>1</v>
-      </c>
       <c r="X66" t="b">
         <v>1</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Y66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z66" t="s">
         <v>28</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>64</v>
       </c>
-      <c r="AA66">
+      <c r="AB66">
         <v>24</v>
       </c>
-      <c r="AB66">
+      <c r="AC66">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC66">
+      <c r="AD66">
         <v>10</v>
       </c>
-      <c r="AD66">
-        <v>0</v>
-      </c>
-      <c r="AE66" t="s">
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66" t="s">
         <v>37</v>
       </c>
-      <c r="AF66" t="s">
+      <c r="AG66" t="s">
         <v>27</v>
       </c>
-      <c r="AG66" t="s">
+      <c r="AH66" t="s">
         <v>207</v>
       </c>
-      <c r="AH66">
+      <c r="AI66">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI66">
+      <c r="AJ66">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="AJ66" s="7">
+      <c r="AK66" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK66" t="s">
-        <v>47</v>
       </c>
       <c r="AL66" t="s">
         <v>47</v>
       </c>
-      <c r="AM66">
+      <c r="AM66" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN66">
         <v>0.499</v>
       </c>
-      <c r="AN66">
+      <c r="AO66">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO66" s="25">
+      <c r="AP66" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP66">
+      <c r="AQ66">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A67" s="46"/>
-      <c r="AJ67" s="7"/>
-      <c r="AO67" s="25"/>
-    </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A68" s="39" t="s">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A67" s="44"/>
+      <c r="AK67" s="7"/>
+      <c r="AP67" s="25"/>
+    </row>
+    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A68" s="38" t="s">
         <v>178</v>
       </c>
       <c r="B68" t="s">
@@ -9092,75 +9244,78 @@
       <c r="T68">
         <v>0.02</v>
       </c>
-      <c r="U68" t="b">
-        <v>1</v>
-      </c>
-      <c r="V68" t="s">
+      <c r="U68">
+        <v>-0.02</v>
+      </c>
+      <c r="V68" t="b">
+        <v>1</v>
+      </c>
+      <c r="W68" t="s">
         <v>4</v>
       </c>
-      <c r="W68" t="b">
-        <v>1</v>
-      </c>
       <c r="X68" t="b">
         <v>1</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Y68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z68" t="s">
         <v>28</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>64</v>
       </c>
-      <c r="AA68">
+      <c r="AB68">
         <v>24</v>
       </c>
-      <c r="AB68">
+      <c r="AC68">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC68">
+      <c r="AD68">
         <v>10</v>
       </c>
-      <c r="AD68">
-        <v>0</v>
-      </c>
-      <c r="AE68" t="s">
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68" t="s">
         <v>37</v>
       </c>
-      <c r="AF68" t="s">
+      <c r="AG68" t="s">
         <v>27</v>
       </c>
-      <c r="AG68" t="s">
+      <c r="AH68" t="s">
         <v>21</v>
       </c>
-      <c r="AH68">
+      <c r="AI68">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI68">
+      <c r="AJ68">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AJ68" s="7">
+      <c r="AK68" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK68" t="s">
-        <v>47</v>
       </c>
       <c r="AL68" t="s">
         <v>47</v>
       </c>
-      <c r="AM68">
+      <c r="AM68" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN68">
         <v>0.499</v>
       </c>
-      <c r="AN68">
+      <c r="AO68">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO68" s="25">
+      <c r="AP68" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP68">
+      <c r="AQ68">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A69" s="38" t="s">
         <v>176</v>
       </c>
       <c r="B69" t="s">
@@ -9220,75 +9375,78 @@
       <c r="T69">
         <v>0.02</v>
       </c>
-      <c r="U69" t="b">
-        <v>1</v>
-      </c>
-      <c r="V69" t="s">
+      <c r="U69">
+        <v>-0.02</v>
+      </c>
+      <c r="V69" t="b">
+        <v>1</v>
+      </c>
+      <c r="W69" t="s">
         <v>4</v>
       </c>
-      <c r="W69" t="b">
-        <v>1</v>
-      </c>
       <c r="X69" t="b">
         <v>1</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Y69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z69" t="s">
         <v>28</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>64</v>
       </c>
-      <c r="AA69">
+      <c r="AB69">
         <v>24</v>
       </c>
-      <c r="AB69">
+      <c r="AC69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC69">
+      <c r="AD69">
         <v>10</v>
       </c>
-      <c r="AD69">
-        <v>0</v>
-      </c>
-      <c r="AE69" t="s">
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69" t="s">
         <v>37</v>
       </c>
-      <c r="AF69" t="s">
+      <c r="AG69" t="s">
         <v>27</v>
       </c>
-      <c r="AG69" t="s">
+      <c r="AH69" t="s">
         <v>206</v>
       </c>
-      <c r="AH69">
+      <c r="AI69">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI69">
+      <c r="AJ69">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AJ69" s="7">
+      <c r="AK69" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK69" t="s">
-        <v>47</v>
       </c>
       <c r="AL69" t="s">
         <v>47</v>
       </c>
-      <c r="AM69">
+      <c r="AM69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN69">
         <v>0.499</v>
       </c>
-      <c r="AN69">
+      <c r="AO69">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO69" s="25">
+      <c r="AP69" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP69">
+      <c r="AQ69">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A70" s="44" t="s">
         <v>185</v>
       </c>
       <c r="B70" t="s">
@@ -9348,80 +9506,83 @@
       <c r="T70">
         <v>0.02</v>
       </c>
-      <c r="U70" t="b">
-        <v>1</v>
-      </c>
-      <c r="V70" t="s">
+      <c r="U70">
+        <v>-0.02</v>
+      </c>
+      <c r="V70" t="b">
+        <v>1</v>
+      </c>
+      <c r="W70" t="s">
         <v>4</v>
       </c>
-      <c r="W70" t="b">
-        <v>1</v>
-      </c>
       <c r="X70" t="b">
         <v>1</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Y70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z70" t="s">
         <v>28</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>64</v>
       </c>
-      <c r="AA70">
+      <c r="AB70">
         <v>24</v>
       </c>
-      <c r="AB70">
+      <c r="AC70">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC70">
+      <c r="AD70">
         <v>10</v>
       </c>
-      <c r="AD70">
-        <v>0</v>
-      </c>
-      <c r="AE70" t="s">
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70" t="s">
         <v>37</v>
       </c>
-      <c r="AF70" t="s">
+      <c r="AG70" t="s">
         <v>27</v>
       </c>
-      <c r="AG70" t="s">
+      <c r="AH70" t="s">
         <v>207</v>
       </c>
-      <c r="AH70">
+      <c r="AI70">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI70">
+      <c r="AJ70">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="AJ70" s="7">
+      <c r="AK70" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK70" t="s">
-        <v>47</v>
       </c>
       <c r="AL70" t="s">
         <v>47</v>
       </c>
-      <c r="AM70">
+      <c r="AM70" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN70">
         <v>0.499</v>
       </c>
-      <c r="AN70">
+      <c r="AO70">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO70" s="25">
+      <c r="AP70" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP70">
+      <c r="AQ70">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="71" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="46"/>
-      <c r="AJ71" s="7"/>
-      <c r="AO71" s="25"/>
-    </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A72" s="37" t="s">
+    <row r="71" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="44"/>
+      <c r="AK71" s="7"/>
+      <c r="AP71" s="25"/>
+    </row>
+    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A72" s="45" t="s">
         <v>202</v>
       </c>
       <c r="B72" t="s">
@@ -9440,7 +9601,7 @@
         <v>36</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="b">
         <v>1</v>
@@ -9481,74 +9642,77 @@
       <c r="T72">
         <v>0.02</v>
       </c>
-      <c r="U72" t="b">
-        <v>1</v>
-      </c>
-      <c r="V72" t="s">
+      <c r="U72">
+        <v>-0.02</v>
+      </c>
+      <c r="V72" t="b">
+        <v>1</v>
+      </c>
+      <c r="W72" t="s">
         <v>4</v>
       </c>
-      <c r="W72" t="b">
-        <v>1</v>
-      </c>
       <c r="X72" t="b">
         <v>1</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Y72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z72" t="s">
         <v>28</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>64</v>
       </c>
-      <c r="AA72">
+      <c r="AB72">
         <v>24</v>
       </c>
-      <c r="AB72">
+      <c r="AC72">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC72">
+      <c r="AD72">
         <v>10</v>
       </c>
-      <c r="AD72">
-        <v>0</v>
-      </c>
-      <c r="AE72" t="s">
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72" t="s">
         <v>37</v>
       </c>
-      <c r="AF72" t="s">
+      <c r="AG72" t="s">
         <v>27</v>
       </c>
-      <c r="AG72" t="s">
+      <c r="AH72" t="s">
         <v>21</v>
       </c>
-      <c r="AH72">
+      <c r="AI72">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI72">
+      <c r="AJ72">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AJ72" s="7">
+      <c r="AK72" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK72" t="s">
-        <v>47</v>
       </c>
       <c r="AL72" t="s">
         <v>47</v>
       </c>
-      <c r="AM72">
+      <c r="AM72" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN72">
         <v>0.499</v>
       </c>
-      <c r="AN72">
+      <c r="AO72">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO72" s="25">
+      <c r="AP72" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP72">
+      <c r="AQ72">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A73" s="38" t="s">
         <v>203</v>
       </c>
@@ -9568,7 +9732,7 @@
         <v>36</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
@@ -9609,77 +9773,80 @@
       <c r="T73">
         <v>0.02</v>
       </c>
-      <c r="U73" t="b">
-        <v>1</v>
-      </c>
-      <c r="V73" t="s">
+      <c r="U73">
+        <v>-0.02</v>
+      </c>
+      <c r="V73" t="b">
+        <v>1</v>
+      </c>
+      <c r="W73" t="s">
         <v>4</v>
       </c>
-      <c r="W73" t="b">
-        <v>1</v>
-      </c>
       <c r="X73" t="b">
         <v>1</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Y73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z73" t="s">
         <v>28</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>64</v>
       </c>
-      <c r="AA73">
+      <c r="AB73">
         <v>24</v>
       </c>
-      <c r="AB73">
+      <c r="AC73">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC73">
+      <c r="AD73">
         <v>10</v>
       </c>
-      <c r="AD73">
-        <v>0</v>
-      </c>
-      <c r="AE73" t="s">
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73" t="s">
         <v>37</v>
       </c>
-      <c r="AF73" t="s">
+      <c r="AG73" t="s">
         <v>27</v>
       </c>
-      <c r="AG73" t="s">
+      <c r="AH73" t="s">
         <v>206</v>
       </c>
-      <c r="AH73">
+      <c r="AI73">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI73">
+      <c r="AJ73">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AJ73" s="7">
+      <c r="AK73" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK73" t="s">
-        <v>47</v>
       </c>
       <c r="AL73" t="s">
         <v>47</v>
       </c>
-      <c r="AM73">
+      <c r="AM73" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN73">
         <v>0.499</v>
       </c>
-      <c r="AN73">
+      <c r="AO73">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO73" s="25">
+      <c r="AP73" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP73">
+      <c r="AQ73">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
-    </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A74" s="44"/>
+    </row>
+    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>194</v>
       </c>
@@ -9699,7 +9866,7 @@
         <v>36</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="b">
         <v>1</v>
@@ -9740,75 +9907,78 @@
       <c r="T75">
         <v>0.02</v>
       </c>
-      <c r="U75" t="b">
-        <v>1</v>
-      </c>
-      <c r="V75" t="s">
+      <c r="U75">
+        <v>-0.02</v>
+      </c>
+      <c r="V75" t="b">
+        <v>1</v>
+      </c>
+      <c r="W75" t="s">
         <v>4</v>
       </c>
-      <c r="W75" t="b">
-        <v>1</v>
-      </c>
       <c r="X75" t="b">
         <v>1</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Y75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z75" t="s">
         <v>28</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>64</v>
       </c>
-      <c r="AA75">
+      <c r="AB75">
         <v>24</v>
       </c>
-      <c r="AB75">
+      <c r="AC75">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC75">
+      <c r="AD75">
         <v>10</v>
       </c>
-      <c r="AD75">
-        <v>0</v>
-      </c>
-      <c r="AE75" t="s">
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75" t="s">
         <v>37</v>
       </c>
-      <c r="AF75" t="s">
+      <c r="AG75" t="s">
         <v>27</v>
       </c>
-      <c r="AG75" t="s">
+      <c r="AH75" t="s">
         <v>206</v>
       </c>
-      <c r="AH75">
+      <c r="AI75">
         <v>6.25E-2</v>
       </c>
-      <c r="AI75">
+      <c r="AJ75">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AJ75" s="7">
+      <c r="AK75" s="7">
         <v>0.12</v>
       </c>
-      <c r="AK75" t="s">
+      <c r="AL75" t="s">
         <v>141</v>
       </c>
-      <c r="AL75" t="s">
+      <c r="AM75" t="s">
         <v>140</v>
       </c>
-      <c r="AM75">
+      <c r="AN75">
         <v>0.499</v>
       </c>
-      <c r="AN75">
+      <c r="AO75">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO75" s="25">
+      <c r="AP75" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP75">
+      <c r="AQ75">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="76" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="40" t="s">
+    <row r="76" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="43" t="s">
         <v>195</v>
       </c>
       <c r="B76" t="s">
@@ -9827,7 +9997,7 @@
         <v>36</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -9868,78 +10038,81 @@
       <c r="T76">
         <v>0.02</v>
       </c>
-      <c r="U76" t="b">
-        <v>1</v>
-      </c>
-      <c r="V76" t="s">
+      <c r="U76">
+        <v>-0.02</v>
+      </c>
+      <c r="V76" t="b">
+        <v>1</v>
+      </c>
+      <c r="W76" t="s">
         <v>4</v>
       </c>
-      <c r="W76" t="b">
-        <v>1</v>
-      </c>
       <c r="X76" t="b">
         <v>1</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Y76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z76" t="s">
         <v>28</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>64</v>
       </c>
-      <c r="AA76">
+      <c r="AB76">
         <v>24</v>
       </c>
-      <c r="AB76">
+      <c r="AC76">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC76">
+      <c r="AD76">
         <v>10</v>
       </c>
-      <c r="AD76">
-        <v>0</v>
-      </c>
-      <c r="AE76" t="s">
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76" t="s">
         <v>37</v>
       </c>
-      <c r="AF76" t="s">
+      <c r="AG76" t="s">
         <v>27</v>
       </c>
-      <c r="AG76" t="s">
+      <c r="AH76" t="s">
         <v>206</v>
       </c>
-      <c r="AH76">
+      <c r="AI76">
         <v>6.25E-2</v>
       </c>
-      <c r="AI76">
+      <c r="AJ76">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AJ76" s="7">
+      <c r="AK76" s="7">
         <v>0.12</v>
       </c>
-      <c r="AK76" t="s">
+      <c r="AL76" t="s">
         <v>141</v>
       </c>
-      <c r="AL76" t="s">
+      <c r="AM76" t="s">
         <v>140</v>
       </c>
-      <c r="AM76">
+      <c r="AN76">
         <v>0.499</v>
       </c>
-      <c r="AN76">
+      <c r="AO76">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO76" s="25">
+      <c r="AP76" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP76">
+      <c r="AQ76">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
-    </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A78" s="41" t="s">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A77" s="39"/>
+    </row>
+    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A78" s="39" t="s">
         <v>190</v>
       </c>
       <c r="B78" t="s">
@@ -9999,75 +10172,78 @@
       <c r="T78">
         <v>0.02</v>
       </c>
-      <c r="U78" t="b">
-        <v>0</v>
-      </c>
-      <c r="V78" t="s">
+      <c r="U78">
+        <v>-0.02</v>
+      </c>
+      <c r="V78" t="b">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
         <v>4</v>
       </c>
-      <c r="W78" t="b">
-        <v>1</v>
-      </c>
       <c r="X78" t="b">
         <v>1</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Y78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z78" t="s">
         <v>28</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>64</v>
       </c>
-      <c r="AA78">
+      <c r="AB78">
         <v>24</v>
       </c>
-      <c r="AB78">
+      <c r="AC78">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC78">
+      <c r="AD78">
         <v>10</v>
       </c>
-      <c r="AD78">
-        <v>0</v>
-      </c>
-      <c r="AE78" t="s">
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78" t="s">
         <v>37</v>
       </c>
-      <c r="AF78" t="s">
+      <c r="AG78" t="s">
         <v>27</v>
       </c>
-      <c r="AG78" t="s">
+      <c r="AH78" t="s">
         <v>21</v>
       </c>
-      <c r="AH78">
+      <c r="AI78">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI78">
+      <c r="AJ78">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AJ78" s="7">
+      <c r="AK78" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK78" t="s">
-        <v>47</v>
       </c>
       <c r="AL78" t="s">
         <v>47</v>
       </c>
-      <c r="AM78">
+      <c r="AM78" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN78">
         <v>0.499</v>
       </c>
-      <c r="AN78">
+      <c r="AO78">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AO78" s="25">
+      <c r="AP78" s="25">
         <v>48971933106</v>
       </c>
-      <c r="AP78">
+      <c r="AQ78">
         <v>56234303948</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A79" s="41" t="s">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A79" s="39" t="s">
         <v>191</v>
       </c>
       <c r="B79" t="s">
@@ -10127,73 +10303,76 @@
       <c r="T79">
         <v>0.02</v>
       </c>
-      <c r="U79" t="b">
-        <v>0</v>
-      </c>
-      <c r="V79" t="s">
+      <c r="U79">
+        <v>-0.02</v>
+      </c>
+      <c r="V79" t="b">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
         <v>4</v>
       </c>
-      <c r="W79" t="b">
-        <v>1</v>
-      </c>
       <c r="X79" t="b">
         <v>1</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Y79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z79" t="s">
         <v>28</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>64</v>
       </c>
-      <c r="AA79">
+      <c r="AB79">
         <v>24</v>
       </c>
-      <c r="AB79">
+      <c r="AC79">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC79">
+      <c r="AD79">
         <v>10</v>
       </c>
-      <c r="AD79">
-        <v>0</v>
-      </c>
-      <c r="AE79" t="s">
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79" t="s">
         <v>37</v>
       </c>
-      <c r="AF79" t="s">
+      <c r="AG79" t="s">
         <v>27</v>
       </c>
-      <c r="AG79" t="s">
+      <c r="AH79" t="s">
         <v>21</v>
       </c>
-      <c r="AH79">
+      <c r="AI79">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AI79">
+      <c r="AJ79">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AJ79" s="7">
+      <c r="AK79" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AK79" t="s">
-        <v>47</v>
       </c>
       <c r="AL79" t="s">
         <v>47</v>
       </c>
-      <c r="AM79">
+      <c r="AM79" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN79">
         <v>0.499</v>
       </c>
-      <c r="AN79">
+      <c r="AO79">
         <v>0.57299999999999995</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:I30 H5:I13 H40:I43 H45:I51 G78:I79 G75:I76 G53:I55 H57:I73 G56:G74 G31:G52 H15:I20 H22:I27 G5:G28 H32:I38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:I30 H5:I13 H40:I43 H45:I51 G78:I79 H57:I73 G5:G28 H15:I20 H22:I27 H32:I38 H75:I76 G53:I55 G31:G52 G56:G76">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF22:AF27 AF15:AF20 AF5:AF13 AF29:AF30 AF75:AF76 AF45:AF51 AF40:AF43 AF78:AF79 AF53:AF55 AF57:AF73 AF32:AF38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG22:AG27 AG15:AG20 AG5:AG13 AG29:AG30 AG75:AG76 AG45:AG51 AG40:AG43 AG78:AG79 AG53:AG55 AG57:AG73 AG32:AG38">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10278,7 +10457,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10340,7 +10519,7 @@
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="41">
         <v>7.9699999999999993E-2</v>
       </c>
       <c r="C3" s="7">
@@ -10349,7 +10528,7 @@
       <c r="D3" s="22">
         <v>40</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="41">
         <f>B3-C3^2/2</f>
         <v>7.2499999999999995E-2</v>
       </c>
@@ -10486,7 +10665,7 @@
       <c r="D9" s="22">
         <v>40</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="42">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="F9" s="24">
@@ -10523,7 +10702,7 @@
       <c r="A11" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="41">
         <v>6.9699999999999998E-2</v>
       </c>
       <c r="C11" s="7">
@@ -10532,7 +10711,7 @@
       <c r="D11" s="22">
         <v>40</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="41">
         <f>B11-C11^2/2</f>
         <v>6.25E-2</v>
       </c>
@@ -10540,7 +10719,7 @@
         <f>B11 - C11^2/2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="40">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -10570,7 +10749,7 @@
       <c r="A13" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="41">
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="C13" s="7">
@@ -10579,7 +10758,7 @@
       <c r="D13" s="22">
         <v>40</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="41">
         <f>B13-C13^2/2</f>
         <v>5.2500000000000005E-2</v>
       </c>
@@ -10587,7 +10766,7 @@
         <f>B13 - C13^2/2</f>
         <v>5.2500000000000005E-2</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="40">
         <v>5.2499999999999998E-2</v>
       </c>
     </row>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12210"/>
@@ -39,7 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -48,7 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 DC reform applied to all current and future members</t>
@@ -63,7 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -72,7 +72,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 TRUE if results for new hires in Tier E and F are saved separately
@@ -88,7 +88,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -97,7 +97,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 only for PSERS_Models_sim.R
@@ -137,7 +137,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Author:
 </t>
@@ -152,7 +152,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Author:
 </t>
@@ -167,7 +167,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Author:
 </t>
@@ -182,7 +182,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Author:
 </t>
@@ -197,7 +197,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Author:
 </t>
@@ -212,7 +212,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Author:
 </t>
@@ -1104,7 +1104,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1145,19 +1145,6 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1378,7 +1365,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1388,14 +1374,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2899,10 +2886,10 @@
   <dimension ref="A4:AQ79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3324,7 +3311,7 @@
       <c r="AK7" s="7"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="49" t="s">
         <v>101</v>
       </c>
       <c r="B8" t="s">
@@ -3446,7 +3433,7 @@
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>102</v>
       </c>
       <c r="B9" t="s">
@@ -3462,7 +3449,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -3568,7 +3555,7 @@
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>103</v>
       </c>
       <c r="B10" t="s">
@@ -3584,7 +3571,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -3690,7 +3677,7 @@
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>104</v>
       </c>
       <c r="B11" t="s">
@@ -3706,7 +3693,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -3812,7 +3799,7 @@
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B12" t="s">
@@ -3937,7 +3924,7 @@
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B13" t="s">
@@ -4059,10 +4046,10 @@
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="43"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="43" t="s">
         <v>107</v>
       </c>
       <c r="B15" t="s">
@@ -4184,7 +4171,7 @@
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>108</v>
       </c>
       <c r="B16" t="s">
@@ -4200,7 +4187,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -4306,7 +4293,7 @@
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="37" t="s">
         <v>109</v>
       </c>
       <c r="B17" t="s">
@@ -4322,7 +4309,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -4428,7 +4415,7 @@
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="37" t="s">
         <v>110</v>
       </c>
       <c r="B18" t="s">
@@ -4444,7 +4431,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -4550,7 +4537,7 @@
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="43" t="s">
         <v>118</v>
       </c>
       <c r="B19" t="s">
@@ -4672,7 +4659,7 @@
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B20" t="s">
@@ -4794,10 +4781,10 @@
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
+      <c r="A21" s="43"/>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="43" t="s">
         <v>111</v>
       </c>
       <c r="B22" t="s">
@@ -4919,7 +4906,7 @@
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="37" t="s">
         <v>112</v>
       </c>
       <c r="B23" t="s">
@@ -4935,7 +4922,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -5041,7 +5028,7 @@
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="37" t="s">
         <v>113</v>
       </c>
       <c r="B24" t="s">
@@ -5057,7 +5044,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -5163,7 +5150,7 @@
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="37" t="s">
         <v>114</v>
       </c>
       <c r="B25" t="s">
@@ -5179,7 +5166,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -5285,7 +5272,7 @@
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B26" t="s">
@@ -5407,7 +5394,7 @@
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B27" t="s">
@@ -5529,7 +5516,7 @@
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="43"/>
       <c r="O28">
         <v>0</v>
       </c>
@@ -5541,7 +5528,7 @@
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="37" t="s">
         <v>122</v>
       </c>
       <c r="B29" t="s">
@@ -5557,7 +5544,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -5663,7 +5650,7 @@
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="37" t="s">
         <v>124</v>
       </c>
       <c r="B30" t="s">
@@ -5679,7 +5666,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -5785,10 +5772,10 @@
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+      <c r="A31" s="43"/>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="37" t="s">
         <v>125</v>
       </c>
       <c r="B32" t="s">
@@ -5804,7 +5791,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
@@ -5910,7 +5897,7 @@
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="37" t="s">
         <v>126</v>
       </c>
       <c r="B33" t="s">
@@ -5926,7 +5913,7 @@
         <v>36</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
@@ -6032,7 +6019,7 @@
       </c>
     </row>
     <row r="34" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="42" t="s">
         <v>127</v>
       </c>
       <c r="B34" t="s">
@@ -6048,7 +6035,7 @@
         <v>36</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -6154,11 +6141,11 @@
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
+      <c r="A35" s="45"/>
       <c r="AK35" s="7"/>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="37" t="s">
         <v>209</v>
       </c>
       <c r="B36" t="s">
@@ -6177,7 +6164,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
@@ -6283,7 +6270,7 @@
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="37" t="s">
         <v>210</v>
       </c>
       <c r="B37" t="s">
@@ -6302,7 +6289,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
@@ -6408,7 +6395,7 @@
       </c>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="37" t="s">
         <v>211</v>
       </c>
       <c r="B38" t="s">
@@ -6427,7 +6414,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
@@ -6931,7 +6918,7 @@
     </row>
     <row r="44" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="44" t="s">
         <v>165</v>
       </c>
       <c r="B45" t="s">
@@ -7062,7 +7049,7 @@
       </c>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="37" t="s">
         <v>166</v>
       </c>
       <c r="B46" t="s">
@@ -7193,7 +7180,7 @@
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="43" t="s">
         <v>188</v>
       </c>
       <c r="B47" t="s">
@@ -7324,12 +7311,12 @@
       </c>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
+      <c r="A48" s="43"/>
       <c r="AK48" s="7"/>
       <c r="AP48" s="25"/>
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="37" t="s">
         <v>171</v>
       </c>
       <c r="B49" t="s">
@@ -7460,7 +7447,7 @@
       </c>
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="37" t="s">
         <v>172</v>
       </c>
       <c r="B50" t="s">
@@ -7591,7 +7578,7 @@
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="43" t="s">
         <v>186</v>
       </c>
       <c r="B51" t="s">
@@ -7722,10 +7709,10 @@
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
+      <c r="A52" s="43"/>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="37" t="s">
         <v>173</v>
       </c>
       <c r="B53" t="s">
@@ -7856,7 +7843,7 @@
       </c>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="37" t="s">
         <v>174</v>
       </c>
       <c r="B54" t="s">
@@ -7987,7 +7974,7 @@
       </c>
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="43" t="s">
         <v>187</v>
       </c>
       <c r="B55" t="s">
@@ -8118,10 +8105,10 @@
       </c>
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
+      <c r="A56" s="43"/>
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="43" t="s">
         <v>201</v>
       </c>
       <c r="B57" t="s">
@@ -8140,7 +8127,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
@@ -8252,7 +8239,7 @@
       </c>
     </row>
     <row r="58" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="49" t="s">
+      <c r="A58" s="50" t="s">
         <v>193</v>
       </c>
       <c r="B58" t="s">
@@ -8271,7 +8258,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="b">
         <v>1</v>
@@ -8383,12 +8370,12 @@
       </c>
     </row>
     <row r="59" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="50"/>
+      <c r="A59" s="46"/>
       <c r="AK59" s="7"/>
       <c r="AP59" s="25"/>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="44" t="s">
         <v>179</v>
       </c>
       <c r="B60" t="s">
@@ -8519,7 +8506,7 @@
       </c>
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="37" t="s">
         <v>175</v>
       </c>
       <c r="B61" t="s">
@@ -8650,7 +8637,7 @@
       </c>
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A62" s="44" t="s">
+      <c r="A62" s="43" t="s">
         <v>183</v>
       </c>
       <c r="B62" t="s">
@@ -8781,12 +8768,12 @@
       </c>
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
+      <c r="A63" s="43"/>
       <c r="AK63" s="7"/>
       <c r="AP63" s="25"/>
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A64" s="38" t="s">
+      <c r="A64" s="37" t="s">
         <v>182</v>
       </c>
       <c r="B64" t="s">
@@ -8917,7 +8904,7 @@
       </c>
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="37" t="s">
         <v>177</v>
       </c>
       <c r="B65" t="s">
@@ -9048,7 +9035,7 @@
       </c>
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A66" s="44" t="s">
+      <c r="A66" s="43" t="s">
         <v>184</v>
       </c>
       <c r="B66" t="s">
@@ -9179,12 +9166,12 @@
       </c>
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A67" s="44"/>
+      <c r="A67" s="43"/>
       <c r="AK67" s="7"/>
       <c r="AP67" s="25"/>
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A68" s="38" t="s">
+      <c r="A68" s="37" t="s">
         <v>178</v>
       </c>
       <c r="B68" t="s">
@@ -9315,7 +9302,7 @@
       </c>
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="37" t="s">
         <v>176</v>
       </c>
       <c r="B69" t="s">
@@ -9446,7 +9433,7 @@
       </c>
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A70" s="44" t="s">
+      <c r="A70" s="43" t="s">
         <v>185</v>
       </c>
       <c r="B70" t="s">
@@ -9577,12 +9564,12 @@
       </c>
     </row>
     <row r="71" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="44"/>
+      <c r="A71" s="43"/>
       <c r="AK71" s="7"/>
       <c r="AP71" s="25"/>
     </row>
     <row r="72" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A72" s="45" t="s">
+      <c r="A72" s="44" t="s">
         <v>202</v>
       </c>
       <c r="B72" t="s">
@@ -9713,7 +9700,7 @@
       </c>
     </row>
     <row r="73" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A73" s="38" t="s">
+      <c r="A73" s="37" t="s">
         <v>203</v>
       </c>
       <c r="B73" t="s">
@@ -9844,10 +9831,10 @@
       </c>
     </row>
     <row r="74" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A74" s="44"/>
+      <c r="A74" s="43"/>
     </row>
     <row r="75" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A75" s="38" t="s">
+      <c r="A75" s="43" t="s">
         <v>194</v>
       </c>
       <c r="B75" t="s">
@@ -9978,7 +9965,7 @@
       </c>
     </row>
     <row r="76" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="43" t="s">
+      <c r="A76" s="50" t="s">
         <v>195</v>
       </c>
       <c r="B76" t="s">
@@ -10109,10 +10096,10 @@
       </c>
     </row>
     <row r="77" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A77" s="39"/>
+      <c r="A77" s="38"/>
     </row>
     <row r="78" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A78" s="39" t="s">
+      <c r="A78" s="38" t="s">
         <v>190</v>
       </c>
       <c r="B78" t="s">
@@ -10243,7 +10230,7 @@
       </c>
     </row>
     <row r="79" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A79" s="39" t="s">
+      <c r="A79" s="38" t="s">
         <v>191</v>
       </c>
       <c r="B79" t="s">
@@ -10369,7 +10356,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:I30 H5:I13 H40:I43 H45:I51 G78:I79 H57:I73 G5:G28 H15:I20 H22:I27 H32:I38 H75:I76 G53:I55 G31:G52 G56:G76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:I13 H40:I43 H45:I51 G78:I79 H57:I73 G56:G76 H32:I38 H75:I76 G53:I55 H29:I30 H15:I20 H22:I27 G5:G52">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG22:AG27 AG15:AG20 AG5:AG13 AG29:AG30 AG75:AG76 AG45:AG51 AG40:AG43 AG78:AG79 AG53:AG55 AG57:AG73 AG32:AG38">
@@ -10387,7 +10374,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10519,7 +10506,7 @@
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="40">
         <v>7.9699999999999993E-2</v>
       </c>
       <c r="C3" s="7">
@@ -10528,7 +10515,7 @@
       <c r="D3" s="22">
         <v>40</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="40">
         <f>B3-C3^2/2</f>
         <v>7.2499999999999995E-2</v>
       </c>
@@ -10665,7 +10652,7 @@
       <c r="D9" s="22">
         <v>40</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="41">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="F9" s="24">
@@ -10702,7 +10689,7 @@
       <c r="A11" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="40">
         <v>6.9699999999999998E-2</v>
       </c>
       <c r="C11" s="7">
@@ -10711,7 +10698,7 @@
       <c r="D11" s="22">
         <v>40</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="40">
         <f>B11-C11^2/2</f>
         <v>6.25E-2</v>
       </c>
@@ -10719,7 +10706,7 @@
         <f>B11 - C11^2/2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="39">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -10749,7 +10736,7 @@
       <c r="A13" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="40">
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="C13" s="7">
@@ -10758,7 +10745,7 @@
       <c r="D13" s="22">
         <v>40</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="40">
         <f>B13-C13^2/2</f>
         <v>5.2500000000000005E-2</v>
       </c>
@@ -10766,7 +10753,7 @@
         <f>B13 - C13^2/2</f>
         <v>5.2500000000000005E-2</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="39">
         <v>5.2499999999999998E-2</v>
       </c>
     </row>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="217">
   <si>
     <t>runname</t>
   </si>
@@ -1092,6 +1092,9 @@
   </si>
   <si>
     <t>SharedRisk_floor</t>
+  </si>
+  <si>
+    <t>RS1_SR0EL1_sep_R725.d725.test</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1366,23 +1369,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2883,20 +2885,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AQ79"/>
+  <dimension ref="A4:AQ81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="64" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
@@ -2930,7 +2932,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3061,7 +3063,7 @@
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="44" t="s">
         <v>60</v>
       </c>
       <c r="B5" t="s">
@@ -3183,7 +3185,7 @@
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="44" t="s">
         <v>61</v>
       </c>
       <c r="B6" t="s">
@@ -3311,7 +3313,7 @@
       <c r="AK7" s="7"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="45" t="s">
         <v>101</v>
       </c>
       <c r="B8" t="s">
@@ -3433,7 +3435,7 @@
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="41" t="s">
         <v>102</v>
       </c>
       <c r="B9" t="s">
@@ -3449,7 +3451,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -3555,7 +3557,7 @@
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="41" t="s">
         <v>103</v>
       </c>
       <c r="B10" t="s">
@@ -3571,7 +3573,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -3677,7 +3679,7 @@
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="41" t="s">
         <v>104</v>
       </c>
       <c r="B11" t="s">
@@ -3693,7 +3695,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -3799,7 +3801,7 @@
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="41" t="s">
         <v>116</v>
       </c>
       <c r="B12" t="s">
@@ -3924,7 +3926,7 @@
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="41" t="s">
         <v>117</v>
       </c>
       <c r="B13" t="s">
@@ -4046,10 +4048,10 @@
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="41"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="41" t="s">
         <v>107</v>
       </c>
       <c r="B15" t="s">
@@ -4171,7 +4173,7 @@
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="41" t="s">
         <v>108</v>
       </c>
       <c r="B16" t="s">
@@ -4187,7 +4189,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -4293,7 +4295,7 @@
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="41" t="s">
         <v>109</v>
       </c>
       <c r="B17" t="s">
@@ -4309,7 +4311,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -4415,7 +4417,7 @@
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="41" t="s">
         <v>110</v>
       </c>
       <c r="B18" t="s">
@@ -4431,7 +4433,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -4537,7 +4539,7 @@
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="41" t="s">
         <v>118</v>
       </c>
       <c r="B19" t="s">
@@ -4659,7 +4661,7 @@
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="41" t="s">
         <v>119</v>
       </c>
       <c r="B20" t="s">
@@ -4781,10 +4783,10 @@
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="41"/>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="41" t="s">
         <v>111</v>
       </c>
       <c r="B22" t="s">
@@ -4906,7 +4908,7 @@
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="41" t="s">
         <v>112</v>
       </c>
       <c r="B23" t="s">
@@ -4922,7 +4924,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -5028,7 +5030,7 @@
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="41" t="s">
         <v>113</v>
       </c>
       <c r="B24" t="s">
@@ -5044,7 +5046,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -5150,7 +5152,7 @@
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="41" t="s">
         <v>114</v>
       </c>
       <c r="B25" t="s">
@@ -5166,7 +5168,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -5272,7 +5274,7 @@
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="41" t="s">
         <v>120</v>
       </c>
       <c r="B26" t="s">
@@ -5394,7 +5396,7 @@
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="41" t="s">
         <v>121</v>
       </c>
       <c r="B27" t="s">
@@ -5516,7 +5518,7 @@
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
+      <c r="A28" s="41"/>
       <c r="O28">
         <v>0</v>
       </c>
@@ -5528,7 +5530,7 @@
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="41" t="s">
         <v>122</v>
       </c>
       <c r="B29" t="s">
@@ -5544,7 +5546,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -5650,7 +5652,7 @@
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="41" t="s">
         <v>124</v>
       </c>
       <c r="B30" t="s">
@@ -5666,7 +5668,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -5772,10 +5774,10 @@
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="41"/>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="41" t="s">
         <v>125</v>
       </c>
       <c r="B32" t="s">
@@ -5791,7 +5793,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
@@ -5897,7 +5899,7 @@
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="41" t="s">
         <v>126</v>
       </c>
       <c r="B33" t="s">
@@ -5913,7 +5915,7 @@
         <v>36</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
@@ -6019,7 +6021,7 @@
       </c>
     </row>
     <row r="34" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="46" t="s">
         <v>127</v>
       </c>
       <c r="B34" t="s">
@@ -6035,7 +6037,7 @@
         <v>36</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -6141,11 +6143,11 @@
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="43"/>
       <c r="AK35" s="7"/>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="41" t="s">
         <v>209</v>
       </c>
       <c r="B36" t="s">
@@ -6164,7 +6166,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
@@ -6270,7 +6272,7 @@
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="41" t="s">
         <v>210</v>
       </c>
       <c r="B37" t="s">
@@ -6289,7 +6291,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
@@ -6395,7 +6397,7 @@
       </c>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="41" t="s">
         <v>211</v>
       </c>
       <c r="B38" t="s">
@@ -6414,7 +6416,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
@@ -6520,7 +6522,7 @@
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="44" t="s">
         <v>167</v>
       </c>
       <c r="B40" t="s">
@@ -6651,7 +6653,7 @@
       </c>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="44" t="s">
         <v>168</v>
       </c>
       <c r="B41" t="s">
@@ -6782,7 +6784,7 @@
       </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="44" t="s">
         <v>169</v>
       </c>
       <c r="B42" t="s">
@@ -6918,7 +6920,7 @@
     </row>
     <row r="44" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="45" t="s">
         <v>165</v>
       </c>
       <c r="B45" t="s">
@@ -7049,7 +7051,7 @@
       </c>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="41" t="s">
         <v>166</v>
       </c>
       <c r="B46" t="s">
@@ -7180,7 +7182,7 @@
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="41" t="s">
         <v>188</v>
       </c>
       <c r="B47" t="s">
@@ -7311,12 +7313,12 @@
       </c>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="41"/>
       <c r="AK48" s="7"/>
       <c r="AP48" s="25"/>
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="41" t="s">
         <v>171</v>
       </c>
       <c r="B49" t="s">
@@ -7447,7 +7449,7 @@
       </c>
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="41" t="s">
         <v>172</v>
       </c>
       <c r="B50" t="s">
@@ -7578,7 +7580,7 @@
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="41" t="s">
         <v>186</v>
       </c>
       <c r="B51" t="s">
@@ -7709,10 +7711,10 @@
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="41"/>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="41" t="s">
         <v>173</v>
       </c>
       <c r="B53" t="s">
@@ -7843,7 +7845,7 @@
       </c>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="41" t="s">
         <v>174</v>
       </c>
       <c r="B54" t="s">
@@ -7974,7 +7976,7 @@
       </c>
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A55" s="43" t="s">
+      <c r="A55" s="41" t="s">
         <v>187</v>
       </c>
       <c r="B55" t="s">
@@ -8105,10 +8107,10 @@
       </c>
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
+      <c r="A56" s="41"/>
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="41" t="s">
         <v>201</v>
       </c>
       <c r="B57" t="s">
@@ -8239,7 +8241,7 @@
       </c>
     </row>
     <row r="58" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="50" t="s">
+      <c r="A58" s="46" t="s">
         <v>193</v>
       </c>
       <c r="B58" t="s">
@@ -8370,12 +8372,11 @@
       </c>
     </row>
     <row r="59" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="46"/>
       <c r="AK59" s="7"/>
       <c r="AP59" s="25"/>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="42" t="s">
         <v>179</v>
       </c>
       <c r="B60" t="s">
@@ -8637,7 +8638,7 @@
       </c>
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="41" t="s">
         <v>183</v>
       </c>
       <c r="B62" t="s">
@@ -8768,7 +8769,7 @@
       </c>
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A63" s="43"/>
+      <c r="A63" s="41"/>
       <c r="AK63" s="7"/>
       <c r="AP63" s="25"/>
     </row>
@@ -8792,7 +8793,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -8923,7 +8924,7 @@
         <v>36</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -9035,7 +9036,7 @@
       </c>
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A66" s="43" t="s">
+      <c r="A66" s="41" t="s">
         <v>184</v>
       </c>
       <c r="B66" t="s">
@@ -9166,7 +9167,7 @@
       </c>
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A67" s="43"/>
+      <c r="A67" s="41"/>
       <c r="AK67" s="7"/>
       <c r="AP67" s="25"/>
     </row>
@@ -9433,7 +9434,7 @@
       </c>
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A70" s="43" t="s">
+      <c r="A70" s="41" t="s">
         <v>185</v>
       </c>
       <c r="B70" t="s">
@@ -9564,12 +9565,12 @@
       </c>
     </row>
     <row r="71" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="43"/>
+      <c r="A71" s="41"/>
       <c r="AK71" s="7"/>
       <c r="AP71" s="25"/>
     </row>
     <row r="72" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A72" s="44" t="s">
+      <c r="A72" s="45" t="s">
         <v>202</v>
       </c>
       <c r="B72" t="s">
@@ -9700,7 +9701,7 @@
       </c>
     </row>
     <row r="73" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="41" t="s">
         <v>203</v>
       </c>
       <c r="B73" t="s">
@@ -9831,10 +9832,10 @@
       </c>
     </row>
     <row r="74" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A74" s="43"/>
+      <c r="A74" s="41"/>
     </row>
     <row r="75" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A75" s="43" t="s">
+      <c r="A75" s="41" t="s">
         <v>194</v>
       </c>
       <c r="B75" t="s">
@@ -9965,7 +9966,7 @@
       </c>
     </row>
     <row r="76" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="50" t="s">
+      <c r="A76" s="46" t="s">
         <v>195</v>
       </c>
       <c r="B76" t="s">
@@ -10096,10 +10097,10 @@
       </c>
     </row>
     <row r="77" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
+      <c r="A77" s="43"/>
     </row>
     <row r="78" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A78" s="38" t="s">
+      <c r="A78" s="43" t="s">
         <v>190</v>
       </c>
       <c r="B78" t="s">
@@ -10230,7 +10231,7 @@
       </c>
     </row>
     <row r="79" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A79" s="38" t="s">
+      <c r="A79" s="43" t="s">
         <v>191</v>
       </c>
       <c r="B79" t="s">
@@ -10354,12 +10355,143 @@
         <v>0.57299999999999995</v>
       </c>
     </row>
+    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A81" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>180</v>
+      </c>
+      <c r="F81" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>15</v>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>2017</v>
+      </c>
+      <c r="N81" t="b">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="b">
+        <v>0</v>
+      </c>
+      <c r="R81" t="b">
+        <v>1</v>
+      </c>
+      <c r="S81" t="b">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>0.02</v>
+      </c>
+      <c r="U81">
+        <v>-0.02</v>
+      </c>
+      <c r="V81" t="b">
+        <v>1</v>
+      </c>
+      <c r="W81" t="s">
+        <v>4</v>
+      </c>
+      <c r="X81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB81">
+        <v>24</v>
+      </c>
+      <c r="AC81">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AD81">
+        <v>10</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI81">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AJ81">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AK81" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN81">
+        <v>0.499</v>
+      </c>
+      <c r="AO81">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AP81" s="25">
+        <v>48971933106</v>
+      </c>
+      <c r="AQ81">
+        <v>56234303948</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:I13 H40:I43 H45:I51 G78:I79 H57:I73 G56:G76 H32:I38 H75:I76 G53:I55 H29:I30 H15:I20 H22:I27 G5:G52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:I13 H40:I43 H45:I51 G78:I79 H57:I73 G81:I81 H32:I38 H75:I76 G53:I55 G29:I30 H15:I20 G56:G76 H22:I27 G31:G52 G5:G28">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG22:AG27 AG15:AG20 AG5:AG13 AG29:AG30 AG75:AG76 AG45:AG51 AG40:AG43 AG78:AG79 AG53:AG55 AG57:AG73 AG32:AG38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG22:AG27 AG15:AG20 AG5:AG13 AG29:AG30 AG75:AG76 AG45:AG51 AG40:AG43 AG78:AG79 AG53:AG55 AG57:AG73 AG32:AG38 AG81">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10374,7 +10506,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10506,7 +10638,7 @@
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="39">
         <v>7.9699999999999993E-2</v>
       </c>
       <c r="C3" s="7">
@@ -10515,7 +10647,7 @@
       <c r="D3" s="22">
         <v>40</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="39">
         <f>B3-C3^2/2</f>
         <v>7.2499999999999995E-2</v>
       </c>
@@ -10652,7 +10784,7 @@
       <c r="D9" s="22">
         <v>40</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="40">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="F9" s="24">
@@ -10689,7 +10821,7 @@
       <c r="A11" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="39">
         <v>6.9699999999999998E-2</v>
       </c>
       <c r="C11" s="7">
@@ -10698,7 +10830,7 @@
       <c r="D11" s="22">
         <v>40</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="39">
         <f>B11-C11^2/2</f>
         <v>6.25E-2</v>
       </c>
@@ -10706,7 +10838,7 @@
         <f>B11 - C11^2/2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="38">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -10736,7 +10868,7 @@
       <c r="A13" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="39">
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="C13" s="7">
@@ -10745,7 +10877,7 @@
       <c r="D13" s="22">
         <v>40</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="39">
         <f>B13-C13^2/2</f>
         <v>5.2500000000000005E-2</v>
       </c>
@@ -10753,7 +10885,7 @@
         <f>B13 - C13^2/2</f>
         <v>5.2500000000000005E-2</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="38">
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
@@ -11659,7 +11791,7 @@
   <dimension ref="B2:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -17,6 +17,7 @@
     <sheet name="RiskTransfer" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -129,6 +130,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="A48" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A49" authorId="0" shapeId="0">
       <text>
         <r>
@@ -159,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A51" authorId="0" shapeId="0">
+    <comment ref="A66" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A64" authorId="0" shapeId="0">
+    <comment ref="A67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -189,22 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A65" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A66" authorId="0" shapeId="0">
+    <comment ref="A68" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +445,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="218">
   <si>
     <t>runname</t>
   </si>
@@ -1095,6 +1096,9 @@
   </si>
   <si>
     <t>RS1_SR0EL1_sep_R725.d725.test</t>
+  </si>
+  <si>
+    <t>RS1_SR1EL1.test</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1373,18 +1377,17 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2885,18 +2888,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AQ81"/>
+  <dimension ref="A4:AQ83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B88" sqref="B88"/>
+      <selection pane="bottomRight" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="44" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="43" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
@@ -2932,7 +2935,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3063,7 +3066,7 @@
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>60</v>
       </c>
       <c r="B5" t="s">
@@ -3185,7 +3188,7 @@
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>61</v>
       </c>
       <c r="B6" t="s">
@@ -3313,7 +3316,7 @@
       <c r="AK7" s="7"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>101</v>
       </c>
       <c r="B8" t="s">
@@ -3435,7 +3438,7 @@
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="37" t="s">
         <v>102</v>
       </c>
       <c r="B9" t="s">
@@ -3573,7 +3576,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -3695,7 +3698,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -4189,7 +4192,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -4311,7 +4314,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -4433,7 +4436,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -4924,7 +4927,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -5046,7 +5049,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -5168,7 +5171,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -5546,7 +5549,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -5793,7 +5796,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
@@ -6021,7 +6024,7 @@
       </c>
     </row>
     <row r="34" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="45" t="s">
         <v>127</v>
       </c>
       <c r="B34" t="s">
@@ -6143,7 +6146,7 @@
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
+      <c r="A35" s="42"/>
       <c r="AK35" s="7"/>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
@@ -6522,7 +6525,7 @@
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="43" t="s">
         <v>167</v>
       </c>
       <c r="B40" t="s">
@@ -6646,14 +6649,14 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="AP40" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ40">
-        <v>56234303948</v>
+        <v>49023834209</v>
+      </c>
+      <c r="AQ40" s="25">
+        <v>56293901808</v>
       </c>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="43" t="s">
         <v>168</v>
       </c>
       <c r="B41" t="s">
@@ -6777,14 +6780,14 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="AP41" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ41">
-        <v>56234303948</v>
+        <v>49023834209</v>
+      </c>
+      <c r="AQ41" s="25">
+        <v>56293901808</v>
       </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="43" t="s">
         <v>169</v>
       </c>
       <c r="B42" t="s">
@@ -6908,20 +6911,150 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="AP42" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ42">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+        <v>49023834209</v>
+      </c>
+      <c r="AQ42" s="25">
+        <v>56293901808</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AK43" s="7"/>
       <c r="AP43" s="25"/>
     </row>
-    <row r="44" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A44" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>196</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>2017</v>
+      </c>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>4</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="b">
+        <v>0</v>
+      </c>
+      <c r="R44" t="b">
+        <v>1</v>
+      </c>
+      <c r="S44" t="b">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>0.02</v>
+      </c>
+      <c r="U44">
+        <v>-0.02</v>
+      </c>
+      <c r="V44" t="b">
+        <v>1</v>
+      </c>
+      <c r="W44" t="s">
+        <v>4</v>
+      </c>
+      <c r="X44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB44">
+        <v>24</v>
+      </c>
+      <c r="AC44">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AD44">
+        <v>10</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI44">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AJ44">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AK44" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN44">
+        <v>0.499</v>
+      </c>
+      <c r="AO44">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AP44" s="25">
+        <v>49023834209</v>
+      </c>
+      <c r="AQ44" s="25">
+        <v>56293901808</v>
+      </c>
+    </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A45" s="45" t="s">
-        <v>165</v>
+      <c r="A45" s="41" t="s">
+        <v>175</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
@@ -6933,13 +7066,13 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F45" t="s">
         <v>36</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="b">
         <v>1</v>
@@ -6966,7 +7099,7 @@
         <v>4</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="b">
         <v>0</v>
@@ -7020,13 +7153,13 @@
         <v>27</v>
       </c>
       <c r="AH45" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="AI45">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AJ45">
-        <v>7.9699999999999993E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="AK45" s="7">
         <v>0.12</v>
@@ -7044,15 +7177,15 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="AP45" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ45">
-        <v>56234303948</v>
+        <v>49023834209</v>
+      </c>
+      <c r="AQ45" s="25">
+        <v>56293901808</v>
       </c>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
@@ -7064,7 +7197,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F46" t="s">
         <v>36</v>
@@ -7097,7 +7230,7 @@
         <v>4</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="b">
         <v>0</v>
@@ -7151,13 +7284,13 @@
         <v>27</v>
       </c>
       <c r="AH46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AI46">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AJ46">
-        <v>6.9699999999999998E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="AK46" s="7">
         <v>0.12</v>
@@ -7175,151 +7308,151 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="AP46" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ46">
-        <v>56234303948</v>
+        <v>49023834209</v>
+      </c>
+      <c r="AQ46" s="25">
+        <v>56293901808</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="A47" s="41"/>
+      <c r="AK47" s="7"/>
+      <c r="AP47" s="25"/>
+    </row>
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A48" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" t="s">
         <v>21</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>200</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48" t="s">
         <v>36</v>
       </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L47" t="b">
-        <v>0</v>
-      </c>
-      <c r="M47">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48">
         <v>2017</v>
       </c>
-      <c r="N47" t="b">
-        <v>1</v>
-      </c>
-      <c r="O47">
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48">
         <v>4</v>
       </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47" t="b">
-        <v>0</v>
-      </c>
-      <c r="R47" t="b">
-        <v>1</v>
-      </c>
-      <c r="S47" t="b">
-        <v>1</v>
-      </c>
-      <c r="T47">
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="b">
+        <v>0</v>
+      </c>
+      <c r="R48" t="b">
+        <v>1</v>
+      </c>
+      <c r="S48" t="b">
+        <v>1</v>
+      </c>
+      <c r="T48">
         <v>0.02</v>
       </c>
-      <c r="U47">
+      <c r="U48">
         <v>-0.02</v>
       </c>
-      <c r="V47" t="b">
-        <v>1</v>
-      </c>
-      <c r="W47" t="s">
+      <c r="V48" t="b">
+        <v>1</v>
+      </c>
+      <c r="W48" t="s">
         <v>4</v>
       </c>
-      <c r="X47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z47" t="s">
+      <c r="X48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z48" t="s">
         <v>28</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AA48" t="s">
         <v>64</v>
       </c>
-      <c r="AB47">
+      <c r="AB48">
         <v>24</v>
       </c>
-      <c r="AC47">
+      <c r="AC48">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD47">
+      <c r="AD48">
         <v>10</v>
       </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
-      <c r="AF47" t="s">
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="s">
         <v>37</v>
       </c>
-      <c r="AG47" t="s">
+      <c r="AG48" t="s">
         <v>27</v>
       </c>
-      <c r="AH47" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI47">
+      <c r="AH48" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI48">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AJ47">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="AK47" s="7">
+      <c r="AJ48">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AK48" s="7">
         <v>0.12</v>
       </c>
-      <c r="AL47" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN47">
+      <c r="AL48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN48">
         <v>0.499</v>
       </c>
-      <c r="AO47">
+      <c r="AO48">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AP47" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ47">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="AK48" s="7"/>
-      <c r="AP48" s="25"/>
+      <c r="AP48" s="25">
+        <v>49023834209</v>
+      </c>
+      <c r="AQ48" s="25">
+        <v>56293901808</v>
+      </c>
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
@@ -7337,7 +7470,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="b">
         <v>1</v>
@@ -7364,7 +7497,7 @@
         <v>4</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="b">
         <v>0</v>
@@ -7418,13 +7551,13 @@
         <v>27</v>
       </c>
       <c r="AH49" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="AI49">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AJ49">
-        <v>7.9699999999999993E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="AK49" s="7">
         <v>0.12</v>
@@ -7442,15 +7575,15 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="AP49" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ49">
-        <v>56234303948</v>
+        <v>49023834209</v>
+      </c>
+      <c r="AQ49" s="25">
+        <v>56293901808</v>
       </c>
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
@@ -7495,7 +7628,7 @@
         <v>4</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="b">
         <v>0</v>
@@ -7549,13 +7682,13 @@
         <v>27</v>
       </c>
       <c r="AH50" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AI50">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AJ50">
-        <v>6.9699999999999998E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="AK50" s="7">
         <v>0.12</v>
@@ -7573,149 +7706,151 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="AP50" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ50">
-        <v>56234303948</v>
+        <v>49023834209</v>
+      </c>
+      <c r="AQ50" s="25">
+        <v>56293901808</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="A51" s="41"/>
+      <c r="AK51" s="7"/>
+      <c r="AP51" s="25"/>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A52" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" t="s">
         <v>21</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>163</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" t="s">
         <v>36</v>
       </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="b">
-        <v>1</v>
-      </c>
-      <c r="M51">
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52">
         <v>2017</v>
       </c>
-      <c r="N51" t="b">
-        <v>1</v>
-      </c>
-      <c r="O51">
+      <c r="N52" t="b">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="b">
+        <v>0</v>
+      </c>
+      <c r="R52" t="b">
+        <v>1</v>
+      </c>
+      <c r="S52" t="b">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>0.02</v>
+      </c>
+      <c r="U52">
+        <v>-0.02</v>
+      </c>
+      <c r="V52" t="b">
+        <v>1</v>
+      </c>
+      <c r="W52" t="s">
         <v>4</v>
       </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51" t="b">
-        <v>0</v>
-      </c>
-      <c r="R51" t="b">
-        <v>1</v>
-      </c>
-      <c r="S51" t="b">
-        <v>1</v>
-      </c>
-      <c r="T51">
-        <v>0.02</v>
-      </c>
-      <c r="U51">
-        <v>-0.02</v>
-      </c>
-      <c r="V51" t="b">
-        <v>1</v>
-      </c>
-      <c r="W51" t="s">
-        <v>4</v>
-      </c>
-      <c r="X51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z51" t="s">
+      <c r="X52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z52" t="s">
         <v>28</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AA52" t="s">
         <v>64</v>
       </c>
-      <c r="AB51">
+      <c r="AB52">
         <v>24</v>
       </c>
-      <c r="AC51">
+      <c r="AC52">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD51">
+      <c r="AD52">
         <v>10</v>
       </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51" t="s">
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="s">
         <v>37</v>
       </c>
-      <c r="AG51" t="s">
+      <c r="AG52" t="s">
         <v>27</v>
       </c>
-      <c r="AH51" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI51">
+      <c r="AH52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI52">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AJ51">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="AK51" s="7">
+      <c r="AJ52">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AK52" s="7">
         <v>0.12</v>
       </c>
-      <c r="AL51" t="s">
+      <c r="AL52" t="s">
         <v>47</v>
       </c>
-      <c r="AM51" t="s">
+      <c r="AM52" t="s">
         <v>47</v>
       </c>
-      <c r="AN51">
+      <c r="AN52">
         <v>0.499</v>
       </c>
-      <c r="AO51">
+      <c r="AO52">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AP51" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ51">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+      <c r="AP52" s="25">
+        <v>49023834209</v>
+      </c>
+      <c r="AQ52" s="25">
+        <v>56293901808</v>
+      </c>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
@@ -7727,13 +7862,13 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F53" t="s">
         <v>36</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
@@ -7760,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="b">
         <v>0</v>
@@ -7814,13 +7949,13 @@
         <v>27</v>
       </c>
       <c r="AH53" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="AI53">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AJ53">
-        <v>7.9699999999999993E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="AK53" s="7">
         <v>0.12</v>
@@ -7838,15 +7973,15 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="AP53" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ53">
-        <v>56234303948</v>
+        <v>49023834209</v>
+      </c>
+      <c r="AQ53" s="25">
+        <v>56293901808</v>
       </c>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
@@ -7858,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="F54" t="s">
         <v>36</v>
@@ -7891,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="b">
         <v>0</v>
@@ -7945,13 +8080,13 @@
         <v>27</v>
       </c>
       <c r="AH54" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AI54">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AJ54">
-        <v>6.9699999999999998E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="AK54" s="7">
         <v>0.12</v>
@@ -7969,149 +8104,151 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="AP54" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ54">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A55" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="B55" t="s">
+        <v>49023834209</v>
+      </c>
+      <c r="AQ54" s="25">
+        <v>56293901808</v>
+      </c>
+    </row>
+    <row r="55" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="41"/>
+      <c r="AK55" s="7"/>
+      <c r="AP55" s="25"/>
+    </row>
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A56" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" t="s">
         <v>21</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>137</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56" t="s">
         <v>36</v>
       </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="b">
-        <v>0</v>
-      </c>
-      <c r="M55">
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56">
         <v>2017</v>
       </c>
-      <c r="N55" t="b">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55" t="b">
-        <v>0</v>
-      </c>
-      <c r="R55" t="b">
-        <v>1</v>
-      </c>
-      <c r="S55" t="b">
-        <v>1</v>
-      </c>
-      <c r="T55">
+      <c r="N56" t="b">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>5</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="b">
+        <v>0</v>
+      </c>
+      <c r="R56" t="b">
+        <v>1</v>
+      </c>
+      <c r="S56" t="b">
+        <v>1</v>
+      </c>
+      <c r="T56">
         <v>0.02</v>
       </c>
-      <c r="U55">
+      <c r="U56">
         <v>-0.02</v>
       </c>
-      <c r="V55" t="b">
-        <v>1</v>
-      </c>
-      <c r="W55" t="s">
+      <c r="V56" t="b">
+        <v>1</v>
+      </c>
+      <c r="W56" t="s">
         <v>4</v>
       </c>
-      <c r="X55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z55" t="s">
+      <c r="X56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z56" t="s">
         <v>28</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AA56" t="s">
         <v>64</v>
       </c>
-      <c r="AB55">
+      <c r="AB56">
         <v>24</v>
       </c>
-      <c r="AC55">
+      <c r="AC56">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD55">
+      <c r="AD56">
         <v>10</v>
       </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-      <c r="AF55" t="s">
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="s">
         <v>37</v>
       </c>
-      <c r="AG55" t="s">
+      <c r="AG56" t="s">
         <v>27</v>
       </c>
-      <c r="AH55" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI55">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AJ55">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="AK55" s="7">
+      <c r="AH56" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI56">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AJ56">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AK56" s="7">
         <v>0.12</v>
       </c>
-      <c r="AL55" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM55" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN55">
+      <c r="AL56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN56">
         <v>0.499</v>
       </c>
-      <c r="AO55">
+      <c r="AO56">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AP55" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ55">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
+      <c r="AP56" s="25">
+        <v>49023834209</v>
+      </c>
+      <c r="AQ56" s="25">
+        <v>56293901808</v>
+      </c>
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
@@ -8123,7 +8260,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="F57" t="s">
         <v>36</v>
@@ -8153,10 +8290,10 @@
         <v>1</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="b">
         <v>0</v>
@@ -8210,10 +8347,10 @@
         <v>27</v>
       </c>
       <c r="AH57" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="AI57">
-        <v>6.25E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AJ57">
         <v>6.9699999999999998E-2</v>
@@ -8222,10 +8359,10 @@
         <v>0.12</v>
       </c>
       <c r="AL57" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="AM57" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="AN57">
         <v>0.499</v>
@@ -8234,150 +8371,149 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="AP57" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ57">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="58" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="B58" t="s">
+        <v>49023834209</v>
+      </c>
+      <c r="AQ57" s="25">
+        <v>56293901808</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A58" s="41"/>
+    </row>
+    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A59" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B59" t="s">
         <v>21</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>199</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>213</v>
+      </c>
+      <c r="F59" t="s">
         <v>36</v>
       </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="b">
-        <v>1</v>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="b">
-        <v>0</v>
-      </c>
-      <c r="M58">
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59">
         <v>2017</v>
       </c>
-      <c r="N58" t="b">
-        <v>1</v>
-      </c>
-      <c r="O58">
+      <c r="N59" t="b">
+        <v>1</v>
+      </c>
+      <c r="O59">
         <v>4</v>
       </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58" t="b">
-        <v>0</v>
-      </c>
-      <c r="R58" t="b">
-        <v>1</v>
-      </c>
-      <c r="S58" t="b">
-        <v>1</v>
-      </c>
-      <c r="T58">
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="b">
+        <v>0</v>
+      </c>
+      <c r="R59" t="b">
+        <v>1</v>
+      </c>
+      <c r="S59" t="b">
+        <v>1</v>
+      </c>
+      <c r="T59">
         <v>0.02</v>
       </c>
-      <c r="U58">
+      <c r="U59">
         <v>-0.02</v>
       </c>
-      <c r="V58" t="b">
-        <v>1</v>
-      </c>
-      <c r="W58" t="s">
+      <c r="V59" t="b">
+        <v>1</v>
+      </c>
+      <c r="W59" t="s">
         <v>4</v>
       </c>
-      <c r="X58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z58" t="s">
+      <c r="X59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z59" t="s">
         <v>28</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AA59" t="s">
         <v>64</v>
       </c>
-      <c r="AB58">
+      <c r="AB59">
         <v>24</v>
       </c>
-      <c r="AC58">
+      <c r="AC59">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD58">
+      <c r="AD59">
         <v>10</v>
       </c>
-      <c r="AE58">
-        <v>0</v>
-      </c>
-      <c r="AF58" t="s">
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="s">
         <v>37</v>
       </c>
-      <c r="AG58" t="s">
+      <c r="AG59" t="s">
         <v>27</v>
       </c>
-      <c r="AH58" t="s">
+      <c r="AH59" t="s">
         <v>206</v>
       </c>
-      <c r="AI58">
+      <c r="AI59">
         <v>6.25E-2</v>
       </c>
-      <c r="AJ58">
+      <c r="AJ59">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AK58" s="7">
+      <c r="AK59" s="7">
         <v>0.12</v>
       </c>
-      <c r="AL58" t="s">
+      <c r="AL59" t="s">
         <v>141</v>
       </c>
-      <c r="AM58" t="s">
+      <c r="AM59" t="s">
         <v>140</v>
       </c>
-      <c r="AN58">
+      <c r="AN59">
         <v>0.499</v>
       </c>
-      <c r="AO58">
+      <c r="AO59">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AP58" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ58">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="59" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AK59" s="7"/>
-      <c r="AP59" s="25"/>
-    </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A60" s="42" t="s">
-        <v>179</v>
+      <c r="AP59" s="25">
+        <v>49023834209</v>
+      </c>
+      <c r="AQ59" s="25">
+        <v>56293901808</v>
+      </c>
+    </row>
+    <row r="60" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="45" t="s">
+        <v>195</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
@@ -8389,13 +8525,13 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="F60" t="s">
         <v>36</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
@@ -8419,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
         <v>0</v>
@@ -8476,22 +8612,22 @@
         <v>27</v>
       </c>
       <c r="AH60" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="AI60">
-        <v>7.2499999999999995E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AJ60">
-        <v>7.9699999999999993E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="AK60" s="7">
         <v>0.12</v>
       </c>
       <c r="AL60" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="AM60" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="AN60">
         <v>0.499</v>
@@ -8500,146 +8636,16 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="AP60" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ60">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A61" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="B61" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
-        <v>196</v>
-      </c>
-      <c r="F61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="b">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>2017</v>
-      </c>
-      <c r="N61" t="b">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>4</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="b">
-        <v>0</v>
-      </c>
-      <c r="R61" t="b">
-        <v>1</v>
-      </c>
-      <c r="S61" t="b">
-        <v>1</v>
-      </c>
-      <c r="T61">
-        <v>0.02</v>
-      </c>
-      <c r="U61">
-        <v>-0.02</v>
-      </c>
-      <c r="V61" t="b">
-        <v>1</v>
-      </c>
-      <c r="W61" t="s">
-        <v>4</v>
-      </c>
-      <c r="X61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB61">
-        <v>24</v>
-      </c>
-      <c r="AC61">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AD61">
-        <v>10</v>
-      </c>
-      <c r="AE61">
-        <v>0</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH61" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI61">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AJ61">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AK61" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AL61" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM61" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN61">
-        <v>0.499</v>
-      </c>
-      <c r="AO61">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AP61" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ61">
-        <v>56234303948</v>
-      </c>
-    </row>
+        <v>49023834209</v>
+      </c>
+      <c r="AQ60" s="25">
+        <v>56293901808</v>
+      </c>
+    </row>
+    <row r="61" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A62" s="41" t="s">
-        <v>183</v>
+      <c r="A62" s="44" t="s">
+        <v>165</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -8651,13 +8657,13 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F62" t="s">
         <v>36</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="b">
         <v>1</v>
@@ -8684,7 +8690,7 @@
         <v>4</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" t="b">
         <v>0</v>
@@ -8738,13 +8744,13 @@
         <v>27</v>
       </c>
       <c r="AH62" t="s">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="AI62">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AJ62">
-        <v>5.9700000000000003E-2</v>
+        <v>7.9699999999999993E-2</v>
       </c>
       <c r="AK62" s="7">
         <v>0.12</v>
@@ -8762,20 +8768,146 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="AP62" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ62">
-        <v>56234303948</v>
+        <v>49023834209</v>
+      </c>
+      <c r="AQ62" s="25">
+        <v>56293901808</v>
       </c>
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A63" s="41"/>
-      <c r="AK63" s="7"/>
-      <c r="AP63" s="25"/>
+      <c r="A63" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>199</v>
+      </c>
+      <c r="F63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>2017</v>
+      </c>
+      <c r="N63" t="b">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>4</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="b">
+        <v>0</v>
+      </c>
+      <c r="R63" t="b">
+        <v>1</v>
+      </c>
+      <c r="S63" t="b">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>0.02</v>
+      </c>
+      <c r="U63">
+        <v>-0.02</v>
+      </c>
+      <c r="V63" t="b">
+        <v>1</v>
+      </c>
+      <c r="W63" t="s">
+        <v>4</v>
+      </c>
+      <c r="X63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB63">
+        <v>24</v>
+      </c>
+      <c r="AC63">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AD63">
+        <v>10</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI63">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AJ63">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AK63" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN63">
+        <v>0.499</v>
+      </c>
+      <c r="AO63">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AP63" s="25">
+        <v>49023834209</v>
+      </c>
+      <c r="AQ63" s="25">
+        <v>56293901808</v>
+      </c>
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A64" s="37" t="s">
-        <v>182</v>
+      <c r="A64" s="41" t="s">
+        <v>188</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
@@ -8787,13 +8919,13 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="F64" t="s">
         <v>36</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -8808,7 +8940,7 @@
         <v>1</v>
       </c>
       <c r="L64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64">
         <v>2017</v>
@@ -8820,7 +8952,7 @@
         <v>4</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64" t="b">
         <v>0</v>
@@ -8874,22 +9006,22 @@
         <v>27</v>
       </c>
       <c r="AH64" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="AI64">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AJ64">
-        <v>7.9699999999999993E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="AK64" s="7">
         <v>0.12</v>
       </c>
       <c r="AL64" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="AM64" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="AN64">
         <v>0.499</v>
@@ -8898,146 +9030,20 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="AP64" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ64">
-        <v>56234303948</v>
+        <v>49023834209</v>
+      </c>
+      <c r="AQ64" s="25">
+        <v>56293901808</v>
       </c>
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A65" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B65" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>163</v>
-      </c>
-      <c r="F65" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65" t="b">
-        <v>1</v>
-      </c>
-      <c r="L65" t="b">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>2017</v>
-      </c>
-      <c r="N65" t="b">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>4</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="b">
-        <v>0</v>
-      </c>
-      <c r="R65" t="b">
-        <v>1</v>
-      </c>
-      <c r="S65" t="b">
-        <v>1</v>
-      </c>
-      <c r="T65">
-        <v>0.02</v>
-      </c>
-      <c r="U65">
-        <v>-0.02</v>
-      </c>
-      <c r="V65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W65" t="s">
-        <v>4</v>
-      </c>
-      <c r="X65" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y65" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB65">
-        <v>24</v>
-      </c>
-      <c r="AC65">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AD65">
-        <v>10</v>
-      </c>
-      <c r="AE65">
-        <v>0</v>
-      </c>
-      <c r="AF65" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG65" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH65" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI65">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AJ65">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AK65" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AL65" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM65" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN65">
-        <v>0.499</v>
-      </c>
-      <c r="AO65">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AP65" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ65">
-        <v>56234303948</v>
-      </c>
+      <c r="A65" s="41"/>
+      <c r="AK65" s="7"/>
+      <c r="AP65" s="25"/>
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
@@ -9082,7 +9088,7 @@
         <v>4</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66" t="b">
         <v>0</v>
@@ -9136,13 +9142,13 @@
         <v>27</v>
       </c>
       <c r="AH66" t="s">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="AI66">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AJ66">
-        <v>5.9700000000000003E-2</v>
+        <v>7.9699999999999993E-2</v>
       </c>
       <c r="AK66" s="7">
         <v>0.12</v>
@@ -9160,20 +9166,146 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="AP66" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ66">
-        <v>56234303948</v>
+        <v>49023834209</v>
+      </c>
+      <c r="AQ66" s="25">
+        <v>56293901808</v>
       </c>
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
-      <c r="AK67" s="7"/>
-      <c r="AP67" s="25"/>
+      <c r="A67" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>163</v>
+      </c>
+      <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>2017</v>
+      </c>
+      <c r="N67" t="b">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>4</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="b">
+        <v>0</v>
+      </c>
+      <c r="R67" t="b">
+        <v>1</v>
+      </c>
+      <c r="S67" t="b">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>0.02</v>
+      </c>
+      <c r="U67">
+        <v>-0.02</v>
+      </c>
+      <c r="V67" t="b">
+        <v>1</v>
+      </c>
+      <c r="W67" t="s">
+        <v>4</v>
+      </c>
+      <c r="X67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB67">
+        <v>24</v>
+      </c>
+      <c r="AC67">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AD67">
+        <v>10</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI67">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AJ67">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AK67" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN67">
+        <v>0.499</v>
+      </c>
+      <c r="AO67">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AP67" s="25">
+        <v>49023834209</v>
+      </c>
+      <c r="AQ67" s="25">
+        <v>56293901808</v>
+      </c>
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A68" s="37" t="s">
-        <v>178</v>
+      <c r="A68" s="41" t="s">
+        <v>186</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
@@ -9185,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F68" t="s">
         <v>36</v>
@@ -9206,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="L68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68">
         <v>2017</v>
@@ -9215,10 +9347,10 @@
         <v>1</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68" t="b">
         <v>0</v>
@@ -9272,13 +9404,13 @@
         <v>27</v>
       </c>
       <c r="AH68" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="AI68">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AJ68">
-        <v>7.9699999999999993E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="AK68" s="7">
         <v>0.12</v>
@@ -9296,146 +9428,18 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="AP68" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ68">
-        <v>56234303948</v>
+        <v>49023834209</v>
+      </c>
+      <c r="AQ68" s="25">
+        <v>56293901808</v>
       </c>
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A69" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="B69" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>181</v>
-      </c>
-      <c r="F69" t="s">
-        <v>36</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="b">
-        <v>1</v>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="b">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>2017</v>
-      </c>
-      <c r="N69" t="b">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="b">
-        <v>0</v>
-      </c>
-      <c r="R69" t="b">
-        <v>1</v>
-      </c>
-      <c r="S69" t="b">
-        <v>1</v>
-      </c>
-      <c r="T69">
-        <v>0.02</v>
-      </c>
-      <c r="U69">
-        <v>-0.02</v>
-      </c>
-      <c r="V69" t="b">
-        <v>1</v>
-      </c>
-      <c r="W69" t="s">
-        <v>4</v>
-      </c>
-      <c r="X69" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y69" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB69">
-        <v>24</v>
-      </c>
-      <c r="AC69">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AD69">
-        <v>10</v>
-      </c>
-      <c r="AE69">
-        <v>0</v>
-      </c>
-      <c r="AF69" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG69" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH69" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI69">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AJ69">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AK69" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AL69" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM69" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN69">
-        <v>0.499</v>
-      </c>
-      <c r="AO69">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AP69" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ69">
-        <v>56234303948</v>
-      </c>
+      <c r="A69" s="41"/>
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70" s="41" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B70" t="s">
         <v>21</v>
@@ -9447,13 +9451,13 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F70" t="s">
         <v>36</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
@@ -9480,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" t="b">
         <v>0</v>
@@ -9534,13 +9538,13 @@
         <v>27</v>
       </c>
       <c r="AH70" t="s">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="AI70">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="AJ70">
-        <v>5.9700000000000003E-2</v>
+        <v>7.9699999999999993E-2</v>
       </c>
       <c r="AK70" s="7">
         <v>0.12</v>
@@ -9558,20 +9562,146 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="AP70" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ70">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="71" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="41"/>
-      <c r="AK71" s="7"/>
-      <c r="AP71" s="25"/>
+        <v>49023834209</v>
+      </c>
+      <c r="AQ70" s="25">
+        <v>56293901808</v>
+      </c>
+    </row>
+    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A71" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>2017</v>
+      </c>
+      <c r="N71" t="b">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="b">
+        <v>0</v>
+      </c>
+      <c r="R71" t="b">
+        <v>1</v>
+      </c>
+      <c r="S71" t="b">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <v>0.02</v>
+      </c>
+      <c r="U71">
+        <v>-0.02</v>
+      </c>
+      <c r="V71" t="b">
+        <v>1</v>
+      </c>
+      <c r="W71" t="s">
+        <v>4</v>
+      </c>
+      <c r="X71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB71">
+        <v>24</v>
+      </c>
+      <c r="AC71">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AD71">
+        <v>10</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI71">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AJ71">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AK71" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN71">
+        <v>0.499</v>
+      </c>
+      <c r="AO71">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AP71" s="25">
+        <v>49023834209</v>
+      </c>
+      <c r="AQ71" s="25">
+        <v>56293901808</v>
+      </c>
     </row>
     <row r="72" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A72" s="45" t="s">
-        <v>202</v>
+      <c r="A72" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="B72" t="s">
         <v>21</v>
@@ -9583,7 +9713,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
         <v>36</v>
@@ -9613,10 +9743,10 @@
         <v>1</v>
       </c>
       <c r="O72">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72" t="b">
         <v>0</v>
@@ -9670,22 +9800,22 @@
         <v>27</v>
       </c>
       <c r="AH72" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="AI72">
-        <v>7.2499999999999995E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AJ72">
-        <v>7.9699999999999993E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="AK72" s="7">
         <v>0.12</v>
       </c>
       <c r="AL72" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="AM72" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="AN72">
         <v>0.499</v>
@@ -9694,149 +9824,149 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="AP72" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ72">
-        <v>56234303948</v>
+        <v>49023834209</v>
+      </c>
+      <c r="AQ72" s="25">
+        <v>56293901808</v>
       </c>
     </row>
     <row r="73" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A73" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="A73" s="41"/>
+    </row>
+    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A74" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" t="s">
         <v>21</v>
       </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>204</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" t="s">
         <v>36</v>
       </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="b">
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73" t="b">
-        <v>1</v>
-      </c>
-      <c r="L73" t="b">
-        <v>0</v>
-      </c>
-      <c r="M73">
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74">
         <v>2017</v>
       </c>
-      <c r="N73" t="b">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>5</v>
-      </c>
-      <c r="P73" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="b">
-        <v>0</v>
-      </c>
-      <c r="R73" t="b">
-        <v>1</v>
-      </c>
-      <c r="S73" t="b">
-        <v>1</v>
-      </c>
-      <c r="T73">
+      <c r="N74" t="b">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="b">
+        <v>0</v>
+      </c>
+      <c r="R74" t="b">
+        <v>1</v>
+      </c>
+      <c r="S74" t="b">
+        <v>1</v>
+      </c>
+      <c r="T74">
         <v>0.02</v>
       </c>
-      <c r="U73">
+      <c r="U74">
         <v>-0.02</v>
       </c>
-      <c r="V73" t="b">
-        <v>1</v>
-      </c>
-      <c r="W73" t="s">
+      <c r="V74" t="b">
+        <v>1</v>
+      </c>
+      <c r="W74" t="s">
         <v>4</v>
       </c>
-      <c r="X73" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y73" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z73" t="s">
+      <c r="X74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z74" t="s">
         <v>28</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AA74" t="s">
         <v>64</v>
       </c>
-      <c r="AB73">
+      <c r="AB74">
         <v>24</v>
       </c>
-      <c r="AC73">
+      <c r="AC74">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AD73">
+      <c r="AD74">
         <v>10</v>
       </c>
-      <c r="AE73">
-        <v>0</v>
-      </c>
-      <c r="AF73" t="s">
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74" t="s">
         <v>37</v>
       </c>
-      <c r="AG73" t="s">
+      <c r="AG74" t="s">
         <v>27</v>
       </c>
-      <c r="AH73" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI73">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AJ73">
+      <c r="AH74" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI74">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AJ74">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AK73" s="7">
+      <c r="AK74" s="7">
         <v>0.12</v>
       </c>
-      <c r="AL73" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM73" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN73">
+      <c r="AL74" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN74">
         <v>0.499</v>
       </c>
-      <c r="AO73">
+      <c r="AO74">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AP73" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ73">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
-    </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A75" s="41" t="s">
-        <v>194</v>
+      <c r="AP74" s="25">
+        <v>49023834209</v>
+      </c>
+      <c r="AQ74" s="25">
+        <v>56293901808</v>
+      </c>
+    </row>
+    <row r="75" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="45" t="s">
+        <v>193</v>
       </c>
       <c r="B75" t="s">
         <v>21</v>
@@ -9848,7 +9978,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="F75" t="s">
         <v>36</v>
@@ -9881,7 +10011,7 @@
         <v>4</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75" t="b">
         <v>0</v>
@@ -9959,148 +10089,22 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="AP75" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ75">
-        <v>56234303948</v>
-      </c>
-    </row>
-    <row r="76" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="B76" t="s">
-        <v>21</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76" t="s">
-        <v>214</v>
-      </c>
-      <c r="F76" t="s">
-        <v>36</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" t="b">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>2017</v>
-      </c>
-      <c r="N76" t="b">
-        <v>1</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="b">
-        <v>0</v>
-      </c>
-      <c r="R76" t="b">
-        <v>1</v>
-      </c>
-      <c r="S76" t="b">
-        <v>1</v>
-      </c>
-      <c r="T76">
-        <v>0.02</v>
-      </c>
-      <c r="U76">
-        <v>-0.02</v>
-      </c>
-      <c r="V76" t="b">
-        <v>1</v>
-      </c>
-      <c r="W76" t="s">
-        <v>4</v>
-      </c>
-      <c r="X76" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y76" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB76">
-        <v>24</v>
-      </c>
-      <c r="AC76">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AD76">
-        <v>10</v>
-      </c>
-      <c r="AE76">
-        <v>0</v>
-      </c>
-      <c r="AF76" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG76" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH76" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI76">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AJ76">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="AK76" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AL76" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM76" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN76">
-        <v>0.499</v>
-      </c>
-      <c r="AO76">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="AP76" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ76">
-        <v>56234303948</v>
-      </c>
+        <v>49023834209</v>
+      </c>
+      <c r="AQ75" s="25">
+        <v>56293901808</v>
+      </c>
+    </row>
+    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AK76" s="7"/>
+      <c r="AP76" s="25"/>
+      <c r="AQ76" s="25"/>
     </row>
     <row r="77" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A77" s="43"/>
+      <c r="A77" s="42"/>
     </row>
     <row r="78" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A78" s="43" t="s">
+      <c r="A78" s="42" t="s">
         <v>190</v>
       </c>
       <c r="B78" t="s">
@@ -10224,14 +10228,14 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="AP78" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ78">
-        <v>56234303948</v>
+        <v>49023834209</v>
+      </c>
+      <c r="AQ78" s="25">
+        <v>56293901808</v>
       </c>
     </row>
     <row r="79" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B79" t="s">
@@ -10353,6 +10357,12 @@
       </c>
       <c r="AO79">
         <v>0.57299999999999995</v>
+      </c>
+      <c r="AP79" s="25">
+        <v>49023834209</v>
+      </c>
+      <c r="AQ79" s="25">
+        <v>56293901808</v>
       </c>
     </row>
     <row r="81" spans="1:43" x14ac:dyDescent="0.25">
@@ -10480,18 +10490,144 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="AP81" s="25">
-        <v>48971933106</v>
-      </c>
-      <c r="AQ81">
-        <v>56234303948</v>
+        <v>49023834209</v>
+      </c>
+      <c r="AQ81" s="25">
+        <v>56293901808</v>
+      </c>
+    </row>
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AP82" s="25"/>
+      <c r="AQ82" s="25"/>
+    </row>
+    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A83" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>36</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>8</v>
+      </c>
+      <c r="K83" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>2017</v>
+      </c>
+      <c r="N83" t="b">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="b">
+        <v>0</v>
+      </c>
+      <c r="R83" t="b">
+        <v>1</v>
+      </c>
+      <c r="S83" t="b">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>0.02</v>
+      </c>
+      <c r="U83">
+        <v>-0.02</v>
+      </c>
+      <c r="V83" t="b">
+        <v>1</v>
+      </c>
+      <c r="W83" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB83">
+        <v>24</v>
+      </c>
+      <c r="AC83">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AD83">
+        <v>10</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI83">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AJ83">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AK83" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN83">
+        <v>0.499</v>
+      </c>
+      <c r="AO83">
+        <v>0.57299999999999995</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:I13 H40:I43 H45:I51 G78:I79 H57:I73 G81:I81 H32:I38 H75:I76 G53:I55 G29:I30 H15:I20 G56:G76 H22:I27 G31:G52 G5:G28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:I13 H62:I68 G78:I79 G81:I81 H32:I38 G29:I30 H15:I20 H22:I27 G83:I83 H74:I76 H70:I72 G5:G28 H40:I60 G31:G76">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG22:AG27 AG15:AG20 AG5:AG13 AG29:AG30 AG75:AG76 AG45:AG51 AG40:AG43 AG78:AG79 AG53:AG55 AG57:AG73 AG32:AG38 AG81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG22:AG27 AG15:AG20 AG5:AG13 AG29:AG30 AG62:AG68 AG78:AG79 AG70:AG72 AG32:AG38 AG81 AG83 AG40:AG60 AG74:AG76">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10906,7 +11042,7 @@
   <dimension ref="B1:F66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10958,11 +11094,11 @@
         <v>55.31</v>
       </c>
       <c r="D4" s="16">
-        <v>55.38</v>
+        <v>55.49</v>
       </c>
       <c r="E4" s="17">
         <f t="shared" ref="E4:E17" si="0">D4/C4</f>
-        <v>1.0012655939251491</v>
+        <v>1.003254384378955</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11006,11 +11142,11 @@
       </c>
       <c r="D7" s="10">
         <f>SUM(D4:D6)</f>
-        <v>98.13</v>
+        <v>98.240000000000009</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>0.98139813981398127</v>
+        <v>0.98249824982498246</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11021,11 +11157,11 @@
         <v>57.39</v>
       </c>
       <c r="D8" s="16">
-        <v>56.2</v>
+        <v>56.3</v>
       </c>
       <c r="E8" s="17">
         <f t="shared" si="0"/>
-        <v>0.97926468025788471</v>
+        <v>0.98100714410175982</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11036,11 +11172,11 @@
         <v>49.96</v>
       </c>
       <c r="D9" s="16">
-        <v>49</v>
+        <v>49.02</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="0"/>
-        <v>0.98078462770216168</v>
+        <v>0.98118494795836675</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1296,7 +1296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1377,6 +1377,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1388,6 +1389,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2891,15 +2893,15 @@
   <dimension ref="A4:AQ83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G86" sqref="G86"/>
+      <selection pane="bottomRight" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="43" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="44" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
@@ -2935,7 +2937,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3066,7 +3068,7 @@
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>60</v>
       </c>
       <c r="B5" t="s">
@@ -3188,7 +3190,7 @@
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>61</v>
       </c>
       <c r="B6" t="s">
@@ -3316,7 +3318,7 @@
       <c r="AK7" s="7"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>101</v>
       </c>
       <c r="B8" t="s">
@@ -3560,7 +3562,7 @@
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="37" t="s">
         <v>103</v>
       </c>
       <c r="B10" t="s">
@@ -3576,7 +3578,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -3682,7 +3684,7 @@
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="37" t="s">
         <v>104</v>
       </c>
       <c r="B11" t="s">
@@ -3698,7 +3700,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -4176,7 +4178,7 @@
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="37" t="s">
         <v>108</v>
       </c>
       <c r="B16" t="s">
@@ -4192,7 +4194,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -4298,7 +4300,7 @@
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="37" t="s">
         <v>109</v>
       </c>
       <c r="B17" t="s">
@@ -4314,7 +4316,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -4420,7 +4422,7 @@
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="37" t="s">
         <v>110</v>
       </c>
       <c r="B18" t="s">
@@ -4436,7 +4438,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -4911,7 +4913,7 @@
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="37" t="s">
         <v>112</v>
       </c>
       <c r="B23" t="s">
@@ -4927,7 +4929,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -5033,7 +5035,7 @@
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="37" t="s">
         <v>113</v>
       </c>
       <c r="B24" t="s">
@@ -5049,7 +5051,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -5155,7 +5157,7 @@
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="37" t="s">
         <v>114</v>
       </c>
       <c r="B25" t="s">
@@ -5171,7 +5173,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -5533,7 +5535,7 @@
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="37" t="s">
         <v>122</v>
       </c>
       <c r="B29" t="s">
@@ -5549,7 +5551,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -5780,7 +5782,7 @@
       <c r="A31" s="41"/>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="37" t="s">
         <v>125</v>
       </c>
       <c r="B32" t="s">
@@ -5796,7 +5798,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
@@ -6024,7 +6026,7 @@
       </c>
     </row>
     <row r="34" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>127</v>
       </c>
       <c r="B34" t="s">
@@ -6040,7 +6042,7 @@
         <v>36</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -6146,7 +6148,7 @@
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+      <c r="A35" s="43"/>
       <c r="AK35" s="7"/>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
@@ -6525,7 +6527,7 @@
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="44" t="s">
         <v>167</v>
       </c>
       <c r="B40" t="s">
@@ -6656,7 +6658,7 @@
       </c>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="44" t="s">
         <v>168</v>
       </c>
       <c r="B41" t="s">
@@ -6787,7 +6789,7 @@
       </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="44" t="s">
         <v>169</v>
       </c>
       <c r="B42" t="s">
@@ -6922,7 +6924,7 @@
       <c r="AP43" s="25"/>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="42" t="s">
         <v>179</v>
       </c>
       <c r="B44" t="s">
@@ -7053,7 +7055,7 @@
       </c>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="37" t="s">
         <v>175</v>
       </c>
       <c r="B45" t="s">
@@ -7072,7 +7074,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="b">
         <v>1</v>
@@ -7320,7 +7322,7 @@
       <c r="AP47" s="25"/>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="37" t="s">
         <v>182</v>
       </c>
       <c r="B48" t="s">
@@ -7339,7 +7341,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
@@ -7451,7 +7453,7 @@
       </c>
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="37" t="s">
         <v>177</v>
       </c>
       <c r="B49" t="s">
@@ -7470,7 +7472,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="b">
         <v>1</v>
@@ -7718,7 +7720,7 @@
       <c r="AP51" s="25"/>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="37" t="s">
         <v>178</v>
       </c>
       <c r="B52" t="s">
@@ -7737,7 +7739,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
@@ -7849,7 +7851,7 @@
       </c>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="37" t="s">
         <v>176</v>
       </c>
       <c r="B53" t="s">
@@ -7868,7 +7870,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
@@ -8116,7 +8118,7 @@
       <c r="AP55" s="25"/>
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A56" s="44" t="s">
+      <c r="A56" s="45" t="s">
         <v>202</v>
       </c>
       <c r="B56" t="s">
@@ -8381,7 +8383,7 @@
       <c r="A58" s="41"/>
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="37" t="s">
         <v>194</v>
       </c>
       <c r="B59" t="s">
@@ -8400,7 +8402,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
@@ -8512,7 +8514,7 @@
       </c>
     </row>
     <row r="60" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="50" t="s">
         <v>195</v>
       </c>
       <c r="B60" t="s">
@@ -8531,7 +8533,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
@@ -8644,7 +8646,7 @@
     </row>
     <row r="61" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A62" s="44" t="s">
+      <c r="A62" s="42" t="s">
         <v>165</v>
       </c>
       <c r="B62" t="s">
@@ -8663,7 +8665,7 @@
         <v>36</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="b">
         <v>1</v>
@@ -8775,7 +8777,7 @@
       </c>
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A63" s="41" t="s">
+      <c r="A63" s="37" t="s">
         <v>166</v>
       </c>
       <c r="B63" t="s">
@@ -8794,7 +8796,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -9438,7 +9440,7 @@
       <c r="A69" s="41"/>
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="37" t="s">
         <v>173</v>
       </c>
       <c r="B70" t="s">
@@ -9457,7 +9459,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
@@ -9569,7 +9571,7 @@
       </c>
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="37" t="s">
         <v>174</v>
       </c>
       <c r="B71" t="s">
@@ -9588,7 +9590,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -9965,7 +9967,7 @@
       </c>
     </row>
     <row r="75" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="45" t="s">
+      <c r="A75" s="46" t="s">
         <v>193</v>
       </c>
       <c r="B75" t="s">
@@ -10101,10 +10103,10 @@
       <c r="AQ76" s="25"/>
     </row>
     <row r="77" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
+      <c r="A77" s="43"/>
     </row>
     <row r="78" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="43" t="s">
         <v>190</v>
       </c>
       <c r="B78" t="s">
@@ -10235,7 +10237,7 @@
       </c>
     </row>
     <row r="79" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="43" t="s">
         <v>191</v>
       </c>
       <c r="B79" t="s">
@@ -10624,7 +10626,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:I13 H62:I68 G78:I79 G81:I81 H32:I38 G29:I30 H15:I20 H22:I27 G83:I83 H74:I76 H70:I72 G5:G28 H40:I60 G31:G76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:I13 H62:I68 G78:I79 G81:I81 H32:I38 H15:I20 H22:I27 G83:I83 H74:I76 H70:I72 G5:G76 H40:I60 H29:I30">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG22:AG27 AG15:AG20 AG5:AG13 AG29:AG30 AG62:AG68 AG78:AG79 AG70:AG72 AG32:AG38 AG81 AG83 AG40:AG60 AG74:AG76">
@@ -11938,11 +11940,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="27"/>
@@ -12009,11 +12011,11 @@
       <c r="D8" s="29"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="27"/>
@@ -12105,11 +12107,11 @@
       <c r="N30" s="26"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
       <c r="N31" s="26"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
